--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA65349-5AD8-4610-AEC9-A34227FE8FFF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18080" windowHeight="8180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -21,17 +22,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$DH$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題整理_0609!$B$7:$M$31</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="CO32" authorId="0">
+    <comment ref="CO32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -4127,7 +4128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -5451,7 +5452,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5530,7 +5531,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5645,7 +5646,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5687,7 +5688,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5720,9 +5721,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5755,6 +5773,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5930,18 +5965,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="28" t="s">
         <v>124</v>
       </c>
@@ -5949,7 +5984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="18">
         <v>3</v>
       </c>
@@ -5957,7 +5992,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="18">
         <v>4</v>
       </c>
@@ -5965,7 +6000,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="18">
         <v>5</v>
       </c>
@@ -5973,7 +6008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="18">
         <v>6</v>
       </c>
@@ -5982,7 +6017,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="18">
         <v>7</v>
       </c>
@@ -5991,7 +6026,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="18">
         <v>8</v>
       </c>
@@ -6000,7 +6035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
         <v>125</v>
       </c>
@@ -6016,37 +6051,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:DE94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="CH16" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="CO16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="CO32" sqref="CO32"/>
+      <selection pane="bottomRight" activeCell="CO31" sqref="CO31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="3" width="2.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="2" max="3" width="2.36328125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="8" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.125" customWidth="1"/>
+    <col min="12" max="12" width="32.08984375" customWidth="1"/>
     <col min="13" max="13" width="10" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="108" width="7.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.90625" customWidth="1"/>
+    <col min="15" max="108" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="3.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:109" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:109" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="H1" s="8"/>
@@ -6151,7 +6186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:109" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:109" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
@@ -6258,7 +6293,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:109" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:109" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
@@ -6366,7 +6401,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:109" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:109" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
@@ -6474,7 +6509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:109" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:109" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="H5" s="8"/>
@@ -6579,7 +6614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:109" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:109" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>149</v>
       </c>
@@ -6686,7 +6721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:109" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:109" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>160</v>
@@ -6795,7 +6830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:109" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:109" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="H8" s="8"/>
@@ -6900,7 +6935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:109" x14ac:dyDescent="0.2">
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -6999,7 +7034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:109" x14ac:dyDescent="0.2">
       <c r="L10" s="7"/>
       <c r="O10" s="29">
         <v>43252</v>
@@ -7017,7 +7052,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:109" x14ac:dyDescent="0.2">
       <c r="O11" s="9">
         <f>O10</f>
         <v>43252</v>
@@ -7398,7 +7433,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:109" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:109" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="80" t="s">
         <v>0</v>
       </c>
@@ -7807,7 +7842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B13" s="30">
         <v>1</v>
       </c>
@@ -7939,7 +7974,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="42" t="s">
@@ -8062,7 +8097,7 @@
       <c r="DC14" s="11"/>
       <c r="DD14" s="11"/>
     </row>
-    <row r="15" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="42"/>
@@ -8175,7 +8210,7 @@
       <c r="DC15" s="11"/>
       <c r="DD15" s="11"/>
     </row>
-    <row r="16" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="42"/>
@@ -8286,7 +8321,7 @@
       <c r="DC16" s="11"/>
       <c r="DD16" s="11"/>
     </row>
-    <row r="17" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="42"/>
@@ -8410,7 +8445,7 @@
       <c r="DC17" s="11"/>
       <c r="DD17" s="11"/>
     </row>
-    <row r="18" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="42"/>
@@ -8532,7 +8567,7 @@
       <c r="DC18" s="11"/>
       <c r="DD18" s="11"/>
     </row>
-    <row r="19" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="42"/>
@@ -8654,7 +8689,7 @@
       <c r="DC19" s="11"/>
       <c r="DD19" s="11"/>
     </row>
-    <row r="20" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="42"/>
@@ -8782,7 +8817,7 @@
       <c r="DC20" s="11"/>
       <c r="DD20" s="11"/>
     </row>
-    <row r="21" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="42"/>
@@ -8904,7 +8939,7 @@
       <c r="DC21" s="11"/>
       <c r="DD21" s="11"/>
     </row>
-    <row r="22" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="42"/>
@@ -9028,7 +9063,7 @@
       <c r="DC22" s="11"/>
       <c r="DD22" s="11"/>
     </row>
-    <row r="23" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="42"/>
@@ -9150,7 +9185,7 @@
       <c r="DC23" s="11"/>
       <c r="DD23" s="11"/>
     </row>
-    <row r="24" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="42"/>
@@ -9272,7 +9307,7 @@
       <c r="DC24" s="11"/>
       <c r="DD24" s="11"/>
     </row>
-    <row r="25" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="42"/>
@@ -9383,7 +9418,7 @@
       <c r="DC25" s="11"/>
       <c r="DD25" s="11"/>
     </row>
-    <row r="26" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="42"/>
@@ -9494,7 +9529,7 @@
       <c r="DC26" s="11"/>
       <c r="DD26" s="11"/>
     </row>
-    <row r="27" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B27" s="30"/>
       <c r="C27" s="30">
         <v>2</v>
@@ -9620,7 +9655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="42"/>
@@ -9744,7 +9779,7 @@
       <c r="DC28" s="11"/>
       <c r="DD28" s="11"/>
     </row>
-    <row r="29" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="42"/>
@@ -9866,7 +9901,7 @@
       <c r="DC29" s="11"/>
       <c r="DD29" s="11"/>
     </row>
-    <row r="30" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="42"/>
@@ -9994,7 +10029,7 @@
       <c r="DC30" s="11"/>
       <c r="DD30" s="11"/>
     </row>
-    <row r="31" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="42"/>
@@ -10116,7 +10151,7 @@
       <c r="DC31" s="11"/>
       <c r="DD31" s="11"/>
     </row>
-    <row r="32" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="42"/>
@@ -10267,7 +10302,7 @@
       <c r="DC32" s="11"/>
       <c r="DD32" s="11"/>
     </row>
-    <row r="33" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="42"/>
@@ -10389,7 +10424,7 @@
       <c r="DC33" s="11"/>
       <c r="DD33" s="11"/>
     </row>
-    <row r="34" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="42"/>
@@ -10513,7 +10548,7 @@
       <c r="DC34" s="11"/>
       <c r="DD34" s="11"/>
     </row>
-    <row r="35" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="42"/>
@@ -10635,7 +10670,7 @@
       <c r="DC35" s="11"/>
       <c r="DD35" s="11"/>
     </row>
-    <row r="36" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="42"/>
@@ -10761,7 +10796,7 @@
       <c r="DC36" s="11"/>
       <c r="DD36" s="11"/>
     </row>
-    <row r="37" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="42"/>
@@ -10883,7 +10918,7 @@
       <c r="DC37" s="11"/>
       <c r="DD37" s="11"/>
     </row>
-    <row r="38" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="42"/>
@@ -11005,7 +11040,7 @@
       <c r="DC38" s="11"/>
       <c r="DD38" s="11"/>
     </row>
-    <row r="39" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="42"/>
@@ -11127,7 +11162,7 @@
       <c r="DC39" s="11"/>
       <c r="DD39" s="11"/>
     </row>
-    <row r="40" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="42"/>
@@ -11238,7 +11273,7 @@
       <c r="DC40" s="11"/>
       <c r="DD40" s="11"/>
     </row>
-    <row r="41" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B41" s="30"/>
       <c r="C41" s="30">
         <v>3</v>
@@ -11363,7 +11398,7 @@
       <c r="DC41" s="11"/>
       <c r="DD41" s="11"/>
     </row>
-    <row r="42" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="42"/>
@@ -11474,7 +11509,7 @@
       <c r="DC42" s="11"/>
       <c r="DD42" s="11"/>
     </row>
-    <row r="43" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="42"/>
@@ -11595,7 +11630,7 @@
       <c r="DC43" s="11"/>
       <c r="DD43" s="11"/>
     </row>
-    <row r="44" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="42"/>
@@ -11706,7 +11741,7 @@
       <c r="DC44" s="11"/>
       <c r="DD44" s="11"/>
     </row>
-    <row r="45" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="42"/>
@@ -11825,7 +11860,7 @@
       <c r="DC45" s="11"/>
       <c r="DD45" s="11"/>
     </row>
-    <row r="46" spans="2:108" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:108" x14ac:dyDescent="0.2">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="42"/>
@@ -11942,7 +11977,7 @@
       <c r="DC46" s="11"/>
       <c r="DD46" s="11"/>
     </row>
-    <row r="47" spans="2:108" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:108" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="42"/>
@@ -12053,7 +12088,7 @@
       <c r="DC47" s="11"/>
       <c r="DD47" s="11"/>
     </row>
-    <row r="48" spans="2:108" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:108" ht="39" x14ac:dyDescent="0.2">
       <c r="B48" s="30">
         <v>2</v>
       </c>
@@ -12186,7 +12221,7 @@
       <c r="DC48" s="11"/>
       <c r="DD48" s="11"/>
     </row>
-    <row r="49" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="43"/>
@@ -12297,7 +12332,7 @@
       <c r="DC49" s="11"/>
       <c r="DD49" s="11"/>
     </row>
-    <row r="50" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="43"/>
@@ -12419,7 +12454,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="43"/>
@@ -12533,7 +12568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="43"/>
@@ -12659,7 +12694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="43"/>
@@ -12773,7 +12808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:109" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:109" ht="39" x14ac:dyDescent="0.2">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="43"/>
@@ -12895,7 +12930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="43"/>
@@ -13009,7 +13044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:109" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:109" ht="26" x14ac:dyDescent="0.2">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="43"/>
@@ -13141,7 +13176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
@@ -13255,7 +13290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="43"/>
@@ -13375,7 +13410,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="43"/>
@@ -13489,7 +13524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="4"/>
@@ -13603,7 +13638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="4"/>
@@ -13717,7 +13752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="4"/>
@@ -13831,7 +13866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="4"/>
@@ -13945,7 +13980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="4"/>
@@ -14059,7 +14094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:109" x14ac:dyDescent="0.2">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
       <c r="D65" s="5"/>
@@ -14173,7 +14208,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:109" x14ac:dyDescent="0.2">
       <c r="M66" s="45">
         <f>SUM(O66:DD66)</f>
         <v>106</v>
@@ -14558,12 +14593,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:109" x14ac:dyDescent="0.2">
       <c r="DE67" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:109" x14ac:dyDescent="0.2">
       <c r="E68" s="15"/>
       <c r="I68" s="8">
         <v>1.5</v>
@@ -14572,7 +14607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:109" x14ac:dyDescent="0.2">
       <c r="I69" s="8">
         <v>1</v>
       </c>
@@ -14580,12 +14615,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:109" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:109" x14ac:dyDescent="0.2">
       <c r="I70" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="81" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
@@ -14681,7 +14716,7 @@
       <c r="DC81"/>
       <c r="DD81"/>
     </row>
-    <row r="84" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="84" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -14777,7 +14812,7 @@
       <c r="DC84"/>
       <c r="DD84"/>
     </row>
-    <row r="85" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="85" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -14873,7 +14908,7 @@
       <c r="DC85"/>
       <c r="DD85"/>
     </row>
-    <row r="86" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="86" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -14969,7 +15004,7 @@
       <c r="DC86"/>
       <c r="DD86"/>
     </row>
-    <row r="87" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="87" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -15065,7 +15100,7 @@
       <c r="DC87"/>
       <c r="DD87"/>
     </row>
-    <row r="88" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="88" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -15161,7 +15196,7 @@
       <c r="DC88"/>
       <c r="DD88"/>
     </row>
-    <row r="89" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="89" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -15257,7 +15292,7 @@
       <c r="DC89"/>
       <c r="DD89"/>
     </row>
-    <row r="90" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="90" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -15353,7 +15388,7 @@
       <c r="DC90"/>
       <c r="DD90"/>
     </row>
-    <row r="91" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="91" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -15449,7 +15484,7 @@
       <c r="DC91"/>
       <c r="DD91"/>
     </row>
-    <row r="93" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="93" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -15545,7 +15580,7 @@
       <c r="DC93"/>
       <c r="DD93"/>
     </row>
-    <row r="94" spans="15:108" x14ac:dyDescent="0.15">
+    <row r="94" spans="15:108" x14ac:dyDescent="0.2">
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
@@ -15642,7 +15677,7 @@
       <c r="DD94"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:DH14">
+  <autoFilter ref="B12:DH14" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -15907,7 +15942,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -15920,33 +15955,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D37" sqref="D37"/>
       <selection pane="topRight" activeCell="D37" sqref="D37"/>
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.625" customWidth="1"/>
-    <col min="12" max="12" width="62.125" customWidth="1"/>
-    <col min="13" max="13" width="61.75" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="6" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.36328125" customWidth="1"/>
+    <col min="9" max="9" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.6328125" customWidth="1"/>
+    <col min="12" max="12" width="62.08984375" customWidth="1"/>
+    <col min="13" max="13" width="61.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>196</v>
       </c>
@@ -15954,21 +15989,21 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
     </row>
-    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>200</v>
       </c>
@@ -16006,7 +16041,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="63">
         <v>1</v>
       </c>
@@ -16038,7 +16073,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" ht="39" x14ac:dyDescent="0.2">
       <c r="B9" s="63">
         <v>2</v>
       </c>
@@ -16070,7 +16105,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="63">
         <v>3</v>
       </c>
@@ -16102,7 +16137,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="63">
         <v>4</v>
       </c>
@@ -16134,7 +16169,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="63">
         <v>5</v>
       </c>
@@ -16170,7 +16205,7 @@
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" ht="156" x14ac:dyDescent="0.2">
       <c r="B13" s="63">
         <v>6</v>
       </c>
@@ -16206,7 +16241,7 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" ht="104" x14ac:dyDescent="0.2">
       <c r="B14" s="63">
         <v>7</v>
       </c>
@@ -16238,7 +16273,7 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" ht="108" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" ht="104" x14ac:dyDescent="0.2">
       <c r="B15" s="63">
         <v>8</v>
       </c>
@@ -16274,7 +16309,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="63">
         <v>9</v>
       </c>
@@ -16306,7 +16341,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="63">
         <v>10</v>
       </c>
@@ -16338,7 +16373,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="63">
         <v>11</v>
       </c>
@@ -16374,7 +16409,7 @@
       </c>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="91" x14ac:dyDescent="0.2">
       <c r="B19" s="63">
         <v>12</v>
       </c>
@@ -16406,7 +16441,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="65" x14ac:dyDescent="0.2">
       <c r="B20" s="63">
         <v>13</v>
       </c>
@@ -16442,7 +16477,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="212.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="212.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="63">
         <v>14</v>
       </c>
@@ -16474,7 +16509,7 @@
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" ht="81" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="78" x14ac:dyDescent="0.2">
       <c r="B22" s="63">
         <v>15</v>
       </c>
@@ -16510,7 +16545,7 @@
       </c>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13" ht="52" x14ac:dyDescent="0.2">
       <c r="B23" s="63">
         <v>16</v>
       </c>
@@ -16542,7 +16577,7 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="240.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="63">
         <v>17</v>
       </c>
@@ -16578,7 +16613,7 @@
       </c>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="63">
         <v>18</v>
       </c>
@@ -16614,7 +16649,7 @@
       </c>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" ht="108" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="104" x14ac:dyDescent="0.2">
       <c r="B26" s="63">
         <v>19</v>
       </c>
@@ -16646,7 +16681,7 @@
       <c r="L26" s="75"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="65" x14ac:dyDescent="0.2">
       <c r="B27" s="63">
         <v>20</v>
       </c>
@@ -16682,7 +16717,7 @@
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" ht="270" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="260" x14ac:dyDescent="0.2">
       <c r="B28" s="63">
         <v>21</v>
       </c>
@@ -16712,7 +16747,7 @@
       <c r="L28" s="75"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="65" x14ac:dyDescent="0.2">
       <c r="B29" s="63">
         <v>22</v>
       </c>
@@ -16744,7 +16779,7 @@
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="63">
         <v>23</v>
       </c>
@@ -16780,7 +16815,7 @@
       </c>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="63">
         <v>24</v>
       </c>
@@ -16812,7 +16847,7 @@
       <c r="L31" s="75"/>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="63">
         <v>25</v>
       </c>
@@ -16844,7 +16879,7 @@
       <c r="L32" s="75"/>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B33" s="63">
         <v>26</v>
       </c>
@@ -16876,7 +16911,7 @@
       <c r="L33" s="75"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="63"/>
       <c r="C34" s="21"/>
       <c r="D34" s="76"/>
@@ -16890,7 +16925,7 @@
       <c r="L34" s="75"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="63"/>
       <c r="C35" s="21"/>
       <c r="D35" s="76"/>
@@ -16904,7 +16939,7 @@
       <c r="L35" s="75"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="63"/>
       <c r="C36" s="21"/>
       <c r="D36" s="76"/>
@@ -16918,7 +16953,7 @@
       <c r="L36" s="75"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="63"/>
       <c r="C37" s="21"/>
       <c r="D37" s="76"/>
@@ -16932,7 +16967,7 @@
       <c r="L37" s="75"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="63"/>
       <c r="C38" s="21"/>
       <c r="D38" s="18"/>
@@ -16946,17 +16981,17 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>272</v>
       </c>
@@ -16964,7 +16999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>273</v>
       </c>
@@ -16972,7 +17007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>272</v>
       </c>
@@ -16980,7 +17015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>274</v>
       </c>
@@ -16988,7 +17023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -16997,10 +17032,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>275</v>
       </c>
@@ -17008,10 +17043,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>276</v>
       </c>
@@ -17020,7 +17055,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>277</v>
       </c>
@@ -17029,11 +17064,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D56" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:M31"/>
+  <autoFilter ref="B7:M31" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B38:C38 B8:C28 E29:F30 E8:F27 E38:G38 E28 J8:M30 H8:I28 J38:M38">
     <cfRule type="expression" dxfId="42" priority="43">
@@ -17255,7 +17290,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
           </x14:formula1>
@@ -17268,12 +17303,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17281,46 +17316,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>283</v>
       </c>
@@ -17333,44 +17368,44 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="53" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="54" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="54"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="55"/>
     </row>
   </sheetData>
@@ -17380,22 +17415,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
-    <col min="3" max="3" width="52.375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="77.25" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="45.453125" customWidth="1"/>
+    <col min="3" max="3" width="52.36328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="77.26953125" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="51.5" customWidth="1"/>
+    <col min="6" max="6" width="51.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>31</v>
       </c>
@@ -17403,62 +17438,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
@@ -17466,7 +17501,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -17480,7 +17515,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -17498,7 +17533,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
@@ -17513,7 +17548,7 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
@@ -17525,7 +17560,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
@@ -17537,7 +17572,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="18" t="s">
         <v>59</v>
       </c>
@@ -17551,7 +17586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="52" x14ac:dyDescent="0.2">
       <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
@@ -17566,7 +17601,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="18" t="s">
         <v>65</v>
       </c>
@@ -17578,7 +17613,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
         <v>68</v>
       </c>
@@ -17593,7 +17628,7 @@
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
@@ -17605,7 +17640,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>71</v>
       </c>
@@ -17614,7 +17649,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
         <v>73</v>
       </c>
@@ -17626,7 +17661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
@@ -17641,7 +17676,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
         <v>76</v>
       </c>
@@ -17653,21 +17688,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -17675,7 +17710,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -17683,7 +17718,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -17691,7 +17726,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -17699,7 +17734,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40"/>
     </row>
@@ -17712,17 +17747,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -17730,7 +17765,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -17738,7 +17773,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>106</v>
       </c>
@@ -17746,7 +17781,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -17757,7 +17792,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I7" s="27" t="s">
         <v>120</v>
       </c>
@@ -17765,68 +17800,68 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C17" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>91</v>
       </c>
@@ -17834,27 +17869,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>96</v>
       </c>
@@ -17862,37 +17897,37 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>103</v>
       </c>
@@ -17903,7 +17938,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -17911,21 +17946,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17939,7 +17974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17950,7 +17985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -17961,7 +17996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17969,7 +18004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -17983,7 +18018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -17991,7 +18026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -18027,7 +18062,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -18038,62 +18073,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -18104,7 +18139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD7E513-B0D3-418D-A7DC-DF067E1C64D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18080" windowHeight="8180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -23,12 +24,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$EK$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題整理_0609!$B$7:$M$33</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="373">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -4644,11 +4645,25 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">0825 ポップアップの表示原理を理解した
+</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -5164,20 +5179,20 @@
     <xf numFmtId="176" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="579">
+  <dxfs count="174">
     <dxf>
       <fill>
         <patternFill>
@@ -6411,2886 +6426,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -9332,7 +6467,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9411,7 +6546,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9526,7 +6661,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9568,7 +6703,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9601,9 +6736,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9636,6 +6788,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9811,20 +6980,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="28" t="s">
         <v>124</v>
       </c>
@@ -9838,7 +7009,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="18">
         <v>3</v>
       </c>
@@ -9853,7 +7024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="18">
         <v>4</v>
       </c>
@@ -9864,11 +7035,11 @@
         <v>58</v>
       </c>
       <c r="E4" s="57">
-        <f t="shared" ref="E4:E10" si="0">ROUND(D4/6,0)</f>
+        <f t="shared" ref="E4:E9" si="0">ROUND(D4/6,0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="18">
         <v>5</v>
       </c>
@@ -9883,7 +7054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="18">
         <v>6</v>
       </c>
@@ -9900,7 +7071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="18">
         <v>7</v>
       </c>
@@ -9917,24 +7088,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="18">
         <v>8</v>
       </c>
       <c r="C8" s="57">
         <f>SUM(WBS!BX66:EF66)</f>
-        <v>30</v>
+        <v>33.5</v>
       </c>
       <c r="D8" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$66:$EG$66)</f>
-        <v>30</v>
+        <v>33.5</v>
       </c>
       <c r="E8" s="57">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="18">
         <v>9</v>
       </c>
@@ -9951,21 +7122,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="83" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="81" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="58">
         <f>SUM(C3:C8)</f>
-        <v>210.5</v>
+        <v>214</v>
       </c>
       <c r="D10" s="58">
         <f>SUM(D3:D8)</f>
-        <v>209.5</v>
+        <v>213</v>
       </c>
       <c r="E10" s="57">
         <f>ROUND(D10/6,0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -9975,17 +7146,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -9993,7 +7164,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -10001,7 +7172,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>106</v>
       </c>
@@ -10009,7 +7180,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -10020,7 +7191,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I7" s="27" t="s">
         <v>120</v>
       </c>
@@ -10028,68 +7199,68 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C17" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>91</v>
       </c>
@@ -10097,27 +7268,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>96</v>
       </c>
@@ -10125,37 +7296,37 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>103</v>
       </c>
@@ -10166,7 +7337,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -10174,21 +7345,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10202,7 +7373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10213,7 +7384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10224,7 +7395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10232,7 +7403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10246,7 +7417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10254,7 +7425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -10290,7 +7461,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -10301,62 +7472,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -10367,7 +7538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -10383,37 +7554,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:EH94"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="CU13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="CV38" sqref="CV38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="3" width="2.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="2" max="3" width="2.36328125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="8" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.125" customWidth="1"/>
+    <col min="12" max="12" width="32.08984375" customWidth="1"/>
     <col min="13" max="13" width="10" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="137" width="7.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.90625" customWidth="1"/>
+    <col min="15" max="137" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="3.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="H1" s="8"/>
@@ -10547,7 +7718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
@@ -10683,7 +7854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
@@ -10820,7 +7991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
@@ -10957,7 +8128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="H5" s="8"/>
@@ -11091,7 +8262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>149</v>
       </c>
@@ -11227,7 +8398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>159</v>
@@ -11365,7 +8536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="H8" s="8"/>
@@ -11499,7 +8670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -11627,7 +8798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:138" x14ac:dyDescent="0.2">
       <c r="L10" s="7"/>
       <c r="O10" s="29">
         <v>43252</v>
@@ -12002,7 +9173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O11" s="9">
         <f>O10</f>
         <v>43252</v>
@@ -12499,11 +9670,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:138" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="80" t="s">
+    <row r="12" spans="2:138" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="81"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="34" t="s">
         <v>28</v>
       </c>
@@ -13024,7 +10195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B13" s="30">
         <v>1</v>
       </c>
@@ -13055,7 +10226,7 @@
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="48">
-        <f>SUM(O13:EF13)</f>
+        <f t="shared" ref="M13:M44" si="58">SUM(O13:EF13)</f>
         <v>0</v>
       </c>
       <c r="O13" s="11"/>
@@ -13185,7 +10356,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="42" t="s">
@@ -13210,7 +10381,7 @@
       </c>
       <c r="L14" s="40"/>
       <c r="M14" s="48">
-        <f>SUM(O14:EF14)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O14" s="11"/>
@@ -13340,7 +10511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="42"/>
@@ -13355,7 +10526,7 @@
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
       <c r="M15" s="48">
-        <f>SUM(O15:EF15)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O15" s="11"/>
@@ -13485,7 +10656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="42"/>
@@ -13498,7 +10669,7 @@
       <c r="K16" s="52"/>
       <c r="L16" s="40"/>
       <c r="M16" s="48">
-        <f>SUM(O16:EF16)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O16" s="11"/>
@@ -13628,7 +10799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="42"/>
@@ -13655,7 +10826,7 @@
       </c>
       <c r="L17" s="40"/>
       <c r="M17" s="48">
-        <f>SUM(O17:EF17)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O17" s="11"/>
@@ -13785,7 +10956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="42"/>
@@ -13810,7 +10981,7 @@
       </c>
       <c r="L18" s="40"/>
       <c r="M18" s="48">
-        <f>SUM(O18:EF18)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O18" s="11"/>
@@ -13940,7 +11111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="42"/>
@@ -13965,7 +11136,7 @@
       </c>
       <c r="L19" s="40"/>
       <c r="M19" s="48">
-        <f>SUM(O19:EF19)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O19" s="11"/>
@@ -14095,7 +11266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="42"/>
@@ -14120,7 +11291,7 @@
       </c>
       <c r="L20" s="40"/>
       <c r="M20" s="48">
-        <f>SUM(O20:EF20)</f>
+        <f t="shared" si="58"/>
         <v>4</v>
       </c>
       <c r="O20" s="11"/>
@@ -14256,7 +11427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="42"/>
@@ -14281,7 +11452,7 @@
       </c>
       <c r="L21" s="40"/>
       <c r="M21" s="48">
-        <f>SUM(O21:EF21)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O21" s="11"/>
@@ -14411,7 +11582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="42"/>
@@ -14438,7 +11609,7 @@
         <v>164</v>
       </c>
       <c r="M22" s="48">
-        <f>SUM(O22:EF22)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O22" s="11"/>
@@ -14568,7 +11739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="42"/>
@@ -14593,7 +11764,7 @@
       </c>
       <c r="L23" s="40"/>
       <c r="M23" s="48">
-        <f>SUM(O23:EF23)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O23" s="11"/>
@@ -14723,7 +11894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="42"/>
@@ -14748,7 +11919,7 @@
       </c>
       <c r="L24" s="40"/>
       <c r="M24" s="48">
-        <f>SUM(O24:EF24)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O24" s="11"/>
@@ -14878,7 +12049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="42"/>
@@ -14891,7 +12062,7 @@
       <c r="K25" s="51"/>
       <c r="L25" s="40"/>
       <c r="M25" s="48">
-        <f>SUM(O25:EF25)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O25" s="11"/>
@@ -15021,7 +12192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="42"/>
@@ -15034,7 +12205,7 @@
       <c r="K26" s="40"/>
       <c r="L26" s="40"/>
       <c r="M26" s="48">
-        <f>SUM(O26:EF26)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O26" s="11"/>
@@ -15164,7 +12335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B27" s="30"/>
       <c r="C27" s="30">
         <v>2</v>
@@ -15189,7 +12360,7 @@
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
       <c r="M27" s="48">
-        <f>SUM(O27:EF27)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O27" s="11"/>
@@ -15319,7 +12490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="42"/>
@@ -15346,7 +12517,7 @@
       </c>
       <c r="L28" s="40"/>
       <c r="M28" s="48">
-        <f>SUM(O28:EF28)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O28" s="11"/>
@@ -15476,7 +12647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="42"/>
@@ -15501,7 +12672,7 @@
       </c>
       <c r="L29" s="40"/>
       <c r="M29" s="48">
-        <f>SUM(O29:EF29)</f>
+        <f t="shared" si="58"/>
         <v>0.5</v>
       </c>
       <c r="O29" s="11"/>
@@ -15633,7 +12804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="42"/>
@@ -15658,7 +12829,7 @@
       </c>
       <c r="L30" s="40"/>
       <c r="M30" s="48">
-        <f>SUM(O30:EF30)</f>
+        <f t="shared" si="58"/>
         <v>15.5</v>
       </c>
       <c r="O30" s="11"/>
@@ -15794,7 +12965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="42"/>
@@ -15819,7 +12990,7 @@
       </c>
       <c r="L31" s="40"/>
       <c r="M31" s="48">
-        <f>SUM(O31:EF31)</f>
+        <f t="shared" si="58"/>
         <v>0.5</v>
       </c>
       <c r="O31" s="11"/>
@@ -15951,7 +13122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="42"/>
@@ -15976,7 +13147,7 @@
       </c>
       <c r="L32" s="40"/>
       <c r="M32" s="48">
-        <f>SUM(O32:EF32)</f>
+        <f t="shared" si="58"/>
         <v>52</v>
       </c>
       <c r="O32" s="11"/>
@@ -16135,7 +13306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="42"/>
@@ -16160,7 +13331,7 @@
       </c>
       <c r="L33" s="40"/>
       <c r="M33" s="48">
-        <f>SUM(O33:EF33)</f>
+        <f t="shared" si="58"/>
         <v>3</v>
       </c>
       <c r="O33" s="11"/>
@@ -16292,7 +13463,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="42"/>
@@ -16317,7 +13488,7 @@
       </c>
       <c r="L34" s="40"/>
       <c r="M34" s="48">
-        <f>SUM(O34:EF34)</f>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="O34" s="11"/>
@@ -16449,7 +13620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="42"/>
@@ -16474,7 +13645,7 @@
       </c>
       <c r="L35" s="40"/>
       <c r="M35" s="48">
-        <f>SUM(O35:EF35)</f>
+        <f t="shared" si="58"/>
         <v>3</v>
       </c>
       <c r="O35" s="11"/>
@@ -16606,7 +13777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="42"/>
@@ -16631,7 +13802,7 @@
       </c>
       <c r="L36" s="40"/>
       <c r="M36" s="48">
-        <f>SUM(O36:EF36)</f>
+        <f t="shared" si="58"/>
         <v>15</v>
       </c>
       <c r="O36" s="11"/>
@@ -16765,7 +13936,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="42"/>
@@ -16790,7 +13961,7 @@
       </c>
       <c r="L37" s="40"/>
       <c r="M37" s="48">
-        <f>SUM(O37:EF37)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O37" s="11"/>
@@ -16920,7 +14091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="42"/>
@@ -16938,15 +14109,15 @@
       </c>
       <c r="J38" s="79" t="str">
         <f>VLOOKUP($G38,課題整理_0609!$B$8:$M$38,5,FALSE)</f>
-        <v>未着手</v>
+        <v>対応中</v>
       </c>
       <c r="K38" s="52" t="s">
         <v>160</v>
       </c>
       <c r="L38" s="40"/>
       <c r="M38" s="48">
-        <f>SUM(O38:EF38)</f>
-        <v>0</v>
+        <f t="shared" si="58"/>
+        <v>3.5</v>
       </c>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
@@ -17033,7 +14204,9 @@
       <c r="CS38" s="11"/>
       <c r="CT38" s="11"/>
       <c r="CU38" s="11"/>
-      <c r="CV38" s="11"/>
+      <c r="CV38" s="11">
+        <v>3.5</v>
+      </c>
       <c r="CW38" s="11"/>
       <c r="CX38" s="11"/>
       <c r="CY38" s="11"/>
@@ -17075,7 +14248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="42"/>
@@ -17100,7 +14273,7 @@
       </c>
       <c r="L39" s="40"/>
       <c r="M39" s="48">
-        <f>SUM(O39:EF39)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O39" s="11"/>
@@ -17230,7 +14403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="42"/>
@@ -17243,7 +14416,7 @@
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
       <c r="M40" s="48">
-        <f>SUM(O40:EF40)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O40" s="11"/>
@@ -17373,7 +14546,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B41" s="30"/>
       <c r="C41" s="30">
         <v>3</v>
@@ -17400,7 +14573,7 @@
         <v>158</v>
       </c>
       <c r="M41" s="48">
-        <f>SUM(O41:EF41)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O41" s="11"/>
@@ -17530,7 +14703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="42"/>
@@ -17543,7 +14716,7 @@
       <c r="K42" s="40"/>
       <c r="L42" s="40"/>
       <c r="M42" s="48">
-        <f>SUM(O42:EF42)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O42" s="11"/>
@@ -17673,7 +14846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="42"/>
@@ -17696,7 +14869,7 @@
       <c r="K43" s="40"/>
       <c r="L43" s="40"/>
       <c r="M43" s="48">
-        <f>SUM(O43:EF43)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O43" s="11"/>
@@ -17826,7 +14999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="42"/>
@@ -17839,7 +15012,7 @@
       <c r="K44" s="40"/>
       <c r="L44" s="40"/>
       <c r="M44" s="48">
-        <f>SUM(O44:EF44)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O44" s="11"/>
@@ -17969,7 +15142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="42"/>
@@ -17990,7 +15163,7 @@
       <c r="K45" s="52"/>
       <c r="L45" s="40"/>
       <c r="M45" s="48">
-        <f>SUM(O45:EF45)</f>
+        <f t="shared" ref="M45:M66" si="59">SUM(O45:EF45)</f>
         <v>0</v>
       </c>
       <c r="O45" s="11"/>
@@ -18120,7 +15293,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="42"/>
@@ -18137,7 +15310,7 @@
         <v>182</v>
       </c>
       <c r="M46" s="47">
-        <f>SUM(O46:EF46)</f>
+        <f t="shared" si="59"/>
         <v>16.5</v>
       </c>
       <c r="O46" s="11"/>
@@ -18269,7 +15442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:138" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:138" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="42"/>
@@ -18282,7 +15455,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="47">
-        <f>SUM(O47:EF47)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O47" s="11"/>
@@ -18412,7 +15585,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:138" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:138" ht="39" x14ac:dyDescent="0.2">
       <c r="B48" s="30">
         <v>2</v>
       </c>
@@ -18443,7 +15616,7 @@
         <v>145</v>
       </c>
       <c r="M48" s="47">
-        <f>SUM(O48:EF48)</f>
+        <f t="shared" si="59"/>
         <v>3.5</v>
       </c>
       <c r="O48" s="11"/>
@@ -18577,7 +15750,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="43"/>
@@ -18590,7 +15763,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="47">
-        <f>SUM(O49:EF49)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O49" s="11"/>
@@ -18720,7 +15893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="43"/>
@@ -18741,7 +15914,7 @@
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="47">
-        <f>SUM(O50:EF50)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O50" s="11"/>
@@ -18871,7 +16044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="43"/>
@@ -18884,7 +16057,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="47">
-        <f>SUM(O51:EF51)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O51" s="11"/>
@@ -19014,7 +16187,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="43"/>
@@ -19037,7 +16210,7 @@
       </c>
       <c r="L52" s="40"/>
       <c r="M52" s="48">
-        <f>SUM(O52:EF52)</f>
+        <f t="shared" si="59"/>
         <v>1.5</v>
       </c>
       <c r="O52" s="11"/>
@@ -19169,7 +16342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="43"/>
@@ -19182,7 +16355,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="47">
-        <f>SUM(O53:EF53)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O53" s="11"/>
@@ -19312,7 +16485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:138" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:138" ht="39" x14ac:dyDescent="0.2">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="43"/>
@@ -19333,7 +16506,7 @@
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="47">
-        <f>SUM(O54:EF54)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O54" s="11"/>
@@ -19463,7 +16636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="43"/>
@@ -19476,7 +16649,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="47">
-        <f>SUM(O55:EF55)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O55" s="11"/>
@@ -19606,7 +16779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:138" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:138" ht="26" x14ac:dyDescent="0.2">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="43"/>
@@ -19631,7 +16804,7 @@
         <v>144</v>
       </c>
       <c r="M56" s="47">
-        <f>SUM(O56:EF56)</f>
+        <f t="shared" si="59"/>
         <v>3</v>
       </c>
       <c r="O56" s="11"/>
@@ -19767,7 +16940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
@@ -19780,7 +16953,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="47">
-        <f>SUM(O57:EF57)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O57" s="11"/>
@@ -19910,7 +17083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="43"/>
@@ -19929,7 +17102,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="47">
-        <f>SUM(O58:EF58)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O58" s="11"/>
@@ -20059,7 +17232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="43"/>
@@ -20072,7 +17245,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="47">
-        <f>SUM(O59:EF59)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O59" s="11"/>
@@ -20202,7 +17375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="4"/>
@@ -20215,7 +17388,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="47">
-        <f>SUM(O60:EF60)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O60" s="11"/>
@@ -20345,7 +17518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="4"/>
@@ -20358,7 +17531,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="47">
-        <f>SUM(O61:EF61)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O61" s="11"/>
@@ -20488,7 +17661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="4"/>
@@ -20501,7 +17674,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="47">
-        <f>SUM(O62:EF62)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O62" s="11"/>
@@ -20631,7 +17804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="4"/>
@@ -20644,7 +17817,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="47">
-        <f>SUM(O63:EF63)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O63" s="11"/>
@@ -20774,7 +17947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="4"/>
@@ -20787,7 +17960,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="47">
-        <f>SUM(O64:EF64)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O64" s="11"/>
@@ -20917,7 +18090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
       <c r="D65" s="5"/>
@@ -20930,7 +18103,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="49">
-        <f>SUM(O65:EF65)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O65" s="12"/>
@@ -21060,508 +18233,508 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:138" x14ac:dyDescent="0.2">
       <c r="M66" s="45">
-        <f>SUM(O66:EF66)</f>
-        <v>120</v>
+        <f t="shared" si="59"/>
+        <v>123.5</v>
       </c>
       <c r="O66" s="14">
-        <f t="shared" ref="O66:AT66" si="58">SUM(O13:O65)</f>
+        <f t="shared" ref="O66:AT66" si="60">SUM(O13:O65)</f>
         <v>0</v>
       </c>
       <c r="P66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="R66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="S66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="T66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="U66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="V66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="W66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="X66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="Y66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="Z66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AA66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AB66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AC66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AD66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AE66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AF66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AG66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AH66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AI66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AJ66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AK66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AL66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AM66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AN66" s="14">
-        <f t="shared" si="58"/>
-        <v>16.5</v>
-      </c>
-      <c r="AO66" s="14">
-        <f t="shared" si="58"/>
-        <v>1.5</v>
-      </c>
-      <c r="AP66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AQ66" s="14">
-        <f t="shared" si="58"/>
-        <v>1.5</v>
-      </c>
-      <c r="AR66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AS66" s="14">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="AT66" s="14">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AU66" s="14">
-        <f t="shared" ref="AU66:BZ66" si="59">SUM(AU13:AU65)</f>
-        <v>0</v>
-      </c>
-      <c r="AV66" s="14">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AW66" s="14">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AX66" s="14">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="AY66" s="14">
-        <f t="shared" si="59"/>
-        <v>2</v>
-      </c>
-      <c r="AZ66" s="14">
-        <f t="shared" si="59"/>
-        <v>13</v>
-      </c>
-      <c r="BA66" s="14">
-        <f t="shared" si="59"/>
-        <v>3.5</v>
-      </c>
-      <c r="BB66" s="14">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="BC66" s="14">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="BD66" s="14">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="BE66" s="14">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="BF66" s="14">
-        <f t="shared" si="59"/>
-        <v>10.5</v>
-      </c>
-      <c r="BG66" s="14">
-        <f t="shared" si="59"/>
-        <v>6</v>
-      </c>
-      <c r="BH66" s="14">
-        <f t="shared" si="59"/>
-        <v>7</v>
-      </c>
-      <c r="BI66" s="14">
-        <f t="shared" si="59"/>
-        <v>0.5</v>
-      </c>
-      <c r="BJ66" s="14">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="BK66" s="14">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="BL66" s="14">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="BM66" s="14">
-        <f t="shared" si="59"/>
-        <v>6</v>
-      </c>
-      <c r="BN66" s="14">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="BO66" s="14">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="BP66" s="14">
-        <f t="shared" si="59"/>
-        <v>2</v>
-      </c>
-      <c r="BQ66" s="14">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="BR66" s="14">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="BS66" s="14">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="BT66" s="14">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="BU66" s="14">
-        <f t="shared" si="59"/>
-        <v>2</v>
-      </c>
-      <c r="BV66" s="14">
-        <f t="shared" si="59"/>
-        <v>12</v>
-      </c>
-      <c r="BW66" s="14">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="BX66" s="14">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="BY66" s="14">
-        <f t="shared" si="59"/>
-        <v>1.5</v>
-      </c>
-      <c r="BZ66" s="14">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CA66" s="14">
-        <f t="shared" ref="CA66:DC66" si="60">SUM(CA13:CA65)</f>
-        <v>8.5</v>
-      </c>
-      <c r="CB66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CC66" s="14">
-        <f t="shared" si="60"/>
-        <v>0.5</v>
-      </c>
-      <c r="CD66" s="14">
+      <c r="Q66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CE66" s="14">
+      <c r="R66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CF66" s="14">
+      <c r="S66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CG66" s="14">
+      <c r="T66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CH66" s="14">
+      <c r="U66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CI66" s="14">
+      <c r="V66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CJ66" s="14">
+      <c r="W66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CK66" s="14">
+      <c r="X66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CL66" s="14">
+      <c r="Y66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CM66" s="14">
-        <f t="shared" si="60"/>
-        <v>2</v>
-      </c>
-      <c r="CN66" s="14">
-        <f t="shared" si="60"/>
-        <v>2.5</v>
-      </c>
-      <c r="CO66" s="14">
-        <f t="shared" si="60"/>
-        <v>8</v>
-      </c>
-      <c r="CP66" s="14">
-        <f t="shared" si="60"/>
-        <v>7</v>
-      </c>
-      <c r="CQ66" s="14">
+      <c r="Z66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CR66" s="14">
+      <c r="AA66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CS66" s="14">
+      <c r="AB66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CT66" s="14">
+      <c r="AC66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CU66" s="14">
+      <c r="AD66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CV66" s="14">
+      <c r="AE66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CW66" s="14">
+      <c r="AF66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CX66" s="14">
+      <c r="AG66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CY66" s="14">
+      <c r="AH66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="CZ66" s="14">
+      <c r="AI66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="DA66" s="14">
+      <c r="AJ66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="DB66" s="14">
+      <c r="AK66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="DC66" s="14">
+      <c r="AL66" s="14">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="DD66" s="14">
-        <f t="shared" ref="DD66:DF66" si="61">SUM(DD13:DD65)</f>
+      <c r="AM66" s="14">
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="DE66" s="14">
+      <c r="AN66" s="14">
+        <f t="shared" si="60"/>
+        <v>16.5</v>
+      </c>
+      <c r="AO66" s="14">
+        <f t="shared" si="60"/>
+        <v>1.5</v>
+      </c>
+      <c r="AP66" s="14">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="14">
+        <f t="shared" si="60"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR66" s="14">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AS66" s="14">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="AT66" s="14">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AU66" s="14">
+        <f t="shared" ref="AU66:BZ66" si="61">SUM(AU13:AU65)</f>
+        <v>0</v>
+      </c>
+      <c r="AV66" s="14">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="DF66" s="14">
+      <c r="AW66" s="14">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="DG66" s="14">
-        <f t="shared" ref="DG66:EB66" si="62">SUM(DG13:DG65)</f>
+      <c r="AX66" s="14">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AY66" s="14">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AZ66" s="14">
+        <f t="shared" si="61"/>
+        <v>13</v>
+      </c>
+      <c r="BA66" s="14">
+        <f t="shared" si="61"/>
+        <v>3.5</v>
+      </c>
+      <c r="BB66" s="14">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="DH66" s="14">
+      <c r="BC66" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BD66" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BE66" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BF66" s="14">
+        <f t="shared" si="61"/>
+        <v>10.5</v>
+      </c>
+      <c r="BG66" s="14">
+        <f t="shared" si="61"/>
+        <v>6</v>
+      </c>
+      <c r="BH66" s="14">
+        <f t="shared" si="61"/>
+        <v>7</v>
+      </c>
+      <c r="BI66" s="14">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="BJ66" s="14">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="BK66" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BL66" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BM66" s="14">
+        <f t="shared" si="61"/>
+        <v>6</v>
+      </c>
+      <c r="BN66" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BO66" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BP66" s="14">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="BQ66" s="14">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="BR66" s="14">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="BS66" s="14">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="BT66" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BU66" s="14">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="BV66" s="14">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="BW66" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BX66" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BY66" s="14">
+        <f t="shared" si="61"/>
+        <v>1.5</v>
+      </c>
+      <c r="BZ66" s="14">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="CA66" s="14">
+        <f t="shared" ref="CA66:DC66" si="62">SUM(CA13:CA65)</f>
+        <v>8.5</v>
+      </c>
+      <c r="CB66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DI66" s="14">
+      <c r="CC66" s="14">
+        <f t="shared" si="62"/>
+        <v>0.5</v>
+      </c>
+      <c r="CD66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DJ66" s="14">
+      <c r="CE66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DK66" s="14">
+      <c r="CF66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DL66" s="14">
+      <c r="CG66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DM66" s="14">
+      <c r="CH66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DN66" s="14">
+      <c r="CI66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DO66" s="14">
+      <c r="CJ66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DP66" s="14">
+      <c r="CK66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DQ66" s="14">
+      <c r="CL66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DR66" s="14">
+      <c r="CM66" s="14">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="CN66" s="14">
+        <f t="shared" si="62"/>
+        <v>2.5</v>
+      </c>
+      <c r="CO66" s="14">
+        <f t="shared" si="62"/>
+        <v>8</v>
+      </c>
+      <c r="CP66" s="14">
+        <f t="shared" si="62"/>
+        <v>7</v>
+      </c>
+      <c r="CQ66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DS66" s="14">
+      <c r="CR66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DT66" s="14">
+      <c r="CS66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DU66" s="14">
+      <c r="CT66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DV66" s="14">
+      <c r="CU66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DW66" s="14">
+      <c r="CV66" s="14">
+        <f t="shared" si="62"/>
+        <v>3.5</v>
+      </c>
+      <c r="CW66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DX66" s="14">
+      <c r="CX66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DY66" s="14">
+      <c r="CY66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="DZ66" s="14">
+      <c r="CZ66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="EA66" s="14">
+      <c r="DA66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="EB66" s="14">
+      <c r="DB66" s="14">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="EC66" s="14">
-        <f t="shared" ref="EC66:EF66" si="63">SUM(EC13:EC65)</f>
+      <c r="DC66" s="14">
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="ED66" s="14">
+      <c r="DD66" s="14">
+        <f t="shared" ref="DD66:DF66" si="63">SUM(DD13:DD65)</f>
+        <v>0</v>
+      </c>
+      <c r="DE66" s="14">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="EE66" s="14">
+      <c r="DF66" s="14">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
+      <c r="DG66" s="14">
+        <f t="shared" ref="DG66:EB66" si="64">SUM(DG13:DG65)</f>
+        <v>0</v>
+      </c>
+      <c r="DH66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DI66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DJ66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DK66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DL66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DM66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DN66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DO66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DP66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DQ66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DR66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DS66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DT66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DU66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DV66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DW66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DX66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DY66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="DZ66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="EA66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="EB66" s="14">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="EC66" s="14">
+        <f t="shared" ref="EC66:EF66" si="65">SUM(EC13:EC65)</f>
+        <v>0</v>
+      </c>
+      <c r="ED66" s="14">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="EE66" s="14">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
       <c r="EF66" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="EG66" s="14">
-        <f t="shared" ref="EG66" si="64">SUM(EG13:EG65)</f>
+        <f t="shared" ref="EG66" si="66">SUM(EG13:EG65)</f>
         <v>0</v>
       </c>
       <c r="EH66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O67" s="8">
         <v>6</v>
       </c>
@@ -21569,7 +18742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:138" x14ac:dyDescent="0.2">
       <c r="E68" s="15"/>
       <c r="I68" s="8">
         <v>1.5</v>
@@ -21578,7 +18751,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:138" x14ac:dyDescent="0.2">
       <c r="I69" s="8">
         <v>1</v>
       </c>
@@ -21586,12 +18759,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:138" x14ac:dyDescent="0.2">
       <c r="I70" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O73" s="8">
         <v>6</v>
       </c>
@@ -21602,7 +18775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O74" s="8">
         <v>10</v>
       </c>
@@ -21613,7 +18786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="81" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
@@ -21738,7 +18911,7 @@
       <c r="EF81"/>
       <c r="EG81"/>
     </row>
-    <row r="84" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="84" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -21863,7 +19036,7 @@
       <c r="EF84"/>
       <c r="EG84"/>
     </row>
-    <row r="85" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="85" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -21988,7 +19161,7 @@
       <c r="EF85"/>
       <c r="EG85"/>
     </row>
-    <row r="86" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="86" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -22113,7 +19286,7 @@
       <c r="EF86"/>
       <c r="EG86"/>
     </row>
-    <row r="87" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="87" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -22238,7 +19411,7 @@
       <c r="EF87"/>
       <c r="EG87"/>
     </row>
-    <row r="88" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="88" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -22363,7 +19536,7 @@
       <c r="EF88"/>
       <c r="EG88"/>
     </row>
-    <row r="89" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="89" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -22488,7 +19661,7 @@
       <c r="EF89"/>
       <c r="EG89"/>
     </row>
-    <row r="90" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="90" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -22613,7 +19786,7 @@
       <c r="EF90"/>
       <c r="EG90"/>
     </row>
-    <row r="91" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="91" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -22738,7 +19911,7 @@
       <c r="EF91"/>
       <c r="EG91"/>
     </row>
-    <row r="93" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="93" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -22863,7 +20036,7 @@
       <c r="EF93"/>
       <c r="EG93"/>
     </row>
-    <row r="94" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="94" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
@@ -22989,7 +20162,7 @@
       <c r="EG94"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:EK14">
+  <autoFilter ref="B12:EK14" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -23486,7 +20659,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -23499,35 +20672,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D37" sqref="D37"/>
       <selection pane="topRight" activeCell="D37" sqref="D37"/>
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.625" customWidth="1"/>
-    <col min="12" max="12" width="62.125" customWidth="1"/>
-    <col min="13" max="13" width="61.75" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.6328125" customWidth="1"/>
+    <col min="12" max="12" width="62.08984375" customWidth="1"/>
+    <col min="13" max="13" width="61.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
@@ -23535,21 +20709,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -23598,7 +20772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>199</v>
       </c>
@@ -23636,7 +20810,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="63">
         <v>1</v>
       </c>
@@ -23668,7 +20842,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="63">
         <v>2</v>
       </c>
@@ -23700,7 +20874,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="63">
         <v>3</v>
       </c>
@@ -23732,7 +20906,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="63">
         <v>4</v>
       </c>
@@ -23764,7 +20938,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="63">
         <v>5</v>
       </c>
@@ -23800,7 +20974,7 @@
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" ht="156" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="63">
         <v>6</v>
       </c>
@@ -23836,7 +21010,7 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="63">
         <v>7</v>
       </c>
@@ -23870,7 +21044,7 @@
       </c>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" ht="108" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" s="63">
         <v>8</v>
       </c>
@@ -23906,7 +21080,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" s="63">
         <v>9</v>
       </c>
@@ -23938,7 +21112,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="63">
         <v>10</v>
       </c>
@@ -23970,7 +21144,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="63">
         <v>11</v>
       </c>
@@ -24006,7 +21180,7 @@
       </c>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="91" x14ac:dyDescent="0.2">
       <c r="B19" s="63">
         <v>12</v>
       </c>
@@ -24038,7 +21212,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="63">
         <v>13</v>
       </c>
@@ -24076,7 +21250,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="135" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="130" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="63">
         <v>14</v>
       </c>
@@ -24110,7 +21284,7 @@
       </c>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" ht="81" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="78" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="63">
         <v>15</v>
       </c>
@@ -24146,7 +21320,7 @@
       </c>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="63">
         <v>16</v>
       </c>
@@ -24180,7 +21354,7 @@
       </c>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="63">
         <v>17</v>
       </c>
@@ -24216,7 +21390,7 @@
       </c>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="63">
         <v>18</v>
       </c>
@@ -24252,7 +21426,7 @@
       </c>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" ht="108" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="63">
         <v>19</v>
       </c>
@@ -24284,7 +21458,7 @@
       <c r="L26" s="75"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="63">
         <v>20</v>
       </c>
@@ -24320,7 +21494,7 @@
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="247" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="63">
         <v>21</v>
       </c>
@@ -24350,7 +21524,7 @@
       <c r="L28" s="75"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="65" x14ac:dyDescent="0.2">
       <c r="B29" s="63">
         <v>22</v>
       </c>
@@ -24364,7 +21538,7 @@
         <v>230</v>
       </c>
       <c r="F29" s="63" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="G29" s="63"/>
       <c r="H29" s="63" t="s">
@@ -24379,10 +21553,12 @@
       <c r="K29" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="L29" s="18"/>
+      <c r="L29" s="63" t="s">
+        <v>372</v>
+      </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="63">
         <v>23</v>
       </c>
@@ -24418,7 +21594,7 @@
       </c>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="63">
         <v>24</v>
       </c>
@@ -24452,7 +21628,7 @@
       </c>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="63">
         <v>25</v>
       </c>
@@ -24486,7 +21662,7 @@
       </c>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="63">
         <v>26</v>
       </c>
@@ -24518,7 +21694,7 @@
       <c r="L33" s="75"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="63"/>
       <c r="C34" s="21"/>
       <c r="D34" s="76"/>
@@ -24532,7 +21708,7 @@
       <c r="L34" s="75"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="63"/>
       <c r="C35" s="21"/>
       <c r="D35" s="76"/>
@@ -24546,7 +21722,7 @@
       <c r="L35" s="75"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="63"/>
       <c r="C36" s="21"/>
       <c r="D36" s="76"/>
@@ -24560,7 +21736,7 @@
       <c r="L36" s="75"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="63"/>
       <c r="C37" s="21"/>
       <c r="D37" s="76"/>
@@ -24574,7 +21750,7 @@
       <c r="L37" s="75"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="63"/>
       <c r="C38" s="21"/>
       <c r="D38" s="18"/>
@@ -24588,17 +21764,17 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>264</v>
       </c>
@@ -24606,7 +21782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>265</v>
       </c>
@@ -24614,7 +21790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>264</v>
       </c>
@@ -24622,7 +21798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>266</v>
       </c>
@@ -24630,7 +21806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -24639,10 +21815,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>267</v>
       </c>
@@ -24650,10 +21826,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>268</v>
       </c>
@@ -24662,7 +21838,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>269</v>
       </c>
@@ -24671,11 +21847,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D56" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:M33"/>
+  <autoFilter ref="B7:M33" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="対応中"/>
+        <filter val="未着手"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="～9月2週目"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B38:C38 B8:C28 E29:F30 E8:F27 E38:G38 E28 J8:M30 H8:I28 J38:M38">
     <cfRule type="expression" dxfId="43" priority="49">
@@ -24902,13 +22090,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>E8:E38 G38:H38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -24921,54 +22109,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -24979,22 +22167,22 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -25005,7 +22193,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>289</v>
       </c>
@@ -25013,7 +22201,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>290</v>
       </c>
@@ -25021,17 +22209,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>291</v>
       </c>
@@ -25039,7 +22227,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>289</v>
       </c>
@@ -25050,7 +22238,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>290</v>
       </c>
@@ -25061,7 +22249,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>292</v>
       </c>
@@ -25069,7 +22257,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>289</v>
       </c>
@@ -25077,7 +22265,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>290</v>
       </c>
@@ -25085,127 +22273,127 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="82">
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="80">
         <v>43331</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>326</v>
       </c>
@@ -25217,206 +22405,206 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:A41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>363</v>
       </c>
@@ -25428,12 +22616,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25441,44 +22629,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -25491,46 +22679,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="54" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="55"/>
     </row>
   </sheetData>
@@ -25540,22 +22728,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
-    <col min="3" max="3" width="52.375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="77.25" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="45.453125" customWidth="1"/>
+    <col min="3" max="3" width="52.36328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="77.26953125" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="51.5" customWidth="1"/>
+    <col min="6" max="6" width="51.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>31</v>
       </c>
@@ -25563,62 +22751,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
@@ -25626,7 +22814,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -25640,7 +22828,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -25658,7 +22846,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
@@ -25673,7 +22861,7 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
@@ -25685,7 +22873,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
@@ -25697,7 +22885,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="18" t="s">
         <v>59</v>
       </c>
@@ -25711,7 +22899,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="52" x14ac:dyDescent="0.2">
       <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
@@ -25726,7 +22914,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="18" t="s">
         <v>65</v>
       </c>
@@ -25738,7 +22926,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
         <v>68</v>
       </c>
@@ -25753,7 +22941,7 @@
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
@@ -25765,7 +22953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>71</v>
       </c>
@@ -25774,7 +22962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
         <v>73</v>
       </c>
@@ -25786,7 +22974,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
@@ -25801,7 +22989,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
         <v>76</v>
       </c>
@@ -25813,21 +23001,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -25835,7 +23023,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -25843,7 +23031,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -25851,7 +23039,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -25859,7 +23047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40"/>
     </row>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD7E513-B0D3-418D-A7DC-DF067E1C64D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18080" windowHeight="8180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$EK$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題整理_0609!$B$7:$M$33</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -4663,7 +4662,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -4672,7 +4671,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5192,7 +5191,28 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="174">
+  <dxfs count="177">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6467,7 +6487,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6546,7 +6566,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6661,7 +6681,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6703,7 +6723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6736,26 +6756,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6788,23 +6791,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6980,22 +6966,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5">
       <c r="B2" s="28" t="s">
         <v>124</v>
       </c>
@@ -7009,7 +6995,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5">
       <c r="B3" s="18">
         <v>3</v>
       </c>
@@ -7024,7 +7010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5">
       <c r="B4" s="18">
         <v>4</v>
       </c>
@@ -7039,7 +7025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5">
       <c r="B5" s="18">
         <v>5</v>
       </c>
@@ -7054,7 +7040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5">
       <c r="B6" s="18">
         <v>6</v>
       </c>
@@ -7071,7 +7057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5">
       <c r="B7" s="18">
         <v>7</v>
       </c>
@@ -7088,24 +7074,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5">
       <c r="B8" s="18">
         <v>8</v>
       </c>
       <c r="C8" s="57">
         <f>SUM(WBS!BX66:EF66)</f>
-        <v>33.5</v>
+        <v>35</v>
       </c>
       <c r="D8" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$66:$EG$66)</f>
-        <v>33.5</v>
+        <v>35</v>
       </c>
       <c r="E8" s="57">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5">
       <c r="B9" s="18">
         <v>9</v>
       </c>
@@ -7122,17 +7108,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5">
       <c r="B10" s="81" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="58">
         <f>SUM(C3:C8)</f>
-        <v>214</v>
+        <v>215.5</v>
       </c>
       <c r="D10" s="58">
         <f>SUM(D3:D8)</f>
-        <v>213</v>
+        <v>214.5</v>
       </c>
       <c r="E10" s="57">
         <f>ROUND(D10/6,0)</f>
@@ -7146,17 +7132,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -7164,7 +7150,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -7172,7 +7158,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="I5" t="s">
         <v>106</v>
       </c>
@@ -7180,7 +7166,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -7191,7 +7177,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="I7" s="27" t="s">
         <v>120</v>
       </c>
@@ -7199,68 +7185,68 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="Q8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="Q9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="R10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="Q11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="26" customFormat="1">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" s="26" customFormat="1">
       <c r="C17" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" s="26" customFormat="1">
       <c r="B18" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" s="26" customFormat="1">
       <c r="C19" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" s="26" customFormat="1"/>
+    <row r="22" spans="2:16" s="24" customFormat="1">
       <c r="B22" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16">
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16">
       <c r="D24" t="s">
         <v>91</v>
       </c>
@@ -7268,27 +7254,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16">
       <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16">
       <c r="D27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16">
       <c r="E28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16">
       <c r="E29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16">
       <c r="E30" t="s">
         <v>96</v>
       </c>
@@ -7296,37 +7282,37 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16">
       <c r="B32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16">
       <c r="D34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16">
       <c r="E35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16">
       <c r="E36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16">
       <c r="D37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16">
       <c r="E38" t="s">
         <v>103</v>
       </c>
@@ -7337,7 +7323,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="I7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7345,21 +7331,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7373,7 +7359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7384,7 +7370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7395,7 +7381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7403,7 +7389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7417,7 +7403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7425,7 +7411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7461,7 +7447,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7472,62 +7458,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>2</v>
       </c>
@@ -7538,7 +7524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7554,37 +7540,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:EH94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="CU13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="CV13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="CV38" sqref="CV38"/>
+      <selection pane="bottomRight" activeCell="CZ31" sqref="CZ31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" customWidth="1"/>
-    <col min="2" max="3" width="2.36328125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" customWidth="1"/>
-    <col min="8" max="8" width="7.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="3" width="2.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="8" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.08984375" customWidth="1"/>
+    <col min="12" max="12" width="32.125" customWidth="1"/>
     <col min="13" max="13" width="10" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.90625" customWidth="1"/>
-    <col min="15" max="137" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.875" customWidth="1"/>
+    <col min="15" max="137" width="7.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:138" s="39" customFormat="1">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="H1" s="8"/>
@@ -7718,7 +7704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:138" s="39" customFormat="1">
       <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
@@ -7854,7 +7840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:138" s="39" customFormat="1">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
@@ -7991,7 +7977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:138" s="39" customFormat="1">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
@@ -8128,7 +8114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:138" s="39" customFormat="1">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="H5" s="8"/>
@@ -8262,7 +8248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:138" s="39" customFormat="1">
       <c r="B6" s="38" t="s">
         <v>149</v>
       </c>
@@ -8398,7 +8384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:138" s="39" customFormat="1">
       <c r="B7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>159</v>
@@ -8536,7 +8522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:138" s="39" customFormat="1">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="H8" s="8"/>
@@ -8670,7 +8656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:138">
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -8798,7 +8784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:138">
       <c r="L10" s="7"/>
       <c r="O10" s="29">
         <v>43252</v>
@@ -9173,7 +9159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:138">
       <c r="O11" s="9">
         <f>O10</f>
         <v>43252</v>
@@ -9670,7 +9656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:138" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:138" ht="28.5" customHeight="1">
       <c r="B12" s="82" t="s">
         <v>0</v>
       </c>
@@ -10195,7 +10181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:138">
       <c r="B13" s="30">
         <v>1</v>
       </c>
@@ -10356,7 +10342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:138">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="42" t="s">
@@ -10511,7 +10497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:138">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="42"/>
@@ -10656,7 +10642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:138">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="42"/>
@@ -10799,7 +10785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:138">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="42"/>
@@ -10956,7 +10942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:138">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="42"/>
@@ -11111,7 +11097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:138">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="42"/>
@@ -11266,7 +11252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:138">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="42"/>
@@ -11427,7 +11413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:138">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="42"/>
@@ -11582,7 +11568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:138">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="42"/>
@@ -11739,7 +11725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:138">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="42"/>
@@ -11894,7 +11880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:138">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="42"/>
@@ -12049,7 +12035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:138">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="42"/>
@@ -12192,7 +12178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:138">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="42"/>
@@ -12335,7 +12321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:138">
       <c r="B27" s="30"/>
       <c r="C27" s="30">
         <v>2</v>
@@ -12490,7 +12476,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:138">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="42"/>
@@ -12647,7 +12633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:138">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="42"/>
@@ -12804,7 +12790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:138">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="42"/>
@@ -12965,7 +12951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:138">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="42"/>
@@ -12991,7 +12977,7 @@
       <c r="L31" s="40"/>
       <c r="M31" s="48">
         <f t="shared" si="58"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -13083,7 +13069,9 @@
       <c r="CV31" s="11"/>
       <c r="CW31" s="11"/>
       <c r="CX31" s="11"/>
-      <c r="CY31" s="11"/>
+      <c r="CY31" s="11">
+        <v>1.5</v>
+      </c>
       <c r="CZ31" s="11"/>
       <c r="DA31" s="11"/>
       <c r="DB31" s="11"/>
@@ -13122,7 +13110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:138">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="42"/>
@@ -13306,7 +13294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:138">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="42"/>
@@ -13463,7 +13451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:138">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="42"/>
@@ -13620,7 +13608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:138">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="42"/>
@@ -13777,7 +13765,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:138">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="42"/>
@@ -13936,7 +13924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:138">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="42"/>
@@ -14091,7 +14079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:138">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="42"/>
@@ -14248,7 +14236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:138">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="42"/>
@@ -14403,7 +14391,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:138">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="42"/>
@@ -14546,7 +14534,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:138">
       <c r="B41" s="30"/>
       <c r="C41" s="30">
         <v>3</v>
@@ -14703,7 +14691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:138">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="42"/>
@@ -14846,7 +14834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:138">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="42"/>
@@ -14999,7 +14987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:138">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="42"/>
@@ -15142,7 +15130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:138">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="42"/>
@@ -15293,7 +15281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:138">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="42"/>
@@ -15442,7 +15430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:138" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:138" ht="48" customHeight="1">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="42"/>
@@ -15585,7 +15573,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:138" ht="39" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:138" ht="27">
       <c r="B48" s="30">
         <v>2</v>
       </c>
@@ -15750,7 +15738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:138">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="43"/>
@@ -15893,7 +15881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:138">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="43"/>
@@ -16044,7 +16032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:138">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="43"/>
@@ -16187,7 +16175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:138">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="43"/>
@@ -16342,7 +16330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:138">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="43"/>
@@ -16485,7 +16473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:138" ht="39" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:138" ht="27">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="43"/>
@@ -16636,7 +16624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:138">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="43"/>
@@ -16779,7 +16767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:138" ht="26" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:138" ht="27">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="43"/>
@@ -16940,7 +16928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:138">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
@@ -17083,7 +17071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:138">
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="43"/>
@@ -17232,7 +17220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:138">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="43"/>
@@ -17375,7 +17363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:138">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="4"/>
@@ -17518,7 +17506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:138">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="4"/>
@@ -17661,7 +17649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:138">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="4"/>
@@ -17804,7 +17792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:138">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="4"/>
@@ -17947,7 +17935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:138">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="4"/>
@@ -18090,7 +18078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:138">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
       <c r="D65" s="5"/>
@@ -18233,10 +18221,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:138">
       <c r="M66" s="45">
         <f t="shared" si="59"/>
-        <v>123.5</v>
+        <v>125</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" ref="O66:AT66" si="60">SUM(O13:O65)</f>
@@ -18592,7 +18580,7 @@
       </c>
       <c r="CY66" s="14">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="CZ66" s="14">
         <f t="shared" si="62"/>
@@ -18734,7 +18722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:138">
       <c r="O67" s="8">
         <v>6</v>
       </c>
@@ -18742,7 +18730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:138">
       <c r="E68" s="15"/>
       <c r="I68" s="8">
         <v>1.5</v>
@@ -18751,7 +18739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:138">
       <c r="I69" s="8">
         <v>1</v>
       </c>
@@ -18759,12 +18747,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:138">
       <c r="I70" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:138">
       <c r="O73" s="8">
         <v>6</v>
       </c>
@@ -18775,7 +18763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:138">
       <c r="O74" s="8">
         <v>10</v>
       </c>
@@ -18786,7 +18774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="81" spans="15:137">
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
@@ -18911,7 +18899,7 @@
       <c r="EF81"/>
       <c r="EG81"/>
     </row>
-    <row r="84" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="84" spans="15:137">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -19036,7 +19024,7 @@
       <c r="EF84"/>
       <c r="EG84"/>
     </row>
-    <row r="85" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="85" spans="15:137">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -19161,7 +19149,7 @@
       <c r="EF85"/>
       <c r="EG85"/>
     </row>
-    <row r="86" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="86" spans="15:137">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -19286,7 +19274,7 @@
       <c r="EF86"/>
       <c r="EG86"/>
     </row>
-    <row r="87" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="87" spans="15:137">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -19411,7 +19399,7 @@
       <c r="EF87"/>
       <c r="EG87"/>
     </row>
-    <row r="88" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="88" spans="15:137">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -19536,7 +19524,7 @@
       <c r="EF88"/>
       <c r="EG88"/>
     </row>
-    <row r="89" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="89" spans="15:137">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -19661,7 +19649,7 @@
       <c r="EF89"/>
       <c r="EG89"/>
     </row>
-    <row r="90" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="90" spans="15:137">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -19786,7 +19774,7 @@
       <c r="EF90"/>
       <c r="EG90"/>
     </row>
-    <row r="91" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="91" spans="15:137">
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -19911,7 +19899,7 @@
       <c r="EF91"/>
       <c r="EG91"/>
     </row>
-    <row r="93" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="93" spans="15:137">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -20036,7 +20024,7 @@
       <c r="EF93"/>
       <c r="EG93"/>
     </row>
-    <row r="94" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="94" spans="15:137">
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
@@ -20162,7 +20150,7 @@
       <c r="EG94"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:EK14" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="B12:EK14">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -20170,486 +20158,486 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="O64:BN65 O11:BF12 O47:DC49 O26:DC27 O13:DC19 O41:DC44 O21:DC22 EC11:EF65">
-    <cfRule type="expression" dxfId="173" priority="206">
+    <cfRule type="expression" dxfId="176" priority="206">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="207">
+    <cfRule type="expression" dxfId="175" priority="207">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="208">
+    <cfRule type="expression" dxfId="174" priority="208">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:BF11 EC11:EF11">
-    <cfRule type="expression" dxfId="170" priority="205">
+    <cfRule type="expression" dxfId="173" priority="205">
       <formula>O$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:BN63">
-    <cfRule type="expression" dxfId="169" priority="202">
+    <cfRule type="expression" dxfId="172" priority="202">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="203">
+    <cfRule type="expression" dxfId="171" priority="203">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="204">
+    <cfRule type="expression" dxfId="170" priority="204">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO64:DC65">
-    <cfRule type="expression" dxfId="166" priority="199">
+    <cfRule type="expression" dxfId="169" priority="199">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="200">
+    <cfRule type="expression" dxfId="168" priority="200">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="201">
+    <cfRule type="expression" dxfId="167" priority="201">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO50:DC63">
-    <cfRule type="expression" dxfId="163" priority="195">
+    <cfRule type="expression" dxfId="166" priority="195">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="196">
+    <cfRule type="expression" dxfId="165" priority="196">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="197">
+    <cfRule type="expression" dxfId="164" priority="197">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DB12">
-    <cfRule type="expression" dxfId="160" priority="192">
+    <cfRule type="expression" dxfId="163" priority="192">
       <formula>BG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="193">
+    <cfRule type="expression" dxfId="162" priority="193">
       <formula>BG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="194">
+    <cfRule type="expression" dxfId="161" priority="194">
       <formula>BG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DB11">
-    <cfRule type="expression" dxfId="157" priority="191">
+    <cfRule type="expression" dxfId="160" priority="191">
       <formula>BG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45:DC45">
-    <cfRule type="expression" dxfId="156" priority="187">
+    <cfRule type="expression" dxfId="159" priority="187">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="188">
+    <cfRule type="expression" dxfId="158" priority="188">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="189">
+    <cfRule type="expression" dxfId="157" priority="189">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O46:AM46 AP46:DC46">
-    <cfRule type="expression" dxfId="153" priority="180">
+    <cfRule type="expression" dxfId="156" priority="180">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="181">
+    <cfRule type="expression" dxfId="155" priority="181">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="182">
+    <cfRule type="expression" dxfId="154" priority="182">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:DC25">
-    <cfRule type="expression" dxfId="150" priority="169">
+    <cfRule type="expression" dxfId="153" priority="169">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="170">
+    <cfRule type="expression" dxfId="152" priority="170">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="171">
+    <cfRule type="expression" dxfId="151" priority="171">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40:DC40">
-    <cfRule type="expression" dxfId="147" priority="165">
+    <cfRule type="expression" dxfId="150" priority="165">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="166">
+    <cfRule type="expression" dxfId="149" priority="166">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="167">
+    <cfRule type="expression" dxfId="148" priority="167">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:DC38">
-    <cfRule type="expression" dxfId="144" priority="161">
+    <cfRule type="expression" dxfId="147" priority="161">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="162">
+    <cfRule type="expression" dxfId="146" priority="162">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="163">
+    <cfRule type="expression" dxfId="145" priority="163">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO46">
-    <cfRule type="expression" dxfId="141" priority="148">
+    <cfRule type="expression" dxfId="144" priority="148">
       <formula>AO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="149">
+    <cfRule type="expression" dxfId="143" priority="149">
       <formula>AO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="150">
+    <cfRule type="expression" dxfId="142" priority="150">
       <formula>AO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:DC23">
-    <cfRule type="expression" dxfId="138" priority="145">
+    <cfRule type="expression" dxfId="141" priority="145">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="146">
+    <cfRule type="expression" dxfId="140" priority="146">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="147">
+    <cfRule type="expression" dxfId="139" priority="147">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN46">
-    <cfRule type="expression" dxfId="135" priority="141">
+    <cfRule type="expression" dxfId="138" priority="141">
       <formula>AN$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="142">
+    <cfRule type="expression" dxfId="137" priority="142">
       <formula>AN$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="143">
+    <cfRule type="expression" dxfId="136" priority="143">
       <formula>AN$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:DC20">
-    <cfRule type="expression" dxfId="132" priority="138">
+    <cfRule type="expression" dxfId="135" priority="138">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="139">
+    <cfRule type="expression" dxfId="134" priority="139">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="140">
+    <cfRule type="expression" dxfId="133" priority="140">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:DC24">
-    <cfRule type="expression" dxfId="129" priority="134">
+    <cfRule type="expression" dxfId="132" priority="134">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="135">
+    <cfRule type="expression" dxfId="131" priority="135">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="136">
+    <cfRule type="expression" dxfId="130" priority="136">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39:DC39">
-    <cfRule type="expression" dxfId="126" priority="129">
+    <cfRule type="expression" dxfId="129" priority="129">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="130">
+    <cfRule type="expression" dxfId="128" priority="130">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="131">
+    <cfRule type="expression" dxfId="127" priority="131">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:M65">
-    <cfRule type="expression" dxfId="123" priority="120">
+    <cfRule type="expression" dxfId="126" priority="120">
       <formula>$J13="対応中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="190">
+    <cfRule type="expression" dxfId="125" priority="190">
       <formula>$J13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD64:DF65 DD21:DF22 DD41:DF44 DD13:DF19 DD26:DF27 DD47:DF49">
-    <cfRule type="expression" dxfId="121" priority="117">
+    <cfRule type="expression" dxfId="124" priority="117">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="118">
+    <cfRule type="expression" dxfId="123" priority="118">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="119">
+    <cfRule type="expression" dxfId="122" priority="119">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD50:DF63">
-    <cfRule type="expression" dxfId="118" priority="114">
+    <cfRule type="expression" dxfId="121" priority="114">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="115">
+    <cfRule type="expression" dxfId="120" priority="115">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="116">
+    <cfRule type="expression" dxfId="119" priority="116">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD45:DF45">
-    <cfRule type="expression" dxfId="115" priority="107">
+    <cfRule type="expression" dxfId="118" priority="107">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="108">
+    <cfRule type="expression" dxfId="117" priority="108">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="109">
+    <cfRule type="expression" dxfId="116" priority="109">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD46:DF46">
-    <cfRule type="expression" dxfId="112" priority="104">
+    <cfRule type="expression" dxfId="115" priority="104">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="105">
+    <cfRule type="expression" dxfId="114" priority="105">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="106">
+    <cfRule type="expression" dxfId="113" priority="106">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD25:DF25">
-    <cfRule type="expression" dxfId="109" priority="101">
+    <cfRule type="expression" dxfId="112" priority="101">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="102">
+    <cfRule type="expression" dxfId="111" priority="102">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="103">
+    <cfRule type="expression" dxfId="110" priority="103">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD40:DF40">
-    <cfRule type="expression" dxfId="106" priority="98">
+    <cfRule type="expression" dxfId="109" priority="98">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="99">
+    <cfRule type="expression" dxfId="108" priority="99">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="100">
+    <cfRule type="expression" dxfId="107" priority="100">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD28:DF38">
-    <cfRule type="expression" dxfId="103" priority="95">
+    <cfRule type="expression" dxfId="106" priority="95">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="96">
+    <cfRule type="expression" dxfId="105" priority="96">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="97">
+    <cfRule type="expression" dxfId="104" priority="97">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD23:DF23">
-    <cfRule type="expression" dxfId="100" priority="92">
+    <cfRule type="expression" dxfId="103" priority="92">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="93">
+    <cfRule type="expression" dxfId="102" priority="93">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="94">
+    <cfRule type="expression" dxfId="101" priority="94">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD20:DF20">
-    <cfRule type="expression" dxfId="97" priority="89">
+    <cfRule type="expression" dxfId="100" priority="89">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="90">
+    <cfRule type="expression" dxfId="99" priority="90">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="91">
+    <cfRule type="expression" dxfId="98" priority="91">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD24:DF24">
-    <cfRule type="expression" dxfId="94" priority="86">
+    <cfRule type="expression" dxfId="97" priority="86">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="87">
+    <cfRule type="expression" dxfId="96" priority="87">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="88">
+    <cfRule type="expression" dxfId="95" priority="88">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD39:DF39">
-    <cfRule type="expression" dxfId="91" priority="83">
+    <cfRule type="expression" dxfId="94" priority="83">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="84">
+    <cfRule type="expression" dxfId="93" priority="84">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="85">
+    <cfRule type="expression" dxfId="92" priority="85">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC11:DF12">
-    <cfRule type="expression" dxfId="88" priority="80">
+    <cfRule type="expression" dxfId="91" priority="80">
       <formula>DC$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="81">
+    <cfRule type="expression" dxfId="90" priority="81">
       <formula>DC$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="82">
+    <cfRule type="expression" dxfId="89" priority="82">
       <formula>DC$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC11:DF11">
-    <cfRule type="expression" dxfId="85" priority="79">
+    <cfRule type="expression" dxfId="88" priority="79">
       <formula>DC$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG64:EB65 DG21:EB22 DG41:EB44 DG13:EB19 DG26:EB27 DG47:EB49">
-    <cfRule type="expression" dxfId="84" priority="76">
+    <cfRule type="expression" dxfId="87" priority="76">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="77">
+    <cfRule type="expression" dxfId="86" priority="77">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="78">
+    <cfRule type="expression" dxfId="85" priority="78">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG50:EB63">
-    <cfRule type="expression" dxfId="81" priority="73">
+    <cfRule type="expression" dxfId="84" priority="73">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="74">
+    <cfRule type="expression" dxfId="83" priority="74">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="75">
+    <cfRule type="expression" dxfId="82" priority="75">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG45:EB45">
-    <cfRule type="expression" dxfId="78" priority="70">
+    <cfRule type="expression" dxfId="81" priority="70">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="71">
+    <cfRule type="expression" dxfId="80" priority="71">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="72">
+    <cfRule type="expression" dxfId="79" priority="72">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG46:EB46">
-    <cfRule type="expression" dxfId="75" priority="67">
+    <cfRule type="expression" dxfId="78" priority="67">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="68">
+    <cfRule type="expression" dxfId="77" priority="68">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="69">
+    <cfRule type="expression" dxfId="76" priority="69">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG25:EB25">
-    <cfRule type="expression" dxfId="72" priority="64">
+    <cfRule type="expression" dxfId="75" priority="64">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="65">
+    <cfRule type="expression" dxfId="74" priority="65">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="66">
+    <cfRule type="expression" dxfId="73" priority="66">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG40:EB40">
-    <cfRule type="expression" dxfId="69" priority="61">
+    <cfRule type="expression" dxfId="72" priority="61">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="62">
+    <cfRule type="expression" dxfId="71" priority="62">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="63">
+    <cfRule type="expression" dxfId="70" priority="63">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG28:EB38">
-    <cfRule type="expression" dxfId="66" priority="58">
+    <cfRule type="expression" dxfId="69" priority="58">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="59">
+    <cfRule type="expression" dxfId="68" priority="59">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="60">
+    <cfRule type="expression" dxfId="67" priority="60">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG23:EB23">
-    <cfRule type="expression" dxfId="63" priority="55">
+    <cfRule type="expression" dxfId="66" priority="55">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="56">
+    <cfRule type="expression" dxfId="65" priority="56">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="57">
+    <cfRule type="expression" dxfId="64" priority="57">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG20:EB20">
-    <cfRule type="expression" dxfId="60" priority="52">
+    <cfRule type="expression" dxfId="63" priority="52">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="53">
+    <cfRule type="expression" dxfId="62" priority="53">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="54">
+    <cfRule type="expression" dxfId="61" priority="54">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG24:EB24">
-    <cfRule type="expression" dxfId="57" priority="49">
+    <cfRule type="expression" dxfId="60" priority="49">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="50">
+    <cfRule type="expression" dxfId="59" priority="50">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="51">
+    <cfRule type="expression" dxfId="58" priority="51">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG39:EB39">
-    <cfRule type="expression" dxfId="54" priority="46">
+    <cfRule type="expression" dxfId="57" priority="46">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="47">
+    <cfRule type="expression" dxfId="56" priority="47">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="48">
+    <cfRule type="expression" dxfId="55" priority="48">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG11:EB12">
-    <cfRule type="expression" dxfId="51" priority="43">
+    <cfRule type="expression" dxfId="54" priority="43">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="44">
+    <cfRule type="expression" dxfId="53" priority="44">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="45">
+    <cfRule type="expression" dxfId="52" priority="45">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG11:EB11">
-    <cfRule type="expression" dxfId="48" priority="42">
+    <cfRule type="expression" dxfId="51" priority="42">
       <formula>DG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG11:EG65">
-    <cfRule type="expression" dxfId="47" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>EG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="3">
+    <cfRule type="expression" dxfId="49" priority="3">
       <formula>EG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="48" priority="4">
       <formula>EG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG11">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>EG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20659,7 +20647,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -20672,36 +20660,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D37" sqref="D37"/>
       <selection pane="topRight" activeCell="D37" sqref="D37"/>
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" customWidth="1"/>
-    <col min="3" max="3" width="44.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.6328125" customWidth="1"/>
-    <col min="12" max="12" width="62.08984375" customWidth="1"/>
-    <col min="13" max="13" width="61.7265625" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.625" customWidth="1"/>
+    <col min="12" max="12" width="62.125" customWidth="1"/>
+    <col min="13" max="13" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
@@ -20709,21 +20697,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13">
       <c r="C4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>1</v>
       </c>
@@ -20772,7 +20760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1">
       <c r="B7" s="59" t="s">
         <v>199</v>
       </c>
@@ -20810,7 +20798,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" hidden="1">
       <c r="B8" s="63">
         <v>1</v>
       </c>
@@ -20842,7 +20830,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1">
       <c r="B9" s="63">
         <v>2</v>
       </c>
@@ -20874,7 +20862,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" hidden="1">
       <c r="B10" s="63">
         <v>3</v>
       </c>
@@ -20906,7 +20894,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" hidden="1">
       <c r="B11" s="63">
         <v>4</v>
       </c>
@@ -20938,7 +20926,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" ht="27" hidden="1">
       <c r="B12" s="63">
         <v>5</v>
       </c>
@@ -20974,7 +20962,7 @@
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" ht="156" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="148.5" hidden="1">
       <c r="B13" s="63">
         <v>6</v>
       </c>
@@ -21010,7 +20998,7 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="94.5" hidden="1">
       <c r="B14" s="63">
         <v>7</v>
       </c>
@@ -21044,7 +21032,7 @@
       </c>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="108" hidden="1">
       <c r="B15" s="63">
         <v>8</v>
       </c>
@@ -21080,7 +21068,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" hidden="1">
       <c r="B16" s="63">
         <v>9</v>
       </c>
@@ -21112,7 +21100,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" hidden="1">
       <c r="B17" s="63">
         <v>10</v>
       </c>
@@ -21144,7 +21132,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" hidden="1">
       <c r="B18" s="63">
         <v>11</v>
       </c>
@@ -21180,7 +21168,7 @@
       </c>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" ht="91" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" ht="94.5">
       <c r="B19" s="63">
         <v>12</v>
       </c>
@@ -21212,7 +21200,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" ht="67.5" hidden="1">
       <c r="B20" s="63">
         <v>13</v>
       </c>
@@ -21250,7 +21238,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="130" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" ht="135" hidden="1">
       <c r="B21" s="63">
         <v>14</v>
       </c>
@@ -21284,7 +21272,7 @@
       </c>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" ht="78" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="81" hidden="1">
       <c r="B22" s="63">
         <v>15</v>
       </c>
@@ -21320,7 +21308,7 @@
       </c>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1">
       <c r="B23" s="63">
         <v>16</v>
       </c>
@@ -21354,7 +21342,7 @@
       </c>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1">
       <c r="B24" s="63">
         <v>17</v>
       </c>
@@ -21390,7 +21378,7 @@
       </c>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1">
       <c r="B25" s="63">
         <v>18</v>
       </c>
@@ -21426,7 +21414,7 @@
       </c>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" ht="108" hidden="1">
       <c r="B26" s="63">
         <v>19</v>
       </c>
@@ -21458,7 +21446,7 @@
       <c r="L26" s="75"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" ht="67.5" hidden="1">
       <c r="B27" s="63">
         <v>20</v>
       </c>
@@ -21494,7 +21482,7 @@
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" ht="247" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" ht="256.5" hidden="1">
       <c r="B28" s="63">
         <v>21</v>
       </c>
@@ -21524,7 +21512,7 @@
       <c r="L28" s="75"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" ht="67.5">
       <c r="B29" s="63">
         <v>22</v>
       </c>
@@ -21558,7 +21546,7 @@
       </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B30" s="63">
         <v>23</v>
       </c>
@@ -21594,7 +21582,7 @@
       </c>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B31" s="63">
         <v>24</v>
       </c>
@@ -21628,7 +21616,7 @@
       </c>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B32" s="63">
         <v>25</v>
       </c>
@@ -21662,7 +21650,7 @@
       </c>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" hidden="1">
       <c r="B33" s="63">
         <v>26</v>
       </c>
@@ -21694,7 +21682,7 @@
       <c r="L33" s="75"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" ht="121.5" customHeight="1">
       <c r="B34" s="63"/>
       <c r="C34" s="21"/>
       <c r="D34" s="76"/>
@@ -21708,7 +21696,7 @@
       <c r="L34" s="75"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1">
       <c r="B35" s="63"/>
       <c r="C35" s="21"/>
       <c r="D35" s="76"/>
@@ -21722,7 +21710,7 @@
       <c r="L35" s="75"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1">
       <c r="B36" s="63"/>
       <c r="C36" s="21"/>
       <c r="D36" s="76"/>
@@ -21736,7 +21724,7 @@
       <c r="L36" s="75"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" ht="121.5" customHeight="1">
       <c r="B37" s="63"/>
       <c r="C37" s="21"/>
       <c r="D37" s="76"/>
@@ -21750,7 +21738,7 @@
       <c r="L37" s="75"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13">
       <c r="B38" s="63"/>
       <c r="C38" s="21"/>
       <c r="D38" s="18"/>
@@ -21764,17 +21752,17 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13">
       <c r="C44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13">
       <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13">
       <c r="C46" t="s">
         <v>264</v>
       </c>
@@ -21782,7 +21770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13">
       <c r="C47" t="s">
         <v>265</v>
       </c>
@@ -21790,7 +21778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13">
       <c r="C48" t="s">
         <v>264</v>
       </c>
@@ -21798,7 +21786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4">
       <c r="C49" t="s">
         <v>266</v>
       </c>
@@ -21806,7 +21794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -21815,10 +21803,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:4">
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:4">
       <c r="C52" t="s">
         <v>267</v>
       </c>
@@ -21826,10 +21814,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:4">
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:4">
       <c r="C54" t="s">
         <v>268</v>
       </c>
@@ -21838,7 +21826,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4">
       <c r="C55" t="s">
         <v>269</v>
       </c>
@@ -21847,11 +21835,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:4">
       <c r="D56" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:M33" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="B7:M33">
     <filterColumn colId="4">
       <filters>
         <filter val="対応中"/>
@@ -21866,222 +21854,222 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B38:C38 B8:C28 E29:F30 E8:F27 E38:G38 E28 J8:M30 H8:I28 J38:M38">
-    <cfRule type="expression" dxfId="43" priority="49">
+    <cfRule type="expression" dxfId="46" priority="49">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G28">
-    <cfRule type="expression" dxfId="42" priority="48">
+    <cfRule type="expression" dxfId="45" priority="48">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="44" priority="47">
       <formula>$F38="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="40" priority="46">
+    <cfRule type="expression" dxfId="43" priority="46">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="39" priority="45">
+    <cfRule type="expression" dxfId="42" priority="45">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="41" priority="38">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="37" priority="44">
+    <cfRule type="expression" dxfId="40" priority="44">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="36" priority="42">
+    <cfRule type="expression" dxfId="39" priority="42">
       <formula>$F28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="35" priority="41">
+    <cfRule type="expression" dxfId="38" priority="41">
       <formula>$F38="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="34" priority="40">
+    <cfRule type="expression" dxfId="37" priority="40">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="36" priority="39">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="32" priority="37">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="31" priority="36">
+    <cfRule type="expression" dxfId="34" priority="36">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="33" priority="35">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D30 D38">
-    <cfRule type="expression" dxfId="29" priority="34">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31 J31:M31">
-    <cfRule type="expression" dxfId="28" priority="33">
+    <cfRule type="expression" dxfId="31" priority="33">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="30" priority="32">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="26" priority="31">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B37">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="28" priority="26">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="23" priority="28">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:F37 J34:M37 L33:M33">
-    <cfRule type="expression" dxfId="22" priority="27">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G37">
-    <cfRule type="expression" dxfId="21" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:H37">
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:I37">
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C37">
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D37">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:F32 J32:K32 M32">
-    <cfRule type="expression" dxfId="15" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:F33 J33:K33">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22090,13 +22078,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>E8:E38 G38:H38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -22109,54 +22097,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -22167,22 +22155,22 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -22193,7 +22181,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>289</v>
       </c>
@@ -22201,7 +22189,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
         <v>290</v>
       </c>
@@ -22209,17 +22197,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="F19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="F20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="B22" t="s">
         <v>291</v>
       </c>
@@ -22227,7 +22215,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="B23" t="s">
         <v>289</v>
       </c>
@@ -22238,7 +22226,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="B24" t="s">
         <v>290</v>
       </c>
@@ -22249,7 +22237,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="B25" t="s">
         <v>292</v>
       </c>
@@ -22257,7 +22245,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>289</v>
       </c>
@@ -22265,7 +22253,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>290</v>
       </c>
@@ -22273,127 +22261,127 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="1" customFormat="1">
       <c r="A29" s="80">
         <v>43331</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="B30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="B31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="B32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2">
       <c r="B55" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
         <v>326</v>
       </c>
@@ -22405,206 +22393,206 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>363</v>
       </c>
@@ -22616,12 +22604,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22629,44 +22617,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -22679,46 +22667,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" s="54" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" s="55"/>
     </row>
   </sheetData>
@@ -22728,22 +22716,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
-    <col min="2" max="2" width="45.453125" customWidth="1"/>
-    <col min="3" max="3" width="52.36328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="77.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="52.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="77.25" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="51.453125" customWidth="1"/>
+    <col min="6" max="6" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="D1" t="s">
         <v>31</v>
       </c>
@@ -22751,62 +22739,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="D16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
@@ -22814,7 +22802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -22828,7 +22816,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="165" customHeight="1">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -22846,7 +22834,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1">
       <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
@@ -22861,7 +22849,7 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
@@ -22873,7 +22861,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
@@ -22885,7 +22873,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="B23" s="18" t="s">
         <v>59</v>
       </c>
@@ -22899,7 +22887,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="52" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="54">
       <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
@@ -22914,7 +22902,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="B25" s="18" t="s">
         <v>65</v>
       </c>
@@ -22926,7 +22914,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="40.5">
       <c r="B26" s="18" t="s">
         <v>68</v>
       </c>
@@ -22941,7 +22929,7 @@
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
@@ -22953,7 +22941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="B28" s="18" t="s">
         <v>71</v>
       </c>
@@ -22962,7 +22950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="B29" s="21" t="s">
         <v>73</v>
       </c>
@@ -22974,7 +22962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
@@ -22989,7 +22977,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="B31" s="21" t="s">
         <v>76</v>
       </c>
@@ -23001,21 +22989,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -23023,7 +23011,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="16" customFormat="1">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -23031,7 +23019,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" s="16" customFormat="1">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -23039,7 +23027,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="16" customFormat="1">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -23047,7 +23035,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="16" customFormat="1">
       <c r="A40" s="6"/>
       <c r="B40"/>
     </row>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -5191,28 +5191,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="177">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="174">
     <dxf>
       <fill>
         <patternFill>
@@ -6487,7 +6466,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6566,7 +6545,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7080,11 +7059,11 @@
       </c>
       <c r="C8" s="57">
         <f>SUM(WBS!BX66:EF66)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$66:$EG$66)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="57">
         <f t="shared" si="0"/>
@@ -7114,11 +7093,11 @@
       </c>
       <c r="C10" s="58">
         <f>SUM(C3:C8)</f>
-        <v>215.5</v>
+        <v>216.5</v>
       </c>
       <c r="D10" s="58">
         <f>SUM(D3:D8)</f>
-        <v>214.5</v>
+        <v>215.5</v>
       </c>
       <c r="E10" s="57">
         <f>ROUND(D10/6,0)</f>
@@ -12977,7 +12956,7 @@
       <c r="L31" s="40"/>
       <c r="M31" s="48">
         <f t="shared" si="58"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -13072,7 +13051,9 @@
       <c r="CY31" s="11">
         <v>1.5</v>
       </c>
-      <c r="CZ31" s="11"/>
+      <c r="CZ31" s="11">
+        <v>1</v>
+      </c>
       <c r="DA31" s="11"/>
       <c r="DB31" s="11"/>
       <c r="DC31" s="11"/>
@@ -18224,7 +18205,7 @@
     <row r="66" spans="2:138">
       <c r="M66" s="45">
         <f t="shared" si="59"/>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" ref="O66:AT66" si="60">SUM(O13:O65)</f>
@@ -18584,7 +18565,7 @@
       </c>
       <c r="CZ66" s="14">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA66" s="14">
         <f t="shared" si="62"/>
@@ -20158,486 +20139,486 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="O64:BN65 O11:BF12 O47:DC49 O26:DC27 O13:DC19 O41:DC44 O21:DC22 EC11:EF65">
-    <cfRule type="expression" dxfId="176" priority="206">
+    <cfRule type="expression" dxfId="173" priority="206">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="207">
+    <cfRule type="expression" dxfId="172" priority="207">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="208">
+    <cfRule type="expression" dxfId="171" priority="208">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:BF11 EC11:EF11">
-    <cfRule type="expression" dxfId="173" priority="205">
+    <cfRule type="expression" dxfId="170" priority="205">
       <formula>O$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:BN63">
-    <cfRule type="expression" dxfId="172" priority="202">
+    <cfRule type="expression" dxfId="169" priority="202">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="203">
+    <cfRule type="expression" dxfId="168" priority="203">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="204">
+    <cfRule type="expression" dxfId="167" priority="204">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO64:DC65">
-    <cfRule type="expression" dxfId="169" priority="199">
+    <cfRule type="expression" dxfId="166" priority="199">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="200">
+    <cfRule type="expression" dxfId="165" priority="200">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="201">
+    <cfRule type="expression" dxfId="164" priority="201">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO50:DC63">
-    <cfRule type="expression" dxfId="166" priority="195">
+    <cfRule type="expression" dxfId="163" priority="195">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="196">
+    <cfRule type="expression" dxfId="162" priority="196">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="197">
+    <cfRule type="expression" dxfId="161" priority="197">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DB12">
-    <cfRule type="expression" dxfId="163" priority="192">
+    <cfRule type="expression" dxfId="160" priority="192">
       <formula>BG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="193">
+    <cfRule type="expression" dxfId="159" priority="193">
       <formula>BG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="194">
+    <cfRule type="expression" dxfId="158" priority="194">
       <formula>BG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DB11">
-    <cfRule type="expression" dxfId="160" priority="191">
+    <cfRule type="expression" dxfId="157" priority="191">
       <formula>BG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45:DC45">
-    <cfRule type="expression" dxfId="159" priority="187">
+    <cfRule type="expression" dxfId="156" priority="187">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="188">
+    <cfRule type="expression" dxfId="155" priority="188">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="189">
+    <cfRule type="expression" dxfId="154" priority="189">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O46:AM46 AP46:DC46">
-    <cfRule type="expression" dxfId="156" priority="180">
+    <cfRule type="expression" dxfId="153" priority="180">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="181">
+    <cfRule type="expression" dxfId="152" priority="181">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="182">
+    <cfRule type="expression" dxfId="151" priority="182">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:DC25">
-    <cfRule type="expression" dxfId="153" priority="169">
+    <cfRule type="expression" dxfId="150" priority="169">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="170">
+    <cfRule type="expression" dxfId="149" priority="170">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="171">
+    <cfRule type="expression" dxfId="148" priority="171">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40:DC40">
-    <cfRule type="expression" dxfId="150" priority="165">
+    <cfRule type="expression" dxfId="147" priority="165">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="166">
+    <cfRule type="expression" dxfId="146" priority="166">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="167">
+    <cfRule type="expression" dxfId="145" priority="167">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:DC38">
-    <cfRule type="expression" dxfId="147" priority="161">
+    <cfRule type="expression" dxfId="144" priority="161">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="162">
+    <cfRule type="expression" dxfId="143" priority="162">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="163">
+    <cfRule type="expression" dxfId="142" priority="163">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO46">
-    <cfRule type="expression" dxfId="144" priority="148">
+    <cfRule type="expression" dxfId="141" priority="148">
       <formula>AO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="149">
+    <cfRule type="expression" dxfId="140" priority="149">
       <formula>AO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="150">
+    <cfRule type="expression" dxfId="139" priority="150">
       <formula>AO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:DC23">
-    <cfRule type="expression" dxfId="141" priority="145">
+    <cfRule type="expression" dxfId="138" priority="145">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="146">
+    <cfRule type="expression" dxfId="137" priority="146">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="147">
+    <cfRule type="expression" dxfId="136" priority="147">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN46">
-    <cfRule type="expression" dxfId="138" priority="141">
+    <cfRule type="expression" dxfId="135" priority="141">
       <formula>AN$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="142">
+    <cfRule type="expression" dxfId="134" priority="142">
       <formula>AN$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="143">
+    <cfRule type="expression" dxfId="133" priority="143">
       <formula>AN$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:DC20">
-    <cfRule type="expression" dxfId="135" priority="138">
+    <cfRule type="expression" dxfId="132" priority="138">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="139">
+    <cfRule type="expression" dxfId="131" priority="139">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="140">
+    <cfRule type="expression" dxfId="130" priority="140">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:DC24">
-    <cfRule type="expression" dxfId="132" priority="134">
+    <cfRule type="expression" dxfId="129" priority="134">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="135">
+    <cfRule type="expression" dxfId="128" priority="135">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="136">
+    <cfRule type="expression" dxfId="127" priority="136">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39:DC39">
-    <cfRule type="expression" dxfId="129" priority="129">
+    <cfRule type="expression" dxfId="126" priority="129">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="130">
+    <cfRule type="expression" dxfId="125" priority="130">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="131">
+    <cfRule type="expression" dxfId="124" priority="131">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:M65">
-    <cfRule type="expression" dxfId="126" priority="120">
+    <cfRule type="expression" dxfId="123" priority="120">
       <formula>$J13="対応中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="190">
+    <cfRule type="expression" dxfId="122" priority="190">
       <formula>$J13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD64:DF65 DD21:DF22 DD41:DF44 DD13:DF19 DD26:DF27 DD47:DF49">
-    <cfRule type="expression" dxfId="124" priority="117">
+    <cfRule type="expression" dxfId="121" priority="117">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="118">
+    <cfRule type="expression" dxfId="120" priority="118">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="119">
+    <cfRule type="expression" dxfId="119" priority="119">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD50:DF63">
-    <cfRule type="expression" dxfId="121" priority="114">
+    <cfRule type="expression" dxfId="118" priority="114">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="115">
+    <cfRule type="expression" dxfId="117" priority="115">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="116">
+    <cfRule type="expression" dxfId="116" priority="116">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD45:DF45">
-    <cfRule type="expression" dxfId="118" priority="107">
+    <cfRule type="expression" dxfId="115" priority="107">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="108">
+    <cfRule type="expression" dxfId="114" priority="108">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="109">
+    <cfRule type="expression" dxfId="113" priority="109">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD46:DF46">
-    <cfRule type="expression" dxfId="115" priority="104">
+    <cfRule type="expression" dxfId="112" priority="104">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="105">
+    <cfRule type="expression" dxfId="111" priority="105">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="106">
+    <cfRule type="expression" dxfId="110" priority="106">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD25:DF25">
-    <cfRule type="expression" dxfId="112" priority="101">
+    <cfRule type="expression" dxfId="109" priority="101">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="102">
+    <cfRule type="expression" dxfId="108" priority="102">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="103">
+    <cfRule type="expression" dxfId="107" priority="103">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD40:DF40">
-    <cfRule type="expression" dxfId="109" priority="98">
+    <cfRule type="expression" dxfId="106" priority="98">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="99">
+    <cfRule type="expression" dxfId="105" priority="99">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="100">
+    <cfRule type="expression" dxfId="104" priority="100">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD28:DF38">
-    <cfRule type="expression" dxfId="106" priority="95">
+    <cfRule type="expression" dxfId="103" priority="95">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="96">
+    <cfRule type="expression" dxfId="102" priority="96">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="97">
+    <cfRule type="expression" dxfId="101" priority="97">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD23:DF23">
-    <cfRule type="expression" dxfId="103" priority="92">
+    <cfRule type="expression" dxfId="100" priority="92">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="93">
+    <cfRule type="expression" dxfId="99" priority="93">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="94">
+    <cfRule type="expression" dxfId="98" priority="94">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD20:DF20">
-    <cfRule type="expression" dxfId="100" priority="89">
+    <cfRule type="expression" dxfId="97" priority="89">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="90">
+    <cfRule type="expression" dxfId="96" priority="90">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="91">
+    <cfRule type="expression" dxfId="95" priority="91">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD24:DF24">
-    <cfRule type="expression" dxfId="97" priority="86">
+    <cfRule type="expression" dxfId="94" priority="86">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="87">
+    <cfRule type="expression" dxfId="93" priority="87">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="88">
+    <cfRule type="expression" dxfId="92" priority="88">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD39:DF39">
-    <cfRule type="expression" dxfId="94" priority="83">
+    <cfRule type="expression" dxfId="91" priority="83">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="84">
+    <cfRule type="expression" dxfId="90" priority="84">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="85">
+    <cfRule type="expression" dxfId="89" priority="85">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC11:DF12">
-    <cfRule type="expression" dxfId="91" priority="80">
+    <cfRule type="expression" dxfId="88" priority="80">
       <formula>DC$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="81">
+    <cfRule type="expression" dxfId="87" priority="81">
       <formula>DC$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="82">
+    <cfRule type="expression" dxfId="86" priority="82">
       <formula>DC$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC11:DF11">
-    <cfRule type="expression" dxfId="88" priority="79">
+    <cfRule type="expression" dxfId="85" priority="79">
       <formula>DC$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG64:EB65 DG21:EB22 DG41:EB44 DG13:EB19 DG26:EB27 DG47:EB49">
-    <cfRule type="expression" dxfId="87" priority="76">
+    <cfRule type="expression" dxfId="84" priority="76">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="77">
+    <cfRule type="expression" dxfId="83" priority="77">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="78">
+    <cfRule type="expression" dxfId="82" priority="78">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG50:EB63">
-    <cfRule type="expression" dxfId="84" priority="73">
+    <cfRule type="expression" dxfId="81" priority="73">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="74">
+    <cfRule type="expression" dxfId="80" priority="74">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="75">
+    <cfRule type="expression" dxfId="79" priority="75">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG45:EB45">
-    <cfRule type="expression" dxfId="81" priority="70">
+    <cfRule type="expression" dxfId="78" priority="70">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="71">
+    <cfRule type="expression" dxfId="77" priority="71">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="72">
+    <cfRule type="expression" dxfId="76" priority="72">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG46:EB46">
-    <cfRule type="expression" dxfId="78" priority="67">
+    <cfRule type="expression" dxfId="75" priority="67">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="68">
+    <cfRule type="expression" dxfId="74" priority="68">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="69">
+    <cfRule type="expression" dxfId="73" priority="69">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG25:EB25">
-    <cfRule type="expression" dxfId="75" priority="64">
+    <cfRule type="expression" dxfId="72" priority="64">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="65">
+    <cfRule type="expression" dxfId="71" priority="65">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="66">
+    <cfRule type="expression" dxfId="70" priority="66">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG40:EB40">
-    <cfRule type="expression" dxfId="72" priority="61">
+    <cfRule type="expression" dxfId="69" priority="61">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="62">
+    <cfRule type="expression" dxfId="68" priority="62">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="63">
+    <cfRule type="expression" dxfId="67" priority="63">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG28:EB38">
-    <cfRule type="expression" dxfId="69" priority="58">
+    <cfRule type="expression" dxfId="66" priority="58">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="59">
+    <cfRule type="expression" dxfId="65" priority="59">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="60">
+    <cfRule type="expression" dxfId="64" priority="60">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG23:EB23">
-    <cfRule type="expression" dxfId="66" priority="55">
+    <cfRule type="expression" dxfId="63" priority="55">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="56">
+    <cfRule type="expression" dxfId="62" priority="56">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="57">
+    <cfRule type="expression" dxfId="61" priority="57">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG20:EB20">
-    <cfRule type="expression" dxfId="63" priority="52">
+    <cfRule type="expression" dxfId="60" priority="52">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="53">
+    <cfRule type="expression" dxfId="59" priority="53">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="54">
+    <cfRule type="expression" dxfId="58" priority="54">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG24:EB24">
-    <cfRule type="expression" dxfId="60" priority="49">
+    <cfRule type="expression" dxfId="57" priority="49">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="50">
+    <cfRule type="expression" dxfId="56" priority="50">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="51">
+    <cfRule type="expression" dxfId="55" priority="51">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG39:EB39">
-    <cfRule type="expression" dxfId="57" priority="46">
+    <cfRule type="expression" dxfId="54" priority="46">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="47">
+    <cfRule type="expression" dxfId="53" priority="47">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="48">
+    <cfRule type="expression" dxfId="52" priority="48">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG11:EB12">
-    <cfRule type="expression" dxfId="54" priority="43">
+    <cfRule type="expression" dxfId="51" priority="43">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="44">
+    <cfRule type="expression" dxfId="50" priority="44">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="45">
+    <cfRule type="expression" dxfId="49" priority="45">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG11:EB11">
-    <cfRule type="expression" dxfId="51" priority="42">
+    <cfRule type="expression" dxfId="48" priority="42">
       <formula>DG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG11:EG65">
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="47" priority="2">
       <formula>EG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="3">
+    <cfRule type="expression" dxfId="46" priority="3">
       <formula>EG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="4">
+    <cfRule type="expression" dxfId="45" priority="4">
       <formula>EG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG11">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>EG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21854,222 +21835,222 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B38:C38 B8:C28 E29:F30 E8:F27 E38:G38 E28 J8:M30 H8:I28 J38:M38">
-    <cfRule type="expression" dxfId="46" priority="49">
+    <cfRule type="expression" dxfId="43" priority="49">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G28">
-    <cfRule type="expression" dxfId="45" priority="48">
+    <cfRule type="expression" dxfId="42" priority="48">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="44" priority="47">
+    <cfRule type="expression" dxfId="41" priority="47">
       <formula>$F38="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="43" priority="46">
+    <cfRule type="expression" dxfId="40" priority="46">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="42" priority="45">
+    <cfRule type="expression" dxfId="39" priority="45">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="41" priority="38">
+    <cfRule type="expression" dxfId="38" priority="38">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="40" priority="44">
+    <cfRule type="expression" dxfId="37" priority="44">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="39" priority="42">
+    <cfRule type="expression" dxfId="36" priority="42">
       <formula>$F28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="38" priority="41">
+    <cfRule type="expression" dxfId="35" priority="41">
       <formula>$F38="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="37" priority="40">
+    <cfRule type="expression" dxfId="34" priority="40">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="36" priority="39">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="32" priority="37">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="34" priority="36">
+    <cfRule type="expression" dxfId="31" priority="36">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="33" priority="35">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D30 D38">
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="29" priority="34">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31 J31:M31">
-    <cfRule type="expression" dxfId="31" priority="33">
+    <cfRule type="expression" dxfId="28" priority="33">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="27" priority="32">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="26" priority="31">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B37">
-    <cfRule type="expression" dxfId="28" priority="26">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="24" priority="29">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="23" priority="28">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:F37 J34:M37 L33:M33">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G37">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:H37">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:I37">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C37">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D37">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:F32 J32:K32 M32">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:F33 J33:K33">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -6466,7 +6466,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6545,7 +6545,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7059,11 +7059,11 @@
       </c>
       <c r="C8" s="57">
         <f>SUM(WBS!BX66:EF66)</f>
-        <v>36</v>
+        <v>37.5</v>
       </c>
       <c r="D8" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$66:$EG$66)</f>
-        <v>36</v>
+        <v>37.5</v>
       </c>
       <c r="E8" s="57">
         <f t="shared" si="0"/>
@@ -7093,11 +7093,11 @@
       </c>
       <c r="C10" s="58">
         <f>SUM(C3:C8)</f>
-        <v>216.5</v>
+        <v>218</v>
       </c>
       <c r="D10" s="58">
         <f>SUM(D3:D8)</f>
-        <v>215.5</v>
+        <v>217</v>
       </c>
       <c r="E10" s="57">
         <f>ROUND(D10/6,0)</f>
@@ -7527,7 +7527,7 @@
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="CZ31" sqref="CZ31"/>
+      <selection pane="bottomRight" activeCell="DA32" sqref="DA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12956,7 +12956,7 @@
       <c r="L31" s="40"/>
       <c r="M31" s="48">
         <f t="shared" si="58"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -13054,7 +13054,9 @@
       <c r="CZ31" s="11">
         <v>1</v>
       </c>
-      <c r="DA31" s="11"/>
+      <c r="DA31" s="11">
+        <v>1.5</v>
+      </c>
       <c r="DB31" s="11"/>
       <c r="DC31" s="11"/>
       <c r="DD31" s="11"/>
@@ -18205,7 +18207,7 @@
     <row r="66" spans="2:138">
       <c r="M66" s="45">
         <f t="shared" si="59"/>
-        <v>126</v>
+        <v>127.5</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" ref="O66:AT66" si="60">SUM(O13:O65)</f>
@@ -18569,7 +18571,7 @@
       </c>
       <c r="DA66" s="14">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="DB66" s="14">
         <f t="shared" si="62"/>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC59BF0-9E1D-48A4-8F34-7C7E46919B0D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18080" windowHeight="8180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$EK$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題整理_0609!$B$7:$M$33</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -4662,7 +4663,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -4671,7 +4672,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6466,7 +6467,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6545,7 +6546,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6660,7 +6661,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6702,7 +6703,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6735,9 +6736,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6770,6 +6788,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6945,22 +6980,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="28" t="s">
         <v>124</v>
       </c>
@@ -6974,7 +7009,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="18">
         <v>3</v>
       </c>
@@ -6989,7 +7024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="18">
         <v>4</v>
       </c>
@@ -7004,7 +7039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="18">
         <v>5</v>
       </c>
@@ -7019,7 +7054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="18">
         <v>6</v>
       </c>
@@ -7036,7 +7071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="18">
         <v>7</v>
       </c>
@@ -7053,24 +7088,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="18">
         <v>8</v>
       </c>
       <c r="C8" s="57">
         <f>SUM(WBS!BX66:EF66)</f>
-        <v>37.5</v>
+        <v>43.5</v>
       </c>
       <c r="D8" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$66:$EG$66)</f>
-        <v>37.5</v>
+        <v>43.5</v>
       </c>
       <c r="E8" s="57">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="18">
         <v>9</v>
       </c>
@@ -7087,21 +7122,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="81" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="58">
         <f>SUM(C3:C8)</f>
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D10" s="58">
         <f>SUM(D3:D8)</f>
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E10" s="57">
         <f>ROUND(D10/6,0)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -7111,17 +7146,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -7129,7 +7164,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -7137,7 +7172,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>106</v>
       </c>
@@ -7145,7 +7180,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -7156,7 +7191,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I7" s="27" t="s">
         <v>120</v>
       </c>
@@ -7164,68 +7199,68 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1">
+    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="26" customFormat="1">
+    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C17" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="26" customFormat="1">
+    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="26" customFormat="1">
+    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="26" customFormat="1"/>
-    <row r="22" spans="2:16" s="24" customFormat="1">
+    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>91</v>
       </c>
@@ -7233,27 +7268,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>96</v>
       </c>
@@ -7261,37 +7296,37 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>103</v>
       </c>
@@ -7302,7 +7337,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7310,21 +7345,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7338,7 +7373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7349,7 +7384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7360,7 +7395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7368,7 +7403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7382,7 +7417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7390,7 +7425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7426,7 +7461,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7437,62 +7472,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -7503,7 +7538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7519,37 +7554,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:EH94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="CV13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="CZ16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="DA32" sqref="DA32"/>
+      <selection pane="bottomRight" activeCell="DB32" sqref="DB32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="3" width="2.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="2" max="3" width="2.36328125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="8" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.125" customWidth="1"/>
+    <col min="12" max="12" width="32.08984375" customWidth="1"/>
     <col min="13" max="13" width="10" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="137" width="7.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.90625" customWidth="1"/>
+    <col min="15" max="137" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="3.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:138" s="39" customFormat="1">
+    <row r="1" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="H1" s="8"/>
@@ -7683,7 +7718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:138" s="39" customFormat="1">
+    <row r="2" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
@@ -7819,7 +7854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:138" s="39" customFormat="1">
+    <row r="3" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
@@ -7956,7 +7991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:138" s="39" customFormat="1">
+    <row r="4" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
@@ -8093,7 +8128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:138" s="39" customFormat="1">
+    <row r="5" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="H5" s="8"/>
@@ -8227,7 +8262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:138" s="39" customFormat="1">
+    <row r="6" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>149</v>
       </c>
@@ -8363,7 +8398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:138" s="39" customFormat="1">
+    <row r="7" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>159</v>
@@ -8501,7 +8536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:138" s="39" customFormat="1">
+    <row r="8" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="H8" s="8"/>
@@ -8635,7 +8670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:138">
+    <row r="9" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -8763,7 +8798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:138">
+    <row r="10" spans="2:138" x14ac:dyDescent="0.2">
       <c r="L10" s="7"/>
       <c r="O10" s="29">
         <v>43252</v>
@@ -9138,7 +9173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:138">
+    <row r="11" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O11" s="9">
         <f>O10</f>
         <v>43252</v>
@@ -9635,7 +9670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:138" ht="28.5" customHeight="1">
+    <row r="12" spans="2:138" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="82" t="s">
         <v>0</v>
       </c>
@@ -10160,7 +10195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:138">
+    <row r="13" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B13" s="30">
         <v>1</v>
       </c>
@@ -10321,7 +10356,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:138">
+    <row r="14" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="42" t="s">
@@ -10476,7 +10511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:138">
+    <row r="15" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="42"/>
@@ -10621,7 +10656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:138">
+    <row r="16" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="42"/>
@@ -10764,7 +10799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:138">
+    <row r="17" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="42"/>
@@ -10921,7 +10956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:138">
+    <row r="18" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="42"/>
@@ -11076,7 +11111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:138">
+    <row r="19" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="42"/>
@@ -11231,7 +11266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:138">
+    <row r="20" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="42"/>
@@ -11392,7 +11427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:138">
+    <row r="21" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="42"/>
@@ -11547,7 +11582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:138">
+    <row r="22" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="42"/>
@@ -11704,7 +11739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:138">
+    <row r="23" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="42"/>
@@ -11859,7 +11894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:138">
+    <row r="24" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="42"/>
@@ -12014,7 +12049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:138">
+    <row r="25" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="42"/>
@@ -12157,7 +12192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:138">
+    <row r="26" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="42"/>
@@ -12300,7 +12335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:138">
+    <row r="27" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B27" s="30"/>
       <c r="C27" s="30">
         <v>2</v>
@@ -12455,7 +12490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:138">
+    <row r="28" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="42"/>
@@ -12612,7 +12647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:138">
+    <row r="29" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="42"/>
@@ -12769,7 +12804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:138">
+    <row r="30" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="42"/>
@@ -12930,7 +12965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:138">
+    <row r="31" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="42"/>
@@ -12956,7 +12991,7 @@
       <c r="L31" s="40"/>
       <c r="M31" s="48">
         <f t="shared" si="58"/>
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -13057,7 +13092,9 @@
       <c r="DA31" s="11">
         <v>1.5</v>
       </c>
-      <c r="DB31" s="11"/>
+      <c r="DB31" s="11">
+        <v>6</v>
+      </c>
       <c r="DC31" s="11"/>
       <c r="DD31" s="11"/>
       <c r="DE31" s="11"/>
@@ -13093,7 +13130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:138">
+    <row r="32" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="42"/>
@@ -13277,7 +13314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:138">
+    <row r="33" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="42"/>
@@ -13434,7 +13471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:138">
+    <row r="34" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="42"/>
@@ -13591,7 +13628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:138">
+    <row r="35" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="42"/>
@@ -13748,7 +13785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:138">
+    <row r="36" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="42"/>
@@ -13907,7 +13944,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:138">
+    <row r="37" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="42"/>
@@ -14062,7 +14099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:138">
+    <row r="38" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="42"/>
@@ -14219,7 +14256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:138">
+    <row r="39" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="42"/>
@@ -14374,7 +14411,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:138">
+    <row r="40" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="42"/>
@@ -14517,7 +14554,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:138">
+    <row r="41" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B41" s="30"/>
       <c r="C41" s="30">
         <v>3</v>
@@ -14674,7 +14711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:138">
+    <row r="42" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="42"/>
@@ -14817,7 +14854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:138">
+    <row r="43" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="42"/>
@@ -14970,7 +15007,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:138">
+    <row r="44" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="42"/>
@@ -15113,7 +15150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:138">
+    <row r="45" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="42"/>
@@ -15264,7 +15301,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:138">
+    <row r="46" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="42"/>
@@ -15413,7 +15450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:138" ht="48" customHeight="1">
+    <row r="47" spans="2:138" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="42"/>
@@ -15556,7 +15593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:138" ht="27">
+    <row r="48" spans="2:138" ht="39" x14ac:dyDescent="0.2">
       <c r="B48" s="30">
         <v>2</v>
       </c>
@@ -15721,7 +15758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:138">
+    <row r="49" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="43"/>
@@ -15864,7 +15901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:138">
+    <row r="50" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="43"/>
@@ -16015,7 +16052,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:138">
+    <row r="51" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="43"/>
@@ -16158,7 +16195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:138">
+    <row r="52" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="43"/>
@@ -16313,7 +16350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:138">
+    <row r="53" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="43"/>
@@ -16456,7 +16493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:138" ht="27">
+    <row r="54" spans="2:138" ht="39" x14ac:dyDescent="0.2">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="43"/>
@@ -16607,7 +16644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:138">
+    <row r="55" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="43"/>
@@ -16750,7 +16787,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:138" ht="27">
+    <row r="56" spans="2:138" ht="26" x14ac:dyDescent="0.2">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="43"/>
@@ -16911,7 +16948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:138">
+    <row r="57" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
@@ -17054,7 +17091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:138">
+    <row r="58" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="43"/>
@@ -17203,7 +17240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:138">
+    <row r="59" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="43"/>
@@ -17346,7 +17383,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:138">
+    <row r="60" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="4"/>
@@ -17489,7 +17526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:138">
+    <row r="61" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="4"/>
@@ -17632,7 +17669,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:138">
+    <row r="62" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="4"/>
@@ -17775,7 +17812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="2:138">
+    <row r="63" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="4"/>
@@ -17918,7 +17955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:138">
+    <row r="64" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="4"/>
@@ -18061,7 +18098,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:138">
+    <row r="65" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
       <c r="D65" s="5"/>
@@ -18204,10 +18241,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:138">
+    <row r="66" spans="2:138" x14ac:dyDescent="0.2">
       <c r="M66" s="45">
         <f t="shared" si="59"/>
-        <v>127.5</v>
+        <v>133.5</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" ref="O66:AT66" si="60">SUM(O13:O65)</f>
@@ -18575,7 +18612,7 @@
       </c>
       <c r="DB66" s="14">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DC66" s="14">
         <f t="shared" si="62"/>
@@ -18705,7 +18742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:138">
+    <row r="67" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O67" s="8">
         <v>6</v>
       </c>
@@ -18713,7 +18750,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:138">
+    <row r="68" spans="2:138" x14ac:dyDescent="0.2">
       <c r="E68" s="15"/>
       <c r="I68" s="8">
         <v>1.5</v>
@@ -18722,7 +18759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:138">
+    <row r="69" spans="2:138" x14ac:dyDescent="0.2">
       <c r="I69" s="8">
         <v>1</v>
       </c>
@@ -18730,12 +18767,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:138">
+    <row r="70" spans="2:138" x14ac:dyDescent="0.2">
       <c r="I70" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:138">
+    <row r="73" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O73" s="8">
         <v>6</v>
       </c>
@@ -18746,7 +18783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:138">
+    <row r="74" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O74" s="8">
         <v>10</v>
       </c>
@@ -18757,7 +18794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="15:137">
+    <row r="81" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
@@ -18882,7 +18919,7 @@
       <c r="EF81"/>
       <c r="EG81"/>
     </row>
-    <row r="84" spans="15:137">
+    <row r="84" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -19007,7 +19044,7 @@
       <c r="EF84"/>
       <c r="EG84"/>
     </row>
-    <row r="85" spans="15:137">
+    <row r="85" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -19132,7 +19169,7 @@
       <c r="EF85"/>
       <c r="EG85"/>
     </row>
-    <row r="86" spans="15:137">
+    <row r="86" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -19257,7 +19294,7 @@
       <c r="EF86"/>
       <c r="EG86"/>
     </row>
-    <row r="87" spans="15:137">
+    <row r="87" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -19382,7 +19419,7 @@
       <c r="EF87"/>
       <c r="EG87"/>
     </row>
-    <row r="88" spans="15:137">
+    <row r="88" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -19507,7 +19544,7 @@
       <c r="EF88"/>
       <c r="EG88"/>
     </row>
-    <row r="89" spans="15:137">
+    <row r="89" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -19632,7 +19669,7 @@
       <c r="EF89"/>
       <c r="EG89"/>
     </row>
-    <row r="90" spans="15:137">
+    <row r="90" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -19757,7 +19794,7 @@
       <c r="EF90"/>
       <c r="EG90"/>
     </row>
-    <row r="91" spans="15:137">
+    <row r="91" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -19882,7 +19919,7 @@
       <c r="EF91"/>
       <c r="EG91"/>
     </row>
-    <row r="93" spans="15:137">
+    <row r="93" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -20007,7 +20044,7 @@
       <c r="EF93"/>
       <c r="EG93"/>
     </row>
-    <row r="94" spans="15:137">
+    <row r="94" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
@@ -20133,7 +20170,7 @@
       <c r="EG94"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:EK14">
+  <autoFilter ref="B12:EK14" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -20630,7 +20667,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -20643,7 +20680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M56"/>
   <sheetViews>
@@ -20652,27 +20689,27 @@
       <selection activeCell="D37" sqref="D37"/>
       <selection pane="topRight" activeCell="D37" sqref="D37"/>
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.625" customWidth="1"/>
-    <col min="12" max="12" width="62.125" customWidth="1"/>
-    <col min="13" max="13" width="61.75" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.6328125" customWidth="1"/>
+    <col min="12" max="12" width="62.08984375" customWidth="1"/>
+    <col min="13" max="13" width="61.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
@@ -20680,21 +20717,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -20743,7 +20780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1">
+    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>199</v>
       </c>
@@ -20781,7 +20818,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1">
+    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="63">
         <v>1</v>
       </c>
@@ -20813,7 +20850,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1">
+    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="63">
         <v>2</v>
       </c>
@@ -20845,7 +20882,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" hidden="1">
+    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="63">
         <v>3</v>
       </c>
@@ -20877,7 +20914,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" hidden="1">
+    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="63">
         <v>4</v>
       </c>
@@ -20909,7 +20946,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" ht="27" hidden="1">
+    <row r="12" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="63">
         <v>5</v>
       </c>
@@ -20945,7 +20982,7 @@
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" ht="148.5" hidden="1">
+    <row r="13" spans="2:13" ht="156" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="63">
         <v>6</v>
       </c>
@@ -20981,7 +21018,7 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" ht="94.5" hidden="1">
+    <row r="14" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="63">
         <v>7</v>
       </c>
@@ -21015,7 +21052,7 @@
       </c>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" ht="108" hidden="1">
+    <row r="15" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" s="63">
         <v>8</v>
       </c>
@@ -21051,7 +21088,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" hidden="1">
+    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" s="63">
         <v>9</v>
       </c>
@@ -21083,7 +21120,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" hidden="1">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="63">
         <v>10</v>
       </c>
@@ -21115,7 +21152,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" hidden="1">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="63">
         <v>11</v>
       </c>
@@ -21151,7 +21188,7 @@
       </c>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5">
+    <row r="19" spans="2:13" ht="91" x14ac:dyDescent="0.2">
       <c r="B19" s="63">
         <v>12</v>
       </c>
@@ -21183,7 +21220,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="67.5" hidden="1">
+    <row r="20" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="63">
         <v>13</v>
       </c>
@@ -21221,7 +21258,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="135" hidden="1">
+    <row r="21" spans="2:13" ht="130" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="63">
         <v>14</v>
       </c>
@@ -21255,7 +21292,7 @@
       </c>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" ht="81" hidden="1">
+    <row r="22" spans="2:13" ht="78" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="63">
         <v>15</v>
       </c>
@@ -21291,7 +21328,7 @@
       </c>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1">
+    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="63">
         <v>16</v>
       </c>
@@ -21325,7 +21362,7 @@
       </c>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1">
+    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="63">
         <v>17</v>
       </c>
@@ -21361,7 +21398,7 @@
       </c>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1">
+    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="63">
         <v>18</v>
       </c>
@@ -21397,7 +21434,7 @@
       </c>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" ht="108" hidden="1">
+    <row r="26" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="63">
         <v>19</v>
       </c>
@@ -21429,7 +21466,7 @@
       <c r="L26" s="75"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" ht="67.5" hidden="1">
+    <row r="27" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="63">
         <v>20</v>
       </c>
@@ -21465,7 +21502,7 @@
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" ht="256.5" hidden="1">
+    <row r="28" spans="2:13" ht="247" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="63">
         <v>21</v>
       </c>
@@ -21495,7 +21532,7 @@
       <c r="L28" s="75"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" ht="67.5">
+    <row r="29" spans="2:13" ht="65" x14ac:dyDescent="0.2">
       <c r="B29" s="63">
         <v>22</v>
       </c>
@@ -21529,7 +21566,7 @@
       </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="63">
         <v>23</v>
       </c>
@@ -21565,7 +21602,7 @@
       </c>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="63">
         <v>24</v>
       </c>
@@ -21599,7 +21636,7 @@
       </c>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="63">
         <v>25</v>
       </c>
@@ -21633,7 +21670,7 @@
       </c>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" hidden="1">
+    <row r="33" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="63">
         <v>26</v>
       </c>
@@ -21665,7 +21702,7 @@
       <c r="L33" s="75"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1">
+    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="63"/>
       <c r="C34" s="21"/>
       <c r="D34" s="76"/>
@@ -21679,7 +21716,7 @@
       <c r="L34" s="75"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="63"/>
       <c r="C35" s="21"/>
       <c r="D35" s="76"/>
@@ -21693,7 +21730,7 @@
       <c r="L35" s="75"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="63"/>
       <c r="C36" s="21"/>
       <c r="D36" s="76"/>
@@ -21707,7 +21744,7 @@
       <c r="L36" s="75"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" ht="121.5" customHeight="1">
+    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="63"/>
       <c r="C37" s="21"/>
       <c r="D37" s="76"/>
@@ -21721,7 +21758,7 @@
       <c r="L37" s="75"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="63"/>
       <c r="C38" s="21"/>
       <c r="D38" s="18"/>
@@ -21735,17 +21772,17 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>264</v>
       </c>
@@ -21753,7 +21790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>265</v>
       </c>
@@ -21761,7 +21798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>264</v>
       </c>
@@ -21769,7 +21806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>266</v>
       </c>
@@ -21777,7 +21814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:4">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -21786,10 +21823,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:4">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="3:4">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>267</v>
       </c>
@@ -21797,10 +21834,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="3:4">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="3:4">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>268</v>
       </c>
@@ -21809,7 +21846,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:4">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>269</v>
       </c>
@@ -21818,11 +21855,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:4">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D56" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:M33">
+  <autoFilter ref="B7:M33" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="対応中"/>
@@ -22061,13 +22098,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>E8:E38 G38:H38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -22080,54 +22117,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -22138,22 +22175,22 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -22164,7 +22201,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>289</v>
       </c>
@@ -22172,7 +22209,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>290</v>
       </c>
@@ -22180,17 +22217,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>291</v>
       </c>
@@ -22198,7 +22235,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>289</v>
       </c>
@@ -22209,7 +22246,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>290</v>
       </c>
@@ -22220,7 +22257,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>292</v>
       </c>
@@ -22228,7 +22265,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>289</v>
       </c>
@@ -22236,7 +22273,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>290</v>
       </c>
@@ -22244,127 +22281,127 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1">
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="80">
         <v>43331</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>326</v>
       </c>
@@ -22376,206 +22413,206 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:A41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>363</v>
       </c>
@@ -22587,12 +22624,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22600,44 +22637,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -22650,46 +22687,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="54" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="55"/>
     </row>
   </sheetData>
@@ -22699,22 +22736,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
-    <col min="3" max="3" width="52.375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="77.25" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="45.453125" customWidth="1"/>
+    <col min="3" max="3" width="52.36328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="77.26953125" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="51.5" customWidth="1"/>
+    <col min="6" max="6" width="51.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>31</v>
       </c>
@@ -22722,62 +22759,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
@@ -22785,7 +22822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -22799,7 +22836,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1">
+    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -22817,7 +22854,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
@@ -22832,7 +22869,7 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
@@ -22844,7 +22881,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
@@ -22856,7 +22893,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="18" t="s">
         <v>59</v>
       </c>
@@ -22870,7 +22907,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54">
+    <row r="24" spans="1:6" ht="52" x14ac:dyDescent="0.2">
       <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
@@ -22885,7 +22922,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="18" t="s">
         <v>65</v>
       </c>
@@ -22897,7 +22934,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5">
+    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
         <v>68</v>
       </c>
@@ -22912,7 +22949,7 @@
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
@@ -22924,7 +22961,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>71</v>
       </c>
@@ -22933,7 +22970,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
         <v>73</v>
       </c>
@@ -22945,7 +22982,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
@@ -22960,7 +22997,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
         <v>76</v>
       </c>
@@ -22972,21 +23009,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -22994,7 +23031,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="16" customFormat="1">
+    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -23002,7 +23039,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="16" customFormat="1">
+    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -23010,7 +23047,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="16" customFormat="1">
+    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -23018,7 +23055,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="16" customFormat="1">
+    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40"/>
     </row>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC59BF0-9E1D-48A4-8F34-7C7E46919B0D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18080" windowHeight="8180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$EK$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題整理_0609!$B$7:$M$33</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -4663,7 +4662,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -4672,7 +4671,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6467,7 +6466,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6546,7 +6545,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6661,7 +6660,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6703,7 +6702,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6736,26 +6735,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6788,23 +6770,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6980,22 +6945,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5">
       <c r="B2" s="28" t="s">
         <v>124</v>
       </c>
@@ -7009,7 +6974,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5">
       <c r="B3" s="18">
         <v>3</v>
       </c>
@@ -7024,7 +6989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5">
       <c r="B4" s="18">
         <v>4</v>
       </c>
@@ -7039,7 +7004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5">
       <c r="B5" s="18">
         <v>5</v>
       </c>
@@ -7054,7 +7019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5">
       <c r="B6" s="18">
         <v>6</v>
       </c>
@@ -7071,7 +7036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5">
       <c r="B7" s="18">
         <v>7</v>
       </c>
@@ -7088,13 +7053,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5">
       <c r="B8" s="18">
         <v>8</v>
       </c>
       <c r="C8" s="57">
         <f>SUM(WBS!BX66:EF66)</f>
-        <v>43.5</v>
+        <v>46.5</v>
       </c>
       <c r="D8" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$66:$EG$66)</f>
@@ -7105,7 +7070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5">
       <c r="B9" s="18">
         <v>9</v>
       </c>
@@ -7115,20 +7080,20 @@
       </c>
       <c r="D9" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B9,WBS!$O$66:$EG$66)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="81" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="58">
         <f>SUM(C3:C8)</f>
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D10" s="58">
         <f>SUM(D3:D8)</f>
@@ -7146,17 +7111,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -7164,7 +7129,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -7172,7 +7137,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="I5" t="s">
         <v>106</v>
       </c>
@@ -7180,7 +7145,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -7191,7 +7156,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="I7" s="27" t="s">
         <v>120</v>
       </c>
@@ -7199,68 +7164,68 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="Q8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="Q9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="R10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="Q11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="26" customFormat="1">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" s="26" customFormat="1">
       <c r="C17" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" s="26" customFormat="1">
       <c r="B18" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" s="26" customFormat="1">
       <c r="C19" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" s="26" customFormat="1"/>
+    <row r="22" spans="2:16" s="24" customFormat="1">
       <c r="B22" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16">
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16">
       <c r="D24" t="s">
         <v>91</v>
       </c>
@@ -7268,27 +7233,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16">
       <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16">
       <c r="D27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16">
       <c r="E28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16">
       <c r="E29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16">
       <c r="E30" t="s">
         <v>96</v>
       </c>
@@ -7296,37 +7261,37 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16">
       <c r="B32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16">
       <c r="D34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16">
       <c r="E35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16">
       <c r="E36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16">
       <c r="D37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16">
       <c r="E38" t="s">
         <v>103</v>
       </c>
@@ -7337,7 +7302,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="I7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7345,21 +7310,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7373,7 +7338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7384,7 +7349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7395,7 +7360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7403,7 +7368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7417,7 +7382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7425,7 +7390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7461,7 +7426,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7472,62 +7437,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>2</v>
       </c>
@@ -7538,7 +7503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7554,7 +7519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:EH94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7562,29 +7527,29 @@
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="DB32" sqref="DB32"/>
+      <selection pane="bottomRight" activeCell="DC33" sqref="DC33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" customWidth="1"/>
-    <col min="2" max="3" width="2.36328125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" customWidth="1"/>
-    <col min="8" max="8" width="7.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="3" width="2.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="8" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.08984375" customWidth="1"/>
+    <col min="12" max="12" width="32.125" customWidth="1"/>
     <col min="13" max="13" width="10" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.90625" customWidth="1"/>
-    <col min="15" max="137" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.875" customWidth="1"/>
+    <col min="15" max="137" width="7.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:138" s="39" customFormat="1">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="H1" s="8"/>
@@ -7718,7 +7683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:138" s="39" customFormat="1">
       <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
@@ -7854,7 +7819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:138" s="39" customFormat="1">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
@@ -7991,7 +7956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:138" s="39" customFormat="1">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
@@ -8128,7 +8093,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:138" s="39" customFormat="1">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="H5" s="8"/>
@@ -8262,7 +8227,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:138" s="39" customFormat="1">
       <c r="B6" s="38" t="s">
         <v>149</v>
       </c>
@@ -8398,7 +8363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:138" s="39" customFormat="1">
       <c r="B7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>159</v>
@@ -8536,7 +8501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:138" s="39" customFormat="1">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="H8" s="8"/>
@@ -8670,7 +8635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:138">
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -8798,7 +8763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:138">
       <c r="L10" s="7"/>
       <c r="O10" s="29">
         <v>43252</v>
@@ -9173,7 +9138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:138">
       <c r="O11" s="9">
         <f>O10</f>
         <v>43252</v>
@@ -9670,7 +9635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:138" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:138" ht="28.5" customHeight="1">
       <c r="B12" s="82" t="s">
         <v>0</v>
       </c>
@@ -10195,7 +10160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:138">
       <c r="B13" s="30">
         <v>1</v>
       </c>
@@ -10356,7 +10321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:138">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="42" t="s">
@@ -10511,7 +10476,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:138">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="42"/>
@@ -10656,7 +10621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:138">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="42"/>
@@ -10799,7 +10764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:138">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="42"/>
@@ -10956,7 +10921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:138">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="42"/>
@@ -11111,7 +11076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:138">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="42"/>
@@ -11266,7 +11231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:138">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="42"/>
@@ -11427,7 +11392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:138">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="42"/>
@@ -11582,7 +11547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:138">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="42"/>
@@ -11739,7 +11704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:138">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="42"/>
@@ -11894,7 +11859,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:138">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="42"/>
@@ -12049,7 +12014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:138">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="42"/>
@@ -12192,7 +12157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:138">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="42"/>
@@ -12335,7 +12300,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:138">
       <c r="B27" s="30"/>
       <c r="C27" s="30">
         <v>2</v>
@@ -12490,7 +12455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:138">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="42"/>
@@ -12647,7 +12612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:138">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="42"/>
@@ -12804,7 +12769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:138">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="42"/>
@@ -12965,7 +12930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:138">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="42"/>
@@ -12991,7 +12956,7 @@
       <c r="L31" s="40"/>
       <c r="M31" s="48">
         <f t="shared" si="58"/>
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -13095,7 +13060,9 @@
       <c r="DB31" s="11">
         <v>6</v>
       </c>
-      <c r="DC31" s="11"/>
+      <c r="DC31" s="11">
+        <v>3</v>
+      </c>
       <c r="DD31" s="11"/>
       <c r="DE31" s="11"/>
       <c r="DF31" s="11"/>
@@ -13130,7 +13097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:138">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="42"/>
@@ -13314,7 +13281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:138">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="42"/>
@@ -13471,7 +13438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:138">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="42"/>
@@ -13628,7 +13595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:138">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="42"/>
@@ -13785,7 +13752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:138">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="42"/>
@@ -13944,7 +13911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:138">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="42"/>
@@ -14099,7 +14066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:138">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="42"/>
@@ -14256,7 +14223,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:138">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="42"/>
@@ -14411,7 +14378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:138">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="42"/>
@@ -14554,7 +14521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:138">
       <c r="B41" s="30"/>
       <c r="C41" s="30">
         <v>3</v>
@@ -14711,7 +14678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:138">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="42"/>
@@ -14854,7 +14821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:138">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="42"/>
@@ -15007,7 +14974,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:138">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="42"/>
@@ -15150,7 +15117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:138">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="42"/>
@@ -15301,7 +15268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:138">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="42"/>
@@ -15450,7 +15417,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:138" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:138" ht="48" customHeight="1">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="42"/>
@@ -15593,7 +15560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:138" ht="39" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:138" ht="27">
       <c r="B48" s="30">
         <v>2</v>
       </c>
@@ -15758,7 +15725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:138">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="43"/>
@@ -15901,7 +15868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:138">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="43"/>
@@ -16052,7 +16019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:138">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="43"/>
@@ -16195,7 +16162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:138">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="43"/>
@@ -16350,7 +16317,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:138">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="43"/>
@@ -16493,7 +16460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:138" ht="39" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:138" ht="27">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="43"/>
@@ -16644,7 +16611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:138">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="43"/>
@@ -16787,7 +16754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:138" ht="26" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:138" ht="27">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="43"/>
@@ -16948,7 +16915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:138">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
@@ -17091,7 +17058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:138">
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="43"/>
@@ -17240,7 +17207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:138">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="43"/>
@@ -17383,7 +17350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:138">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="4"/>
@@ -17526,7 +17493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:138">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="4"/>
@@ -17669,7 +17636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:138">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="4"/>
@@ -17812,7 +17779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:138">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="4"/>
@@ -17955,7 +17922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:138">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="4"/>
@@ -18098,7 +18065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:138">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
       <c r="D65" s="5"/>
@@ -18241,10 +18208,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:138">
       <c r="M66" s="45">
         <f t="shared" si="59"/>
-        <v>133.5</v>
+        <v>136.5</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" ref="O66:AT66" si="60">SUM(O13:O65)</f>
@@ -18616,7 +18583,7 @@
       </c>
       <c r="DC66" s="14">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DD66" s="14">
         <f t="shared" ref="DD66:DF66" si="63">SUM(DD13:DD65)</f>
@@ -18742,7 +18709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:138">
       <c r="O67" s="8">
         <v>6</v>
       </c>
@@ -18750,7 +18717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:138">
       <c r="E68" s="15"/>
       <c r="I68" s="8">
         <v>1.5</v>
@@ -18759,7 +18726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:138">
       <c r="I69" s="8">
         <v>1</v>
       </c>
@@ -18767,12 +18734,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:138">
       <c r="I70" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:138">
       <c r="O73" s="8">
         <v>6</v>
       </c>
@@ -18783,7 +18750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:138">
       <c r="O74" s="8">
         <v>10</v>
       </c>
@@ -18794,7 +18761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="81" spans="15:137">
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
@@ -18919,7 +18886,7 @@
       <c r="EF81"/>
       <c r="EG81"/>
     </row>
-    <row r="84" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="84" spans="15:137">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -19044,7 +19011,7 @@
       <c r="EF84"/>
       <c r="EG84"/>
     </row>
-    <row r="85" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="85" spans="15:137">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -19169,7 +19136,7 @@
       <c r="EF85"/>
       <c r="EG85"/>
     </row>
-    <row r="86" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="86" spans="15:137">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -19294,7 +19261,7 @@
       <c r="EF86"/>
       <c r="EG86"/>
     </row>
-    <row r="87" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="87" spans="15:137">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -19419,7 +19386,7 @@
       <c r="EF87"/>
       <c r="EG87"/>
     </row>
-    <row r="88" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="88" spans="15:137">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -19544,7 +19511,7 @@
       <c r="EF88"/>
       <c r="EG88"/>
     </row>
-    <row r="89" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="89" spans="15:137">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -19669,7 +19636,7 @@
       <c r="EF89"/>
       <c r="EG89"/>
     </row>
-    <row r="90" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="90" spans="15:137">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -19794,7 +19761,7 @@
       <c r="EF90"/>
       <c r="EG90"/>
     </row>
-    <row r="91" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="91" spans="15:137">
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -19919,7 +19886,7 @@
       <c r="EF91"/>
       <c r="EG91"/>
     </row>
-    <row r="93" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="93" spans="15:137">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -20044,7 +20011,7 @@
       <c r="EF93"/>
       <c r="EG93"/>
     </row>
-    <row r="94" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="94" spans="15:137">
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
@@ -20170,7 +20137,7 @@
       <c r="EG94"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:EK14" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="B12:EK14">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -20667,7 +20634,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -20680,7 +20647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M56"/>
   <sheetViews>
@@ -20692,24 +20659,24 @@
       <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" customWidth="1"/>
-    <col min="3" max="3" width="44.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.6328125" customWidth="1"/>
-    <col min="12" max="12" width="62.08984375" customWidth="1"/>
-    <col min="13" max="13" width="61.7265625" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.625" customWidth="1"/>
+    <col min="12" max="12" width="62.125" customWidth="1"/>
+    <col min="13" max="13" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
@@ -20717,21 +20684,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13">
       <c r="C4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>1</v>
       </c>
@@ -20780,7 +20747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1">
       <c r="B7" s="59" t="s">
         <v>199</v>
       </c>
@@ -20818,7 +20785,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" hidden="1">
       <c r="B8" s="63">
         <v>1</v>
       </c>
@@ -20850,7 +20817,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1">
       <c r="B9" s="63">
         <v>2</v>
       </c>
@@ -20882,7 +20849,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" hidden="1">
       <c r="B10" s="63">
         <v>3</v>
       </c>
@@ -20914,7 +20881,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" hidden="1">
       <c r="B11" s="63">
         <v>4</v>
       </c>
@@ -20946,7 +20913,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" ht="27" hidden="1">
       <c r="B12" s="63">
         <v>5</v>
       </c>
@@ -20982,7 +20949,7 @@
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" ht="156" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="148.5" hidden="1">
       <c r="B13" s="63">
         <v>6</v>
       </c>
@@ -21018,7 +20985,7 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="94.5" hidden="1">
       <c r="B14" s="63">
         <v>7</v>
       </c>
@@ -21052,7 +21019,7 @@
       </c>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="108" hidden="1">
       <c r="B15" s="63">
         <v>8</v>
       </c>
@@ -21088,7 +21055,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" hidden="1">
       <c r="B16" s="63">
         <v>9</v>
       </c>
@@ -21120,7 +21087,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" hidden="1">
       <c r="B17" s="63">
         <v>10</v>
       </c>
@@ -21152,7 +21119,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" hidden="1">
       <c r="B18" s="63">
         <v>11</v>
       </c>
@@ -21188,7 +21155,7 @@
       </c>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" ht="91" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" ht="94.5">
       <c r="B19" s="63">
         <v>12</v>
       </c>
@@ -21220,7 +21187,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" ht="67.5" hidden="1">
       <c r="B20" s="63">
         <v>13</v>
       </c>
@@ -21258,7 +21225,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="130" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" ht="135" hidden="1">
       <c r="B21" s="63">
         <v>14</v>
       </c>
@@ -21292,7 +21259,7 @@
       </c>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" ht="78" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="81" hidden="1">
       <c r="B22" s="63">
         <v>15</v>
       </c>
@@ -21328,7 +21295,7 @@
       </c>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1">
       <c r="B23" s="63">
         <v>16</v>
       </c>
@@ -21362,7 +21329,7 @@
       </c>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1">
       <c r="B24" s="63">
         <v>17</v>
       </c>
@@ -21398,7 +21365,7 @@
       </c>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1">
       <c r="B25" s="63">
         <v>18</v>
       </c>
@@ -21434,7 +21401,7 @@
       </c>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" ht="108" hidden="1">
       <c r="B26" s="63">
         <v>19</v>
       </c>
@@ -21466,7 +21433,7 @@
       <c r="L26" s="75"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" ht="67.5" hidden="1">
       <c r="B27" s="63">
         <v>20</v>
       </c>
@@ -21502,7 +21469,7 @@
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" ht="247" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" ht="256.5" hidden="1">
       <c r="B28" s="63">
         <v>21</v>
       </c>
@@ -21532,7 +21499,7 @@
       <c r="L28" s="75"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" ht="67.5">
       <c r="B29" s="63">
         <v>22</v>
       </c>
@@ -21566,7 +21533,7 @@
       </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B30" s="63">
         <v>23</v>
       </c>
@@ -21602,7 +21569,7 @@
       </c>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B31" s="63">
         <v>24</v>
       </c>
@@ -21636,7 +21603,7 @@
       </c>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B32" s="63">
         <v>25</v>
       </c>
@@ -21670,7 +21637,7 @@
       </c>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" hidden="1">
       <c r="B33" s="63">
         <v>26</v>
       </c>
@@ -21702,7 +21669,7 @@
       <c r="L33" s="75"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" ht="121.5" customHeight="1">
       <c r="B34" s="63"/>
       <c r="C34" s="21"/>
       <c r="D34" s="76"/>
@@ -21716,7 +21683,7 @@
       <c r="L34" s="75"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1">
       <c r="B35" s="63"/>
       <c r="C35" s="21"/>
       <c r="D35" s="76"/>
@@ -21730,7 +21697,7 @@
       <c r="L35" s="75"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1">
       <c r="B36" s="63"/>
       <c r="C36" s="21"/>
       <c r="D36" s="76"/>
@@ -21744,7 +21711,7 @@
       <c r="L36" s="75"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" ht="121.5" customHeight="1">
       <c r="B37" s="63"/>
       <c r="C37" s="21"/>
       <c r="D37" s="76"/>
@@ -21758,7 +21725,7 @@
       <c r="L37" s="75"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13">
       <c r="B38" s="63"/>
       <c r="C38" s="21"/>
       <c r="D38" s="18"/>
@@ -21772,17 +21739,17 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13">
       <c r="C44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13">
       <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13">
       <c r="C46" t="s">
         <v>264</v>
       </c>
@@ -21790,7 +21757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13">
       <c r="C47" t="s">
         <v>265</v>
       </c>
@@ -21798,7 +21765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13">
       <c r="C48" t="s">
         <v>264</v>
       </c>
@@ -21806,7 +21773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4">
       <c r="C49" t="s">
         <v>266</v>
       </c>
@@ -21814,7 +21781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -21823,10 +21790,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:4">
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:4">
       <c r="C52" t="s">
         <v>267</v>
       </c>
@@ -21834,10 +21801,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:4">
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:4">
       <c r="C54" t="s">
         <v>268</v>
       </c>
@@ -21846,7 +21813,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4">
       <c r="C55" t="s">
         <v>269</v>
       </c>
@@ -21855,11 +21822,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:4">
       <c r="D56" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:M33" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="B7:M33">
     <filterColumn colId="4">
       <filters>
         <filter val="対応中"/>
@@ -22098,13 +22065,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>E8:E38 G38:H38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -22117,54 +22084,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -22175,22 +22142,22 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -22201,7 +22168,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>289</v>
       </c>
@@ -22209,7 +22176,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
         <v>290</v>
       </c>
@@ -22217,17 +22184,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="F19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="F20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="B22" t="s">
         <v>291</v>
       </c>
@@ -22235,7 +22202,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="B23" t="s">
         <v>289</v>
       </c>
@@ -22246,7 +22213,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="B24" t="s">
         <v>290</v>
       </c>
@@ -22257,7 +22224,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="B25" t="s">
         <v>292</v>
       </c>
@@ -22265,7 +22232,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>289</v>
       </c>
@@ -22273,7 +22240,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>290</v>
       </c>
@@ -22281,127 +22248,127 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="1" customFormat="1">
       <c r="A29" s="80">
         <v>43331</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="B30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="B31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="B32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2">
       <c r="B55" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
         <v>326</v>
       </c>
@@ -22413,206 +22380,206 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>363</v>
       </c>
@@ -22624,12 +22591,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22637,44 +22604,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -22687,46 +22654,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" s="54" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" s="55"/>
     </row>
   </sheetData>
@@ -22736,22 +22703,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
-    <col min="2" max="2" width="45.453125" customWidth="1"/>
-    <col min="3" max="3" width="52.36328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="77.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="52.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="77.25" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="51.453125" customWidth="1"/>
+    <col min="6" max="6" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="D1" t="s">
         <v>31</v>
       </c>
@@ -22759,62 +22726,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="D16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
@@ -22822,7 +22789,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -22836,7 +22803,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="165" customHeight="1">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -22854,7 +22821,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1">
       <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
@@ -22869,7 +22836,7 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
@@ -22881,7 +22848,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
@@ -22893,7 +22860,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="B23" s="18" t="s">
         <v>59</v>
       </c>
@@ -22907,7 +22874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="52" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="54">
       <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
@@ -22922,7 +22889,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="B25" s="18" t="s">
         <v>65</v>
       </c>
@@ -22934,7 +22901,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="40.5">
       <c r="B26" s="18" t="s">
         <v>68</v>
       </c>
@@ -22949,7 +22916,7 @@
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
@@ -22961,7 +22928,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="B28" s="18" t="s">
         <v>71</v>
       </c>
@@ -22970,7 +22937,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="B29" s="21" t="s">
         <v>73</v>
       </c>
@@ -22982,7 +22949,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
@@ -22997,7 +22964,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="B31" s="21" t="s">
         <v>76</v>
       </c>
@@ -23009,21 +22976,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -23031,7 +22998,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="16" customFormat="1">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -23039,7 +23006,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" s="16" customFormat="1">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -23047,7 +23014,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="16" customFormat="1">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -23055,7 +23022,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="16" customFormat="1">
       <c r="A40" s="6"/>
       <c r="B40"/>
     </row>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDF4083-D41A-41D9-9C06-7698341E969D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18080" windowHeight="8180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -23,12 +24,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$EK$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題整理_0609!$B$7:$M$33</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="374">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -4658,11 +4659,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>0902 esaで管理する</t>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -4671,7 +4679,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6466,7 +6474,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6545,7 +6553,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6660,7 +6668,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6702,7 +6710,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6735,9 +6743,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6770,6 +6795,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6945,22 +6987,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="28" t="s">
         <v>124</v>
       </c>
@@ -6974,7 +7016,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="18">
         <v>3</v>
       </c>
@@ -6989,7 +7031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="18">
         <v>4</v>
       </c>
@@ -7004,7 +7046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="18">
         <v>5</v>
       </c>
@@ -7019,7 +7061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="18">
         <v>6</v>
       </c>
@@ -7036,7 +7078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="18">
         <v>7</v>
       </c>
@@ -7053,7 +7095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="18">
         <v>8</v>
       </c>
@@ -7070,7 +7112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="18">
         <v>9</v>
       </c>
@@ -7087,7 +7129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="81" t="s">
         <v>125</v>
       </c>
@@ -7111,17 +7153,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -7129,7 +7171,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -7137,7 +7179,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>106</v>
       </c>
@@ -7145,7 +7187,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -7156,7 +7198,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I7" s="27" t="s">
         <v>120</v>
       </c>
@@ -7164,68 +7206,68 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1">
+    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="26" customFormat="1">
+    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C17" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="26" customFormat="1">
+    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="26" customFormat="1">
+    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="26" customFormat="1"/>
-    <row r="22" spans="2:16" s="24" customFormat="1">
+    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>91</v>
       </c>
@@ -7233,27 +7275,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>96</v>
       </c>
@@ -7261,37 +7303,37 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>103</v>
       </c>
@@ -7302,7 +7344,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7310,21 +7352,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7338,7 +7380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7349,7 +7391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7360,7 +7402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7368,7 +7410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7382,7 +7424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7390,7 +7432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7426,7 +7468,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7437,62 +7479,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -7503,7 +7545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7519,37 +7561,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:EH94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="CZ16" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="CY44" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="DC33" sqref="DC33"/>
+      <selection pane="bottomRight" activeCell="DB59" sqref="DB59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="3" width="2.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="2" max="3" width="2.36328125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="8" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.125" customWidth="1"/>
+    <col min="12" max="12" width="32.08984375" customWidth="1"/>
     <col min="13" max="13" width="10" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="137" width="7.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.90625" customWidth="1"/>
+    <col min="15" max="137" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="3.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:138" s="39" customFormat="1">
+    <row r="1" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="H1" s="8"/>
@@ -7683,7 +7725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:138" s="39" customFormat="1">
+    <row r="2" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
@@ -7819,7 +7861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:138" s="39" customFormat="1">
+    <row r="3" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
@@ -7956,7 +7998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:138" s="39" customFormat="1">
+    <row r="4" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
@@ -8093,7 +8135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:138" s="39" customFormat="1">
+    <row r="5" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="H5" s="8"/>
@@ -8227,7 +8269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:138" s="39" customFormat="1">
+    <row r="6" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>149</v>
       </c>
@@ -8363,7 +8405,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:138" s="39" customFormat="1">
+    <row r="7" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>159</v>
@@ -8501,7 +8543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:138" s="39" customFormat="1">
+    <row r="8" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="H8" s="8"/>
@@ -8635,7 +8677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:138">
+    <row r="9" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -8763,7 +8805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:138">
+    <row r="10" spans="2:138" x14ac:dyDescent="0.2">
       <c r="L10" s="7"/>
       <c r="O10" s="29">
         <v>43252</v>
@@ -9138,7 +9180,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:138">
+    <row r="11" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O11" s="9">
         <f>O10</f>
         <v>43252</v>
@@ -9635,7 +9677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:138" ht="28.5" customHeight="1">
+    <row r="12" spans="2:138" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="82" t="s">
         <v>0</v>
       </c>
@@ -10160,7 +10202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:138">
+    <row r="13" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B13" s="30">
         <v>1</v>
       </c>
@@ -10321,7 +10363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:138">
+    <row r="14" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="42" t="s">
@@ -10476,7 +10518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:138">
+    <row r="15" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="42"/>
@@ -10621,7 +10663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:138">
+    <row r="16" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="42"/>
@@ -10764,7 +10806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:138">
+    <row r="17" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="42"/>
@@ -10921,7 +10963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:138">
+    <row r="18" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="42"/>
@@ -11076,7 +11118,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:138">
+    <row r="19" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="42"/>
@@ -11231,7 +11273,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:138">
+    <row r="20" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="42"/>
@@ -11392,7 +11434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:138">
+    <row r="21" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="42"/>
@@ -11547,7 +11589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:138">
+    <row r="22" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="42"/>
@@ -11704,7 +11746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:138">
+    <row r="23" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="42"/>
@@ -11859,7 +11901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:138">
+    <row r="24" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="42"/>
@@ -12014,7 +12056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:138">
+    <row r="25" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="42"/>
@@ -12157,7 +12199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:138">
+    <row r="26" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="42"/>
@@ -12300,7 +12342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:138">
+    <row r="27" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B27" s="30"/>
       <c r="C27" s="30">
         <v>2</v>
@@ -12455,7 +12497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:138">
+    <row r="28" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="42"/>
@@ -12612,7 +12654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:138">
+    <row r="29" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="42"/>
@@ -12769,7 +12811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:138">
+    <row r="30" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="42"/>
@@ -12930,7 +12972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:138">
+    <row r="31" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="42"/>
@@ -13097,7 +13139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:138">
+    <row r="32" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="42"/>
@@ -13281,7 +13323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:138">
+    <row r="33" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="42"/>
@@ -13438,7 +13480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:138">
+    <row r="34" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="42"/>
@@ -13595,7 +13637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:138">
+    <row r="35" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="42"/>
@@ -13752,7 +13794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:138">
+    <row r="36" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="42"/>
@@ -13911,7 +13953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:138">
+    <row r="37" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="42"/>
@@ -14066,7 +14108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:138">
+    <row r="38" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="42"/>
@@ -14223,7 +14265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:138">
+    <row r="39" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="42"/>
@@ -14378,7 +14420,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:138">
+    <row r="40" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="42"/>
@@ -14521,7 +14563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:138">
+    <row r="41" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B41" s="30"/>
       <c r="C41" s="30">
         <v>3</v>
@@ -14678,7 +14720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:138">
+    <row r="42" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="42"/>
@@ -14821,7 +14863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:138">
+    <row r="43" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="42"/>
@@ -14974,7 +15016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:138">
+    <row r="44" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="42"/>
@@ -15117,7 +15159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:138">
+    <row r="45" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="42"/>
@@ -15268,7 +15310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:138">
+    <row r="46" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="42"/>
@@ -15417,7 +15459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:138" ht="48" customHeight="1">
+    <row r="47" spans="2:138" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="42"/>
@@ -15560,7 +15602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:138" ht="27">
+    <row r="48" spans="2:138" ht="39" x14ac:dyDescent="0.2">
       <c r="B48" s="30">
         <v>2</v>
       </c>
@@ -15725,7 +15767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:138">
+    <row r="49" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="43"/>
@@ -15868,7 +15910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:138">
+    <row r="50" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="43"/>
@@ -16019,7 +16061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:138">
+    <row r="51" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="43"/>
@@ -16162,7 +16204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:138">
+    <row r="52" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="43"/>
@@ -16317,7 +16359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:138">
+    <row r="53" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="43"/>
@@ -16460,7 +16502,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:138" ht="27">
+    <row r="54" spans="2:138" ht="39" x14ac:dyDescent="0.2">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="43"/>
@@ -16611,7 +16653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:138">
+    <row r="55" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="43"/>
@@ -16754,7 +16796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:138" ht="27">
+    <row r="56" spans="2:138" ht="26" x14ac:dyDescent="0.2">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="43"/>
@@ -16915,7 +16957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:138">
+    <row r="57" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
@@ -17058,7 +17100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:138">
+    <row r="58" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="43"/>
@@ -17207,7 +17249,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:138">
+    <row r="59" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="43"/>
@@ -17350,7 +17392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:138">
+    <row r="60" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="4"/>
@@ -17493,7 +17535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:138">
+    <row r="61" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="4"/>
@@ -17636,7 +17678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:138">
+    <row r="62" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="4"/>
@@ -17779,7 +17821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="2:138">
+    <row r="63" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="4"/>
@@ -17922,7 +17964,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:138">
+    <row r="64" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="4"/>
@@ -18065,7 +18107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:138">
+    <row r="65" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
       <c r="D65" s="5"/>
@@ -18208,7 +18250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:138">
+    <row r="66" spans="2:138" x14ac:dyDescent="0.2">
       <c r="M66" s="45">
         <f t="shared" si="59"/>
         <v>136.5</v>
@@ -18709,7 +18751,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:138">
+    <row r="67" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O67" s="8">
         <v>6</v>
       </c>
@@ -18717,7 +18759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:138">
+    <row r="68" spans="2:138" x14ac:dyDescent="0.2">
       <c r="E68" s="15"/>
       <c r="I68" s="8">
         <v>1.5</v>
@@ -18726,7 +18768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:138">
+    <row r="69" spans="2:138" x14ac:dyDescent="0.2">
       <c r="I69" s="8">
         <v>1</v>
       </c>
@@ -18734,12 +18776,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:138">
+    <row r="70" spans="2:138" x14ac:dyDescent="0.2">
       <c r="I70" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:138">
+    <row r="73" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O73" s="8">
         <v>6</v>
       </c>
@@ -18750,7 +18792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:138">
+    <row r="74" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O74" s="8">
         <v>10</v>
       </c>
@@ -18761,7 +18803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="15:137">
+    <row r="81" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
@@ -18886,7 +18928,7 @@
       <c r="EF81"/>
       <c r="EG81"/>
     </row>
-    <row r="84" spans="15:137">
+    <row r="84" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -19011,7 +19053,7 @@
       <c r="EF84"/>
       <c r="EG84"/>
     </row>
-    <row r="85" spans="15:137">
+    <row r="85" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -19136,7 +19178,7 @@
       <c r="EF85"/>
       <c r="EG85"/>
     </row>
-    <row r="86" spans="15:137">
+    <row r="86" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -19261,7 +19303,7 @@
       <c r="EF86"/>
       <c r="EG86"/>
     </row>
-    <row r="87" spans="15:137">
+    <row r="87" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -19386,7 +19428,7 @@
       <c r="EF87"/>
       <c r="EG87"/>
     </row>
-    <row r="88" spans="15:137">
+    <row r="88" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -19511,7 +19553,7 @@
       <c r="EF88"/>
       <c r="EG88"/>
     </row>
-    <row r="89" spans="15:137">
+    <row r="89" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -19636,7 +19678,7 @@
       <c r="EF89"/>
       <c r="EG89"/>
     </row>
-    <row r="90" spans="15:137">
+    <row r="90" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -19761,7 +19803,7 @@
       <c r="EF90"/>
       <c r="EG90"/>
     </row>
-    <row r="91" spans="15:137">
+    <row r="91" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -19886,7 +19928,7 @@
       <c r="EF91"/>
       <c r="EG91"/>
     </row>
-    <row r="93" spans="15:137">
+    <row r="93" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -20011,7 +20053,7 @@
       <c r="EF93"/>
       <c r="EG93"/>
     </row>
-    <row r="94" spans="15:137">
+    <row r="94" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
@@ -20137,7 +20179,7 @@
       <c r="EG94"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:EK14">
+  <autoFilter ref="B12:EK14" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -20634,7 +20676,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -20647,36 +20689,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D37" sqref="D37"/>
       <selection pane="topRight" activeCell="D37" sqref="D37"/>
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.625" customWidth="1"/>
-    <col min="12" max="12" width="62.125" customWidth="1"/>
-    <col min="13" max="13" width="61.75" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.6328125" customWidth="1"/>
+    <col min="12" max="12" width="62.08984375" customWidth="1"/>
+    <col min="13" max="13" width="61.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
@@ -20684,21 +20726,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -20747,7 +20789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1">
+    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>199</v>
       </c>
@@ -20785,7 +20827,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1">
+    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="63">
         <v>1</v>
       </c>
@@ -20817,7 +20859,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1">
+    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="63">
         <v>2</v>
       </c>
@@ -20849,7 +20891,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" hidden="1">
+    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="63">
         <v>3</v>
       </c>
@@ -20881,7 +20923,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" hidden="1">
+    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="63">
         <v>4</v>
       </c>
@@ -20913,7 +20955,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" ht="27" hidden="1">
+    <row r="12" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="63">
         <v>5</v>
       </c>
@@ -20949,7 +20991,7 @@
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" ht="148.5" hidden="1">
+    <row r="13" spans="2:13" ht="156" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="63">
         <v>6</v>
       </c>
@@ -20985,7 +21027,7 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" ht="94.5" hidden="1">
+    <row r="14" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="63">
         <v>7</v>
       </c>
@@ -21019,7 +21061,7 @@
       </c>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" ht="108" hidden="1">
+    <row r="15" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" s="63">
         <v>8</v>
       </c>
@@ -21055,7 +21097,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" hidden="1">
+    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" s="63">
         <v>9</v>
       </c>
@@ -21087,7 +21129,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" hidden="1">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="63">
         <v>10</v>
       </c>
@@ -21119,7 +21161,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" hidden="1">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="63">
         <v>11</v>
       </c>
@@ -21155,7 +21197,7 @@
       </c>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5">
+    <row r="19" spans="2:13" ht="91" x14ac:dyDescent="0.2">
       <c r="B19" s="63">
         <v>12</v>
       </c>
@@ -21184,10 +21226,12 @@
       <c r="K19" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="L19" s="18"/>
+      <c r="L19" s="18" t="s">
+        <v>373</v>
+      </c>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="67.5" hidden="1">
+    <row r="20" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="63">
         <v>13</v>
       </c>
@@ -21225,7 +21269,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="135" hidden="1">
+    <row r="21" spans="2:13" ht="130" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="63">
         <v>14</v>
       </c>
@@ -21259,7 +21303,7 @@
       </c>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" ht="81" hidden="1">
+    <row r="22" spans="2:13" ht="78" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="63">
         <v>15</v>
       </c>
@@ -21295,7 +21339,7 @@
       </c>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1">
+    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="63">
         <v>16</v>
       </c>
@@ -21329,7 +21373,7 @@
       </c>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1">
+    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="63">
         <v>17</v>
       </c>
@@ -21365,7 +21409,7 @@
       </c>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1">
+    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="63">
         <v>18</v>
       </c>
@@ -21401,7 +21445,7 @@
       </c>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" ht="108" hidden="1">
+    <row r="26" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="63">
         <v>19</v>
       </c>
@@ -21433,7 +21477,7 @@
       <c r="L26" s="75"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" ht="67.5" hidden="1">
+    <row r="27" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="63">
         <v>20</v>
       </c>
@@ -21469,7 +21513,7 @@
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" ht="256.5" hidden="1">
+    <row r="28" spans="2:13" ht="247" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="63">
         <v>21</v>
       </c>
@@ -21499,7 +21543,7 @@
       <c r="L28" s="75"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" ht="67.5">
+    <row r="29" spans="2:13" ht="65" x14ac:dyDescent="0.2">
       <c r="B29" s="63">
         <v>22</v>
       </c>
@@ -21533,7 +21577,7 @@
       </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="63">
         <v>23</v>
       </c>
@@ -21569,7 +21613,7 @@
       </c>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="63">
         <v>24</v>
       </c>
@@ -21603,7 +21647,7 @@
       </c>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="63">
         <v>25</v>
       </c>
@@ -21637,7 +21681,7 @@
       </c>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" hidden="1">
+    <row r="33" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="63">
         <v>26</v>
       </c>
@@ -21669,7 +21713,7 @@
       <c r="L33" s="75"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1">
+    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="63"/>
       <c r="C34" s="21"/>
       <c r="D34" s="76"/>
@@ -21683,7 +21727,7 @@
       <c r="L34" s="75"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="63"/>
       <c r="C35" s="21"/>
       <c r="D35" s="76"/>
@@ -21697,7 +21741,7 @@
       <c r="L35" s="75"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="63"/>
       <c r="C36" s="21"/>
       <c r="D36" s="76"/>
@@ -21711,7 +21755,7 @@
       <c r="L36" s="75"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" ht="121.5" customHeight="1">
+    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="63"/>
       <c r="C37" s="21"/>
       <c r="D37" s="76"/>
@@ -21725,7 +21769,7 @@
       <c r="L37" s="75"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="63"/>
       <c r="C38" s="21"/>
       <c r="D38" s="18"/>
@@ -21739,17 +21783,17 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>264</v>
       </c>
@@ -21757,7 +21801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>265</v>
       </c>
@@ -21765,7 +21809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>264</v>
       </c>
@@ -21773,7 +21817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>266</v>
       </c>
@@ -21781,7 +21825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:4">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -21790,10 +21834,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:4">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="3:4">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>267</v>
       </c>
@@ -21801,10 +21845,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="3:4">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="3:4">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>268</v>
       </c>
@@ -21813,7 +21857,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:4">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>269</v>
       </c>
@@ -21822,11 +21866,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:4">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D56" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:M33">
+  <autoFilter ref="B7:M33" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="対応中"/>
@@ -22065,13 +22109,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>E8:E38 G38:H38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -22084,54 +22128,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -22142,22 +22186,22 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -22168,7 +22212,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>289</v>
       </c>
@@ -22176,7 +22220,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>290</v>
       </c>
@@ -22184,17 +22228,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>291</v>
       </c>
@@ -22202,7 +22246,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>289</v>
       </c>
@@ -22213,7 +22257,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>290</v>
       </c>
@@ -22224,7 +22268,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>292</v>
       </c>
@@ -22232,7 +22276,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>289</v>
       </c>
@@ -22240,7 +22284,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>290</v>
       </c>
@@ -22248,127 +22292,127 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1">
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="80">
         <v>43331</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>326</v>
       </c>
@@ -22380,206 +22424,206 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:A41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>363</v>
       </c>
@@ -22591,12 +22635,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22604,44 +22648,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -22654,46 +22698,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="54" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="55"/>
     </row>
   </sheetData>
@@ -22703,22 +22747,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
-    <col min="3" max="3" width="52.375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="77.25" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="45.453125" customWidth="1"/>
+    <col min="3" max="3" width="52.36328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="77.26953125" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="51.5" customWidth="1"/>
+    <col min="6" max="6" width="51.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>31</v>
       </c>
@@ -22726,62 +22770,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
@@ -22789,7 +22833,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -22803,7 +22847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1">
+    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -22821,7 +22865,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
@@ -22836,7 +22880,7 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
@@ -22848,7 +22892,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
@@ -22860,7 +22904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="18" t="s">
         <v>59</v>
       </c>
@@ -22874,7 +22918,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54">
+    <row r="24" spans="1:6" ht="52" x14ac:dyDescent="0.2">
       <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
@@ -22889,7 +22933,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="18" t="s">
         <v>65</v>
       </c>
@@ -22901,7 +22945,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5">
+    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
         <v>68</v>
       </c>
@@ -22916,7 +22960,7 @@
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
@@ -22928,7 +22972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>71</v>
       </c>
@@ -22937,7 +22981,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
         <v>73</v>
       </c>
@@ -22949,7 +22993,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
@@ -22964,7 +23008,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
         <v>76</v>
       </c>
@@ -22976,21 +23020,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -22998,7 +23042,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="16" customFormat="1">
+    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -23006,7 +23050,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="16" customFormat="1">
+    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -23014,7 +23058,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="16" customFormat="1">
+    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -23022,7 +23066,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="16" customFormat="1">
+    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40"/>
     </row>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDF4083-D41A-41D9-9C06-7698341E969D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18080" windowHeight="8180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$EK$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題整理_0609!$B$7:$M$33</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -4670,7 +4669,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -4679,7 +4678,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6474,7 +6473,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6553,7 +6552,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6668,7 +6667,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6710,7 +6709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6743,26 +6742,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6795,23 +6777,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6987,22 +6952,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5">
       <c r="B2" s="28" t="s">
         <v>124</v>
       </c>
@@ -7016,7 +6981,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5">
       <c r="B3" s="18">
         <v>3</v>
       </c>
@@ -7031,7 +6996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5">
       <c r="B4" s="18">
         <v>4</v>
       </c>
@@ -7046,7 +7011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5">
       <c r="B5" s="18">
         <v>5</v>
       </c>
@@ -7061,7 +7026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5">
       <c r="B6" s="18">
         <v>6</v>
       </c>
@@ -7078,7 +7043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5">
       <c r="B7" s="18">
         <v>7</v>
       </c>
@@ -7095,13 +7060,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5">
       <c r="B8" s="18">
         <v>8</v>
       </c>
       <c r="C8" s="57">
         <f>SUM(WBS!BX66:EF66)</f>
-        <v>46.5</v>
+        <v>54</v>
       </c>
       <c r="D8" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$66:$EG$66)</f>
@@ -7112,7 +7077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5">
       <c r="B9" s="18">
         <v>9</v>
       </c>
@@ -7122,20 +7087,20 @@
       </c>
       <c r="D9" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B9,WBS!$O$66:$EG$66)</f>
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="E9" s="57">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="81" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="58">
         <f>SUM(C3:C8)</f>
-        <v>227</v>
+        <v>234.5</v>
       </c>
       <c r="D10" s="58">
         <f>SUM(D3:D8)</f>
@@ -7153,17 +7118,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -7171,7 +7136,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -7179,7 +7144,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="I5" t="s">
         <v>106</v>
       </c>
@@ -7187,7 +7152,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -7198,7 +7163,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="I7" s="27" t="s">
         <v>120</v>
       </c>
@@ -7206,68 +7171,68 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="Q8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="Q9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="R10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="Q11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="26" customFormat="1">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" s="26" customFormat="1">
       <c r="C17" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" s="26" customFormat="1">
       <c r="B18" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" s="26" customFormat="1">
       <c r="C19" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" s="26" customFormat="1"/>
+    <row r="22" spans="2:16" s="24" customFormat="1">
       <c r="B22" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16">
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16">
       <c r="D24" t="s">
         <v>91</v>
       </c>
@@ -7275,27 +7240,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16">
       <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16">
       <c r="D27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16">
       <c r="E28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16">
       <c r="E29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16">
       <c r="E30" t="s">
         <v>96</v>
       </c>
@@ -7303,37 +7268,37 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16">
       <c r="B32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16">
       <c r="D34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16">
       <c r="E35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16">
       <c r="E36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16">
       <c r="D37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16">
       <c r="E38" t="s">
         <v>103</v>
       </c>
@@ -7344,7 +7309,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="I7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7352,21 +7317,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7380,7 +7345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7391,7 +7356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7402,7 +7367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7410,7 +7375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7424,7 +7389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7432,7 +7397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7468,7 +7433,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7479,62 +7444,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>2</v>
       </c>
@@ -7545,7 +7510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7561,37 +7526,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:EH94"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="CY44" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="CY13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="DB59" sqref="DB59"/>
+      <selection pane="bottomRight" activeCell="DD32" sqref="DD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" customWidth="1"/>
-    <col min="2" max="3" width="2.36328125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" customWidth="1"/>
-    <col min="8" max="8" width="7.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="3" width="2.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="8" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.08984375" customWidth="1"/>
+    <col min="12" max="12" width="32.125" customWidth="1"/>
     <col min="13" max="13" width="10" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.90625" customWidth="1"/>
-    <col min="15" max="137" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.875" customWidth="1"/>
+    <col min="15" max="137" width="7.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:138" s="39" customFormat="1">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="H1" s="8"/>
@@ -7725,7 +7690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:138" s="39" customFormat="1">
       <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
@@ -7861,7 +7826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:138" s="39" customFormat="1">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
@@ -7998,7 +7963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:138" s="39" customFormat="1">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
@@ -8135,7 +8100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:138" s="39" customFormat="1">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="H5" s="8"/>
@@ -8269,7 +8234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:138" s="39" customFormat="1">
       <c r="B6" s="38" t="s">
         <v>149</v>
       </c>
@@ -8405,7 +8370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:138" s="39" customFormat="1">
       <c r="B7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>159</v>
@@ -8543,7 +8508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:138" s="39" customFormat="1">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="H8" s="8"/>
@@ -8677,7 +8642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:138">
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -8805,7 +8770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:138">
       <c r="L10" s="7"/>
       <c r="O10" s="29">
         <v>43252</v>
@@ -9180,7 +9145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:138">
       <c r="O11" s="9">
         <f>O10</f>
         <v>43252</v>
@@ -9677,7 +9642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:138" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:138" ht="28.5" customHeight="1">
       <c r="B12" s="82" t="s">
         <v>0</v>
       </c>
@@ -10202,7 +10167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:138">
       <c r="B13" s="30">
         <v>1</v>
       </c>
@@ -10363,7 +10328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:138">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="42" t="s">
@@ -10518,7 +10483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:138">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="42"/>
@@ -10663,7 +10628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:138">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="42"/>
@@ -10806,7 +10771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:138">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="42"/>
@@ -10963,7 +10928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:138">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="42"/>
@@ -11118,7 +11083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:138">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="42"/>
@@ -11273,7 +11238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:138">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="42"/>
@@ -11434,7 +11399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:138">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="42"/>
@@ -11589,7 +11554,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:138">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="42"/>
@@ -11746,7 +11711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:138">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="42"/>
@@ -11901,7 +11866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:138">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="42"/>
@@ -12056,7 +12021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:138">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="42"/>
@@ -12199,7 +12164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:138">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="42"/>
@@ -12342,7 +12307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:138">
       <c r="B27" s="30"/>
       <c r="C27" s="30">
         <v>2</v>
@@ -12497,7 +12462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:138">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="42"/>
@@ -12654,7 +12619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:138">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="42"/>
@@ -12811,7 +12776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:138">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="42"/>
@@ -12972,7 +12937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:138">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="42"/>
@@ -12998,7 +12963,7 @@
       <c r="L31" s="40"/>
       <c r="M31" s="48">
         <f t="shared" si="58"/>
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -13105,7 +13070,9 @@
       <c r="DC31" s="11">
         <v>3</v>
       </c>
-      <c r="DD31" s="11"/>
+      <c r="DD31" s="11">
+        <v>7.5</v>
+      </c>
       <c r="DE31" s="11"/>
       <c r="DF31" s="11"/>
       <c r="DG31" s="11"/>
@@ -13139,7 +13106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:138">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="42"/>
@@ -13323,7 +13290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:138">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="42"/>
@@ -13480,7 +13447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:138">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="42"/>
@@ -13637,7 +13604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:138">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="42"/>
@@ -13794,7 +13761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:138">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="42"/>
@@ -13953,7 +13920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:138">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="42"/>
@@ -14108,7 +14075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:138">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="42"/>
@@ -14265,7 +14232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:138">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="42"/>
@@ -14420,7 +14387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:138">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="42"/>
@@ -14563,7 +14530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:138">
       <c r="B41" s="30"/>
       <c r="C41" s="30">
         <v>3</v>
@@ -14720,7 +14687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:138">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="42"/>
@@ -14863,7 +14830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:138">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="42"/>
@@ -15016,7 +14983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:138">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="42"/>
@@ -15159,7 +15126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:138">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="42"/>
@@ -15310,7 +15277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:138">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="42"/>
@@ -15459,7 +15426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:138" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:138" ht="48" customHeight="1">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="42"/>
@@ -15602,7 +15569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:138" ht="39" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:138" ht="27">
       <c r="B48" s="30">
         <v>2</v>
       </c>
@@ -15767,7 +15734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:138">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="43"/>
@@ -15910,7 +15877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:138">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="43"/>
@@ -16061,7 +16028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:138">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="43"/>
@@ -16204,7 +16171,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:138">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="43"/>
@@ -16359,7 +16326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:138">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="43"/>
@@ -16502,7 +16469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:138" ht="39" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:138" ht="27">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="43"/>
@@ -16653,7 +16620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:138">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="43"/>
@@ -16796,7 +16763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:138" ht="26" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:138" ht="27">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="43"/>
@@ -16957,7 +16924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:138">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
@@ -17100,7 +17067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:138">
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="43"/>
@@ -17249,7 +17216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:138">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="43"/>
@@ -17392,7 +17359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:138">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="4"/>
@@ -17535,7 +17502,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:138">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="4"/>
@@ -17678,7 +17645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:138">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="4"/>
@@ -17821,7 +17788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:138">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="4"/>
@@ -17964,7 +17931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:138">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="4"/>
@@ -18107,7 +18074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:138">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
       <c r="D65" s="5"/>
@@ -18250,10 +18217,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:138">
       <c r="M66" s="45">
         <f t="shared" si="59"/>
-        <v>136.5</v>
+        <v>144</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" ref="O66:AT66" si="60">SUM(O13:O65)</f>
@@ -18629,7 +18596,7 @@
       </c>
       <c r="DD66" s="14">
         <f t="shared" ref="DD66:DF66" si="63">SUM(DD13:DD65)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="DE66" s="14">
         <f t="shared" si="63"/>
@@ -18751,7 +18718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:138">
       <c r="O67" s="8">
         <v>6</v>
       </c>
@@ -18759,7 +18726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:138">
       <c r="E68" s="15"/>
       <c r="I68" s="8">
         <v>1.5</v>
@@ -18768,7 +18735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:138">
       <c r="I69" s="8">
         <v>1</v>
       </c>
@@ -18776,12 +18743,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:138">
       <c r="I70" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:138">
       <c r="O73" s="8">
         <v>6</v>
       </c>
@@ -18792,7 +18759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:138">
       <c r="O74" s="8">
         <v>10</v>
       </c>
@@ -18803,7 +18770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="81" spans="15:137">
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
@@ -18928,7 +18895,7 @@
       <c r="EF81"/>
       <c r="EG81"/>
     </row>
-    <row r="84" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="84" spans="15:137">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -19053,7 +19020,7 @@
       <c r="EF84"/>
       <c r="EG84"/>
     </row>
-    <row r="85" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="85" spans="15:137">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -19178,7 +19145,7 @@
       <c r="EF85"/>
       <c r="EG85"/>
     </row>
-    <row r="86" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="86" spans="15:137">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -19303,7 +19270,7 @@
       <c r="EF86"/>
       <c r="EG86"/>
     </row>
-    <row r="87" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="87" spans="15:137">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -19428,7 +19395,7 @@
       <c r="EF87"/>
       <c r="EG87"/>
     </row>
-    <row r="88" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="88" spans="15:137">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -19553,7 +19520,7 @@
       <c r="EF88"/>
       <c r="EG88"/>
     </row>
-    <row r="89" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="89" spans="15:137">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -19678,7 +19645,7 @@
       <c r="EF89"/>
       <c r="EG89"/>
     </row>
-    <row r="90" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="90" spans="15:137">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -19803,7 +19770,7 @@
       <c r="EF90"/>
       <c r="EG90"/>
     </row>
-    <row r="91" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="91" spans="15:137">
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -19928,7 +19895,7 @@
       <c r="EF91"/>
       <c r="EG91"/>
     </row>
-    <row r="93" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="93" spans="15:137">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -20053,7 +20020,7 @@
       <c r="EF93"/>
       <c r="EG93"/>
     </row>
-    <row r="94" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="94" spans="15:137">
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
@@ -20179,7 +20146,7 @@
       <c r="EG94"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:EK14" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="B12:EK14">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -20676,7 +20643,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -20689,11 +20656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D37" sqref="D37"/>
       <selection pane="topRight" activeCell="D37" sqref="D37"/>
@@ -20701,24 +20668,24 @@
       <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" customWidth="1"/>
-    <col min="3" max="3" width="44.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.6328125" customWidth="1"/>
-    <col min="12" max="12" width="62.08984375" customWidth="1"/>
-    <col min="13" max="13" width="61.7265625" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.625" customWidth="1"/>
+    <col min="12" max="12" width="62.125" customWidth="1"/>
+    <col min="13" max="13" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
@@ -20726,21 +20693,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13">
       <c r="C4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>1</v>
       </c>
@@ -20789,7 +20756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1">
       <c r="B7" s="59" t="s">
         <v>199</v>
       </c>
@@ -20827,7 +20794,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" hidden="1">
       <c r="B8" s="63">
         <v>1</v>
       </c>
@@ -20859,7 +20826,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1">
       <c r="B9" s="63">
         <v>2</v>
       </c>
@@ -20891,7 +20858,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" hidden="1">
       <c r="B10" s="63">
         <v>3</v>
       </c>
@@ -20923,7 +20890,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" hidden="1">
       <c r="B11" s="63">
         <v>4</v>
       </c>
@@ -20955,7 +20922,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" ht="27" hidden="1">
       <c r="B12" s="63">
         <v>5</v>
       </c>
@@ -20991,7 +20958,7 @@
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" ht="156" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="148.5" hidden="1">
       <c r="B13" s="63">
         <v>6</v>
       </c>
@@ -21027,7 +20994,7 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="94.5" hidden="1">
       <c r="B14" s="63">
         <v>7</v>
       </c>
@@ -21061,7 +21028,7 @@
       </c>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="108" hidden="1">
       <c r="B15" s="63">
         <v>8</v>
       </c>
@@ -21097,7 +21064,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" hidden="1">
       <c r="B16" s="63">
         <v>9</v>
       </c>
@@ -21129,7 +21096,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" hidden="1">
       <c r="B17" s="63">
         <v>10</v>
       </c>
@@ -21161,7 +21128,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" hidden="1">
       <c r="B18" s="63">
         <v>11</v>
       </c>
@@ -21197,7 +21164,7 @@
       </c>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" ht="91" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" ht="94.5">
       <c r="B19" s="63">
         <v>12</v>
       </c>
@@ -21231,7 +21198,7 @@
       </c>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" ht="67.5" hidden="1">
       <c r="B20" s="63">
         <v>13</v>
       </c>
@@ -21269,7 +21236,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="130" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" ht="135" hidden="1">
       <c r="B21" s="63">
         <v>14</v>
       </c>
@@ -21303,7 +21270,7 @@
       </c>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" ht="78" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="81" hidden="1">
       <c r="B22" s="63">
         <v>15</v>
       </c>
@@ -21339,7 +21306,7 @@
       </c>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1">
       <c r="B23" s="63">
         <v>16</v>
       </c>
@@ -21373,7 +21340,7 @@
       </c>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1">
       <c r="B24" s="63">
         <v>17</v>
       </c>
@@ -21409,7 +21376,7 @@
       </c>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1">
       <c r="B25" s="63">
         <v>18</v>
       </c>
@@ -21445,7 +21412,7 @@
       </c>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" ht="108" hidden="1">
       <c r="B26" s="63">
         <v>19</v>
       </c>
@@ -21477,7 +21444,7 @@
       <c r="L26" s="75"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" ht="67.5" hidden="1">
       <c r="B27" s="63">
         <v>20</v>
       </c>
@@ -21513,7 +21480,7 @@
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" ht="247" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" ht="256.5" hidden="1">
       <c r="B28" s="63">
         <v>21</v>
       </c>
@@ -21543,7 +21510,7 @@
       <c r="L28" s="75"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" ht="67.5">
       <c r="B29" s="63">
         <v>22</v>
       </c>
@@ -21577,7 +21544,7 @@
       </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B30" s="63">
         <v>23</v>
       </c>
@@ -21613,7 +21580,7 @@
       </c>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B31" s="63">
         <v>24</v>
       </c>
@@ -21647,7 +21614,7 @@
       </c>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B32" s="63">
         <v>25</v>
       </c>
@@ -21681,7 +21648,7 @@
       </c>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" hidden="1">
       <c r="B33" s="63">
         <v>26</v>
       </c>
@@ -21713,7 +21680,7 @@
       <c r="L33" s="75"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" ht="121.5" customHeight="1">
       <c r="B34" s="63"/>
       <c r="C34" s="21"/>
       <c r="D34" s="76"/>
@@ -21727,7 +21694,7 @@
       <c r="L34" s="75"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1">
       <c r="B35" s="63"/>
       <c r="C35" s="21"/>
       <c r="D35" s="76"/>
@@ -21741,7 +21708,7 @@
       <c r="L35" s="75"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1">
       <c r="B36" s="63"/>
       <c r="C36" s="21"/>
       <c r="D36" s="76"/>
@@ -21755,7 +21722,7 @@
       <c r="L36" s="75"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" ht="121.5" customHeight="1">
       <c r="B37" s="63"/>
       <c r="C37" s="21"/>
       <c r="D37" s="76"/>
@@ -21769,7 +21736,7 @@
       <c r="L37" s="75"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13">
       <c r="B38" s="63"/>
       <c r="C38" s="21"/>
       <c r="D38" s="18"/>
@@ -21783,17 +21750,17 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13">
       <c r="C44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13">
       <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13">
       <c r="C46" t="s">
         <v>264</v>
       </c>
@@ -21801,7 +21768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13">
       <c r="C47" t="s">
         <v>265</v>
       </c>
@@ -21809,7 +21776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13">
       <c r="C48" t="s">
         <v>264</v>
       </c>
@@ -21817,7 +21784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4">
       <c r="C49" t="s">
         <v>266</v>
       </c>
@@ -21825,7 +21792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -21834,10 +21801,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:4">
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:4">
       <c r="C52" t="s">
         <v>267</v>
       </c>
@@ -21845,10 +21812,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:4">
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:4">
       <c r="C54" t="s">
         <v>268</v>
       </c>
@@ -21857,7 +21824,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4">
       <c r="C55" t="s">
         <v>269</v>
       </c>
@@ -21866,11 +21833,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:4">
       <c r="D56" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:M33" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="B7:M33">
     <filterColumn colId="4">
       <filters>
         <filter val="対応中"/>
@@ -22109,13 +22076,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>E8:E38 G38:H38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -22128,54 +22095,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -22186,22 +22153,22 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -22212,7 +22179,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>289</v>
       </c>
@@ -22220,7 +22187,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
         <v>290</v>
       </c>
@@ -22228,17 +22195,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="F19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="F20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="B22" t="s">
         <v>291</v>
       </c>
@@ -22246,7 +22213,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="B23" t="s">
         <v>289</v>
       </c>
@@ -22257,7 +22224,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="B24" t="s">
         <v>290</v>
       </c>
@@ -22268,7 +22235,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="B25" t="s">
         <v>292</v>
       </c>
@@ -22276,7 +22243,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>289</v>
       </c>
@@ -22284,7 +22251,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>290</v>
       </c>
@@ -22292,127 +22259,127 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="1" customFormat="1">
       <c r="A29" s="80">
         <v>43331</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="B30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="B31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="B32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2">
       <c r="B55" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
         <v>326</v>
       </c>
@@ -22424,206 +22391,206 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>363</v>
       </c>
@@ -22635,12 +22602,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22648,44 +22615,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -22698,46 +22665,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" s="54" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" s="55"/>
     </row>
   </sheetData>
@@ -22747,22 +22714,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
-    <col min="2" max="2" width="45.453125" customWidth="1"/>
-    <col min="3" max="3" width="52.36328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="77.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="52.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="77.25" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="51.453125" customWidth="1"/>
+    <col min="6" max="6" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="D1" t="s">
         <v>31</v>
       </c>
@@ -22770,62 +22737,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="D16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
@@ -22833,7 +22800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -22847,7 +22814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="165" customHeight="1">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -22865,7 +22832,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1">
       <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
@@ -22880,7 +22847,7 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
@@ -22892,7 +22859,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
@@ -22904,7 +22871,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="B23" s="18" t="s">
         <v>59</v>
       </c>
@@ -22918,7 +22885,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="52" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="54">
       <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
@@ -22933,7 +22900,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="B25" s="18" t="s">
         <v>65</v>
       </c>
@@ -22945,7 +22912,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="40.5">
       <c r="B26" s="18" t="s">
         <v>68</v>
       </c>
@@ -22960,7 +22927,7 @@
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
@@ -22972,7 +22939,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="B28" s="18" t="s">
         <v>71</v>
       </c>
@@ -22981,7 +22948,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="B29" s="21" t="s">
         <v>73</v>
       </c>
@@ -22993,7 +22960,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
@@ -23008,7 +22975,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="B31" s="21" t="s">
         <v>76</v>
       </c>
@@ -23020,21 +22987,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -23042,7 +23009,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="16" customFormat="1">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -23050,7 +23017,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" s="16" customFormat="1">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -23058,7 +23025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="16" customFormat="1">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -23066,7 +23033,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="16" customFormat="1">
       <c r="A40" s="6"/>
       <c r="B40"/>
     </row>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -6473,7 +6473,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6552,7 +6552,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C8" s="57">
         <f>SUM(WBS!BX66:EF66)</f>
-        <v>54</v>
+        <v>57.5</v>
       </c>
       <c r="D8" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$66:$EG$66)</f>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="D9" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B9,WBS!$O$66:$EG$66)</f>
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="E9" s="57">
         <f t="shared" si="0"/>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="C10" s="58">
         <f>SUM(C3:C8)</f>
-        <v>234.5</v>
+        <v>238</v>
       </c>
       <c r="D10" s="58">
         <f>SUM(D3:D8)</f>
@@ -7529,12 +7529,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:EH94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="CY13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="DH13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="DD32" sqref="DD32"/>
+      <selection pane="bottomRight" activeCell="DJ31" sqref="DJ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12963,7 +12963,7 @@
       <c r="L31" s="40"/>
       <c r="M31" s="48">
         <f t="shared" si="58"/>
-        <v>21</v>
+        <v>24.5</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -13078,9 +13078,15 @@
       <c r="DG31" s="11"/>
       <c r="DH31" s="11"/>
       <c r="DI31" s="11"/>
-      <c r="DJ31" s="11"/>
-      <c r="DK31" s="11"/>
-      <c r="DL31" s="11"/>
+      <c r="DJ31" s="11">
+        <v>1</v>
+      </c>
+      <c r="DK31" s="11">
+        <v>1</v>
+      </c>
+      <c r="DL31" s="11">
+        <v>1.5</v>
+      </c>
       <c r="DM31" s="11"/>
       <c r="DN31" s="11"/>
       <c r="DO31" s="11"/>
@@ -18220,7 +18226,7 @@
     <row r="66" spans="2:138">
       <c r="M66" s="45">
         <f t="shared" si="59"/>
-        <v>144</v>
+        <v>147.5</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" ref="O66:AT66" si="60">SUM(O13:O65)</f>
@@ -18620,15 +18626,15 @@
       </c>
       <c r="DJ66" s="14">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK66" s="14">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL66" s="14">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="DM66" s="14">
         <f t="shared" si="64"/>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -4678,7 +4678,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6473,7 +6473,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6552,7 +6552,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6959,7 +6959,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="15" hidden="1" customWidth="1"/>
@@ -6967,7 +6967,7 @@
     <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="28" t="s">
         <v>124</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" s="18">
         <v>3</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" s="18">
         <v>4</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" s="18">
         <v>5</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" s="18">
         <v>6</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" s="18">
         <v>7</v>
       </c>
@@ -7060,13 +7060,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" s="18">
         <v>8</v>
       </c>
       <c r="C8" s="57">
         <f>SUM(WBS!BX66:EF66)</f>
-        <v>57.5</v>
+        <v>65.5</v>
       </c>
       <c r="D8" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$66:$EG$66)</f>
@@ -7077,7 +7077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" s="18">
         <v>9</v>
       </c>
@@ -7087,20 +7087,20 @@
       </c>
       <c r="D9" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B9,WBS!$O$66:$EG$66)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E9" s="57">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" s="81" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="58">
         <f>SUM(C3:C8)</f>
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D10" s="58">
         <f>SUM(D3:D8)</f>
@@ -7123,12 +7123,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="I5" t="s">
         <v>106</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="I7" s="27" t="s">
         <v>120</v>
       </c>
@@ -7171,68 +7171,68 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="Q8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="Q9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="Q11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1">
+    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="26" customFormat="1">
+    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="26" customFormat="1">
+    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="26" customFormat="1">
+    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="26" customFormat="1"/>
-    <row r="22" spans="2:16" s="24" customFormat="1">
+    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>91</v>
       </c>
@@ -7240,27 +7240,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
         <v>96</v>
       </c>
@@ -7268,37 +7268,37 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
         <v>103</v>
       </c>
@@ -7324,14 +7324,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7433,7 +7433,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7444,62 +7444,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7534,10 +7534,10 @@
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="DJ31" sqref="DJ31"/>
+      <selection pane="bottomRight" activeCell="DM32" sqref="DM32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="3" width="2.375" style="8" customWidth="1"/>
@@ -7556,7 +7556,7 @@
     <col min="138" max="138" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:138" s="39" customFormat="1">
+    <row r="1" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="H1" s="8"/>
@@ -7690,7 +7690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:138" s="39" customFormat="1">
+    <row r="2" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:138" s="39" customFormat="1">
+    <row r="3" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
@@ -7963,7 +7963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:138" s="39" customFormat="1">
+    <row r="4" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
@@ -8100,7 +8100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:138" s="39" customFormat="1">
+    <row r="5" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="H5" s="8"/>
@@ -8234,7 +8234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:138" s="39" customFormat="1">
+    <row r="6" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="38" t="s">
         <v>149</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:138" s="39" customFormat="1">
+    <row r="7" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>159</v>
@@ -8508,7 +8508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:138" s="39" customFormat="1">
+    <row r="8" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="H8" s="8"/>
@@ -8642,7 +8642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:138">
+    <row r="9" spans="2:138" x14ac:dyDescent="0.15">
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -8770,7 +8770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:138">
+    <row r="10" spans="2:138" x14ac:dyDescent="0.15">
       <c r="L10" s="7"/>
       <c r="O10" s="29">
         <v>43252</v>
@@ -9145,7 +9145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:138">
+    <row r="11" spans="2:138" x14ac:dyDescent="0.15">
       <c r="O11" s="9">
         <f>O10</f>
         <v>43252</v>
@@ -9642,7 +9642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:138" ht="28.5" customHeight="1">
+    <row r="12" spans="2:138" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="82" t="s">
         <v>0</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:138">
+    <row r="13" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B13" s="30">
         <v>1</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:138">
+    <row r="14" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="42" t="s">
@@ -10483,7 +10483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:138">
+    <row r="15" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="42"/>
@@ -10628,7 +10628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:138">
+    <row r="16" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="42"/>
@@ -10771,7 +10771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:138">
+    <row r="17" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="42"/>
@@ -10928,7 +10928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:138">
+    <row r="18" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="42"/>
@@ -11083,7 +11083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:138">
+    <row r="19" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="42"/>
@@ -11238,7 +11238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:138">
+    <row r="20" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="42"/>
@@ -11399,7 +11399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:138">
+    <row r="21" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="42"/>
@@ -11554,7 +11554,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:138">
+    <row r="22" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="42"/>
@@ -11711,7 +11711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:138">
+    <row r="23" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="42"/>
@@ -11866,7 +11866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:138">
+    <row r="24" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="42"/>
@@ -12021,7 +12021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:138">
+    <row r="25" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="42"/>
@@ -12164,7 +12164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:138">
+    <row r="26" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="42"/>
@@ -12307,7 +12307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:138">
+    <row r="27" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B27" s="30"/>
       <c r="C27" s="30">
         <v>2</v>
@@ -12462,7 +12462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:138">
+    <row r="28" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="42"/>
@@ -12619,7 +12619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:138">
+    <row r="29" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="42"/>
@@ -12776,7 +12776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:138">
+    <row r="30" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="42"/>
@@ -12937,7 +12937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:138">
+    <row r="31" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="42"/>
@@ -12963,7 +12963,7 @@
       <c r="L31" s="40"/>
       <c r="M31" s="48">
         <f t="shared" si="58"/>
-        <v>24.5</v>
+        <v>32.5</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -13087,7 +13087,9 @@
       <c r="DL31" s="11">
         <v>1.5</v>
       </c>
-      <c r="DM31" s="11"/>
+      <c r="DM31" s="11">
+        <v>8</v>
+      </c>
       <c r="DN31" s="11"/>
       <c r="DO31" s="11"/>
       <c r="DP31" s="11"/>
@@ -13112,7 +13114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:138">
+    <row r="32" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="42"/>
@@ -13296,7 +13298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:138">
+    <row r="33" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="42"/>
@@ -13453,7 +13455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:138">
+    <row r="34" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="42"/>
@@ -13610,7 +13612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:138">
+    <row r="35" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="42"/>
@@ -13767,7 +13769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:138">
+    <row r="36" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="42"/>
@@ -13926,7 +13928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:138">
+    <row r="37" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="42"/>
@@ -14081,7 +14083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:138">
+    <row r="38" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="42"/>
@@ -14238,7 +14240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:138">
+    <row r="39" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="42"/>
@@ -14393,7 +14395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:138">
+    <row r="40" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="42"/>
@@ -14536,7 +14538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:138">
+    <row r="41" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B41" s="30"/>
       <c r="C41" s="30">
         <v>3</v>
@@ -14693,7 +14695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:138">
+    <row r="42" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="42"/>
@@ -14836,7 +14838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:138">
+    <row r="43" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="42"/>
@@ -14989,7 +14991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:138">
+    <row r="44" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="42"/>
@@ -15132,7 +15134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:138">
+    <row r="45" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="42"/>
@@ -15283,7 +15285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:138">
+    <row r="46" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="42"/>
@@ -15432,7 +15434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:138" ht="48" customHeight="1">
+    <row r="47" spans="2:138" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="42"/>
@@ -15575,7 +15577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:138" ht="27">
+    <row r="48" spans="2:138" ht="27" x14ac:dyDescent="0.15">
       <c r="B48" s="30">
         <v>2</v>
       </c>
@@ -15740,7 +15742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:138">
+    <row r="49" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="43"/>
@@ -15883,7 +15885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:138">
+    <row r="50" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="43"/>
@@ -16034,7 +16036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:138">
+    <row r="51" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="43"/>
@@ -16177,7 +16179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:138">
+    <row r="52" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="43"/>
@@ -16332,7 +16334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:138">
+    <row r="53" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="43"/>
@@ -16475,7 +16477,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:138" ht="27">
+    <row r="54" spans="2:138" ht="27" x14ac:dyDescent="0.15">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="43"/>
@@ -16626,7 +16628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:138">
+    <row r="55" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="43"/>
@@ -16769,7 +16771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:138" ht="27">
+    <row r="56" spans="2:138" ht="27" x14ac:dyDescent="0.15">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="43"/>
@@ -16930,7 +16932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:138">
+    <row r="57" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
@@ -17073,7 +17075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:138">
+    <row r="58" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="43"/>
@@ -17222,7 +17224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:138">
+    <row r="59" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="43"/>
@@ -17365,7 +17367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:138">
+    <row r="60" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="4"/>
@@ -17508,7 +17510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:138">
+    <row r="61" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="4"/>
@@ -17651,7 +17653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:138">
+    <row r="62" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="4"/>
@@ -17794,7 +17796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="2:138">
+    <row r="63" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="4"/>
@@ -17937,7 +17939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:138">
+    <row r="64" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="4"/>
@@ -18080,7 +18082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:138">
+    <row r="65" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
       <c r="D65" s="5"/>
@@ -18223,10 +18225,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:138">
+    <row r="66" spans="2:138" x14ac:dyDescent="0.15">
       <c r="M66" s="45">
         <f t="shared" si="59"/>
-        <v>147.5</v>
+        <v>155.5</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" ref="O66:AT66" si="60">SUM(O13:O65)</f>
@@ -18638,7 +18640,7 @@
       </c>
       <c r="DM66" s="14">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DN66" s="14">
         <f t="shared" si="64"/>
@@ -18724,7 +18726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:138">
+    <row r="67" spans="2:138" x14ac:dyDescent="0.15">
       <c r="O67" s="8">
         <v>6</v>
       </c>
@@ -18732,7 +18734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:138">
+    <row r="68" spans="2:138" x14ac:dyDescent="0.15">
       <c r="E68" s="15"/>
       <c r="I68" s="8">
         <v>1.5</v>
@@ -18741,7 +18743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:138">
+    <row r="69" spans="2:138" x14ac:dyDescent="0.15">
       <c r="I69" s="8">
         <v>1</v>
       </c>
@@ -18749,12 +18751,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:138">
+    <row r="70" spans="2:138" x14ac:dyDescent="0.15">
       <c r="I70" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:138">
+    <row r="73" spans="2:138" x14ac:dyDescent="0.15">
       <c r="O73" s="8">
         <v>6</v>
       </c>
@@ -18765,7 +18767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:138">
+    <row r="74" spans="2:138" x14ac:dyDescent="0.15">
       <c r="O74" s="8">
         <v>10</v>
       </c>
@@ -18776,7 +18778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="15:137">
+    <row r="81" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
@@ -18901,7 +18903,7 @@
       <c r="EF81"/>
       <c r="EG81"/>
     </row>
-    <row r="84" spans="15:137">
+    <row r="84" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -19026,7 +19028,7 @@
       <c r="EF84"/>
       <c r="EG84"/>
     </row>
-    <row r="85" spans="15:137">
+    <row r="85" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -19151,7 +19153,7 @@
       <c r="EF85"/>
       <c r="EG85"/>
     </row>
-    <row r="86" spans="15:137">
+    <row r="86" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -19276,7 +19278,7 @@
       <c r="EF86"/>
       <c r="EG86"/>
     </row>
-    <row r="87" spans="15:137">
+    <row r="87" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -19401,7 +19403,7 @@
       <c r="EF87"/>
       <c r="EG87"/>
     </row>
-    <row r="88" spans="15:137">
+    <row r="88" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -19526,7 +19528,7 @@
       <c r="EF88"/>
       <c r="EG88"/>
     </row>
-    <row r="89" spans="15:137">
+    <row r="89" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -19651,7 +19653,7 @@
       <c r="EF89"/>
       <c r="EG89"/>
     </row>
-    <row r="90" spans="15:137">
+    <row r="90" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -19776,7 +19778,7 @@
       <c r="EF90"/>
       <c r="EG90"/>
     </row>
-    <row r="91" spans="15:137">
+    <row r="91" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -19901,7 +19903,7 @@
       <c r="EF91"/>
       <c r="EG91"/>
     </row>
-    <row r="93" spans="15:137">
+    <row r="93" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -20026,7 +20028,7 @@
       <c r="EF93"/>
       <c r="EG93"/>
     </row>
-    <row r="94" spans="15:137">
+    <row r="94" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
@@ -20674,7 +20676,7 @@
       <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
@@ -20691,7 +20693,7 @@
     <col min="13" max="13" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
@@ -20699,21 +20701,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>1</v>
       </c>
@@ -20762,7 +20764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1">
+    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="59" t="s">
         <v>199</v>
       </c>
@@ -20800,7 +20802,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1">
+    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="63">
         <v>1</v>
       </c>
@@ -20832,7 +20834,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1">
+    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="63">
         <v>2</v>
       </c>
@@ -20864,7 +20866,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" hidden="1">
+    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="63">
         <v>3</v>
       </c>
@@ -20896,7 +20898,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" hidden="1">
+    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="63">
         <v>4</v>
       </c>
@@ -20928,7 +20930,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" ht="27" hidden="1">
+    <row r="12" spans="2:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="63">
         <v>5</v>
       </c>
@@ -20964,7 +20966,7 @@
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" ht="148.5" hidden="1">
+    <row r="13" spans="2:13" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="63">
         <v>6</v>
       </c>
@@ -21000,7 +21002,7 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" ht="94.5" hidden="1">
+    <row r="14" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="63">
         <v>7</v>
       </c>
@@ -21034,7 +21036,7 @@
       </c>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" ht="108" hidden="1">
+    <row r="15" spans="2:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="63">
         <v>8</v>
       </c>
@@ -21070,7 +21072,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" hidden="1">
+    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="63">
         <v>9</v>
       </c>
@@ -21102,7 +21104,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" hidden="1">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="63">
         <v>10</v>
       </c>
@@ -21134,7 +21136,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" hidden="1">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="63">
         <v>11</v>
       </c>
@@ -21170,7 +21172,7 @@
       </c>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5">
+    <row r="19" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B19" s="63">
         <v>12</v>
       </c>
@@ -21204,7 +21206,7 @@
       </c>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="67.5" hidden="1">
+    <row r="20" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B20" s="63">
         <v>13</v>
       </c>
@@ -21242,7 +21244,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="135" hidden="1">
+    <row r="21" spans="2:13" ht="135" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="63">
         <v>14</v>
       </c>
@@ -21276,7 +21278,7 @@
       </c>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" ht="81" hidden="1">
+    <row r="22" spans="2:13" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="63">
         <v>15</v>
       </c>
@@ -21312,7 +21314,7 @@
       </c>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1">
+    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="63">
         <v>16</v>
       </c>
@@ -21346,7 +21348,7 @@
       </c>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1">
+    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="63">
         <v>17</v>
       </c>
@@ -21382,7 +21384,7 @@
       </c>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1">
+    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="63">
         <v>18</v>
       </c>
@@ -21418,7 +21420,7 @@
       </c>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" ht="108" hidden="1">
+    <row r="26" spans="2:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="63">
         <v>19</v>
       </c>
@@ -21450,7 +21452,7 @@
       <c r="L26" s="75"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" ht="67.5" hidden="1">
+    <row r="27" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B27" s="63">
         <v>20</v>
       </c>
@@ -21486,7 +21488,7 @@
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" ht="256.5" hidden="1">
+    <row r="28" spans="2:13" ht="256.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="63">
         <v>21</v>
       </c>
@@ -21516,7 +21518,7 @@
       <c r="L28" s="75"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" ht="67.5">
+    <row r="29" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B29" s="63">
         <v>22</v>
       </c>
@@ -21550,7 +21552,7 @@
       </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="63">
         <v>23</v>
       </c>
@@ -21586,7 +21588,7 @@
       </c>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="63">
         <v>24</v>
       </c>
@@ -21620,7 +21622,7 @@
       </c>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="63">
         <v>25</v>
       </c>
@@ -21654,7 +21656,7 @@
       </c>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" hidden="1">
+    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B33" s="63">
         <v>26</v>
       </c>
@@ -21686,7 +21688,7 @@
       <c r="L33" s="75"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1">
+    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="63"/>
       <c r="C34" s="21"/>
       <c r="D34" s="76"/>
@@ -21700,7 +21702,7 @@
       <c r="L34" s="75"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="63"/>
       <c r="C35" s="21"/>
       <c r="D35" s="76"/>
@@ -21714,7 +21716,7 @@
       <c r="L35" s="75"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="63"/>
       <c r="C36" s="21"/>
       <c r="D36" s="76"/>
@@ -21728,7 +21730,7 @@
       <c r="L36" s="75"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" ht="121.5" customHeight="1">
+    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="63"/>
       <c r="C37" s="21"/>
       <c r="D37" s="76"/>
@@ -21742,7 +21744,7 @@
       <c r="L37" s="75"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B38" s="63"/>
       <c r="C38" s="21"/>
       <c r="D38" s="18"/>
@@ -21756,17 +21758,17 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
         <v>264</v>
       </c>
@@ -21774,7 +21776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
         <v>265</v>
       </c>
@@ -21782,7 +21784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
         <v>264</v>
       </c>
@@ -21790,7 +21792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
         <v>266</v>
       </c>
@@ -21798,7 +21800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:4">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -21807,10 +21809,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:4">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="3:4">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
         <v>267</v>
       </c>
@@ -21818,10 +21820,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="3:4">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="3:4">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
         <v>268</v>
       </c>
@@ -21830,7 +21832,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:4">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
         <v>269</v>
       </c>
@@ -21839,7 +21841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:4">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D56" s="15"/>
     </row>
   </sheetData>
@@ -22106,49 +22108,49 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -22159,22 +22161,22 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -22185,7 +22187,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>289</v>
       </c>
@@ -22193,7 +22195,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>290</v>
       </c>
@@ -22201,17 +22203,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>291</v>
       </c>
@@ -22219,7 +22221,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>289</v>
       </c>
@@ -22230,7 +22232,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>290</v>
       </c>
@@ -22241,7 +22243,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>292</v>
       </c>
@@ -22249,7 +22251,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>289</v>
       </c>
@@ -22257,7 +22259,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>290</v>
       </c>
@@ -22265,127 +22267,127 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1">
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="80">
         <v>43331</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>326</v>
       </c>
@@ -22404,199 +22406,199 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>363</v>
       </c>
@@ -22613,7 +22615,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22626,39 +22628,39 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -22678,39 +22680,39 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="54" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="55"/>
     </row>
   </sheetData>
@@ -22725,7 +22727,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
@@ -22735,7 +22737,7 @@
     <col min="6" max="6" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>31</v>
       </c>
@@ -22743,62 +22745,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
@@ -22806,7 +22808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -22820,7 +22822,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1">
+    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -22838,7 +22840,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
@@ -22853,7 +22855,7 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
@@ -22865,7 +22867,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
@@ -22877,7 +22879,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
         <v>59</v>
       </c>
@@ -22891,7 +22893,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54">
+    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
@@ -22906,7 +22908,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B25" s="18" t="s">
         <v>65</v>
       </c>
@@ -22918,7 +22920,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5">
+    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B26" s="18" t="s">
         <v>68</v>
       </c>
@@ -22933,7 +22935,7 @@
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
@@ -22945,7 +22947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B28" s="18" t="s">
         <v>71</v>
       </c>
@@ -22954,7 +22956,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B29" s="21" t="s">
         <v>73</v>
       </c>
@@ -22966,7 +22968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
@@ -22981,7 +22983,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B31" s="21" t="s">
         <v>76</v>
       </c>
@@ -22993,21 +22995,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -23015,7 +23017,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="16" customFormat="1">
+    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -23023,7 +23025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="16" customFormat="1">
+    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -23031,7 +23033,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="16" customFormat="1">
+    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -23039,7 +23041,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="16" customFormat="1">
+    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40"/>
     </row>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -4678,7 +4678,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6473,7 +6473,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6552,7 +6552,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6959,7 +6959,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="15" hidden="1" customWidth="1"/>
@@ -6967,7 +6967,7 @@
     <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5">
       <c r="B2" s="28" t="s">
         <v>124</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5">
       <c r="B3" s="18">
         <v>3</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5">
       <c r="B4" s="18">
         <v>4</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5">
       <c r="B5" s="18">
         <v>5</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5">
       <c r="B6" s="18">
         <v>6</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5">
       <c r="B7" s="18">
         <v>7</v>
       </c>
@@ -7060,13 +7060,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5">
       <c r="B8" s="18">
         <v>8</v>
       </c>
       <c r="C8" s="57">
         <f>SUM(WBS!BX66:EF66)</f>
-        <v>65.5</v>
+        <v>67.5</v>
       </c>
       <c r="D8" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$66:$EG$66)</f>
@@ -7077,7 +7077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5">
       <c r="B9" s="18">
         <v>9</v>
       </c>
@@ -7087,20 +7087,20 @@
       </c>
       <c r="D9" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B9,WBS!$O$66:$EG$66)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" s="57">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5">
       <c r="B10" s="81" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="58">
         <f>SUM(C3:C8)</f>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D10" s="58">
         <f>SUM(D3:D8)</f>
@@ -7123,12 +7123,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="I5" t="s">
         <v>106</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="I7" s="27" t="s">
         <v>120</v>
       </c>
@@ -7171,68 +7171,68 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="Q8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="Q9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="R10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="Q11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="26" customFormat="1">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16" s="26" customFormat="1">
       <c r="C17" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16" s="26" customFormat="1">
       <c r="B18" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16" s="26" customFormat="1">
       <c r="C19" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16" s="26" customFormat="1"/>
+    <row r="22" spans="2:16" s="24" customFormat="1">
       <c r="B22" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16">
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16">
       <c r="D24" t="s">
         <v>91</v>
       </c>
@@ -7240,27 +7240,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16">
       <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16">
       <c r="D27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:16">
       <c r="E28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16">
       <c r="E29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16">
       <c r="E30" t="s">
         <v>96</v>
       </c>
@@ -7268,37 +7268,37 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="B32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:16">
       <c r="D34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:16">
       <c r="E35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:16">
       <c r="E36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:16">
       <c r="D37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:16">
       <c r="E38" t="s">
         <v>103</v>
       </c>
@@ -7324,14 +7324,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7433,7 +7433,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7444,62 +7444,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:30">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>2</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7534,10 +7534,10 @@
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="DM32" sqref="DM32"/>
+      <selection pane="bottomRight" activeCell="DP32" sqref="DP32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="3" width="2.375" style="8" customWidth="1"/>
@@ -7556,7 +7556,7 @@
     <col min="138" max="138" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:138" s="39" customFormat="1">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="H1" s="8"/>
@@ -7690,7 +7690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:138" s="39" customFormat="1">
       <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:138" s="39" customFormat="1">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
@@ -7963,7 +7963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:138" s="39" customFormat="1">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
@@ -8100,7 +8100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:138" s="39" customFormat="1">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="H5" s="8"/>
@@ -8234,7 +8234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:138" s="39" customFormat="1">
       <c r="B6" s="38" t="s">
         <v>149</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:138" s="39" customFormat="1">
       <c r="B7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>159</v>
@@ -8508,7 +8508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:138" s="39" customFormat="1">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="H8" s="8"/>
@@ -8642,7 +8642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:138">
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -8770,7 +8770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:138">
       <c r="L10" s="7"/>
       <c r="O10" s="29">
         <v>43252</v>
@@ -9145,7 +9145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:138">
       <c r="O11" s="9">
         <f>O10</f>
         <v>43252</v>
@@ -9642,7 +9642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:138" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:138" ht="28.5" customHeight="1">
       <c r="B12" s="82" t="s">
         <v>0</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:138">
       <c r="B13" s="30">
         <v>1</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:138">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="42" t="s">
@@ -10483,7 +10483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:138">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="42"/>
@@ -10628,7 +10628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:138">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="42"/>
@@ -10771,7 +10771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:138">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="42"/>
@@ -10928,7 +10928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:138">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="42"/>
@@ -11083,7 +11083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:138">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="42"/>
@@ -11238,7 +11238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:138">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="42"/>
@@ -11399,7 +11399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:138">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="42"/>
@@ -11554,7 +11554,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:138">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="42"/>
@@ -11711,7 +11711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:138">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="42"/>
@@ -11866,7 +11866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:138">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="42"/>
@@ -12021,7 +12021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:138">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="42"/>
@@ -12164,7 +12164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:138">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="42"/>
@@ -12307,7 +12307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:138">
       <c r="B27" s="30"/>
       <c r="C27" s="30">
         <v>2</v>
@@ -12462,7 +12462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:138">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="42"/>
@@ -12619,7 +12619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:138">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="42"/>
@@ -12776,7 +12776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:138">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="42"/>
@@ -12937,7 +12937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:138">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="42"/>
@@ -12963,7 +12963,7 @@
       <c r="L31" s="40"/>
       <c r="M31" s="48">
         <f t="shared" si="58"/>
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -13092,7 +13092,9 @@
       </c>
       <c r="DN31" s="11"/>
       <c r="DO31" s="11"/>
-      <c r="DP31" s="11"/>
+      <c r="DP31" s="11">
+        <v>2</v>
+      </c>
       <c r="DQ31" s="11"/>
       <c r="DR31" s="11"/>
       <c r="DS31" s="11"/>
@@ -13114,7 +13116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:138">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="42"/>
@@ -13298,7 +13300,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:138">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="42"/>
@@ -13455,7 +13457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:138">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="42"/>
@@ -13612,7 +13614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:138">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="42"/>
@@ -13769,7 +13771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:138">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="42"/>
@@ -13928,7 +13930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:138">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="42"/>
@@ -14083,7 +14085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:138">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="42"/>
@@ -14240,7 +14242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:138">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="42"/>
@@ -14395,7 +14397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:138">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="42"/>
@@ -14538,7 +14540,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:138">
       <c r="B41" s="30"/>
       <c r="C41" s="30">
         <v>3</v>
@@ -14695,7 +14697,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:138">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="42"/>
@@ -14838,7 +14840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:138">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="42"/>
@@ -14991,7 +14993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:138">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="42"/>
@@ -15134,7 +15136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:138">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="42"/>
@@ -15285,7 +15287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:138">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="42"/>
@@ -15434,7 +15436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:138" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:138" ht="48" customHeight="1">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="42"/>
@@ -15577,7 +15579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:138" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:138" ht="27">
       <c r="B48" s="30">
         <v>2</v>
       </c>
@@ -15742,7 +15744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:138">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="43"/>
@@ -15885,7 +15887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:138">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="43"/>
@@ -16036,7 +16038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:138">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="43"/>
@@ -16179,7 +16181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:138">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="43"/>
@@ -16334,7 +16336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:138">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="43"/>
@@ -16477,7 +16479,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:138" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:138" ht="27">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="43"/>
@@ -16628,7 +16630,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:138">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="43"/>
@@ -16771,7 +16773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:138" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:138" ht="27">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="43"/>
@@ -16932,7 +16934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:138">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
@@ -17075,7 +17077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:138">
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="43"/>
@@ -17224,7 +17226,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:138">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="43"/>
@@ -17367,7 +17369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:138">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="4"/>
@@ -17510,7 +17512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:138">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="4"/>
@@ -17653,7 +17655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:138">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="4"/>
@@ -17796,7 +17798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:138">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="4"/>
@@ -17939,7 +17941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:138">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="4"/>
@@ -18082,7 +18084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:138">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
       <c r="D65" s="5"/>
@@ -18225,10 +18227,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:138">
       <c r="M66" s="45">
         <f t="shared" si="59"/>
-        <v>155.5</v>
+        <v>157.5</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" ref="O66:AT66" si="60">SUM(O13:O65)</f>
@@ -18652,7 +18654,7 @@
       </c>
       <c r="DP66" s="14">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DQ66" s="14">
         <f t="shared" si="64"/>
@@ -18726,7 +18728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:138">
       <c r="O67" s="8">
         <v>6</v>
       </c>
@@ -18734,7 +18736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:138">
       <c r="E68" s="15"/>
       <c r="I68" s="8">
         <v>1.5</v>
@@ -18743,7 +18745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:138">
       <c r="I69" s="8">
         <v>1</v>
       </c>
@@ -18751,12 +18753,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:138">
       <c r="I70" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:138">
       <c r="O73" s="8">
         <v>6</v>
       </c>
@@ -18767,7 +18769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:138">
       <c r="O74" s="8">
         <v>10</v>
       </c>
@@ -18778,7 +18780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="81" spans="15:137">
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
@@ -18903,7 +18905,7 @@
       <c r="EF81"/>
       <c r="EG81"/>
     </row>
-    <row r="84" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="84" spans="15:137">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -19028,7 +19030,7 @@
       <c r="EF84"/>
       <c r="EG84"/>
     </row>
-    <row r="85" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="85" spans="15:137">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -19153,7 +19155,7 @@
       <c r="EF85"/>
       <c r="EG85"/>
     </row>
-    <row r="86" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="86" spans="15:137">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -19278,7 +19280,7 @@
       <c r="EF86"/>
       <c r="EG86"/>
     </row>
-    <row r="87" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="87" spans="15:137">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -19403,7 +19405,7 @@
       <c r="EF87"/>
       <c r="EG87"/>
     </row>
-    <row r="88" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="88" spans="15:137">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -19528,7 +19530,7 @@
       <c r="EF88"/>
       <c r="EG88"/>
     </row>
-    <row r="89" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="89" spans="15:137">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -19653,7 +19655,7 @@
       <c r="EF89"/>
       <c r="EG89"/>
     </row>
-    <row r="90" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="90" spans="15:137">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -19778,7 +19780,7 @@
       <c r="EF90"/>
       <c r="EG90"/>
     </row>
-    <row r="91" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="91" spans="15:137">
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -19903,7 +19905,7 @@
       <c r="EF91"/>
       <c r="EG91"/>
     </row>
-    <row r="93" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="93" spans="15:137">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -20028,7 +20030,7 @@
       <c r="EF93"/>
       <c r="EG93"/>
     </row>
-    <row r="94" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="94" spans="15:137">
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
@@ -20676,7 +20678,7 @@
       <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
@@ -20693,7 +20695,7 @@
     <col min="13" max="13" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13">
       <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
@@ -20701,21 +20703,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13">
       <c r="C4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>1</v>
       </c>
@@ -20764,7 +20766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1">
       <c r="B7" s="59" t="s">
         <v>199</v>
       </c>
@@ -20802,7 +20804,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" hidden="1">
       <c r="B8" s="63">
         <v>1</v>
       </c>
@@ -20834,7 +20836,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1">
       <c r="B9" s="63">
         <v>2</v>
       </c>
@@ -20866,7 +20868,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" hidden="1">
       <c r="B10" s="63">
         <v>3</v>
       </c>
@@ -20898,7 +20900,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" hidden="1">
       <c r="B11" s="63">
         <v>4</v>
       </c>
@@ -20930,7 +20932,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="27" hidden="1">
       <c r="B12" s="63">
         <v>5</v>
       </c>
@@ -20966,7 +20968,7 @@
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" ht="148.5" hidden="1">
       <c r="B13" s="63">
         <v>6</v>
       </c>
@@ -21002,7 +21004,7 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" ht="94.5" hidden="1">
       <c r="B14" s="63">
         <v>7</v>
       </c>
@@ -21036,7 +21038,7 @@
       </c>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" ht="108" hidden="1">
       <c r="B15" s="63">
         <v>8</v>
       </c>
@@ -21072,7 +21074,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13" hidden="1">
       <c r="B16" s="63">
         <v>9</v>
       </c>
@@ -21104,7 +21106,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" hidden="1">
       <c r="B17" s="63">
         <v>10</v>
       </c>
@@ -21136,7 +21138,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" hidden="1">
       <c r="B18" s="63">
         <v>11</v>
       </c>
@@ -21172,7 +21174,7 @@
       </c>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="94.5">
       <c r="B19" s="63">
         <v>12</v>
       </c>
@@ -21206,7 +21208,7 @@
       </c>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="67.5" hidden="1">
       <c r="B20" s="63">
         <v>13</v>
       </c>
@@ -21244,7 +21246,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="135" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="135" hidden="1">
       <c r="B21" s="63">
         <v>14</v>
       </c>
@@ -21278,7 +21280,7 @@
       </c>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="81" hidden="1">
       <c r="B22" s="63">
         <v>15</v>
       </c>
@@ -21314,7 +21316,7 @@
       </c>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1">
       <c r="B23" s="63">
         <v>16</v>
       </c>
@@ -21348,7 +21350,7 @@
       </c>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1">
       <c r="B24" s="63">
         <v>17</v>
       </c>
@@ -21384,7 +21386,7 @@
       </c>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1">
       <c r="B25" s="63">
         <v>18</v>
       </c>
@@ -21420,7 +21422,7 @@
       </c>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="108" hidden="1">
       <c r="B26" s="63">
         <v>19</v>
       </c>
@@ -21452,7 +21454,7 @@
       <c r="L26" s="75"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="67.5" hidden="1">
       <c r="B27" s="63">
         <v>20</v>
       </c>
@@ -21488,7 +21490,7 @@
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" ht="256.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="256.5" hidden="1">
       <c r="B28" s="63">
         <v>21</v>
       </c>
@@ -21518,7 +21520,7 @@
       <c r="L28" s="75"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="67.5">
       <c r="B29" s="63">
         <v>22</v>
       </c>
@@ -21552,7 +21554,7 @@
       </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B30" s="63">
         <v>23</v>
       </c>
@@ -21588,7 +21590,7 @@
       </c>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B31" s="63">
         <v>24</v>
       </c>
@@ -21622,7 +21624,7 @@
       </c>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B32" s="63">
         <v>25</v>
       </c>
@@ -21656,7 +21658,7 @@
       </c>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" hidden="1">
       <c r="B33" s="63">
         <v>26</v>
       </c>
@@ -21688,7 +21690,7 @@
       <c r="L33" s="75"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="121.5" customHeight="1">
       <c r="B34" s="63"/>
       <c r="C34" s="21"/>
       <c r="D34" s="76"/>
@@ -21702,7 +21704,7 @@
       <c r="L34" s="75"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1">
       <c r="B35" s="63"/>
       <c r="C35" s="21"/>
       <c r="D35" s="76"/>
@@ -21716,7 +21718,7 @@
       <c r="L35" s="75"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1">
       <c r="B36" s="63"/>
       <c r="C36" s="21"/>
       <c r="D36" s="76"/>
@@ -21730,7 +21732,7 @@
       <c r="L36" s="75"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="121.5" customHeight="1">
       <c r="B37" s="63"/>
       <c r="C37" s="21"/>
       <c r="D37" s="76"/>
@@ -21744,7 +21746,7 @@
       <c r="L37" s="75"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13">
       <c r="B38" s="63"/>
       <c r="C38" s="21"/>
       <c r="D38" s="18"/>
@@ -21758,17 +21760,17 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13">
       <c r="C44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13">
       <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:13">
       <c r="C46" t="s">
         <v>264</v>
       </c>
@@ -21776,7 +21778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13">
       <c r="C47" t="s">
         <v>265</v>
       </c>
@@ -21784,7 +21786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13">
       <c r="C48" t="s">
         <v>264</v>
       </c>
@@ -21792,7 +21794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:4">
       <c r="C49" t="s">
         <v>266</v>
       </c>
@@ -21800,7 +21802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:4">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -21809,10 +21811,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:4">
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:4">
       <c r="C52" t="s">
         <v>267</v>
       </c>
@@ -21820,10 +21822,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:4">
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:4">
       <c r="C54" t="s">
         <v>268</v>
       </c>
@@ -21832,7 +21834,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:4">
       <c r="C55" t="s">
         <v>269</v>
       </c>
@@ -21841,7 +21843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:4">
       <c r="D56" s="15"/>
     </row>
   </sheetData>
@@ -22108,49 +22110,49 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -22161,22 +22163,22 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -22187,7 +22189,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>289</v>
       </c>
@@ -22195,7 +22197,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
         <v>290</v>
       </c>
@@ -22203,17 +22205,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="F19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="F20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="B22" t="s">
         <v>291</v>
       </c>
@@ -22221,7 +22223,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="B23" t="s">
         <v>289</v>
       </c>
@@ -22232,7 +22234,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="B24" t="s">
         <v>290</v>
       </c>
@@ -22243,7 +22245,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="B25" t="s">
         <v>292</v>
       </c>
@@ -22251,7 +22253,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>289</v>
       </c>
@@ -22259,7 +22261,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>290</v>
       </c>
@@ -22267,127 +22269,127 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" s="1" customFormat="1">
       <c r="A29" s="80">
         <v>43331</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="B30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="B31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="B32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:2">
       <c r="B55" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
         <v>326</v>
       </c>
@@ -22406,199 +22408,199 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>363</v>
       </c>
@@ -22615,7 +22617,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22628,39 +22630,39 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -22680,39 +22682,39 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2">
       <c r="B7" s="54" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2">
       <c r="B9" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2">
       <c r="B10" s="55"/>
     </row>
   </sheetData>
@@ -22727,7 +22729,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
@@ -22737,7 +22739,7 @@
     <col min="6" max="6" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="D1" t="s">
         <v>31</v>
       </c>
@@ -22745,62 +22747,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="D16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
@@ -22808,7 +22810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -22822,7 +22824,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="165" customHeight="1">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -22840,7 +22842,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1">
       <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
@@ -22855,7 +22857,7 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
@@ -22867,7 +22869,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
@@ -22879,7 +22881,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="B23" s="18" t="s">
         <v>59</v>
       </c>
@@ -22893,7 +22895,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="54">
       <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
@@ -22908,7 +22910,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="B25" s="18" t="s">
         <v>65</v>
       </c>
@@ -22920,7 +22922,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="40.5">
       <c r="B26" s="18" t="s">
         <v>68</v>
       </c>
@@ -22935,7 +22937,7 @@
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
@@ -22947,7 +22949,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="B28" s="18" t="s">
         <v>71</v>
       </c>
@@ -22956,7 +22958,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="B29" s="21" t="s">
         <v>73</v>
       </c>
@@ -22968,7 +22970,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
@@ -22983,7 +22985,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="B31" s="21" t="s">
         <v>76</v>
       </c>
@@ -22995,21 +22997,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -23017,7 +23019,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" s="16" customFormat="1">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -23025,7 +23027,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" s="16" customFormat="1">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -23033,7 +23035,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" s="16" customFormat="1">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -23041,7 +23043,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" s="16" customFormat="1">
       <c r="A40" s="6"/>
       <c r="B40"/>
     </row>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165AAD36-0CF9-4919-BB37-4BEDEE3D6B5F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18080" windowHeight="8180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$EK$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題整理_0609!$B$7:$M$33</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -4669,7 +4670,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -4678,7 +4679,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6473,7 +6474,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6552,7 +6553,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6667,7 +6668,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6709,7 +6710,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6742,9 +6743,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6777,6 +6795,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6952,22 +6987,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="28" t="s">
         <v>124</v>
       </c>
@@ -6981,7 +7016,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="18">
         <v>3</v>
       </c>
@@ -6996,7 +7031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="18">
         <v>4</v>
       </c>
@@ -7011,7 +7046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="18">
         <v>5</v>
       </c>
@@ -7026,7 +7061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="18">
         <v>6</v>
       </c>
@@ -7043,7 +7078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="18">
         <v>7</v>
       </c>
@@ -7060,13 +7095,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="18">
         <v>8</v>
       </c>
       <c r="C8" s="57">
         <f>SUM(WBS!BX66:EF66)</f>
-        <v>67.5</v>
+        <v>73</v>
       </c>
       <c r="D8" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$66:$EG$66)</f>
@@ -7077,7 +7112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="18">
         <v>9</v>
       </c>
@@ -7087,20 +7122,20 @@
       </c>
       <c r="D9" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B9,WBS!$O$66:$EG$66)</f>
-        <v>24</v>
+        <v>29.5</v>
       </c>
       <c r="E9" s="57">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="81" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="58">
         <f>SUM(C3:C8)</f>
-        <v>248</v>
+        <v>253.5</v>
       </c>
       <c r="D10" s="58">
         <f>SUM(D3:D8)</f>
@@ -7118,17 +7153,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -7136,7 +7171,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -7144,7 +7179,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>106</v>
       </c>
@@ -7152,7 +7187,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -7163,7 +7198,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I7" s="27" t="s">
         <v>120</v>
       </c>
@@ -7171,68 +7206,68 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1">
+    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="26" customFormat="1">
+    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C17" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="26" customFormat="1">
+    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="26" customFormat="1">
+    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="26" customFormat="1"/>
-    <row r="22" spans="2:16" s="24" customFormat="1">
+    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>91</v>
       </c>
@@ -7240,27 +7275,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>96</v>
       </c>
@@ -7268,37 +7303,37 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>103</v>
       </c>
@@ -7309,7 +7344,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7317,21 +7352,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7345,7 +7380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7356,7 +7391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7367,7 +7402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7375,7 +7410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7389,7 +7424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7397,7 +7432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7433,7 +7468,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7444,62 +7479,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -7510,7 +7545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7526,37 +7561,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:EH94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="DH13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="DO13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="DP32" sqref="DP32"/>
+      <selection pane="bottomRight" activeCell="DQ32" sqref="DQ32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="3" width="2.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="2" max="3" width="2.36328125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="8" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.125" customWidth="1"/>
+    <col min="12" max="12" width="32.08984375" customWidth="1"/>
     <col min="13" max="13" width="10" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="137" width="7.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.90625" customWidth="1"/>
+    <col min="15" max="137" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="3.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:138" s="39" customFormat="1">
+    <row r="1" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="H1" s="8"/>
@@ -7690,7 +7725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:138" s="39" customFormat="1">
+    <row r="2" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
@@ -7826,7 +7861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:138" s="39" customFormat="1">
+    <row r="3" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
@@ -7963,7 +7998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:138" s="39" customFormat="1">
+    <row r="4" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
@@ -8100,7 +8135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:138" s="39" customFormat="1">
+    <row r="5" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="H5" s="8"/>
@@ -8234,7 +8269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:138" s="39" customFormat="1">
+    <row r="6" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>149</v>
       </c>
@@ -8370,7 +8405,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:138" s="39" customFormat="1">
+    <row r="7" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>159</v>
@@ -8508,7 +8543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:138" s="39" customFormat="1">
+    <row r="8" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="H8" s="8"/>
@@ -8642,7 +8677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:138">
+    <row r="9" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -8770,7 +8805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:138">
+    <row r="10" spans="2:138" x14ac:dyDescent="0.2">
       <c r="L10" s="7"/>
       <c r="O10" s="29">
         <v>43252</v>
@@ -9145,7 +9180,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:138">
+    <row r="11" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O11" s="9">
         <f>O10</f>
         <v>43252</v>
@@ -9642,7 +9677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:138" ht="28.5" customHeight="1">
+    <row r="12" spans="2:138" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="82" t="s">
         <v>0</v>
       </c>
@@ -10167,7 +10202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:138">
+    <row r="13" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B13" s="30">
         <v>1</v>
       </c>
@@ -10328,7 +10363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:138">
+    <row r="14" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="42" t="s">
@@ -10483,7 +10518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:138">
+    <row r="15" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="42"/>
@@ -10628,7 +10663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:138">
+    <row r="16" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="42"/>
@@ -10771,7 +10806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:138">
+    <row r="17" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="42"/>
@@ -10928,7 +10963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:138">
+    <row r="18" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="42"/>
@@ -11083,7 +11118,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:138">
+    <row r="19" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="42"/>
@@ -11238,7 +11273,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:138">
+    <row r="20" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="42"/>
@@ -11399,7 +11434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:138">
+    <row r="21" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="42"/>
@@ -11554,7 +11589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:138">
+    <row r="22" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="42"/>
@@ -11711,7 +11746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:138">
+    <row r="23" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="42"/>
@@ -11866,7 +11901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:138">
+    <row r="24" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="42"/>
@@ -12021,7 +12056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:138">
+    <row r="25" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="42"/>
@@ -12164,7 +12199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:138">
+    <row r="26" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="42"/>
@@ -12307,7 +12342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:138">
+    <row r="27" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B27" s="30"/>
       <c r="C27" s="30">
         <v>2</v>
@@ -12462,7 +12497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:138">
+    <row r="28" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="42"/>
@@ -12619,7 +12654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:138">
+    <row r="29" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="42"/>
@@ -12776,7 +12811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:138">
+    <row r="30" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="42"/>
@@ -12937,7 +12972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:138">
+    <row r="31" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="42"/>
@@ -12963,7 +12998,7 @@
       <c r="L31" s="40"/>
       <c r="M31" s="48">
         <f t="shared" si="58"/>
-        <v>34.5</v>
+        <v>40</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -13095,7 +13130,9 @@
       <c r="DP31" s="11">
         <v>2</v>
       </c>
-      <c r="DQ31" s="11"/>
+      <c r="DQ31" s="11">
+        <v>5.5</v>
+      </c>
       <c r="DR31" s="11"/>
       <c r="DS31" s="11"/>
       <c r="DT31" s="11"/>
@@ -13116,7 +13153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:138">
+    <row r="32" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="42"/>
@@ -13300,7 +13337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:138">
+    <row r="33" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="42"/>
@@ -13457,7 +13494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:138">
+    <row r="34" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="42"/>
@@ -13614,7 +13651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:138">
+    <row r="35" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="42"/>
@@ -13771,7 +13808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:138">
+    <row r="36" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="42"/>
@@ -13930,7 +13967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:138">
+    <row r="37" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="42"/>
@@ -14085,7 +14122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:138">
+    <row r="38" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="42"/>
@@ -14242,7 +14279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:138">
+    <row r="39" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="42"/>
@@ -14397,7 +14434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:138">
+    <row r="40" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="42"/>
@@ -14540,7 +14577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:138">
+    <row r="41" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B41" s="30"/>
       <c r="C41" s="30">
         <v>3</v>
@@ -14697,7 +14734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:138">
+    <row r="42" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="42"/>
@@ -14840,7 +14877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:138">
+    <row r="43" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="42"/>
@@ -14993,7 +15030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:138">
+    <row r="44" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="42"/>
@@ -15136,7 +15173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:138">
+    <row r="45" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="42"/>
@@ -15287,7 +15324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:138">
+    <row r="46" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="42"/>
@@ -15436,7 +15473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:138" ht="48" customHeight="1">
+    <row r="47" spans="2:138" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="42"/>
@@ -15579,7 +15616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:138" ht="27">
+    <row r="48" spans="2:138" ht="39" x14ac:dyDescent="0.2">
       <c r="B48" s="30">
         <v>2</v>
       </c>
@@ -15744,7 +15781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:138">
+    <row r="49" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="43"/>
@@ -15887,7 +15924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:138">
+    <row r="50" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="43"/>
@@ -16038,7 +16075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:138">
+    <row r="51" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="43"/>
@@ -16181,7 +16218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:138">
+    <row r="52" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="43"/>
@@ -16336,7 +16373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:138">
+    <row r="53" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="43"/>
@@ -16479,7 +16516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:138" ht="27">
+    <row r="54" spans="2:138" ht="39" x14ac:dyDescent="0.2">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="43"/>
@@ -16630,7 +16667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:138">
+    <row r="55" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="43"/>
@@ -16773,7 +16810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:138" ht="27">
+    <row r="56" spans="2:138" ht="26" x14ac:dyDescent="0.2">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="43"/>
@@ -16934,7 +16971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:138">
+    <row r="57" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
@@ -17077,7 +17114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:138">
+    <row r="58" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="43"/>
@@ -17226,7 +17263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:138">
+    <row r="59" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="43"/>
@@ -17369,7 +17406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:138">
+    <row r="60" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="4"/>
@@ -17512,7 +17549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:138">
+    <row r="61" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="4"/>
@@ -17655,7 +17692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:138">
+    <row r="62" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="4"/>
@@ -17798,7 +17835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="2:138">
+    <row r="63" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="4"/>
@@ -17941,7 +17978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:138">
+    <row r="64" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="4"/>
@@ -18084,7 +18121,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:138">
+    <row r="65" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
       <c r="D65" s="5"/>
@@ -18227,10 +18264,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:138">
+    <row r="66" spans="2:138" x14ac:dyDescent="0.2">
       <c r="M66" s="45">
         <f t="shared" si="59"/>
-        <v>157.5</v>
+        <v>163</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" ref="O66:AT66" si="60">SUM(O13:O65)</f>
@@ -18658,7 +18695,7 @@
       </c>
       <c r="DQ66" s="14">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="DR66" s="14">
         <f t="shared" si="64"/>
@@ -18728,7 +18765,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:138">
+    <row r="67" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O67" s="8">
         <v>6</v>
       </c>
@@ -18736,7 +18773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:138">
+    <row r="68" spans="2:138" x14ac:dyDescent="0.2">
       <c r="E68" s="15"/>
       <c r="I68" s="8">
         <v>1.5</v>
@@ -18745,7 +18782,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:138">
+    <row r="69" spans="2:138" x14ac:dyDescent="0.2">
       <c r="I69" s="8">
         <v>1</v>
       </c>
@@ -18753,12 +18790,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:138">
+    <row r="70" spans="2:138" x14ac:dyDescent="0.2">
       <c r="I70" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:138">
+    <row r="73" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O73" s="8">
         <v>6</v>
       </c>
@@ -18769,7 +18806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:138">
+    <row r="74" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O74" s="8">
         <v>10</v>
       </c>
@@ -18780,7 +18817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="15:137">
+    <row r="81" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
@@ -18905,7 +18942,7 @@
       <c r="EF81"/>
       <c r="EG81"/>
     </row>
-    <row r="84" spans="15:137">
+    <row r="84" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -19030,7 +19067,7 @@
       <c r="EF84"/>
       <c r="EG84"/>
     </row>
-    <row r="85" spans="15:137">
+    <row r="85" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -19155,7 +19192,7 @@
       <c r="EF85"/>
       <c r="EG85"/>
     </row>
-    <row r="86" spans="15:137">
+    <row r="86" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -19280,7 +19317,7 @@
       <c r="EF86"/>
       <c r="EG86"/>
     </row>
-    <row r="87" spans="15:137">
+    <row r="87" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -19405,7 +19442,7 @@
       <c r="EF87"/>
       <c r="EG87"/>
     </row>
-    <row r="88" spans="15:137">
+    <row r="88" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -19530,7 +19567,7 @@
       <c r="EF88"/>
       <c r="EG88"/>
     </row>
-    <row r="89" spans="15:137">
+    <row r="89" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -19655,7 +19692,7 @@
       <c r="EF89"/>
       <c r="EG89"/>
     </row>
-    <row r="90" spans="15:137">
+    <row r="90" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -19780,7 +19817,7 @@
       <c r="EF90"/>
       <c r="EG90"/>
     </row>
-    <row r="91" spans="15:137">
+    <row r="91" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -19905,7 +19942,7 @@
       <c r="EF91"/>
       <c r="EG91"/>
     </row>
-    <row r="93" spans="15:137">
+    <row r="93" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -20030,7 +20067,7 @@
       <c r="EF93"/>
       <c r="EG93"/>
     </row>
-    <row r="94" spans="15:137">
+    <row r="94" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
@@ -20156,7 +20193,7 @@
       <c r="EG94"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:EK14">
+  <autoFilter ref="B12:EK14" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -20653,7 +20690,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -20666,7 +20703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M56"/>
   <sheetViews>
@@ -20678,24 +20715,24 @@
       <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.625" customWidth="1"/>
-    <col min="12" max="12" width="62.125" customWidth="1"/>
-    <col min="13" max="13" width="61.75" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.6328125" customWidth="1"/>
+    <col min="12" max="12" width="62.08984375" customWidth="1"/>
+    <col min="13" max="13" width="61.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
@@ -20703,21 +20740,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -20766,7 +20803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1">
+    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>199</v>
       </c>
@@ -20804,7 +20841,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1">
+    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="63">
         <v>1</v>
       </c>
@@ -20836,7 +20873,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1">
+    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="63">
         <v>2</v>
       </c>
@@ -20868,7 +20905,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" hidden="1">
+    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="63">
         <v>3</v>
       </c>
@@ -20900,7 +20937,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" hidden="1">
+    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="63">
         <v>4</v>
       </c>
@@ -20932,7 +20969,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" ht="27" hidden="1">
+    <row r="12" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="63">
         <v>5</v>
       </c>
@@ -20968,7 +21005,7 @@
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" ht="148.5" hidden="1">
+    <row r="13" spans="2:13" ht="156" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="63">
         <v>6</v>
       </c>
@@ -21004,7 +21041,7 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" ht="94.5" hidden="1">
+    <row r="14" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="63">
         <v>7</v>
       </c>
@@ -21038,7 +21075,7 @@
       </c>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" ht="108" hidden="1">
+    <row r="15" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" s="63">
         <v>8</v>
       </c>
@@ -21074,7 +21111,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" hidden="1">
+    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" s="63">
         <v>9</v>
       </c>
@@ -21106,7 +21143,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" hidden="1">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="63">
         <v>10</v>
       </c>
@@ -21138,7 +21175,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" hidden="1">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="63">
         <v>11</v>
       </c>
@@ -21174,7 +21211,7 @@
       </c>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5">
+    <row r="19" spans="2:13" ht="91" x14ac:dyDescent="0.2">
       <c r="B19" s="63">
         <v>12</v>
       </c>
@@ -21208,7 +21245,7 @@
       </c>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="67.5" hidden="1">
+    <row r="20" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="63">
         <v>13</v>
       </c>
@@ -21246,7 +21283,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="135" hidden="1">
+    <row r="21" spans="2:13" ht="130" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="63">
         <v>14</v>
       </c>
@@ -21280,7 +21317,7 @@
       </c>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" ht="81" hidden="1">
+    <row r="22" spans="2:13" ht="78" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="63">
         <v>15</v>
       </c>
@@ -21316,7 +21353,7 @@
       </c>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1">
+    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="63">
         <v>16</v>
       </c>
@@ -21350,7 +21387,7 @@
       </c>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1">
+    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="63">
         <v>17</v>
       </c>
@@ -21386,7 +21423,7 @@
       </c>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1">
+    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="63">
         <v>18</v>
       </c>
@@ -21422,7 +21459,7 @@
       </c>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" ht="108" hidden="1">
+    <row r="26" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="63">
         <v>19</v>
       </c>
@@ -21454,7 +21491,7 @@
       <c r="L26" s="75"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" ht="67.5" hidden="1">
+    <row r="27" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="63">
         <v>20</v>
       </c>
@@ -21490,7 +21527,7 @@
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" ht="256.5" hidden="1">
+    <row r="28" spans="2:13" ht="247" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="63">
         <v>21</v>
       </c>
@@ -21520,7 +21557,7 @@
       <c r="L28" s="75"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" ht="67.5">
+    <row r="29" spans="2:13" ht="65" x14ac:dyDescent="0.2">
       <c r="B29" s="63">
         <v>22</v>
       </c>
@@ -21554,7 +21591,7 @@
       </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="63">
         <v>23</v>
       </c>
@@ -21590,7 +21627,7 @@
       </c>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="63">
         <v>24</v>
       </c>
@@ -21624,7 +21661,7 @@
       </c>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="63">
         <v>25</v>
       </c>
@@ -21658,7 +21695,7 @@
       </c>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" hidden="1">
+    <row r="33" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="63">
         <v>26</v>
       </c>
@@ -21690,7 +21727,7 @@
       <c r="L33" s="75"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1">
+    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="63"/>
       <c r="C34" s="21"/>
       <c r="D34" s="76"/>
@@ -21704,7 +21741,7 @@
       <c r="L34" s="75"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="63"/>
       <c r="C35" s="21"/>
       <c r="D35" s="76"/>
@@ -21718,7 +21755,7 @@
       <c r="L35" s="75"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="63"/>
       <c r="C36" s="21"/>
       <c r="D36" s="76"/>
@@ -21732,7 +21769,7 @@
       <c r="L36" s="75"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" ht="121.5" customHeight="1">
+    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="63"/>
       <c r="C37" s="21"/>
       <c r="D37" s="76"/>
@@ -21746,7 +21783,7 @@
       <c r="L37" s="75"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="63"/>
       <c r="C38" s="21"/>
       <c r="D38" s="18"/>
@@ -21760,17 +21797,17 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>264</v>
       </c>
@@ -21778,7 +21815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>265</v>
       </c>
@@ -21786,7 +21823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>264</v>
       </c>
@@ -21794,7 +21831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>266</v>
       </c>
@@ -21802,7 +21839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:4">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -21811,10 +21848,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:4">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="3:4">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>267</v>
       </c>
@@ -21822,10 +21859,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="3:4">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="3:4">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>268</v>
       </c>
@@ -21834,7 +21871,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:4">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>269</v>
       </c>
@@ -21843,11 +21880,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:4">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D56" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:M33">
+  <autoFilter ref="B7:M33" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="対応中"/>
@@ -22086,13 +22123,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>E8:E38 G38:H38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -22105,54 +22142,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -22163,22 +22200,22 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -22189,7 +22226,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>289</v>
       </c>
@@ -22197,7 +22234,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>290</v>
       </c>
@@ -22205,17 +22242,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>291</v>
       </c>
@@ -22223,7 +22260,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>289</v>
       </c>
@@ -22234,7 +22271,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>290</v>
       </c>
@@ -22245,7 +22282,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>292</v>
       </c>
@@ -22253,7 +22290,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>289</v>
       </c>
@@ -22261,7 +22298,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>290</v>
       </c>
@@ -22269,127 +22306,127 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1">
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="80">
         <v>43331</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>326</v>
       </c>
@@ -22401,206 +22438,206 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:A41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>363</v>
       </c>
@@ -22612,12 +22649,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22625,44 +22662,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -22675,46 +22712,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="54" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="55"/>
     </row>
   </sheetData>
@@ -22724,22 +22761,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
-    <col min="3" max="3" width="52.375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="77.25" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="45.453125" customWidth="1"/>
+    <col min="3" max="3" width="52.36328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="77.26953125" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="51.5" customWidth="1"/>
+    <col min="6" max="6" width="51.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>31</v>
       </c>
@@ -22747,62 +22784,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
@@ -22810,7 +22847,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -22824,7 +22861,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1">
+    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -22842,7 +22879,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
@@ -22857,7 +22894,7 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
@@ -22869,7 +22906,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
@@ -22881,7 +22918,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="18" t="s">
         <v>59</v>
       </c>
@@ -22895,7 +22932,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54">
+    <row r="24" spans="1:6" ht="52" x14ac:dyDescent="0.2">
       <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
@@ -22910,7 +22947,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="18" t="s">
         <v>65</v>
       </c>
@@ -22922,7 +22959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5">
+    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
         <v>68</v>
       </c>
@@ -22937,7 +22974,7 @@
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
@@ -22949,7 +22986,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>71</v>
       </c>
@@ -22958,7 +22995,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
         <v>73</v>
       </c>
@@ -22970,7 +23007,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
@@ -22985,7 +23022,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
         <v>76</v>
       </c>
@@ -22997,21 +23034,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -23019,7 +23056,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="16" customFormat="1">
+    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -23027,7 +23064,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="16" customFormat="1">
+    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -23035,7 +23072,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="16" customFormat="1">
+    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -23043,7 +23080,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="16" customFormat="1">
+    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40"/>
     </row>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165AAD36-0CF9-4919-BB37-4BEDEE3D6B5F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4755DBA-4D7E-460A-8A1C-7D111DEC078C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18080" windowHeight="8180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="375">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -4664,6 +4664,10 @@
     <rPh sb="9" eb="11">
       <t>カンリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7569,7 +7573,7 @@
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="DQ32" sqref="DQ32"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -8409,6 +8413,9 @@
       <c r="B7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>159</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>374</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="38"/>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4755DBA-4D7E-460A-8A1C-7D111DEC078C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18080" windowHeight="8180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$EK$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題整理_0609!$B$7:$M$33</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -4674,7 +4673,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -4683,7 +4682,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6478,7 +6477,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6557,7 +6556,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6672,7 +6671,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6714,7 +6713,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6747,26 +6746,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6799,23 +6781,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6991,22 +6956,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5">
       <c r="B2" s="28" t="s">
         <v>124</v>
       </c>
@@ -7020,7 +6985,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5">
       <c r="B3" s="18">
         <v>3</v>
       </c>
@@ -7035,7 +7000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5">
       <c r="B4" s="18">
         <v>4</v>
       </c>
@@ -7050,7 +7015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5">
       <c r="B5" s="18">
         <v>5</v>
       </c>
@@ -7065,7 +7030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5">
       <c r="B6" s="18">
         <v>6</v>
       </c>
@@ -7082,7 +7047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5">
       <c r="B7" s="18">
         <v>7</v>
       </c>
@@ -7099,13 +7064,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5">
       <c r="B8" s="18">
         <v>8</v>
       </c>
       <c r="C8" s="57">
         <f>SUM(WBS!BX66:EF66)</f>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D8" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$66:$EG$66)</f>
@@ -7116,7 +7081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5">
       <c r="B9" s="18">
         <v>9</v>
       </c>
@@ -7126,20 +7091,20 @@
       </c>
       <c r="D9" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B9,WBS!$O$66:$EG$66)</f>
-        <v>29.5</v>
+        <v>37.5</v>
       </c>
       <c r="E9" s="57">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="81" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="58">
         <f>SUM(C3:C8)</f>
-        <v>253.5</v>
+        <v>261.5</v>
       </c>
       <c r="D10" s="58">
         <f>SUM(D3:D8)</f>
@@ -7157,17 +7122,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -7175,7 +7140,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -7183,7 +7148,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="I5" t="s">
         <v>106</v>
       </c>
@@ -7191,7 +7156,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -7202,7 +7167,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="I7" s="27" t="s">
         <v>120</v>
       </c>
@@ -7210,68 +7175,68 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="Q8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="Q9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="R10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="Q11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="26" customFormat="1">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" s="26" customFormat="1">
       <c r="C17" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" s="26" customFormat="1">
       <c r="B18" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" s="26" customFormat="1">
       <c r="C19" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" s="26" customFormat="1"/>
+    <row r="22" spans="2:16" s="24" customFormat="1">
       <c r="B22" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16">
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16">
       <c r="D24" t="s">
         <v>91</v>
       </c>
@@ -7279,27 +7244,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16">
       <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16">
       <c r="D27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16">
       <c r="E28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16">
       <c r="E29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16">
       <c r="E30" t="s">
         <v>96</v>
       </c>
@@ -7307,37 +7272,37 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16">
       <c r="B32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16">
       <c r="D34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16">
       <c r="E35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16">
       <c r="E36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16">
       <c r="D37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16">
       <c r="E38" t="s">
         <v>103</v>
       </c>
@@ -7348,7 +7313,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="I7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7356,21 +7321,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7384,7 +7349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7395,7 +7360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7406,7 +7371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7414,7 +7379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7428,7 +7393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7436,7 +7401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7472,7 +7437,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7483,62 +7448,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>2</v>
       </c>
@@ -7549,7 +7514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7565,37 +7530,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:EH94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="14" ySplit="8" topLeftCell="DO13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="DY32" sqref="DY32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" customWidth="1"/>
-    <col min="2" max="3" width="2.36328125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" customWidth="1"/>
-    <col min="8" max="8" width="7.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="3" width="2.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="8" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.08984375" customWidth="1"/>
+    <col min="12" max="12" width="32.125" customWidth="1"/>
     <col min="13" max="13" width="10" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.90625" customWidth="1"/>
-    <col min="15" max="137" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.875" customWidth="1"/>
+    <col min="15" max="137" width="7.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:138" s="39" customFormat="1">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="H1" s="8"/>
@@ -7729,7 +7694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:138" s="39" customFormat="1">
       <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
@@ -7865,7 +7830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:138" s="39" customFormat="1">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
@@ -8002,7 +7967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:138" s="39" customFormat="1">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
@@ -8139,7 +8104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:138" s="39" customFormat="1">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="H5" s="8"/>
@@ -8273,7 +8238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:138" s="39" customFormat="1">
       <c r="B6" s="38" t="s">
         <v>149</v>
       </c>
@@ -8409,7 +8374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:138" s="39" customFormat="1">
       <c r="B7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>159</v>
@@ -8550,7 +8515,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:138" s="39" customFormat="1">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="H8" s="8"/>
@@ -8684,7 +8649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:138">
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -8812,7 +8777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:138">
       <c r="L10" s="7"/>
       <c r="O10" s="29">
         <v>43252</v>
@@ -9187,7 +9152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:138">
       <c r="O11" s="9">
         <f>O10</f>
         <v>43252</v>
@@ -9684,7 +9649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:138" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:138" ht="28.5" customHeight="1">
       <c r="B12" s="82" t="s">
         <v>0</v>
       </c>
@@ -10209,7 +10174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:138">
       <c r="B13" s="30">
         <v>1</v>
       </c>
@@ -10370,7 +10335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:138">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="42" t="s">
@@ -10525,7 +10490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:138">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="42"/>
@@ -10670,7 +10635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:138">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="42"/>
@@ -10813,7 +10778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:138">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="42"/>
@@ -10970,7 +10935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:138">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="42"/>
@@ -11125,7 +11090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:138">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="42"/>
@@ -11280,7 +11245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:138">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="42"/>
@@ -11441,7 +11406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:138">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="42"/>
@@ -11596,7 +11561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:138">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="42"/>
@@ -11753,7 +11718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:138">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="42"/>
@@ -11908,7 +11873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:138">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="42"/>
@@ -12063,7 +12028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:138">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="42"/>
@@ -12206,7 +12171,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:138">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="42"/>
@@ -12349,7 +12314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:138">
       <c r="B27" s="30"/>
       <c r="C27" s="30">
         <v>2</v>
@@ -12504,7 +12469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:138">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="42"/>
@@ -12661,7 +12626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:138">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="42"/>
@@ -12818,7 +12783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:138">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="42"/>
@@ -12979,7 +12944,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:138">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="42"/>
@@ -13005,7 +12970,7 @@
       <c r="L31" s="40"/>
       <c r="M31" s="48">
         <f t="shared" si="58"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -13145,9 +13110,15 @@
       <c r="DT31" s="11"/>
       <c r="DU31" s="11"/>
       <c r="DV31" s="11"/>
-      <c r="DW31" s="11"/>
-      <c r="DX31" s="11"/>
-      <c r="DY31" s="11"/>
+      <c r="DW31" s="11">
+        <v>1</v>
+      </c>
+      <c r="DX31" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="DY31" s="11">
+        <v>1.5</v>
+      </c>
       <c r="DZ31" s="11"/>
       <c r="EA31" s="11"/>
       <c r="EB31" s="11"/>
@@ -13160,7 +13131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:138">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="42"/>
@@ -13344,7 +13315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:138">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="42"/>
@@ -13501,7 +13472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:138">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="42"/>
@@ -13658,7 +13629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:138">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="42"/>
@@ -13815,7 +13786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:138">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="42"/>
@@ -13974,7 +13945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:138">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="42"/>
@@ -14129,7 +14100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:138">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="42"/>
@@ -14286,7 +14257,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:138">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="42"/>
@@ -14441,7 +14412,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:138">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="42"/>
@@ -14584,7 +14555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:138">
       <c r="B41" s="30"/>
       <c r="C41" s="30">
         <v>3</v>
@@ -14741,7 +14712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:138">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="42"/>
@@ -14884,7 +14855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:138">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="42"/>
@@ -15037,7 +15008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:138">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="42"/>
@@ -15180,7 +15151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:138">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="42"/>
@@ -15331,7 +15302,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:138">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="42"/>
@@ -15480,7 +15451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:138" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:138" ht="48" customHeight="1">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="42"/>
@@ -15623,7 +15594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:138" ht="39" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:138" ht="27">
       <c r="B48" s="30">
         <v>2</v>
       </c>
@@ -15788,7 +15759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:138">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="43"/>
@@ -15931,7 +15902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:138">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="43"/>
@@ -16082,7 +16053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:138">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="43"/>
@@ -16225,7 +16196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:138">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="43"/>
@@ -16380,7 +16351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:138">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="43"/>
@@ -16523,7 +16494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:138" ht="39" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:138" ht="27">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="43"/>
@@ -16674,7 +16645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:138">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="43"/>
@@ -16817,7 +16788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:138" ht="26" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:138" ht="27">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="43"/>
@@ -16978,7 +16949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:138">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
@@ -17121,7 +17092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:138">
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="43"/>
@@ -17270,7 +17241,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:138">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="43"/>
@@ -17413,7 +17384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:138">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="4"/>
@@ -17556,7 +17527,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:138">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="4"/>
@@ -17699,7 +17670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:138">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="4"/>
@@ -17842,7 +17813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:138">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="4"/>
@@ -17985,7 +17956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:138">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="4"/>
@@ -18128,7 +18099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:138">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
       <c r="D65" s="5"/>
@@ -18271,10 +18242,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:138">
       <c r="M66" s="45">
         <f t="shared" si="59"/>
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" ref="O66:AT66" si="60">SUM(O13:O65)</f>
@@ -18726,15 +18697,15 @@
       </c>
       <c r="DW66" s="14">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX66" s="14">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="DY66" s="14">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="DZ66" s="14">
         <f t="shared" si="64"/>
@@ -18772,7 +18743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:138">
       <c r="O67" s="8">
         <v>6</v>
       </c>
@@ -18780,7 +18751,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:138">
       <c r="E68" s="15"/>
       <c r="I68" s="8">
         <v>1.5</v>
@@ -18789,7 +18760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:138">
       <c r="I69" s="8">
         <v>1</v>
       </c>
@@ -18797,12 +18768,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:138">
       <c r="I70" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:138">
       <c r="O73" s="8">
         <v>6</v>
       </c>
@@ -18813,7 +18784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:138">
       <c r="O74" s="8">
         <v>10</v>
       </c>
@@ -18824,7 +18795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="81" spans="15:137">
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
@@ -18949,7 +18920,7 @@
       <c r="EF81"/>
       <c r="EG81"/>
     </row>
-    <row r="84" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="84" spans="15:137">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -19074,7 +19045,7 @@
       <c r="EF84"/>
       <c r="EG84"/>
     </row>
-    <row r="85" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="85" spans="15:137">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -19199,7 +19170,7 @@
       <c r="EF85"/>
       <c r="EG85"/>
     </row>
-    <row r="86" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="86" spans="15:137">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -19324,7 +19295,7 @@
       <c r="EF86"/>
       <c r="EG86"/>
     </row>
-    <row r="87" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="87" spans="15:137">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -19449,7 +19420,7 @@
       <c r="EF87"/>
       <c r="EG87"/>
     </row>
-    <row r="88" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="88" spans="15:137">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -19574,7 +19545,7 @@
       <c r="EF88"/>
       <c r="EG88"/>
     </row>
-    <row r="89" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="89" spans="15:137">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -19699,7 +19670,7 @@
       <c r="EF89"/>
       <c r="EG89"/>
     </row>
-    <row r="90" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="90" spans="15:137">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -19824,7 +19795,7 @@
       <c r="EF90"/>
       <c r="EG90"/>
     </row>
-    <row r="91" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="91" spans="15:137">
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -19949,7 +19920,7 @@
       <c r="EF91"/>
       <c r="EG91"/>
     </row>
-    <row r="93" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="93" spans="15:137">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -20074,7 +20045,7 @@
       <c r="EF93"/>
       <c r="EG93"/>
     </row>
-    <row r="94" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="94" spans="15:137">
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
@@ -20200,7 +20171,7 @@
       <c r="EG94"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:EK14" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="B12:EK14">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -20697,7 +20668,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -20710,7 +20681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M56"/>
   <sheetViews>
@@ -20722,24 +20693,24 @@
       <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" customWidth="1"/>
-    <col min="3" max="3" width="44.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.6328125" customWidth="1"/>
-    <col min="12" max="12" width="62.08984375" customWidth="1"/>
-    <col min="13" max="13" width="61.7265625" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.625" customWidth="1"/>
+    <col min="12" max="12" width="62.125" customWidth="1"/>
+    <col min="13" max="13" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
@@ -20747,21 +20718,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13">
       <c r="C4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>1</v>
       </c>
@@ -20810,7 +20781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1">
       <c r="B7" s="59" t="s">
         <v>199</v>
       </c>
@@ -20848,7 +20819,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" hidden="1">
       <c r="B8" s="63">
         <v>1</v>
       </c>
@@ -20880,7 +20851,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1">
       <c r="B9" s="63">
         <v>2</v>
       </c>
@@ -20912,7 +20883,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" hidden="1">
       <c r="B10" s="63">
         <v>3</v>
       </c>
@@ -20944,7 +20915,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" hidden="1">
       <c r="B11" s="63">
         <v>4</v>
       </c>
@@ -20976,7 +20947,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" ht="27" hidden="1">
       <c r="B12" s="63">
         <v>5</v>
       </c>
@@ -21012,7 +20983,7 @@
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" ht="156" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="148.5" hidden="1">
       <c r="B13" s="63">
         <v>6</v>
       </c>
@@ -21048,7 +21019,7 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="94.5" hidden="1">
       <c r="B14" s="63">
         <v>7</v>
       </c>
@@ -21082,7 +21053,7 @@
       </c>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="108" hidden="1">
       <c r="B15" s="63">
         <v>8</v>
       </c>
@@ -21118,7 +21089,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" hidden="1">
       <c r="B16" s="63">
         <v>9</v>
       </c>
@@ -21150,7 +21121,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" hidden="1">
       <c r="B17" s="63">
         <v>10</v>
       </c>
@@ -21182,7 +21153,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" hidden="1">
       <c r="B18" s="63">
         <v>11</v>
       </c>
@@ -21218,7 +21189,7 @@
       </c>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" ht="91" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" ht="94.5">
       <c r="B19" s="63">
         <v>12</v>
       </c>
@@ -21252,7 +21223,7 @@
       </c>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" ht="67.5" hidden="1">
       <c r="B20" s="63">
         <v>13</v>
       </c>
@@ -21290,7 +21261,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="130" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" ht="135" hidden="1">
       <c r="B21" s="63">
         <v>14</v>
       </c>
@@ -21324,7 +21295,7 @@
       </c>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" ht="78" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="81" hidden="1">
       <c r="B22" s="63">
         <v>15</v>
       </c>
@@ -21360,7 +21331,7 @@
       </c>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1">
       <c r="B23" s="63">
         <v>16</v>
       </c>
@@ -21394,7 +21365,7 @@
       </c>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1">
       <c r="B24" s="63">
         <v>17</v>
       </c>
@@ -21430,7 +21401,7 @@
       </c>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1">
       <c r="B25" s="63">
         <v>18</v>
       </c>
@@ -21466,7 +21437,7 @@
       </c>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" ht="108" hidden="1">
       <c r="B26" s="63">
         <v>19</v>
       </c>
@@ -21498,7 +21469,7 @@
       <c r="L26" s="75"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" ht="67.5" hidden="1">
       <c r="B27" s="63">
         <v>20</v>
       </c>
@@ -21534,7 +21505,7 @@
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" ht="247" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" ht="256.5" hidden="1">
       <c r="B28" s="63">
         <v>21</v>
       </c>
@@ -21564,7 +21535,7 @@
       <c r="L28" s="75"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" ht="67.5">
       <c r="B29" s="63">
         <v>22</v>
       </c>
@@ -21598,7 +21569,7 @@
       </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B30" s="63">
         <v>23</v>
       </c>
@@ -21634,7 +21605,7 @@
       </c>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B31" s="63">
         <v>24</v>
       </c>
@@ -21668,7 +21639,7 @@
       </c>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B32" s="63">
         <v>25</v>
       </c>
@@ -21702,7 +21673,7 @@
       </c>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" hidden="1">
       <c r="B33" s="63">
         <v>26</v>
       </c>
@@ -21734,7 +21705,7 @@
       <c r="L33" s="75"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" ht="121.5" customHeight="1">
       <c r="B34" s="63"/>
       <c r="C34" s="21"/>
       <c r="D34" s="76"/>
@@ -21748,7 +21719,7 @@
       <c r="L34" s="75"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1">
       <c r="B35" s="63"/>
       <c r="C35" s="21"/>
       <c r="D35" s="76"/>
@@ -21762,7 +21733,7 @@
       <c r="L35" s="75"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1">
       <c r="B36" s="63"/>
       <c r="C36" s="21"/>
       <c r="D36" s="76"/>
@@ -21776,7 +21747,7 @@
       <c r="L36" s="75"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" ht="121.5" customHeight="1">
       <c r="B37" s="63"/>
       <c r="C37" s="21"/>
       <c r="D37" s="76"/>
@@ -21790,7 +21761,7 @@
       <c r="L37" s="75"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13">
       <c r="B38" s="63"/>
       <c r="C38" s="21"/>
       <c r="D38" s="18"/>
@@ -21804,17 +21775,17 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13">
       <c r="C44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13">
       <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13">
       <c r="C46" t="s">
         <v>264</v>
       </c>
@@ -21822,7 +21793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13">
       <c r="C47" t="s">
         <v>265</v>
       </c>
@@ -21830,7 +21801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13">
       <c r="C48" t="s">
         <v>264</v>
       </c>
@@ -21838,7 +21809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4">
       <c r="C49" t="s">
         <v>266</v>
       </c>
@@ -21846,7 +21817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -21855,10 +21826,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:4">
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:4">
       <c r="C52" t="s">
         <v>267</v>
       </c>
@@ -21866,10 +21837,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:4">
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:4">
       <c r="C54" t="s">
         <v>268</v>
       </c>
@@ -21878,7 +21849,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4">
       <c r="C55" t="s">
         <v>269</v>
       </c>
@@ -21887,11 +21858,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:4">
       <c r="D56" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:M33" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="B7:M33">
     <filterColumn colId="4">
       <filters>
         <filter val="対応中"/>
@@ -22130,13 +22101,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>E8:E38 G38:H38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -22149,54 +22120,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -22207,22 +22178,22 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -22233,7 +22204,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>289</v>
       </c>
@@ -22241,7 +22212,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
         <v>290</v>
       </c>
@@ -22249,17 +22220,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="F19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="F20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="B22" t="s">
         <v>291</v>
       </c>
@@ -22267,7 +22238,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="B23" t="s">
         <v>289</v>
       </c>
@@ -22278,7 +22249,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="B24" t="s">
         <v>290</v>
       </c>
@@ -22289,7 +22260,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="B25" t="s">
         <v>292</v>
       </c>
@@ -22297,7 +22268,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>289</v>
       </c>
@@ -22305,7 +22276,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>290</v>
       </c>
@@ -22313,127 +22284,127 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="1" customFormat="1">
       <c r="A29" s="80">
         <v>43331</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="B30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="B31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="B32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2">
       <c r="B55" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
         <v>326</v>
       </c>
@@ -22445,206 +22416,206 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>363</v>
       </c>
@@ -22656,12 +22627,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22669,44 +22640,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -22719,46 +22690,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" s="54" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" s="55"/>
     </row>
   </sheetData>
@@ -22768,22 +22739,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
-    <col min="2" max="2" width="45.453125" customWidth="1"/>
-    <col min="3" max="3" width="52.36328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="77.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="52.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="77.25" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="51.453125" customWidth="1"/>
+    <col min="6" max="6" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="D1" t="s">
         <v>31</v>
       </c>
@@ -22791,62 +22762,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="D16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
@@ -22854,7 +22825,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -22868,7 +22839,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="165" customHeight="1">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -22886,7 +22857,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1">
       <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
@@ -22901,7 +22872,7 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
@@ -22913,7 +22884,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
@@ -22925,7 +22896,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="B23" s="18" t="s">
         <v>59</v>
       </c>
@@ -22939,7 +22910,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="52" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="54">
       <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
@@ -22954,7 +22925,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="B25" s="18" t="s">
         <v>65</v>
       </c>
@@ -22966,7 +22937,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="40.5">
       <c r="B26" s="18" t="s">
         <v>68</v>
       </c>
@@ -22981,7 +22952,7 @@
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
@@ -22993,7 +22964,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="B28" s="18" t="s">
         <v>71</v>
       </c>
@@ -23002,7 +22973,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="B29" s="21" t="s">
         <v>73</v>
       </c>
@@ -23014,7 +22985,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
@@ -23029,7 +23000,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="B31" s="21" t="s">
         <v>76</v>
       </c>
@@ -23041,21 +23012,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -23063,7 +23034,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="16" customFormat="1">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -23071,7 +23042,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" s="16" customFormat="1">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -23079,7 +23050,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="16" customFormat="1">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -23087,7 +23058,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="16" customFormat="1">
       <c r="A40" s="6"/>
       <c r="B40"/>
     </row>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -7070,7 +7070,7 @@
       </c>
       <c r="C8" s="57">
         <f>SUM(WBS!BX66:EF66)</f>
-        <v>81</v>
+        <v>89.5</v>
       </c>
       <c r="D8" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$66:$EG$66)</f>
@@ -7091,11 +7091,11 @@
       </c>
       <c r="D9" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B9,WBS!$O$66:$EG$66)</f>
-        <v>37.5</v>
+        <v>46</v>
       </c>
       <c r="E9" s="57">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -7104,7 +7104,7 @@
       </c>
       <c r="C10" s="58">
         <f>SUM(C3:C8)</f>
-        <v>261.5</v>
+        <v>270</v>
       </c>
       <c r="D10" s="58">
         <f>SUM(D3:D8)</f>
@@ -7534,11 +7534,11 @@
   <dimension ref="B1:EH94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="DO13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="8" topLeftCell="DX13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="DY32" sqref="DY32"/>
+      <selection pane="bottomRight" activeCell="ED32" sqref="ED32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12970,7 +12970,7 @@
       <c r="L31" s="40"/>
       <c r="M31" s="48">
         <f t="shared" si="58"/>
-        <v>48</v>
+        <v>56.5</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -13119,11 +13119,15 @@
       <c r="DY31" s="11">
         <v>1.5</v>
       </c>
-      <c r="DZ31" s="11"/>
+      <c r="DZ31" s="11">
+        <v>7.5</v>
+      </c>
       <c r="EA31" s="11"/>
       <c r="EB31" s="11"/>
       <c r="EC31" s="11"/>
-      <c r="ED31" s="11"/>
+      <c r="ED31" s="11">
+        <v>1</v>
+      </c>
       <c r="EE31" s="11"/>
       <c r="EF31" s="11"/>
       <c r="EG31" s="11"/>
@@ -18245,7 +18249,7 @@
     <row r="66" spans="2:138">
       <c r="M66" s="45">
         <f t="shared" si="59"/>
-        <v>171</v>
+        <v>179.5</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" ref="O66:AT66" si="60">SUM(O13:O65)</f>
@@ -18709,7 +18713,7 @@
       </c>
       <c r="DZ66" s="14">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="EA66" s="14">
         <f t="shared" si="64"/>
@@ -18725,7 +18729,7 @@
       </c>
       <c r="ED66" s="14">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE66" s="14">
         <f t="shared" si="65"/>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B713C3-12F0-4E33-A861-24616FB43B84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -23,7 +24,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$EK$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題整理_0609!$B$7:$M$33</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4673,7 +4681,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -4682,7 +4690,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6477,7 +6485,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6556,7 +6564,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6671,7 +6679,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6713,7 +6721,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6746,9 +6754,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6781,6 +6806,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6956,14 +6998,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="15" hidden="1" customWidth="1"/>
@@ -6971,7 +7013,7 @@
     <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="28" t="s">
         <v>124</v>
       </c>
@@ -6985,7 +7027,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" s="18">
         <v>3</v>
       </c>
@@ -7000,7 +7042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" s="18">
         <v>4</v>
       </c>
@@ -7015,7 +7057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" s="18">
         <v>5</v>
       </c>
@@ -7030,7 +7072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" s="18">
         <v>6</v>
       </c>
@@ -7047,7 +7089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" s="18">
         <v>7</v>
       </c>
@@ -7064,13 +7106,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" s="18">
         <v>8</v>
       </c>
       <c r="C8" s="57">
         <f>SUM(WBS!BX66:EF66)</f>
-        <v>89.5</v>
+        <v>99.5</v>
       </c>
       <c r="D8" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$66:$EG$66)</f>
@@ -7081,7 +7123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" s="18">
         <v>9</v>
       </c>
@@ -7091,20 +7133,20 @@
       </c>
       <c r="D9" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B9,WBS!$O$66:$EG$66)</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E9" s="57">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" s="81" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="58">
         <f>SUM(C3:C8)</f>
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D10" s="58">
         <f>SUM(D3:D8)</f>
@@ -7122,17 +7164,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -7140,7 +7182,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -7148,7 +7190,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="I5" t="s">
         <v>106</v>
       </c>
@@ -7156,7 +7198,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -7167,7 +7209,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="I7" s="27" t="s">
         <v>120</v>
       </c>
@@ -7175,68 +7217,68 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="Q8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="Q9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="Q11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1">
+    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="26" customFormat="1">
+    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="26" customFormat="1">
+    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="26" customFormat="1">
+    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="26" customFormat="1"/>
-    <row r="22" spans="2:16" s="24" customFormat="1">
+    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>91</v>
       </c>
@@ -7244,27 +7286,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
         <v>96</v>
       </c>
@@ -7272,37 +7314,37 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
         <v>103</v>
       </c>
@@ -7313,7 +7355,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7321,21 +7363,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7349,7 +7391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7360,7 +7402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7371,7 +7413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7379,7 +7421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7393,7 +7435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7401,7 +7443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7437,7 +7479,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7448,62 +7490,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2</v>
       </c>
@@ -7514,7 +7556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7530,18 +7572,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:EH94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="DX13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="8" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="ED32" sqref="ED32"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="3" width="2.375" style="8" customWidth="1"/>
@@ -7560,7 +7602,7 @@
     <col min="138" max="138" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:138" s="39" customFormat="1">
+    <row r="1" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="H1" s="8"/>
@@ -7694,7 +7736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:138" s="39" customFormat="1">
+    <row r="2" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
@@ -7830,7 +7872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:138" s="39" customFormat="1">
+    <row r="3" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
@@ -7967,7 +8009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:138" s="39" customFormat="1">
+    <row r="4" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
@@ -8104,7 +8146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:138" s="39" customFormat="1">
+    <row r="5" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="H5" s="8"/>
@@ -8238,7 +8280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:138" s="39" customFormat="1">
+    <row r="6" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="38" t="s">
         <v>149</v>
       </c>
@@ -8374,7 +8416,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:138" s="39" customFormat="1">
+    <row r="7" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>159</v>
@@ -8515,7 +8557,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:138" s="39" customFormat="1">
+    <row r="8" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="H8" s="8"/>
@@ -8649,7 +8691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:138">
+    <row r="9" spans="2:138" x14ac:dyDescent="0.15">
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -8777,7 +8819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:138">
+    <row r="10" spans="2:138" x14ac:dyDescent="0.15">
       <c r="L10" s="7"/>
       <c r="O10" s="29">
         <v>43252</v>
@@ -9152,7 +9194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:138">
+    <row r="11" spans="2:138" x14ac:dyDescent="0.15">
       <c r="O11" s="9">
         <f>O10</f>
         <v>43252</v>
@@ -9649,7 +9691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:138" ht="28.5" customHeight="1">
+    <row r="12" spans="2:138" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="82" t="s">
         <v>0</v>
       </c>
@@ -10174,7 +10216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:138">
+    <row r="13" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B13" s="30">
         <v>1</v>
       </c>
@@ -10335,7 +10377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:138">
+    <row r="14" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="42" t="s">
@@ -10490,7 +10532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:138">
+    <row r="15" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="42"/>
@@ -10635,7 +10677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:138">
+    <row r="16" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="42"/>
@@ -10778,7 +10820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:138">
+    <row r="17" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="42"/>
@@ -10935,7 +10977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:138">
+    <row r="18" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="42"/>
@@ -11090,7 +11132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:138">
+    <row r="19" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="42"/>
@@ -11245,7 +11287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:138">
+    <row r="20" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="42"/>
@@ -11406,7 +11448,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:138">
+    <row r="21" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="42"/>
@@ -11561,7 +11603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:138">
+    <row r="22" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="42"/>
@@ -11718,7 +11760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:138">
+    <row r="23" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="42"/>
@@ -11873,7 +11915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:138">
+    <row r="24" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="42"/>
@@ -12028,7 +12070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:138">
+    <row r="25" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="42"/>
@@ -12171,7 +12213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:138">
+    <row r="26" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="42"/>
@@ -12314,7 +12356,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:138">
+    <row r="27" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B27" s="30"/>
       <c r="C27" s="30">
         <v>2</v>
@@ -12469,7 +12511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:138">
+    <row r="28" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="42"/>
@@ -12626,7 +12668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:138">
+    <row r="29" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="42"/>
@@ -12783,7 +12825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:138">
+    <row r="30" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="42"/>
@@ -12944,7 +12986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:138">
+    <row r="31" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="42"/>
@@ -12970,7 +13012,7 @@
       <c r="L31" s="40"/>
       <c r="M31" s="48">
         <f t="shared" si="58"/>
-        <v>56.5</v>
+        <v>66.5</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -13128,14 +13170,16 @@
       <c r="ED31" s="11">
         <v>1</v>
       </c>
-      <c r="EE31" s="11"/>
+      <c r="EE31" s="11">
+        <v>10</v>
+      </c>
       <c r="EF31" s="11"/>
       <c r="EG31" s="11"/>
       <c r="EH31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:138">
+    <row r="32" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="42"/>
@@ -13319,7 +13363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:138">
+    <row r="33" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="42"/>
@@ -13476,7 +13520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:138">
+    <row r="34" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="42"/>
@@ -13633,7 +13677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:138">
+    <row r="35" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="42"/>
@@ -13790,7 +13834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:138">
+    <row r="36" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="42"/>
@@ -13949,7 +13993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:138">
+    <row r="37" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="42"/>
@@ -14104,7 +14148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:138">
+    <row r="38" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="42"/>
@@ -14261,7 +14305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:138">
+    <row r="39" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="42"/>
@@ -14416,7 +14460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:138">
+    <row r="40" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="42"/>
@@ -14559,7 +14603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:138">
+    <row r="41" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B41" s="30"/>
       <c r="C41" s="30">
         <v>3</v>
@@ -14716,7 +14760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:138">
+    <row r="42" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="42"/>
@@ -14859,7 +14903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:138">
+    <row r="43" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="42"/>
@@ -15012,7 +15056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:138">
+    <row r="44" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="42"/>
@@ -15155,7 +15199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:138">
+    <row r="45" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="42"/>
@@ -15306,7 +15350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:138">
+    <row r="46" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="42"/>
@@ -15455,7 +15499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:138" ht="48" customHeight="1">
+    <row r="47" spans="2:138" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="42"/>
@@ -15598,7 +15642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:138" ht="27">
+    <row r="48" spans="2:138" ht="27" x14ac:dyDescent="0.15">
       <c r="B48" s="30">
         <v>2</v>
       </c>
@@ -15763,7 +15807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:138">
+    <row r="49" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="43"/>
@@ -15906,7 +15950,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:138">
+    <row r="50" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="43"/>
@@ -16057,7 +16101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:138">
+    <row r="51" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="43"/>
@@ -16200,7 +16244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:138">
+    <row r="52" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="43"/>
@@ -16355,7 +16399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:138">
+    <row r="53" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="43"/>
@@ -16498,7 +16542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:138" ht="27">
+    <row r="54" spans="2:138" ht="27" x14ac:dyDescent="0.15">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="43"/>
@@ -16649,7 +16693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:138">
+    <row r="55" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="43"/>
@@ -16792,7 +16836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:138" ht="27">
+    <row r="56" spans="2:138" ht="27" x14ac:dyDescent="0.15">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="43"/>
@@ -16953,7 +16997,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:138">
+    <row r="57" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
@@ -17096,7 +17140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:138">
+    <row r="58" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="43"/>
@@ -17245,7 +17289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:138">
+    <row r="59" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="43"/>
@@ -17388,7 +17432,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:138">
+    <row r="60" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="4"/>
@@ -17531,7 +17575,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:138">
+    <row r="61" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="4"/>
@@ -17674,7 +17718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:138">
+    <row r="62" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="4"/>
@@ -17817,7 +17861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="2:138">
+    <row r="63" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="4"/>
@@ -17960,7 +18004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:138">
+    <row r="64" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="4"/>
@@ -18103,7 +18147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:138">
+    <row r="65" spans="2:138" x14ac:dyDescent="0.15">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
       <c r="D65" s="5"/>
@@ -18246,10 +18290,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:138">
+    <row r="66" spans="2:138" x14ac:dyDescent="0.15">
       <c r="M66" s="45">
         <f t="shared" si="59"/>
-        <v>179.5</v>
+        <v>189.5</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" ref="O66:AT66" si="60">SUM(O13:O65)</f>
@@ -18733,7 +18777,7 @@
       </c>
       <c r="EE66" s="14">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="EF66" s="14">
         <f t="shared" si="65"/>
@@ -18747,7 +18791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:138">
+    <row r="67" spans="2:138" x14ac:dyDescent="0.15">
       <c r="O67" s="8">
         <v>6</v>
       </c>
@@ -18755,7 +18799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:138">
+    <row r="68" spans="2:138" x14ac:dyDescent="0.15">
       <c r="E68" s="15"/>
       <c r="I68" s="8">
         <v>1.5</v>
@@ -18764,7 +18808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:138">
+    <row r="69" spans="2:138" x14ac:dyDescent="0.15">
       <c r="I69" s="8">
         <v>1</v>
       </c>
@@ -18772,12 +18816,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:138">
+    <row r="70" spans="2:138" x14ac:dyDescent="0.15">
       <c r="I70" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:138">
+    <row r="73" spans="2:138" x14ac:dyDescent="0.15">
       <c r="O73" s="8">
         <v>6</v>
       </c>
@@ -18788,7 +18832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:138">
+    <row r="74" spans="2:138" x14ac:dyDescent="0.15">
       <c r="O74" s="8">
         <v>10</v>
       </c>
@@ -18799,7 +18843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="15:137">
+    <row r="81" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
@@ -18924,7 +18968,7 @@
       <c r="EF81"/>
       <c r="EG81"/>
     </row>
-    <row r="84" spans="15:137">
+    <row r="84" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -19049,7 +19093,7 @@
       <c r="EF84"/>
       <c r="EG84"/>
     </row>
-    <row r="85" spans="15:137">
+    <row r="85" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -19174,7 +19218,7 @@
       <c r="EF85"/>
       <c r="EG85"/>
     </row>
-    <row r="86" spans="15:137">
+    <row r="86" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -19299,7 +19343,7 @@
       <c r="EF86"/>
       <c r="EG86"/>
     </row>
-    <row r="87" spans="15:137">
+    <row r="87" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -19424,7 +19468,7 @@
       <c r="EF87"/>
       <c r="EG87"/>
     </row>
-    <row r="88" spans="15:137">
+    <row r="88" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -19549,7 +19593,7 @@
       <c r="EF88"/>
       <c r="EG88"/>
     </row>
-    <row r="89" spans="15:137">
+    <row r="89" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -19674,7 +19718,7 @@
       <c r="EF89"/>
       <c r="EG89"/>
     </row>
-    <row r="90" spans="15:137">
+    <row r="90" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -19799,7 +19843,7 @@
       <c r="EF90"/>
       <c r="EG90"/>
     </row>
-    <row r="91" spans="15:137">
+    <row r="91" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -19924,7 +19968,7 @@
       <c r="EF91"/>
       <c r="EG91"/>
     </row>
-    <row r="93" spans="15:137">
+    <row r="93" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -20049,7 +20093,7 @@
       <c r="EF93"/>
       <c r="EG93"/>
     </row>
-    <row r="94" spans="15:137">
+    <row r="94" spans="15:137" x14ac:dyDescent="0.15">
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
@@ -20175,7 +20219,7 @@
       <c r="EG94"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:EK14">
+  <autoFilter ref="B12:EK14" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -20672,7 +20716,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -20685,7 +20729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M56"/>
   <sheetViews>
@@ -20697,7 +20741,7 @@
       <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
@@ -20714,7 +20758,7 @@
     <col min="13" max="13" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
@@ -20722,21 +20766,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>1</v>
       </c>
@@ -20785,7 +20829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1">
+    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="59" t="s">
         <v>199</v>
       </c>
@@ -20823,7 +20867,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1">
+    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="63">
         <v>1</v>
       </c>
@@ -20855,7 +20899,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1">
+    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="63">
         <v>2</v>
       </c>
@@ -20887,7 +20931,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" hidden="1">
+    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="63">
         <v>3</v>
       </c>
@@ -20919,7 +20963,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" hidden="1">
+    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="63">
         <v>4</v>
       </c>
@@ -20951,7 +20995,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" ht="27" hidden="1">
+    <row r="12" spans="2:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="63">
         <v>5</v>
       </c>
@@ -20987,7 +21031,7 @@
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" ht="148.5" hidden="1">
+    <row r="13" spans="2:13" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="63">
         <v>6</v>
       </c>
@@ -21023,7 +21067,7 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" ht="94.5" hidden="1">
+    <row r="14" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="63">
         <v>7</v>
       </c>
@@ -21057,7 +21101,7 @@
       </c>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" ht="108" hidden="1">
+    <row r="15" spans="2:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="63">
         <v>8</v>
       </c>
@@ -21093,7 +21137,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" hidden="1">
+    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="63">
         <v>9</v>
       </c>
@@ -21125,7 +21169,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" hidden="1">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="63">
         <v>10</v>
       </c>
@@ -21157,7 +21201,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" hidden="1">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="63">
         <v>11</v>
       </c>
@@ -21193,7 +21237,7 @@
       </c>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5">
+    <row r="19" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B19" s="63">
         <v>12</v>
       </c>
@@ -21227,7 +21271,7 @@
       </c>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="67.5" hidden="1">
+    <row r="20" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B20" s="63">
         <v>13</v>
       </c>
@@ -21265,7 +21309,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="135" hidden="1">
+    <row r="21" spans="2:13" ht="135" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="63">
         <v>14</v>
       </c>
@@ -21299,7 +21343,7 @@
       </c>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" ht="81" hidden="1">
+    <row r="22" spans="2:13" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="63">
         <v>15</v>
       </c>
@@ -21335,7 +21379,7 @@
       </c>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1">
+    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="63">
         <v>16</v>
       </c>
@@ -21369,7 +21413,7 @@
       </c>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1">
+    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="63">
         <v>17</v>
       </c>
@@ -21405,7 +21449,7 @@
       </c>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1">
+    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="63">
         <v>18</v>
       </c>
@@ -21441,7 +21485,7 @@
       </c>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" ht="108" hidden="1">
+    <row r="26" spans="2:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="63">
         <v>19</v>
       </c>
@@ -21473,7 +21517,7 @@
       <c r="L26" s="75"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" ht="67.5" hidden="1">
+    <row r="27" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B27" s="63">
         <v>20</v>
       </c>
@@ -21509,7 +21553,7 @@
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" ht="256.5" hidden="1">
+    <row r="28" spans="2:13" ht="256.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="63">
         <v>21</v>
       </c>
@@ -21539,7 +21583,7 @@
       <c r="L28" s="75"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" ht="67.5">
+    <row r="29" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B29" s="63">
         <v>22</v>
       </c>
@@ -21573,7 +21617,7 @@
       </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="63">
         <v>23</v>
       </c>
@@ -21609,7 +21653,7 @@
       </c>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="63">
         <v>24</v>
       </c>
@@ -21643,7 +21687,7 @@
       </c>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="63">
         <v>25</v>
       </c>
@@ -21677,7 +21721,7 @@
       </c>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" hidden="1">
+    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B33" s="63">
         <v>26</v>
       </c>
@@ -21709,7 +21753,7 @@
       <c r="L33" s="75"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1">
+    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="63"/>
       <c r="C34" s="21"/>
       <c r="D34" s="76"/>
@@ -21723,7 +21767,7 @@
       <c r="L34" s="75"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="63"/>
       <c r="C35" s="21"/>
       <c r="D35" s="76"/>
@@ -21737,7 +21781,7 @@
       <c r="L35" s="75"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="63"/>
       <c r="C36" s="21"/>
       <c r="D36" s="76"/>
@@ -21751,7 +21795,7 @@
       <c r="L36" s="75"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" ht="121.5" customHeight="1">
+    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="63"/>
       <c r="C37" s="21"/>
       <c r="D37" s="76"/>
@@ -21765,7 +21809,7 @@
       <c r="L37" s="75"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B38" s="63"/>
       <c r="C38" s="21"/>
       <c r="D38" s="18"/>
@@ -21779,17 +21823,17 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
         <v>264</v>
       </c>
@@ -21797,7 +21841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
         <v>265</v>
       </c>
@@ -21805,7 +21849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
         <v>264</v>
       </c>
@@ -21813,7 +21857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
         <v>266</v>
       </c>
@@ -21821,7 +21865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:4">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -21830,10 +21874,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:4">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="3:4">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
         <v>267</v>
       </c>
@@ -21841,10 +21885,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="3:4">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="3:4">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
         <v>268</v>
       </c>
@@ -21853,7 +21897,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:4">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
         <v>269</v>
       </c>
@@ -21862,11 +21906,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:4">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D56" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:M33">
+  <autoFilter ref="B7:M33" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="対応中"/>
@@ -22105,13 +22149,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>E8:E38 G38:H38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -22124,54 +22168,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -22182,22 +22226,22 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -22208,7 +22252,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>289</v>
       </c>
@@ -22216,7 +22260,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>290</v>
       </c>
@@ -22224,17 +22268,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>291</v>
       </c>
@@ -22242,7 +22286,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>289</v>
       </c>
@@ -22253,7 +22297,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>290</v>
       </c>
@@ -22264,7 +22308,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>292</v>
       </c>
@@ -22272,7 +22316,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>289</v>
       </c>
@@ -22280,7 +22324,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>290</v>
       </c>
@@ -22288,127 +22332,127 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1">
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="80">
         <v>43331</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>326</v>
       </c>
@@ -22420,206 +22464,206 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:A41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>363</v>
       </c>
@@ -22631,12 +22675,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22644,44 +22688,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -22694,46 +22738,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="54" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="55"/>
     </row>
   </sheetData>
@@ -22743,12 +22787,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
@@ -22758,7 +22802,7 @@
     <col min="6" max="6" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>31</v>
       </c>
@@ -22766,62 +22810,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
@@ -22829,7 +22873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -22843,7 +22887,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1">
+    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -22861,7 +22905,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
@@ -22876,7 +22920,7 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
@@ -22888,7 +22932,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
@@ -22900,7 +22944,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
         <v>59</v>
       </c>
@@ -22914,7 +22958,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54">
+    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
@@ -22929,7 +22973,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B25" s="18" t="s">
         <v>65</v>
       </c>
@@ -22941,7 +22985,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5">
+    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B26" s="18" t="s">
         <v>68</v>
       </c>
@@ -22956,7 +23000,7 @@
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
@@ -22968,7 +23012,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B28" s="18" t="s">
         <v>71</v>
       </c>
@@ -22977,7 +23021,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B29" s="21" t="s">
         <v>73</v>
       </c>
@@ -22989,7 +23033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
@@ -23004,7 +23048,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B31" s="21" t="s">
         <v>76</v>
       </c>
@@ -23016,21 +23060,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -23038,7 +23082,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="16" customFormat="1">
+    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -23046,7 +23090,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="16" customFormat="1">
+    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -23054,7 +23098,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="16" customFormat="1">
+    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -23062,7 +23106,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="16" customFormat="1">
+    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40"/>
     </row>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B713C3-12F0-4E33-A861-24616FB43B84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5223E98-BC0B-429F-96ED-847005B3D11F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18080" windowHeight="8180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -7005,15 +7005,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="28" t="s">
         <v>124</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="18">
         <v>3</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="18">
         <v>4</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="18">
         <v>5</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="18">
         <v>6</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="18">
         <v>7</v>
       </c>
@@ -7106,13 +7106,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="18">
         <v>8</v>
       </c>
       <c r="C8" s="57">
         <f>SUM(WBS!BX66:EF66)</f>
-        <v>99.5</v>
+        <v>103.5</v>
       </c>
       <c r="D8" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$66:$EG$66)</f>
@@ -7123,7 +7123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="18">
         <v>9</v>
       </c>
@@ -7133,20 +7133,20 @@
       </c>
       <c r="D9" s="57">
         <f>SUMIF(WBS!$O$10:$EG$10,memo!$B9,WBS!$O$66:$EG$66)</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E9" s="57">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="81" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="58">
         <f>SUM(C3:C8)</f>
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D10" s="58">
         <f>SUM(D3:D8)</f>
@@ -7169,12 +7169,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>106</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I7" s="27" t="s">
         <v>120</v>
       </c>
@@ -7217,68 +7217,68 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C17" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>91</v>
       </c>
@@ -7286,27 +7286,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>96</v>
       </c>
@@ -7314,37 +7314,37 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>103</v>
       </c>
@@ -7370,14 +7370,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7479,7 +7479,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7490,62 +7490,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7575,34 +7575,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:EH94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="ED13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="EF31" sqref="EF31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="3" width="2.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="2" max="3" width="2.36328125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="8" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.125" customWidth="1"/>
+    <col min="12" max="12" width="32.08984375" customWidth="1"/>
     <col min="13" max="13" width="10" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="137" width="7.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.90625" customWidth="1"/>
+    <col min="15" max="137" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="3.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="H1" s="8"/>
@@ -7736,7 +7736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
@@ -8009,7 +8009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
@@ -8146,7 +8146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="H5" s="8"/>
@@ -8280,7 +8280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>149</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>159</v>
@@ -8557,7 +8557,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="H8" s="8"/>
@@ -8691,7 +8691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -8819,7 +8819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:138" x14ac:dyDescent="0.2">
       <c r="L10" s="7"/>
       <c r="O10" s="29">
         <v>43252</v>
@@ -9194,7 +9194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O11" s="9">
         <f>O10</f>
         <v>43252</v>
@@ -9691,7 +9691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:138" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:138" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="82" t="s">
         <v>0</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B13" s="30">
         <v>1</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="42" t="s">
@@ -10532,7 +10532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="42"/>
@@ -10677,7 +10677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="42"/>
@@ -10820,7 +10820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="42"/>
@@ -10977,7 +10977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="42"/>
@@ -11132,7 +11132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="42"/>
@@ -11287,7 +11287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="42"/>
@@ -11448,7 +11448,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="42"/>
@@ -11603,7 +11603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="42"/>
@@ -11760,7 +11760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="42"/>
@@ -11915,7 +11915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="42"/>
@@ -12070,7 +12070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="42"/>
@@ -12213,7 +12213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="42"/>
@@ -12356,7 +12356,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B27" s="30"/>
       <c r="C27" s="30">
         <v>2</v>
@@ -12511,7 +12511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="42"/>
@@ -12668,7 +12668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="42"/>
@@ -12825,7 +12825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="42"/>
@@ -12986,7 +12986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="42"/>
@@ -13012,7 +13012,7 @@
       <c r="L31" s="40"/>
       <c r="M31" s="48">
         <f t="shared" si="58"/>
-        <v>66.5</v>
+        <v>70.5</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -13173,13 +13173,15 @@
       <c r="EE31" s="11">
         <v>10</v>
       </c>
-      <c r="EF31" s="11"/>
+      <c r="EF31" s="11">
+        <v>4</v>
+      </c>
       <c r="EG31" s="11"/>
       <c r="EH31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="42"/>
@@ -13363,7 +13365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="42"/>
@@ -13520,7 +13522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="42"/>
@@ -13677,7 +13679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="42"/>
@@ -13834,7 +13836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="42"/>
@@ -13993,7 +13995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="42"/>
@@ -14148,7 +14150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="42"/>
@@ -14305,7 +14307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="42"/>
@@ -14460,7 +14462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="42"/>
@@ -14603,7 +14605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B41" s="30"/>
       <c r="C41" s="30">
         <v>3</v>
@@ -14760,7 +14762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="42"/>
@@ -14903,7 +14905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="42"/>
@@ -15056,7 +15058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="42"/>
@@ -15199,7 +15201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="42"/>
@@ -15350,7 +15352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="42"/>
@@ -15499,7 +15501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:138" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:138" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="42"/>
@@ -15642,7 +15644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:138" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:138" ht="39" x14ac:dyDescent="0.2">
       <c r="B48" s="30">
         <v>2</v>
       </c>
@@ -15807,7 +15809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="43"/>
@@ -15950,7 +15952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="43"/>
@@ -16101,7 +16103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="43"/>
@@ -16244,7 +16246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="43"/>
@@ -16399,7 +16401,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="43"/>
@@ -16542,7 +16544,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:138" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:138" ht="39" x14ac:dyDescent="0.2">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="43"/>
@@ -16693,7 +16695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="43"/>
@@ -16836,7 +16838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:138" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:138" ht="26" x14ac:dyDescent="0.2">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="43"/>
@@ -16997,7 +16999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
@@ -17140,7 +17142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="43"/>
@@ -17289,7 +17291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="43"/>
@@ -17432,7 +17434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="4"/>
@@ -17575,7 +17577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="4"/>
@@ -17718,7 +17720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="4"/>
@@ -17861,7 +17863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="4"/>
@@ -18004,7 +18006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="4"/>
@@ -18147,7 +18149,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:138" x14ac:dyDescent="0.2">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
       <c r="D65" s="5"/>
@@ -18290,10 +18292,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:138" x14ac:dyDescent="0.2">
       <c r="M66" s="45">
         <f t="shared" si="59"/>
-        <v>189.5</v>
+        <v>193.5</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" ref="O66:AT66" si="60">SUM(O13:O65)</f>
@@ -18781,7 +18783,7 @@
       </c>
       <c r="EF66" s="14">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EG66" s="14">
         <f t="shared" ref="EG66" si="66">SUM(EG13:EG65)</f>
@@ -18791,7 +18793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O67" s="8">
         <v>6</v>
       </c>
@@ -18799,7 +18801,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:138" x14ac:dyDescent="0.2">
       <c r="E68" s="15"/>
       <c r="I68" s="8">
         <v>1.5</v>
@@ -18808,7 +18810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:138" x14ac:dyDescent="0.2">
       <c r="I69" s="8">
         <v>1</v>
       </c>
@@ -18816,12 +18818,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:138" x14ac:dyDescent="0.2">
       <c r="I70" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O73" s="8">
         <v>6</v>
       </c>
@@ -18832,7 +18834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:138" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:138" x14ac:dyDescent="0.2">
       <c r="O74" s="8">
         <v>10</v>
       </c>
@@ -18843,7 +18845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="81" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
@@ -18968,7 +18970,7 @@
       <c r="EF81"/>
       <c r="EG81"/>
     </row>
-    <row r="84" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="84" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -19093,7 +19095,7 @@
       <c r="EF84"/>
       <c r="EG84"/>
     </row>
-    <row r="85" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="85" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -19218,7 +19220,7 @@
       <c r="EF85"/>
       <c r="EG85"/>
     </row>
-    <row r="86" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="86" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -19343,7 +19345,7 @@
       <c r="EF86"/>
       <c r="EG86"/>
     </row>
-    <row r="87" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="87" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -19468,7 +19470,7 @@
       <c r="EF87"/>
       <c r="EG87"/>
     </row>
-    <row r="88" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="88" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -19593,7 +19595,7 @@
       <c r="EF88"/>
       <c r="EG88"/>
     </row>
-    <row r="89" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="89" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -19718,7 +19720,7 @@
       <c r="EF89"/>
       <c r="EG89"/>
     </row>
-    <row r="90" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="90" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -19843,7 +19845,7 @@
       <c r="EF90"/>
       <c r="EG90"/>
     </row>
-    <row r="91" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="91" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -19968,7 +19970,7 @@
       <c r="EF91"/>
       <c r="EG91"/>
     </row>
-    <row r="93" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="93" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -20093,7 +20095,7 @@
       <c r="EF93"/>
       <c r="EG93"/>
     </row>
-    <row r="94" spans="15:137" x14ac:dyDescent="0.15">
+    <row r="94" spans="15:137" x14ac:dyDescent="0.2">
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
@@ -20734,31 +20736,31 @@
   <dimension ref="B2:M56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="K19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D37" sqref="D37"/>
       <selection pane="topRight" activeCell="D37" sqref="D37"/>
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.625" customWidth="1"/>
-    <col min="12" max="12" width="62.125" customWidth="1"/>
-    <col min="13" max="13" width="61.75" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.6328125" customWidth="1"/>
+    <col min="12" max="12" width="62.08984375" customWidth="1"/>
+    <col min="13" max="13" width="61.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
@@ -20766,21 +20768,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -20829,7 +20831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>199</v>
       </c>
@@ -20867,7 +20869,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="63">
         <v>1</v>
       </c>
@@ -20899,7 +20901,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="63">
         <v>2</v>
       </c>
@@ -20931,7 +20933,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="63">
         <v>3</v>
       </c>
@@ -20963,7 +20965,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="63">
         <v>4</v>
       </c>
@@ -20995,7 +20997,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="63">
         <v>5</v>
       </c>
@@ -21031,7 +21033,7 @@
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" ht="156" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="63">
         <v>6</v>
       </c>
@@ -21067,7 +21069,7 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="63">
         <v>7</v>
       </c>
@@ -21101,7 +21103,7 @@
       </c>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" s="63">
         <v>8</v>
       </c>
@@ -21137,7 +21139,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" s="63">
         <v>9</v>
       </c>
@@ -21169,7 +21171,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="63">
         <v>10</v>
       </c>
@@ -21201,7 +21203,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="63">
         <v>11</v>
       </c>
@@ -21237,7 +21239,7 @@
       </c>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="91" x14ac:dyDescent="0.2">
       <c r="B19" s="63">
         <v>12</v>
       </c>
@@ -21271,7 +21273,7 @@
       </c>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="63">
         <v>13</v>
       </c>
@@ -21309,7 +21311,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="135" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="130" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="63">
         <v>14</v>
       </c>
@@ -21343,7 +21345,7 @@
       </c>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="78" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="63">
         <v>15</v>
       </c>
@@ -21379,7 +21381,7 @@
       </c>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="63">
         <v>16</v>
       </c>
@@ -21413,7 +21415,7 @@
       </c>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="63">
         <v>17</v>
       </c>
@@ -21449,7 +21451,7 @@
       </c>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="63">
         <v>18</v>
       </c>
@@ -21485,7 +21487,7 @@
       </c>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="63">
         <v>19</v>
       </c>
@@ -21517,7 +21519,7 @@
       <c r="L26" s="75"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="63">
         <v>20</v>
       </c>
@@ -21553,7 +21555,7 @@
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" ht="256.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="247" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="63">
         <v>21</v>
       </c>
@@ -21583,7 +21585,7 @@
       <c r="L28" s="75"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="65" x14ac:dyDescent="0.2">
       <c r="B29" s="63">
         <v>22</v>
       </c>
@@ -21617,7 +21619,7 @@
       </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="63">
         <v>23</v>
       </c>
@@ -21653,7 +21655,7 @@
       </c>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="63">
         <v>24</v>
       </c>
@@ -21687,7 +21689,7 @@
       </c>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="63">
         <v>25</v>
       </c>
@@ -21721,7 +21723,7 @@
       </c>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="63">
         <v>26</v>
       </c>
@@ -21753,7 +21755,7 @@
       <c r="L33" s="75"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="63"/>
       <c r="C34" s="21"/>
       <c r="D34" s="76"/>
@@ -21767,7 +21769,7 @@
       <c r="L34" s="75"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="63"/>
       <c r="C35" s="21"/>
       <c r="D35" s="76"/>
@@ -21781,7 +21783,7 @@
       <c r="L35" s="75"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="63"/>
       <c r="C36" s="21"/>
       <c r="D36" s="76"/>
@@ -21795,7 +21797,7 @@
       <c r="L36" s="75"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="63"/>
       <c r="C37" s="21"/>
       <c r="D37" s="76"/>
@@ -21809,7 +21811,7 @@
       <c r="L37" s="75"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="63"/>
       <c r="C38" s="21"/>
       <c r="D38" s="18"/>
@@ -21823,17 +21825,17 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>264</v>
       </c>
@@ -21841,7 +21843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>265</v>
       </c>
@@ -21849,7 +21851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>264</v>
       </c>
@@ -21857,7 +21859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>266</v>
       </c>
@@ -21865,7 +21867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -21874,10 +21876,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>267</v>
       </c>
@@ -21885,10 +21887,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>268</v>
       </c>
@@ -21897,7 +21899,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>269</v>
       </c>
@@ -21906,7 +21908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D56" s="15"/>
     </row>
   </sheetData>
@@ -22173,49 +22175,49 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -22226,22 +22228,22 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -22252,7 +22254,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>289</v>
       </c>
@@ -22260,7 +22262,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>290</v>
       </c>
@@ -22268,17 +22270,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>291</v>
       </c>
@@ -22286,7 +22288,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>289</v>
       </c>
@@ -22297,7 +22299,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>290</v>
       </c>
@@ -22308,7 +22310,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>292</v>
       </c>
@@ -22316,7 +22318,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>289</v>
       </c>
@@ -22324,7 +22326,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>290</v>
       </c>
@@ -22332,127 +22334,127 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="80">
         <v>43331</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>326</v>
       </c>
@@ -22471,199 +22473,199 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>363</v>
       </c>
@@ -22680,7 +22682,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22693,39 +22695,39 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -22745,39 +22747,39 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="54" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="55"/>
     </row>
   </sheetData>
@@ -22792,17 +22794,17 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
-    <col min="3" max="3" width="52.375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="77.25" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="45.453125" customWidth="1"/>
+    <col min="3" max="3" width="52.36328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="77.26953125" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="51.5" customWidth="1"/>
+    <col min="6" max="6" width="51.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>31</v>
       </c>
@@ -22810,62 +22812,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
@@ -22873,7 +22875,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -22887,7 +22889,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -22905,7 +22907,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
@@ -22920,7 +22922,7 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
@@ -22932,7 +22934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
@@ -22944,7 +22946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="18" t="s">
         <v>59</v>
       </c>
@@ -22958,7 +22960,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="52" x14ac:dyDescent="0.2">
       <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
@@ -22973,7 +22975,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="18" t="s">
         <v>65</v>
       </c>
@@ -22985,7 +22987,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.2">
       <c r="B26" s="18" t="s">
         <v>68</v>
       </c>
@@ -23000,7 +23002,7 @@
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
@@ -23012,7 +23014,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>71</v>
       </c>
@@ -23021,7 +23023,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
         <v>73</v>
       </c>
@@ -23033,7 +23035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
@@ -23048,7 +23050,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
         <v>76</v>
       </c>
@@ -23060,21 +23062,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -23082,7 +23084,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -23090,7 +23092,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -23098,7 +23100,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -23106,7 +23108,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40"/>
     </row>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5223E98-BC0B-429F-96ED-847005B3D11F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18080" windowHeight="8180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -21,10 +20,10 @@
     <sheet name="計画" sheetId="8" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$EK$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$FP$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題整理_0609!$B$7:$M$33</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4681,7 +4680,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -4690,7 +4689,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5210,7 +5209,69 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="174">
+  <dxfs count="190">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5516,6 +5577,37 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6444,6 +6536,37 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -6485,7 +6608,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6564,7 +6687,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6679,7 +6802,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6721,7 +6844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6754,26 +6877,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6806,23 +6912,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6998,22 +7087,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5">
       <c r="B2" s="28" t="s">
         <v>124</v>
       </c>
@@ -7027,7 +7116,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5">
       <c r="B3" s="18">
         <v>3</v>
       </c>
@@ -7042,7 +7131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5">
       <c r="B4" s="18">
         <v>4</v>
       </c>
@@ -7057,7 +7146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5">
       <c r="B5" s="18">
         <v>5</v>
       </c>
@@ -7072,7 +7161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5">
       <c r="B6" s="18">
         <v>6</v>
       </c>
@@ -7089,7 +7178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5">
       <c r="B7" s="18">
         <v>7</v>
       </c>
@@ -7106,7 +7195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5">
       <c r="B8" s="18">
         <v>8</v>
       </c>
@@ -7123,7 +7212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5">
       <c r="B9" s="18">
         <v>9</v>
       </c>
@@ -7140,7 +7229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5">
       <c r="B10" s="81" t="s">
         <v>125</v>
       </c>
@@ -7164,17 +7253,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -7182,7 +7271,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -7190,7 +7279,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="I5" t="s">
         <v>106</v>
       </c>
@@ -7198,7 +7287,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -7209,7 +7298,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="I7" s="27" t="s">
         <v>120</v>
       </c>
@@ -7217,68 +7306,68 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="Q8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="Q9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="R10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="Q11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="26" customFormat="1">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" s="26" customFormat="1">
       <c r="C17" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" s="26" customFormat="1">
       <c r="B18" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" s="26" customFormat="1">
       <c r="C19" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" s="26" customFormat="1"/>
+    <row r="22" spans="2:16" s="24" customFormat="1">
       <c r="B22" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16">
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16">
       <c r="D24" t="s">
         <v>91</v>
       </c>
@@ -7286,27 +7375,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16">
       <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16">
       <c r="D27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16">
       <c r="E28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16">
       <c r="E29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16">
       <c r="E30" t="s">
         <v>96</v>
       </c>
@@ -7314,37 +7403,37 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16">
       <c r="B32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16">
       <c r="D34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16">
       <c r="E35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16">
       <c r="E36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16">
       <c r="D37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16">
       <c r="E38" t="s">
         <v>103</v>
       </c>
@@ -7355,7 +7444,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="I7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7363,21 +7452,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7391,7 +7480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7402,7 +7491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7413,7 +7502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7421,7 +7510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7435,7 +7524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7443,7 +7532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7479,7 +7568,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7490,62 +7579,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>2</v>
       </c>
@@ -7556,7 +7645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7572,37 +7661,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:EH94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:FM94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="ED13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="EF13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="EF31" sqref="EF31"/>
+      <selection pane="bottomRight" activeCell="EH31" sqref="EH31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" customWidth="1"/>
-    <col min="2" max="3" width="2.36328125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" customWidth="1"/>
-    <col min="8" max="8" width="7.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="3" width="2.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="8" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.08984375" customWidth="1"/>
+    <col min="12" max="12" width="32.125" customWidth="1"/>
     <col min="13" max="13" width="10" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.90625" customWidth="1"/>
-    <col min="15" max="137" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.875" customWidth="1"/>
+    <col min="15" max="168" width="7.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:169" s="39" customFormat="1">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="H1" s="8"/>
@@ -7732,11 +7821,42 @@
       <c r="EE1" s="38"/>
       <c r="EF1" s="38"/>
       <c r="EG1" s="38"/>
-      <c r="EH1" s="39" t="s">
+      <c r="EH1" s="38"/>
+      <c r="EI1" s="38"/>
+      <c r="EJ1" s="38"/>
+      <c r="EK1" s="38"/>
+      <c r="EL1" s="38"/>
+      <c r="EM1" s="38"/>
+      <c r="EN1" s="38"/>
+      <c r="EO1" s="38"/>
+      <c r="EP1" s="38"/>
+      <c r="EQ1" s="38"/>
+      <c r="ER1" s="38"/>
+      <c r="ES1" s="38"/>
+      <c r="ET1" s="38"/>
+      <c r="EU1" s="38"/>
+      <c r="EV1" s="38"/>
+      <c r="EW1" s="38"/>
+      <c r="EX1" s="38"/>
+      <c r="EY1" s="38"/>
+      <c r="EZ1" s="38"/>
+      <c r="FA1" s="38"/>
+      <c r="FB1" s="38"/>
+      <c r="FC1" s="38"/>
+      <c r="FD1" s="38"/>
+      <c r="FE1" s="38"/>
+      <c r="FF1" s="38"/>
+      <c r="FG1" s="38"/>
+      <c r="FH1" s="38"/>
+      <c r="FI1" s="38"/>
+      <c r="FJ1" s="38"/>
+      <c r="FK1" s="38"/>
+      <c r="FL1" s="38"/>
+      <c r="FM1" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:169" s="39" customFormat="1">
       <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
@@ -7868,11 +7988,42 @@
       <c r="EE2" s="38"/>
       <c r="EF2" s="38"/>
       <c r="EG2" s="38"/>
-      <c r="EH2" s="39" t="s">
+      <c r="EH2" s="38"/>
+      <c r="EI2" s="38"/>
+      <c r="EJ2" s="38"/>
+      <c r="EK2" s="38"/>
+      <c r="EL2" s="38"/>
+      <c r="EM2" s="38"/>
+      <c r="EN2" s="38"/>
+      <c r="EO2" s="38"/>
+      <c r="EP2" s="38"/>
+      <c r="EQ2" s="38"/>
+      <c r="ER2" s="38"/>
+      <c r="ES2" s="38"/>
+      <c r="ET2" s="38"/>
+      <c r="EU2" s="38"/>
+      <c r="EV2" s="38"/>
+      <c r="EW2" s="38"/>
+      <c r="EX2" s="38"/>
+      <c r="EY2" s="38"/>
+      <c r="EZ2" s="38"/>
+      <c r="FA2" s="38"/>
+      <c r="FB2" s="38"/>
+      <c r="FC2" s="38"/>
+      <c r="FD2" s="38"/>
+      <c r="FE2" s="38"/>
+      <c r="FF2" s="38"/>
+      <c r="FG2" s="38"/>
+      <c r="FH2" s="38"/>
+      <c r="FI2" s="38"/>
+      <c r="FJ2" s="38"/>
+      <c r="FK2" s="38"/>
+      <c r="FL2" s="38"/>
+      <c r="FM2" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:169" s="39" customFormat="1">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
@@ -8005,11 +8156,42 @@
       <c r="EE3" s="38"/>
       <c r="EF3" s="38"/>
       <c r="EG3" s="38"/>
-      <c r="EH3" s="39" t="s">
+      <c r="EH3" s="38"/>
+      <c r="EI3" s="38"/>
+      <c r="EJ3" s="38"/>
+      <c r="EK3" s="38"/>
+      <c r="EL3" s="38"/>
+      <c r="EM3" s="38"/>
+      <c r="EN3" s="38"/>
+      <c r="EO3" s="38"/>
+      <c r="EP3" s="38"/>
+      <c r="EQ3" s="38"/>
+      <c r="ER3" s="38"/>
+      <c r="ES3" s="38"/>
+      <c r="ET3" s="38"/>
+      <c r="EU3" s="38"/>
+      <c r="EV3" s="38"/>
+      <c r="EW3" s="38"/>
+      <c r="EX3" s="38"/>
+      <c r="EY3" s="38"/>
+      <c r="EZ3" s="38"/>
+      <c r="FA3" s="38"/>
+      <c r="FB3" s="38"/>
+      <c r="FC3" s="38"/>
+      <c r="FD3" s="38"/>
+      <c r="FE3" s="38"/>
+      <c r="FF3" s="38"/>
+      <c r="FG3" s="38"/>
+      <c r="FH3" s="38"/>
+      <c r="FI3" s="38"/>
+      <c r="FJ3" s="38"/>
+      <c r="FK3" s="38"/>
+      <c r="FL3" s="38"/>
+      <c r="FM3" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:169" s="39" customFormat="1">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
@@ -8142,11 +8324,42 @@
       <c r="EE4" s="38"/>
       <c r="EF4" s="38"/>
       <c r="EG4" s="38"/>
-      <c r="EH4" s="39" t="s">
+      <c r="EH4" s="38"/>
+      <c r="EI4" s="38"/>
+      <c r="EJ4" s="38"/>
+      <c r="EK4" s="38"/>
+      <c r="EL4" s="38"/>
+      <c r="EM4" s="38"/>
+      <c r="EN4" s="38"/>
+      <c r="EO4" s="38"/>
+      <c r="EP4" s="38"/>
+      <c r="EQ4" s="38"/>
+      <c r="ER4" s="38"/>
+      <c r="ES4" s="38"/>
+      <c r="ET4" s="38"/>
+      <c r="EU4" s="38"/>
+      <c r="EV4" s="38"/>
+      <c r="EW4" s="38"/>
+      <c r="EX4" s="38"/>
+      <c r="EY4" s="38"/>
+      <c r="EZ4" s="38"/>
+      <c r="FA4" s="38"/>
+      <c r="FB4" s="38"/>
+      <c r="FC4" s="38"/>
+      <c r="FD4" s="38"/>
+      <c r="FE4" s="38"/>
+      <c r="FF4" s="38"/>
+      <c r="FG4" s="38"/>
+      <c r="FH4" s="38"/>
+      <c r="FI4" s="38"/>
+      <c r="FJ4" s="38"/>
+      <c r="FK4" s="38"/>
+      <c r="FL4" s="38"/>
+      <c r="FM4" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:169" s="39" customFormat="1">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="H5" s="8"/>
@@ -8276,11 +8489,42 @@
       <c r="EE5" s="38"/>
       <c r="EF5" s="38"/>
       <c r="EG5" s="38"/>
-      <c r="EH5" s="39" t="s">
+      <c r="EH5" s="38"/>
+      <c r="EI5" s="38"/>
+      <c r="EJ5" s="38"/>
+      <c r="EK5" s="38"/>
+      <c r="EL5" s="38"/>
+      <c r="EM5" s="38"/>
+      <c r="EN5" s="38"/>
+      <c r="EO5" s="38"/>
+      <c r="EP5" s="38"/>
+      <c r="EQ5" s="38"/>
+      <c r="ER5" s="38"/>
+      <c r="ES5" s="38"/>
+      <c r="ET5" s="38"/>
+      <c r="EU5" s="38"/>
+      <c r="EV5" s="38"/>
+      <c r="EW5" s="38"/>
+      <c r="EX5" s="38"/>
+      <c r="EY5" s="38"/>
+      <c r="EZ5" s="38"/>
+      <c r="FA5" s="38"/>
+      <c r="FB5" s="38"/>
+      <c r="FC5" s="38"/>
+      <c r="FD5" s="38"/>
+      <c r="FE5" s="38"/>
+      <c r="FF5" s="38"/>
+      <c r="FG5" s="38"/>
+      <c r="FH5" s="38"/>
+      <c r="FI5" s="38"/>
+      <c r="FJ5" s="38"/>
+      <c r="FK5" s="38"/>
+      <c r="FL5" s="38"/>
+      <c r="FM5" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:169" s="39" customFormat="1">
       <c r="B6" s="38" t="s">
         <v>149</v>
       </c>
@@ -8412,11 +8656,42 @@
       <c r="EE6" s="38"/>
       <c r="EF6" s="38"/>
       <c r="EG6" s="38"/>
-      <c r="EH6" s="39" t="s">
+      <c r="EH6" s="38"/>
+      <c r="EI6" s="38"/>
+      <c r="EJ6" s="38"/>
+      <c r="EK6" s="38"/>
+      <c r="EL6" s="38"/>
+      <c r="EM6" s="38"/>
+      <c r="EN6" s="38"/>
+      <c r="EO6" s="38"/>
+      <c r="EP6" s="38"/>
+      <c r="EQ6" s="38"/>
+      <c r="ER6" s="38"/>
+      <c r="ES6" s="38"/>
+      <c r="ET6" s="38"/>
+      <c r="EU6" s="38"/>
+      <c r="EV6" s="38"/>
+      <c r="EW6" s="38"/>
+      <c r="EX6" s="38"/>
+      <c r="EY6" s="38"/>
+      <c r="EZ6" s="38"/>
+      <c r="FA6" s="38"/>
+      <c r="FB6" s="38"/>
+      <c r="FC6" s="38"/>
+      <c r="FD6" s="38"/>
+      <c r="FE6" s="38"/>
+      <c r="FF6" s="38"/>
+      <c r="FG6" s="38"/>
+      <c r="FH6" s="38"/>
+      <c r="FI6" s="38"/>
+      <c r="FJ6" s="38"/>
+      <c r="FK6" s="38"/>
+      <c r="FL6" s="38"/>
+      <c r="FM6" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:169" s="39" customFormat="1">
       <c r="B7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>159</v>
@@ -8553,11 +8828,42 @@
       <c r="EE7" s="38"/>
       <c r="EF7" s="38"/>
       <c r="EG7" s="38"/>
-      <c r="EH7" s="39" t="s">
+      <c r="EH7" s="38"/>
+      <c r="EI7" s="38"/>
+      <c r="EJ7" s="38"/>
+      <c r="EK7" s="38"/>
+      <c r="EL7" s="38"/>
+      <c r="EM7" s="38"/>
+      <c r="EN7" s="38"/>
+      <c r="EO7" s="38"/>
+      <c r="EP7" s="38"/>
+      <c r="EQ7" s="38"/>
+      <c r="ER7" s="38"/>
+      <c r="ES7" s="38"/>
+      <c r="ET7" s="38"/>
+      <c r="EU7" s="38"/>
+      <c r="EV7" s="38"/>
+      <c r="EW7" s="38"/>
+      <c r="EX7" s="38"/>
+      <c r="EY7" s="38"/>
+      <c r="EZ7" s="38"/>
+      <c r="FA7" s="38"/>
+      <c r="FB7" s="38"/>
+      <c r="FC7" s="38"/>
+      <c r="FD7" s="38"/>
+      <c r="FE7" s="38"/>
+      <c r="FF7" s="38"/>
+      <c r="FG7" s="38"/>
+      <c r="FH7" s="38"/>
+      <c r="FI7" s="38"/>
+      <c r="FJ7" s="38"/>
+      <c r="FK7" s="38"/>
+      <c r="FL7" s="38"/>
+      <c r="FM7" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:138" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:169" s="39" customFormat="1">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="H8" s="8"/>
@@ -8687,11 +8993,42 @@
       <c r="EE8" s="38"/>
       <c r="EF8" s="38"/>
       <c r="EG8" s="38"/>
-      <c r="EH8" s="39" t="s">
+      <c r="EH8" s="38"/>
+      <c r="EI8" s="38"/>
+      <c r="EJ8" s="38"/>
+      <c r="EK8" s="38"/>
+      <c r="EL8" s="38"/>
+      <c r="EM8" s="38"/>
+      <c r="EN8" s="38"/>
+      <c r="EO8" s="38"/>
+      <c r="EP8" s="38"/>
+      <c r="EQ8" s="38"/>
+      <c r="ER8" s="38"/>
+      <c r="ES8" s="38"/>
+      <c r="ET8" s="38"/>
+      <c r="EU8" s="38"/>
+      <c r="EV8" s="38"/>
+      <c r="EW8" s="38"/>
+      <c r="EX8" s="38"/>
+      <c r="EY8" s="38"/>
+      <c r="EZ8" s="38"/>
+      <c r="FA8" s="38"/>
+      <c r="FB8" s="38"/>
+      <c r="FC8" s="38"/>
+      <c r="FD8" s="38"/>
+      <c r="FE8" s="38"/>
+      <c r="FF8" s="38"/>
+      <c r="FG8" s="38"/>
+      <c r="FH8" s="38"/>
+      <c r="FI8" s="38"/>
+      <c r="FJ8" s="38"/>
+      <c r="FK8" s="38"/>
+      <c r="FL8" s="38"/>
+      <c r="FM8" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:169">
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -8815,11 +9152,42 @@
       <c r="EE9" s="13"/>
       <c r="EF9" s="13"/>
       <c r="EG9" s="13"/>
-      <c r="EH9" t="s">
+      <c r="EH9" s="13"/>
+      <c r="EI9" s="13"/>
+      <c r="EJ9" s="13"/>
+      <c r="EK9" s="13"/>
+      <c r="EL9" s="13"/>
+      <c r="EM9" s="13"/>
+      <c r="EN9" s="13"/>
+      <c r="EO9" s="13"/>
+      <c r="EP9" s="13"/>
+      <c r="EQ9" s="13"/>
+      <c r="ER9" s="13"/>
+      <c r="ES9" s="13"/>
+      <c r="ET9" s="13"/>
+      <c r="EU9" s="13"/>
+      <c r="EV9" s="13"/>
+      <c r="EW9" s="13"/>
+      <c r="EX9" s="13"/>
+      <c r="EY9" s="13"/>
+      <c r="EZ9" s="13"/>
+      <c r="FA9" s="13"/>
+      <c r="FB9" s="13"/>
+      <c r="FC9" s="13"/>
+      <c r="FD9" s="13"/>
+      <c r="FE9" s="13"/>
+      <c r="FF9" s="13"/>
+      <c r="FG9" s="13"/>
+      <c r="FH9" s="13"/>
+      <c r="FI9" s="13"/>
+      <c r="FJ9" s="13"/>
+      <c r="FK9" s="13"/>
+      <c r="FL9" s="13"/>
+      <c r="FM9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:169">
       <c r="L10" s="7"/>
       <c r="O10" s="29">
         <v>43252</v>
@@ -9187,14 +9555,107 @@
       <c r="EF10" s="8">
         <v>9</v>
       </c>
-      <c r="EG10" s="8" t="s">
+      <c r="EG10" s="8">
+        <v>10</v>
+      </c>
+      <c r="EH10" s="8">
+        <v>10</v>
+      </c>
+      <c r="EI10" s="8">
+        <v>10</v>
+      </c>
+      <c r="EJ10" s="8">
+        <v>10</v>
+      </c>
+      <c r="EK10" s="8">
+        <v>10</v>
+      </c>
+      <c r="EL10" s="8">
+        <v>10</v>
+      </c>
+      <c r="EM10" s="8">
+        <v>10</v>
+      </c>
+      <c r="EN10" s="8">
+        <v>10</v>
+      </c>
+      <c r="EO10" s="8">
+        <v>10</v>
+      </c>
+      <c r="EP10" s="8">
+        <v>10</v>
+      </c>
+      <c r="EQ10" s="8">
+        <v>10</v>
+      </c>
+      <c r="ER10" s="8">
+        <v>10</v>
+      </c>
+      <c r="ES10" s="8">
+        <v>10</v>
+      </c>
+      <c r="ET10" s="8">
+        <v>10</v>
+      </c>
+      <c r="EU10" s="8">
+        <v>10</v>
+      </c>
+      <c r="EV10" s="8">
+        <v>10</v>
+      </c>
+      <c r="EW10" s="8">
+        <v>10</v>
+      </c>
+      <c r="EX10" s="8">
+        <v>10</v>
+      </c>
+      <c r="EY10" s="8">
+        <v>10</v>
+      </c>
+      <c r="EZ10" s="8">
+        <v>10</v>
+      </c>
+      <c r="FA10" s="8">
+        <v>10</v>
+      </c>
+      <c r="FB10" s="8">
+        <v>10</v>
+      </c>
+      <c r="FC10" s="8">
+        <v>10</v>
+      </c>
+      <c r="FD10" s="8">
+        <v>10</v>
+      </c>
+      <c r="FE10" s="8">
+        <v>10</v>
+      </c>
+      <c r="FF10" s="8">
+        <v>10</v>
+      </c>
+      <c r="FG10" s="8">
+        <v>10</v>
+      </c>
+      <c r="FH10" s="8">
+        <v>10</v>
+      </c>
+      <c r="FI10" s="8">
+        <v>10</v>
+      </c>
+      <c r="FJ10" s="8">
+        <v>10</v>
+      </c>
+      <c r="FK10" s="8">
+        <v>10</v>
+      </c>
+      <c r="FL10" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="EH10" t="s">
+      <c r="FM10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:169">
       <c r="O11" s="9">
         <f>O10</f>
         <v>43252</v>
@@ -9687,11 +10148,135 @@
         <f t="shared" ref="EG11" si="51">EF11+1</f>
         <v>43374</v>
       </c>
-      <c r="EH11" t="s">
+      <c r="EH11" s="9">
+        <f t="shared" ref="EH11" si="52">EG11+1</f>
+        <v>43375</v>
+      </c>
+      <c r="EI11" s="9">
+        <f t="shared" ref="EI11" si="53">EH11+1</f>
+        <v>43376</v>
+      </c>
+      <c r="EJ11" s="9">
+        <f t="shared" ref="EJ11" si="54">EI11+1</f>
+        <v>43377</v>
+      </c>
+      <c r="EK11" s="9">
+        <f t="shared" ref="EK11" si="55">EJ11+1</f>
+        <v>43378</v>
+      </c>
+      <c r="EL11" s="9">
+        <f t="shared" ref="EL11" si="56">EK11+1</f>
+        <v>43379</v>
+      </c>
+      <c r="EM11" s="9">
+        <f t="shared" ref="EM11" si="57">EL11+1</f>
+        <v>43380</v>
+      </c>
+      <c r="EN11" s="9">
+        <f t="shared" ref="EN11" si="58">EM11+1</f>
+        <v>43381</v>
+      </c>
+      <c r="EO11" s="9">
+        <f t="shared" ref="EO11" si="59">EN11+1</f>
+        <v>43382</v>
+      </c>
+      <c r="EP11" s="9">
+        <f t="shared" ref="EP11" si="60">EO11+1</f>
+        <v>43383</v>
+      </c>
+      <c r="EQ11" s="9">
+        <f t="shared" ref="EQ11" si="61">EP11+1</f>
+        <v>43384</v>
+      </c>
+      <c r="ER11" s="9">
+        <f t="shared" ref="ER11" si="62">EQ11+1</f>
+        <v>43385</v>
+      </c>
+      <c r="ES11" s="9">
+        <f t="shared" ref="ES11" si="63">ER11+1</f>
+        <v>43386</v>
+      </c>
+      <c r="ET11" s="9">
+        <f t="shared" ref="ET11" si="64">ES11+1</f>
+        <v>43387</v>
+      </c>
+      <c r="EU11" s="9">
+        <f t="shared" ref="EU11" si="65">ET11+1</f>
+        <v>43388</v>
+      </c>
+      <c r="EV11" s="9">
+        <f t="shared" ref="EV11" si="66">EU11+1</f>
+        <v>43389</v>
+      </c>
+      <c r="EW11" s="9">
+        <f t="shared" ref="EW11" si="67">EV11+1</f>
+        <v>43390</v>
+      </c>
+      <c r="EX11" s="9">
+        <f t="shared" ref="EX11" si="68">EW11+1</f>
+        <v>43391</v>
+      </c>
+      <c r="EY11" s="9">
+        <f t="shared" ref="EY11" si="69">EX11+1</f>
+        <v>43392</v>
+      </c>
+      <c r="EZ11" s="9">
+        <f t="shared" ref="EZ11" si="70">EY11+1</f>
+        <v>43393</v>
+      </c>
+      <c r="FA11" s="9">
+        <f t="shared" ref="FA11" si="71">EZ11+1</f>
+        <v>43394</v>
+      </c>
+      <c r="FB11" s="9">
+        <f t="shared" ref="FB11" si="72">FA11+1</f>
+        <v>43395</v>
+      </c>
+      <c r="FC11" s="9">
+        <f t="shared" ref="FC11" si="73">FB11+1</f>
+        <v>43396</v>
+      </c>
+      <c r="FD11" s="9">
+        <f t="shared" ref="FD11" si="74">FC11+1</f>
+        <v>43397</v>
+      </c>
+      <c r="FE11" s="9">
+        <f t="shared" ref="FE11" si="75">FD11+1</f>
+        <v>43398</v>
+      </c>
+      <c r="FF11" s="9">
+        <f t="shared" ref="FF11" si="76">FE11+1</f>
+        <v>43399</v>
+      </c>
+      <c r="FG11" s="9">
+        <f t="shared" ref="FG11" si="77">FF11+1</f>
+        <v>43400</v>
+      </c>
+      <c r="FH11" s="9">
+        <f t="shared" ref="FH11" si="78">FG11+1</f>
+        <v>43401</v>
+      </c>
+      <c r="FI11" s="9">
+        <f t="shared" ref="FI11" si="79">FH11+1</f>
+        <v>43402</v>
+      </c>
+      <c r="FJ11" s="9">
+        <f t="shared" ref="FJ11" si="80">FI11+1</f>
+        <v>43403</v>
+      </c>
+      <c r="FK11" s="9">
+        <f t="shared" ref="FK11" si="81">FJ11+1</f>
+        <v>43404</v>
+      </c>
+      <c r="FL11" s="9">
+        <f t="shared" ref="FL11" si="82">FK11+1</f>
+        <v>43405</v>
+      </c>
+      <c r="FM11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:138" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:169" ht="28.5" customHeight="1">
       <c r="B12" s="82" t="s">
         <v>0</v>
       </c>
@@ -9721,502 +10306,626 @@
         <v>162</v>
       </c>
       <c r="O12" s="10" t="str">
-        <f t="shared" ref="O12:BF12" si="52">TEXT(O11,"aaa")</f>
+        <f t="shared" ref="O12:BF12" si="83">TEXT(O11,"aaa")</f>
         <v>金</v>
       </c>
       <c r="P12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>土</v>
       </c>
       <c r="Q12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>日</v>
       </c>
       <c r="R12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>月</v>
       </c>
       <c r="S12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>火</v>
       </c>
       <c r="T12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>水</v>
       </c>
       <c r="U12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>木</v>
       </c>
       <c r="V12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>金</v>
       </c>
       <c r="W12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>土</v>
       </c>
       <c r="X12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>日</v>
       </c>
       <c r="Y12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>月</v>
       </c>
       <c r="Z12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>火</v>
       </c>
       <c r="AA12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>水</v>
       </c>
       <c r="AB12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>木</v>
       </c>
       <c r="AC12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>金</v>
       </c>
       <c r="AD12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>土</v>
       </c>
       <c r="AE12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>日</v>
       </c>
       <c r="AF12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>月</v>
       </c>
       <c r="AG12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>火</v>
       </c>
       <c r="AH12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>水</v>
       </c>
       <c r="AI12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>木</v>
       </c>
       <c r="AJ12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>金</v>
       </c>
       <c r="AK12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>土</v>
       </c>
       <c r="AL12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>日</v>
       </c>
       <c r="AM12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>月</v>
       </c>
       <c r="AN12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>火</v>
       </c>
       <c r="AO12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>水</v>
       </c>
       <c r="AP12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>木</v>
       </c>
       <c r="AQ12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>金</v>
       </c>
       <c r="AR12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>土</v>
       </c>
       <c r="AS12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>日</v>
       </c>
       <c r="AT12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>月</v>
       </c>
       <c r="AU12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>火</v>
       </c>
       <c r="AV12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>水</v>
       </c>
       <c r="AW12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>木</v>
       </c>
       <c r="AX12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>金</v>
       </c>
       <c r="AY12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>土</v>
       </c>
       <c r="AZ12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>日</v>
       </c>
       <c r="BA12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>月</v>
       </c>
       <c r="BB12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>火</v>
       </c>
       <c r="BC12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>水</v>
       </c>
       <c r="BD12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>木</v>
       </c>
       <c r="BE12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>金</v>
       </c>
       <c r="BF12" s="10" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="83"/>
         <v>土</v>
       </c>
       <c r="BG12" s="10" t="str">
-        <f t="shared" ref="BG12:DB12" si="53">TEXT(BG11,"aaa")</f>
+        <f t="shared" ref="BG12:DB12" si="84">TEXT(BG11,"aaa")</f>
         <v>日</v>
       </c>
       <c r="BH12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>月</v>
       </c>
       <c r="BI12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>火</v>
       </c>
       <c r="BJ12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>水</v>
       </c>
       <c r="BK12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>木</v>
       </c>
       <c r="BL12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>金</v>
       </c>
       <c r="BM12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>土</v>
       </c>
       <c r="BN12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>日</v>
       </c>
       <c r="BO12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>月</v>
       </c>
       <c r="BP12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>火</v>
       </c>
       <c r="BQ12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>水</v>
       </c>
       <c r="BR12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>木</v>
       </c>
       <c r="BS12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>金</v>
       </c>
       <c r="BT12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>土</v>
       </c>
       <c r="BU12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>日</v>
       </c>
       <c r="BV12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>月</v>
       </c>
       <c r="BW12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>火</v>
       </c>
       <c r="BX12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>水</v>
       </c>
       <c r="BY12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>木</v>
       </c>
       <c r="BZ12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>金</v>
       </c>
       <c r="CA12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>土</v>
       </c>
       <c r="CB12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>日</v>
       </c>
       <c r="CC12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>月</v>
       </c>
       <c r="CD12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>火</v>
       </c>
       <c r="CE12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>水</v>
       </c>
       <c r="CF12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>木</v>
       </c>
       <c r="CG12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>金</v>
       </c>
       <c r="CH12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>土</v>
       </c>
       <c r="CI12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>日</v>
       </c>
       <c r="CJ12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>月</v>
       </c>
       <c r="CK12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>火</v>
       </c>
       <c r="CL12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>水</v>
       </c>
       <c r="CM12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>木</v>
       </c>
       <c r="CN12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>金</v>
       </c>
       <c r="CO12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>土</v>
       </c>
       <c r="CP12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>日</v>
       </c>
       <c r="CQ12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>月</v>
       </c>
       <c r="CR12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>火</v>
       </c>
       <c r="CS12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>水</v>
       </c>
       <c r="CT12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>木</v>
       </c>
       <c r="CU12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>金</v>
       </c>
       <c r="CV12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>土</v>
       </c>
       <c r="CW12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>日</v>
       </c>
       <c r="CX12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>月</v>
       </c>
       <c r="CY12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>火</v>
       </c>
       <c r="CZ12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>水</v>
       </c>
       <c r="DA12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>木</v>
       </c>
       <c r="DB12" s="10" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="84"/>
         <v>金</v>
       </c>
       <c r="DC12" s="10" t="str">
-        <f t="shared" ref="DC12:DF12" si="54">TEXT(DC11,"aaa")</f>
+        <f t="shared" ref="DC12:DF12" si="85">TEXT(DC11,"aaa")</f>
         <v>土</v>
       </c>
       <c r="DD12" s="10" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="85"/>
         <v>日</v>
       </c>
       <c r="DE12" s="10" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="85"/>
         <v>月</v>
       </c>
       <c r="DF12" s="10" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="85"/>
         <v>火</v>
       </c>
       <c r="DG12" s="10" t="str">
-        <f t="shared" ref="DG12:EB12" si="55">TEXT(DG11,"aaa")</f>
+        <f t="shared" ref="DG12:EB12" si="86">TEXT(DG11,"aaa")</f>
         <v>水</v>
       </c>
       <c r="DH12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>木</v>
       </c>
       <c r="DI12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>金</v>
       </c>
       <c r="DJ12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>土</v>
       </c>
       <c r="DK12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>日</v>
       </c>
       <c r="DL12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>月</v>
       </c>
       <c r="DM12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>火</v>
       </c>
       <c r="DN12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>水</v>
       </c>
       <c r="DO12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>木</v>
       </c>
       <c r="DP12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>金</v>
       </c>
       <c r="DQ12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>土</v>
       </c>
       <c r="DR12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>日</v>
       </c>
       <c r="DS12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>月</v>
       </c>
       <c r="DT12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>火</v>
       </c>
       <c r="DU12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>水</v>
       </c>
       <c r="DV12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>木</v>
       </c>
       <c r="DW12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>金</v>
       </c>
       <c r="DX12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>土</v>
       </c>
       <c r="DY12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>日</v>
       </c>
       <c r="DZ12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>月</v>
       </c>
       <c r="EA12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>火</v>
       </c>
       <c r="EB12" s="10" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="86"/>
         <v>水</v>
       </c>
       <c r="EC12" s="10" t="str">
-        <f t="shared" ref="EC12:EF12" si="56">TEXT(EC11,"aaa")</f>
+        <f t="shared" ref="EC12:EF12" si="87">TEXT(EC11,"aaa")</f>
         <v>木</v>
       </c>
       <c r="ED12" s="10" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="87"/>
         <v>金</v>
       </c>
       <c r="EE12" s="10" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="87"/>
         <v>土</v>
       </c>
       <c r="EF12" s="10" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="87"/>
         <v>日</v>
       </c>
       <c r="EG12" s="10" t="str">
-        <f t="shared" ref="EG12" si="57">TEXT(EG11,"aaa")</f>
+        <f t="shared" ref="EG12:FI12" si="88">TEXT(EG11,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="EH12" t="s">
+      <c r="EH12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>火</v>
+      </c>
+      <c r="EI12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>水</v>
+      </c>
+      <c r="EJ12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>木</v>
+      </c>
+      <c r="EK12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>金</v>
+      </c>
+      <c r="EL12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>土</v>
+      </c>
+      <c r="EM12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>日</v>
+      </c>
+      <c r="EN12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>月</v>
+      </c>
+      <c r="EO12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>火</v>
+      </c>
+      <c r="EP12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>水</v>
+      </c>
+      <c r="EQ12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>木</v>
+      </c>
+      <c r="ER12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>金</v>
+      </c>
+      <c r="ES12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>土</v>
+      </c>
+      <c r="ET12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>日</v>
+      </c>
+      <c r="EU12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>月</v>
+      </c>
+      <c r="EV12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>火</v>
+      </c>
+      <c r="EW12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>水</v>
+      </c>
+      <c r="EX12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>木</v>
+      </c>
+      <c r="EY12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>金</v>
+      </c>
+      <c r="EZ12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>土</v>
+      </c>
+      <c r="FA12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>日</v>
+      </c>
+      <c r="FB12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>月</v>
+      </c>
+      <c r="FC12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>火</v>
+      </c>
+      <c r="FD12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>水</v>
+      </c>
+      <c r="FE12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>木</v>
+      </c>
+      <c r="FF12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>金</v>
+      </c>
+      <c r="FG12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>土</v>
+      </c>
+      <c r="FH12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>日</v>
+      </c>
+      <c r="FI12" s="10" t="str">
+        <f t="shared" si="88"/>
+        <v>月</v>
+      </c>
+      <c r="FJ12" s="10" t="str">
+        <f t="shared" ref="FJ12:FL12" si="89">TEXT(FJ11,"aaa")</f>
+        <v>火</v>
+      </c>
+      <c r="FK12" s="10" t="str">
+        <f t="shared" si="89"/>
+        <v>水</v>
+      </c>
+      <c r="FL12" s="10" t="str">
+        <f t="shared" si="89"/>
+        <v>木</v>
+      </c>
+      <c r="FM12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:169">
       <c r="B13" s="30">
         <v>1</v>
       </c>
@@ -10247,7 +10956,7 @@
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="48">
-        <f t="shared" ref="M13:M44" si="58">SUM(O13:EF13)</f>
+        <f t="shared" ref="M13:M44" si="90">SUM(O13:EF13)</f>
         <v>0</v>
       </c>
       <c r="O13" s="11"/>
@@ -10373,11 +11082,42 @@
       <c r="EE13" s="11"/>
       <c r="EF13" s="11"/>
       <c r="EG13" s="11"/>
-      <c r="EH13" t="s">
+      <c r="EH13" s="11"/>
+      <c r="EI13" s="11"/>
+      <c r="EJ13" s="11"/>
+      <c r="EK13" s="11"/>
+      <c r="EL13" s="11"/>
+      <c r="EM13" s="11"/>
+      <c r="EN13" s="11"/>
+      <c r="EO13" s="11"/>
+      <c r="EP13" s="11"/>
+      <c r="EQ13" s="11"/>
+      <c r="ER13" s="11"/>
+      <c r="ES13" s="11"/>
+      <c r="ET13" s="11"/>
+      <c r="EU13" s="11"/>
+      <c r="EV13" s="11"/>
+      <c r="EW13" s="11"/>
+      <c r="EX13" s="11"/>
+      <c r="EY13" s="11"/>
+      <c r="EZ13" s="11"/>
+      <c r="FA13" s="11"/>
+      <c r="FB13" s="11"/>
+      <c r="FC13" s="11"/>
+      <c r="FD13" s="11"/>
+      <c r="FE13" s="11"/>
+      <c r="FF13" s="11"/>
+      <c r="FG13" s="11"/>
+      <c r="FH13" s="11"/>
+      <c r="FI13" s="11"/>
+      <c r="FJ13" s="11"/>
+      <c r="FK13" s="11"/>
+      <c r="FL13" s="11"/>
+      <c r="FM13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:169">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="42" t="s">
@@ -10402,7 +11142,7 @@
       </c>
       <c r="L14" s="40"/>
       <c r="M14" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O14" s="11"/>
@@ -10528,11 +11268,42 @@
       <c r="EE14" s="11"/>
       <c r="EF14" s="11"/>
       <c r="EG14" s="11"/>
-      <c r="EH14" t="s">
+      <c r="EH14" s="11"/>
+      <c r="EI14" s="11"/>
+      <c r="EJ14" s="11"/>
+      <c r="EK14" s="11"/>
+      <c r="EL14" s="11"/>
+      <c r="EM14" s="11"/>
+      <c r="EN14" s="11"/>
+      <c r="EO14" s="11"/>
+      <c r="EP14" s="11"/>
+      <c r="EQ14" s="11"/>
+      <c r="ER14" s="11"/>
+      <c r="ES14" s="11"/>
+      <c r="ET14" s="11"/>
+      <c r="EU14" s="11"/>
+      <c r="EV14" s="11"/>
+      <c r="EW14" s="11"/>
+      <c r="EX14" s="11"/>
+      <c r="EY14" s="11"/>
+      <c r="EZ14" s="11"/>
+      <c r="FA14" s="11"/>
+      <c r="FB14" s="11"/>
+      <c r="FC14" s="11"/>
+      <c r="FD14" s="11"/>
+      <c r="FE14" s="11"/>
+      <c r="FF14" s="11"/>
+      <c r="FG14" s="11"/>
+      <c r="FH14" s="11"/>
+      <c r="FI14" s="11"/>
+      <c r="FJ14" s="11"/>
+      <c r="FK14" s="11"/>
+      <c r="FL14" s="11"/>
+      <c r="FM14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:169">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="42"/>
@@ -10547,7 +11318,7 @@
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
       <c r="M15" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O15" s="11"/>
@@ -10673,11 +11444,42 @@
       <c r="EE15" s="11"/>
       <c r="EF15" s="11"/>
       <c r="EG15" s="11"/>
-      <c r="EH15" t="s">
+      <c r="EH15" s="11"/>
+      <c r="EI15" s="11"/>
+      <c r="EJ15" s="11"/>
+      <c r="EK15" s="11"/>
+      <c r="EL15" s="11"/>
+      <c r="EM15" s="11"/>
+      <c r="EN15" s="11"/>
+      <c r="EO15" s="11"/>
+      <c r="EP15" s="11"/>
+      <c r="EQ15" s="11"/>
+      <c r="ER15" s="11"/>
+      <c r="ES15" s="11"/>
+      <c r="ET15" s="11"/>
+      <c r="EU15" s="11"/>
+      <c r="EV15" s="11"/>
+      <c r="EW15" s="11"/>
+      <c r="EX15" s="11"/>
+      <c r="EY15" s="11"/>
+      <c r="EZ15" s="11"/>
+      <c r="FA15" s="11"/>
+      <c r="FB15" s="11"/>
+      <c r="FC15" s="11"/>
+      <c r="FD15" s="11"/>
+      <c r="FE15" s="11"/>
+      <c r="FF15" s="11"/>
+      <c r="FG15" s="11"/>
+      <c r="FH15" s="11"/>
+      <c r="FI15" s="11"/>
+      <c r="FJ15" s="11"/>
+      <c r="FK15" s="11"/>
+      <c r="FL15" s="11"/>
+      <c r="FM15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:169">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="42"/>
@@ -10690,7 +11492,7 @@
       <c r="K16" s="52"/>
       <c r="L16" s="40"/>
       <c r="M16" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O16" s="11"/>
@@ -10816,11 +11618,42 @@
       <c r="EE16" s="11"/>
       <c r="EF16" s="11"/>
       <c r="EG16" s="11"/>
-      <c r="EH16" t="s">
+      <c r="EH16" s="11"/>
+      <c r="EI16" s="11"/>
+      <c r="EJ16" s="11"/>
+      <c r="EK16" s="11"/>
+      <c r="EL16" s="11"/>
+      <c r="EM16" s="11"/>
+      <c r="EN16" s="11"/>
+      <c r="EO16" s="11"/>
+      <c r="EP16" s="11"/>
+      <c r="EQ16" s="11"/>
+      <c r="ER16" s="11"/>
+      <c r="ES16" s="11"/>
+      <c r="ET16" s="11"/>
+      <c r="EU16" s="11"/>
+      <c r="EV16" s="11"/>
+      <c r="EW16" s="11"/>
+      <c r="EX16" s="11"/>
+      <c r="EY16" s="11"/>
+      <c r="EZ16" s="11"/>
+      <c r="FA16" s="11"/>
+      <c r="FB16" s="11"/>
+      <c r="FC16" s="11"/>
+      <c r="FD16" s="11"/>
+      <c r="FE16" s="11"/>
+      <c r="FF16" s="11"/>
+      <c r="FG16" s="11"/>
+      <c r="FH16" s="11"/>
+      <c r="FI16" s="11"/>
+      <c r="FJ16" s="11"/>
+      <c r="FK16" s="11"/>
+      <c r="FL16" s="11"/>
+      <c r="FM16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:169">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="42"/>
@@ -10847,7 +11680,7 @@
       </c>
       <c r="L17" s="40"/>
       <c r="M17" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O17" s="11"/>
@@ -10973,11 +11806,42 @@
       <c r="EE17" s="11"/>
       <c r="EF17" s="11"/>
       <c r="EG17" s="11"/>
-      <c r="EH17" t="s">
+      <c r="EH17" s="11"/>
+      <c r="EI17" s="11"/>
+      <c r="EJ17" s="11"/>
+      <c r="EK17" s="11"/>
+      <c r="EL17" s="11"/>
+      <c r="EM17" s="11"/>
+      <c r="EN17" s="11"/>
+      <c r="EO17" s="11"/>
+      <c r="EP17" s="11"/>
+      <c r="EQ17" s="11"/>
+      <c r="ER17" s="11"/>
+      <c r="ES17" s="11"/>
+      <c r="ET17" s="11"/>
+      <c r="EU17" s="11"/>
+      <c r="EV17" s="11"/>
+      <c r="EW17" s="11"/>
+      <c r="EX17" s="11"/>
+      <c r="EY17" s="11"/>
+      <c r="EZ17" s="11"/>
+      <c r="FA17" s="11"/>
+      <c r="FB17" s="11"/>
+      <c r="FC17" s="11"/>
+      <c r="FD17" s="11"/>
+      <c r="FE17" s="11"/>
+      <c r="FF17" s="11"/>
+      <c r="FG17" s="11"/>
+      <c r="FH17" s="11"/>
+      <c r="FI17" s="11"/>
+      <c r="FJ17" s="11"/>
+      <c r="FK17" s="11"/>
+      <c r="FL17" s="11"/>
+      <c r="FM17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:169">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="42"/>
@@ -11002,7 +11866,7 @@
       </c>
       <c r="L18" s="40"/>
       <c r="M18" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O18" s="11"/>
@@ -11128,11 +11992,42 @@
       <c r="EE18" s="11"/>
       <c r="EF18" s="11"/>
       <c r="EG18" s="11"/>
-      <c r="EH18" t="s">
+      <c r="EH18" s="11"/>
+      <c r="EI18" s="11"/>
+      <c r="EJ18" s="11"/>
+      <c r="EK18" s="11"/>
+      <c r="EL18" s="11"/>
+      <c r="EM18" s="11"/>
+      <c r="EN18" s="11"/>
+      <c r="EO18" s="11"/>
+      <c r="EP18" s="11"/>
+      <c r="EQ18" s="11"/>
+      <c r="ER18" s="11"/>
+      <c r="ES18" s="11"/>
+      <c r="ET18" s="11"/>
+      <c r="EU18" s="11"/>
+      <c r="EV18" s="11"/>
+      <c r="EW18" s="11"/>
+      <c r="EX18" s="11"/>
+      <c r="EY18" s="11"/>
+      <c r="EZ18" s="11"/>
+      <c r="FA18" s="11"/>
+      <c r="FB18" s="11"/>
+      <c r="FC18" s="11"/>
+      <c r="FD18" s="11"/>
+      <c r="FE18" s="11"/>
+      <c r="FF18" s="11"/>
+      <c r="FG18" s="11"/>
+      <c r="FH18" s="11"/>
+      <c r="FI18" s="11"/>
+      <c r="FJ18" s="11"/>
+      <c r="FK18" s="11"/>
+      <c r="FL18" s="11"/>
+      <c r="FM18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:169">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="42"/>
@@ -11157,7 +12052,7 @@
       </c>
       <c r="L19" s="40"/>
       <c r="M19" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O19" s="11"/>
@@ -11283,11 +12178,42 @@
       <c r="EE19" s="11"/>
       <c r="EF19" s="11"/>
       <c r="EG19" s="11"/>
-      <c r="EH19" t="s">
+      <c r="EH19" s="11"/>
+      <c r="EI19" s="11"/>
+      <c r="EJ19" s="11"/>
+      <c r="EK19" s="11"/>
+      <c r="EL19" s="11"/>
+      <c r="EM19" s="11"/>
+      <c r="EN19" s="11"/>
+      <c r="EO19" s="11"/>
+      <c r="EP19" s="11"/>
+      <c r="EQ19" s="11"/>
+      <c r="ER19" s="11"/>
+      <c r="ES19" s="11"/>
+      <c r="ET19" s="11"/>
+      <c r="EU19" s="11"/>
+      <c r="EV19" s="11"/>
+      <c r="EW19" s="11"/>
+      <c r="EX19" s="11"/>
+      <c r="EY19" s="11"/>
+      <c r="EZ19" s="11"/>
+      <c r="FA19" s="11"/>
+      <c r="FB19" s="11"/>
+      <c r="FC19" s="11"/>
+      <c r="FD19" s="11"/>
+      <c r="FE19" s="11"/>
+      <c r="FF19" s="11"/>
+      <c r="FG19" s="11"/>
+      <c r="FH19" s="11"/>
+      <c r="FI19" s="11"/>
+      <c r="FJ19" s="11"/>
+      <c r="FK19" s="11"/>
+      <c r="FL19" s="11"/>
+      <c r="FM19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:169">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="42"/>
@@ -11312,7 +12238,7 @@
       </c>
       <c r="L20" s="40"/>
       <c r="M20" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>4</v>
       </c>
       <c r="O20" s="11"/>
@@ -11444,11 +12370,42 @@
       <c r="EE20" s="11"/>
       <c r="EF20" s="11"/>
       <c r="EG20" s="11"/>
-      <c r="EH20" t="s">
+      <c r="EH20" s="11"/>
+      <c r="EI20" s="11"/>
+      <c r="EJ20" s="11"/>
+      <c r="EK20" s="11"/>
+      <c r="EL20" s="11"/>
+      <c r="EM20" s="11"/>
+      <c r="EN20" s="11"/>
+      <c r="EO20" s="11"/>
+      <c r="EP20" s="11"/>
+      <c r="EQ20" s="11"/>
+      <c r="ER20" s="11"/>
+      <c r="ES20" s="11"/>
+      <c r="ET20" s="11"/>
+      <c r="EU20" s="11"/>
+      <c r="EV20" s="11"/>
+      <c r="EW20" s="11"/>
+      <c r="EX20" s="11"/>
+      <c r="EY20" s="11"/>
+      <c r="EZ20" s="11"/>
+      <c r="FA20" s="11"/>
+      <c r="FB20" s="11"/>
+      <c r="FC20" s="11"/>
+      <c r="FD20" s="11"/>
+      <c r="FE20" s="11"/>
+      <c r="FF20" s="11"/>
+      <c r="FG20" s="11"/>
+      <c r="FH20" s="11"/>
+      <c r="FI20" s="11"/>
+      <c r="FJ20" s="11"/>
+      <c r="FK20" s="11"/>
+      <c r="FL20" s="11"/>
+      <c r="FM20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:169">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="42"/>
@@ -11473,7 +12430,7 @@
       </c>
       <c r="L21" s="40"/>
       <c r="M21" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O21" s="11"/>
@@ -11599,11 +12556,42 @@
       <c r="EE21" s="11"/>
       <c r="EF21" s="11"/>
       <c r="EG21" s="11"/>
-      <c r="EH21" t="s">
+      <c r="EH21" s="11"/>
+      <c r="EI21" s="11"/>
+      <c r="EJ21" s="11"/>
+      <c r="EK21" s="11"/>
+      <c r="EL21" s="11"/>
+      <c r="EM21" s="11"/>
+      <c r="EN21" s="11"/>
+      <c r="EO21" s="11"/>
+      <c r="EP21" s="11"/>
+      <c r="EQ21" s="11"/>
+      <c r="ER21" s="11"/>
+      <c r="ES21" s="11"/>
+      <c r="ET21" s="11"/>
+      <c r="EU21" s="11"/>
+      <c r="EV21" s="11"/>
+      <c r="EW21" s="11"/>
+      <c r="EX21" s="11"/>
+      <c r="EY21" s="11"/>
+      <c r="EZ21" s="11"/>
+      <c r="FA21" s="11"/>
+      <c r="FB21" s="11"/>
+      <c r="FC21" s="11"/>
+      <c r="FD21" s="11"/>
+      <c r="FE21" s="11"/>
+      <c r="FF21" s="11"/>
+      <c r="FG21" s="11"/>
+      <c r="FH21" s="11"/>
+      <c r="FI21" s="11"/>
+      <c r="FJ21" s="11"/>
+      <c r="FK21" s="11"/>
+      <c r="FL21" s="11"/>
+      <c r="FM21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:169">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="42"/>
@@ -11630,7 +12618,7 @@
         <v>164</v>
       </c>
       <c r="M22" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O22" s="11"/>
@@ -11756,11 +12744,42 @@
       <c r="EE22" s="11"/>
       <c r="EF22" s="11"/>
       <c r="EG22" s="11"/>
-      <c r="EH22" t="s">
+      <c r="EH22" s="11"/>
+      <c r="EI22" s="11"/>
+      <c r="EJ22" s="11"/>
+      <c r="EK22" s="11"/>
+      <c r="EL22" s="11"/>
+      <c r="EM22" s="11"/>
+      <c r="EN22" s="11"/>
+      <c r="EO22" s="11"/>
+      <c r="EP22" s="11"/>
+      <c r="EQ22" s="11"/>
+      <c r="ER22" s="11"/>
+      <c r="ES22" s="11"/>
+      <c r="ET22" s="11"/>
+      <c r="EU22" s="11"/>
+      <c r="EV22" s="11"/>
+      <c r="EW22" s="11"/>
+      <c r="EX22" s="11"/>
+      <c r="EY22" s="11"/>
+      <c r="EZ22" s="11"/>
+      <c r="FA22" s="11"/>
+      <c r="FB22" s="11"/>
+      <c r="FC22" s="11"/>
+      <c r="FD22" s="11"/>
+      <c r="FE22" s="11"/>
+      <c r="FF22" s="11"/>
+      <c r="FG22" s="11"/>
+      <c r="FH22" s="11"/>
+      <c r="FI22" s="11"/>
+      <c r="FJ22" s="11"/>
+      <c r="FK22" s="11"/>
+      <c r="FL22" s="11"/>
+      <c r="FM22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:169">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="42"/>
@@ -11785,7 +12804,7 @@
       </c>
       <c r="L23" s="40"/>
       <c r="M23" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O23" s="11"/>
@@ -11911,11 +12930,42 @@
       <c r="EE23" s="11"/>
       <c r="EF23" s="11"/>
       <c r="EG23" s="11"/>
-      <c r="EH23" t="s">
+      <c r="EH23" s="11"/>
+      <c r="EI23" s="11"/>
+      <c r="EJ23" s="11"/>
+      <c r="EK23" s="11"/>
+      <c r="EL23" s="11"/>
+      <c r="EM23" s="11"/>
+      <c r="EN23" s="11"/>
+      <c r="EO23" s="11"/>
+      <c r="EP23" s="11"/>
+      <c r="EQ23" s="11"/>
+      <c r="ER23" s="11"/>
+      <c r="ES23" s="11"/>
+      <c r="ET23" s="11"/>
+      <c r="EU23" s="11"/>
+      <c r="EV23" s="11"/>
+      <c r="EW23" s="11"/>
+      <c r="EX23" s="11"/>
+      <c r="EY23" s="11"/>
+      <c r="EZ23" s="11"/>
+      <c r="FA23" s="11"/>
+      <c r="FB23" s="11"/>
+      <c r="FC23" s="11"/>
+      <c r="FD23" s="11"/>
+      <c r="FE23" s="11"/>
+      <c r="FF23" s="11"/>
+      <c r="FG23" s="11"/>
+      <c r="FH23" s="11"/>
+      <c r="FI23" s="11"/>
+      <c r="FJ23" s="11"/>
+      <c r="FK23" s="11"/>
+      <c r="FL23" s="11"/>
+      <c r="FM23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:169">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="42"/>
@@ -11940,7 +12990,7 @@
       </c>
       <c r="L24" s="40"/>
       <c r="M24" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O24" s="11"/>
@@ -12066,11 +13116,42 @@
       <c r="EE24" s="11"/>
       <c r="EF24" s="11"/>
       <c r="EG24" s="11"/>
-      <c r="EH24" t="s">
+      <c r="EH24" s="11"/>
+      <c r="EI24" s="11"/>
+      <c r="EJ24" s="11"/>
+      <c r="EK24" s="11"/>
+      <c r="EL24" s="11"/>
+      <c r="EM24" s="11"/>
+      <c r="EN24" s="11"/>
+      <c r="EO24" s="11"/>
+      <c r="EP24" s="11"/>
+      <c r="EQ24" s="11"/>
+      <c r="ER24" s="11"/>
+      <c r="ES24" s="11"/>
+      <c r="ET24" s="11"/>
+      <c r="EU24" s="11"/>
+      <c r="EV24" s="11"/>
+      <c r="EW24" s="11"/>
+      <c r="EX24" s="11"/>
+      <c r="EY24" s="11"/>
+      <c r="EZ24" s="11"/>
+      <c r="FA24" s="11"/>
+      <c r="FB24" s="11"/>
+      <c r="FC24" s="11"/>
+      <c r="FD24" s="11"/>
+      <c r="FE24" s="11"/>
+      <c r="FF24" s="11"/>
+      <c r="FG24" s="11"/>
+      <c r="FH24" s="11"/>
+      <c r="FI24" s="11"/>
+      <c r="FJ24" s="11"/>
+      <c r="FK24" s="11"/>
+      <c r="FL24" s="11"/>
+      <c r="FM24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:169">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="42"/>
@@ -12083,7 +13164,7 @@
       <c r="K25" s="51"/>
       <c r="L25" s="40"/>
       <c r="M25" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O25" s="11"/>
@@ -12209,11 +13290,42 @@
       <c r="EE25" s="11"/>
       <c r="EF25" s="11"/>
       <c r="EG25" s="11"/>
-      <c r="EH25" t="s">
+      <c r="EH25" s="11"/>
+      <c r="EI25" s="11"/>
+      <c r="EJ25" s="11"/>
+      <c r="EK25" s="11"/>
+      <c r="EL25" s="11"/>
+      <c r="EM25" s="11"/>
+      <c r="EN25" s="11"/>
+      <c r="EO25" s="11"/>
+      <c r="EP25" s="11"/>
+      <c r="EQ25" s="11"/>
+      <c r="ER25" s="11"/>
+      <c r="ES25" s="11"/>
+      <c r="ET25" s="11"/>
+      <c r="EU25" s="11"/>
+      <c r="EV25" s="11"/>
+      <c r="EW25" s="11"/>
+      <c r="EX25" s="11"/>
+      <c r="EY25" s="11"/>
+      <c r="EZ25" s="11"/>
+      <c r="FA25" s="11"/>
+      <c r="FB25" s="11"/>
+      <c r="FC25" s="11"/>
+      <c r="FD25" s="11"/>
+      <c r="FE25" s="11"/>
+      <c r="FF25" s="11"/>
+      <c r="FG25" s="11"/>
+      <c r="FH25" s="11"/>
+      <c r="FI25" s="11"/>
+      <c r="FJ25" s="11"/>
+      <c r="FK25" s="11"/>
+      <c r="FL25" s="11"/>
+      <c r="FM25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:169">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="42"/>
@@ -12226,7 +13338,7 @@
       <c r="K26" s="40"/>
       <c r="L26" s="40"/>
       <c r="M26" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O26" s="11"/>
@@ -12352,11 +13464,42 @@
       <c r="EE26" s="11"/>
       <c r="EF26" s="11"/>
       <c r="EG26" s="11"/>
-      <c r="EH26" t="s">
+      <c r="EH26" s="11"/>
+      <c r="EI26" s="11"/>
+      <c r="EJ26" s="11"/>
+      <c r="EK26" s="11"/>
+      <c r="EL26" s="11"/>
+      <c r="EM26" s="11"/>
+      <c r="EN26" s="11"/>
+      <c r="EO26" s="11"/>
+      <c r="EP26" s="11"/>
+      <c r="EQ26" s="11"/>
+      <c r="ER26" s="11"/>
+      <c r="ES26" s="11"/>
+      <c r="ET26" s="11"/>
+      <c r="EU26" s="11"/>
+      <c r="EV26" s="11"/>
+      <c r="EW26" s="11"/>
+      <c r="EX26" s="11"/>
+      <c r="EY26" s="11"/>
+      <c r="EZ26" s="11"/>
+      <c r="FA26" s="11"/>
+      <c r="FB26" s="11"/>
+      <c r="FC26" s="11"/>
+      <c r="FD26" s="11"/>
+      <c r="FE26" s="11"/>
+      <c r="FF26" s="11"/>
+      <c r="FG26" s="11"/>
+      <c r="FH26" s="11"/>
+      <c r="FI26" s="11"/>
+      <c r="FJ26" s="11"/>
+      <c r="FK26" s="11"/>
+      <c r="FL26" s="11"/>
+      <c r="FM26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:169">
       <c r="B27" s="30"/>
       <c r="C27" s="30">
         <v>2</v>
@@ -12381,7 +13524,7 @@
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
       <c r="M27" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O27" s="11"/>
@@ -12507,11 +13650,42 @@
       <c r="EE27" s="11"/>
       <c r="EF27" s="11"/>
       <c r="EG27" s="11"/>
-      <c r="EH27" t="s">
+      <c r="EH27" s="11"/>
+      <c r="EI27" s="11"/>
+      <c r="EJ27" s="11"/>
+      <c r="EK27" s="11"/>
+      <c r="EL27" s="11"/>
+      <c r="EM27" s="11"/>
+      <c r="EN27" s="11"/>
+      <c r="EO27" s="11"/>
+      <c r="EP27" s="11"/>
+      <c r="EQ27" s="11"/>
+      <c r="ER27" s="11"/>
+      <c r="ES27" s="11"/>
+      <c r="ET27" s="11"/>
+      <c r="EU27" s="11"/>
+      <c r="EV27" s="11"/>
+      <c r="EW27" s="11"/>
+      <c r="EX27" s="11"/>
+      <c r="EY27" s="11"/>
+      <c r="EZ27" s="11"/>
+      <c r="FA27" s="11"/>
+      <c r="FB27" s="11"/>
+      <c r="FC27" s="11"/>
+      <c r="FD27" s="11"/>
+      <c r="FE27" s="11"/>
+      <c r="FF27" s="11"/>
+      <c r="FG27" s="11"/>
+      <c r="FH27" s="11"/>
+      <c r="FI27" s="11"/>
+      <c r="FJ27" s="11"/>
+      <c r="FK27" s="11"/>
+      <c r="FL27" s="11"/>
+      <c r="FM27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:169">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="42"/>
@@ -12538,7 +13712,7 @@
       </c>
       <c r="L28" s="40"/>
       <c r="M28" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O28" s="11"/>
@@ -12664,11 +13838,42 @@
       <c r="EE28" s="11"/>
       <c r="EF28" s="11"/>
       <c r="EG28" s="11"/>
-      <c r="EH28" t="s">
+      <c r="EH28" s="11"/>
+      <c r="EI28" s="11"/>
+      <c r="EJ28" s="11"/>
+      <c r="EK28" s="11"/>
+      <c r="EL28" s="11"/>
+      <c r="EM28" s="11"/>
+      <c r="EN28" s="11"/>
+      <c r="EO28" s="11"/>
+      <c r="EP28" s="11"/>
+      <c r="EQ28" s="11"/>
+      <c r="ER28" s="11"/>
+      <c r="ES28" s="11"/>
+      <c r="ET28" s="11"/>
+      <c r="EU28" s="11"/>
+      <c r="EV28" s="11"/>
+      <c r="EW28" s="11"/>
+      <c r="EX28" s="11"/>
+      <c r="EY28" s="11"/>
+      <c r="EZ28" s="11"/>
+      <c r="FA28" s="11"/>
+      <c r="FB28" s="11"/>
+      <c r="FC28" s="11"/>
+      <c r="FD28" s="11"/>
+      <c r="FE28" s="11"/>
+      <c r="FF28" s="11"/>
+      <c r="FG28" s="11"/>
+      <c r="FH28" s="11"/>
+      <c r="FI28" s="11"/>
+      <c r="FJ28" s="11"/>
+      <c r="FK28" s="11"/>
+      <c r="FL28" s="11"/>
+      <c r="FM28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:169">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="42"/>
@@ -12693,7 +13898,7 @@
       </c>
       <c r="L29" s="40"/>
       <c r="M29" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0.5</v>
       </c>
       <c r="O29" s="11"/>
@@ -12821,11 +14026,42 @@
       <c r="EE29" s="11"/>
       <c r="EF29" s="11"/>
       <c r="EG29" s="11"/>
-      <c r="EH29" t="s">
+      <c r="EH29" s="11"/>
+      <c r="EI29" s="11"/>
+      <c r="EJ29" s="11"/>
+      <c r="EK29" s="11"/>
+      <c r="EL29" s="11"/>
+      <c r="EM29" s="11"/>
+      <c r="EN29" s="11"/>
+      <c r="EO29" s="11"/>
+      <c r="EP29" s="11"/>
+      <c r="EQ29" s="11"/>
+      <c r="ER29" s="11"/>
+      <c r="ES29" s="11"/>
+      <c r="ET29" s="11"/>
+      <c r="EU29" s="11"/>
+      <c r="EV29" s="11"/>
+      <c r="EW29" s="11"/>
+      <c r="EX29" s="11"/>
+      <c r="EY29" s="11"/>
+      <c r="EZ29" s="11"/>
+      <c r="FA29" s="11"/>
+      <c r="FB29" s="11"/>
+      <c r="FC29" s="11"/>
+      <c r="FD29" s="11"/>
+      <c r="FE29" s="11"/>
+      <c r="FF29" s="11"/>
+      <c r="FG29" s="11"/>
+      <c r="FH29" s="11"/>
+      <c r="FI29" s="11"/>
+      <c r="FJ29" s="11"/>
+      <c r="FK29" s="11"/>
+      <c r="FL29" s="11"/>
+      <c r="FM29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:169">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="42"/>
@@ -12850,7 +14086,7 @@
       </c>
       <c r="L30" s="40"/>
       <c r="M30" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>15.5</v>
       </c>
       <c r="O30" s="11"/>
@@ -12982,11 +14218,42 @@
       <c r="EE30" s="11"/>
       <c r="EF30" s="11"/>
       <c r="EG30" s="11"/>
-      <c r="EH30" t="s">
+      <c r="EH30" s="11"/>
+      <c r="EI30" s="11"/>
+      <c r="EJ30" s="11"/>
+      <c r="EK30" s="11"/>
+      <c r="EL30" s="11"/>
+      <c r="EM30" s="11"/>
+      <c r="EN30" s="11"/>
+      <c r="EO30" s="11"/>
+      <c r="EP30" s="11"/>
+      <c r="EQ30" s="11"/>
+      <c r="ER30" s="11"/>
+      <c r="ES30" s="11"/>
+      <c r="ET30" s="11"/>
+      <c r="EU30" s="11"/>
+      <c r="EV30" s="11"/>
+      <c r="EW30" s="11"/>
+      <c r="EX30" s="11"/>
+      <c r="EY30" s="11"/>
+      <c r="EZ30" s="11"/>
+      <c r="FA30" s="11"/>
+      <c r="FB30" s="11"/>
+      <c r="FC30" s="11"/>
+      <c r="FD30" s="11"/>
+      <c r="FE30" s="11"/>
+      <c r="FF30" s="11"/>
+      <c r="FG30" s="11"/>
+      <c r="FH30" s="11"/>
+      <c r="FI30" s="11"/>
+      <c r="FJ30" s="11"/>
+      <c r="FK30" s="11"/>
+      <c r="FL30" s="11"/>
+      <c r="FM30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:169">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="42"/>
@@ -13011,7 +14278,7 @@
       </c>
       <c r="L31" s="40"/>
       <c r="M31" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>70.5</v>
       </c>
       <c r="O31" s="11"/>
@@ -13176,12 +14443,45 @@
       <c r="EF31" s="11">
         <v>4</v>
       </c>
-      <c r="EG31" s="11"/>
-      <c r="EH31" t="s">
+      <c r="EG31" s="11">
+        <v>2</v>
+      </c>
+      <c r="EH31" s="11"/>
+      <c r="EI31" s="11"/>
+      <c r="EJ31" s="11"/>
+      <c r="EK31" s="11"/>
+      <c r="EL31" s="11"/>
+      <c r="EM31" s="11"/>
+      <c r="EN31" s="11"/>
+      <c r="EO31" s="11"/>
+      <c r="EP31" s="11"/>
+      <c r="EQ31" s="11"/>
+      <c r="ER31" s="11"/>
+      <c r="ES31" s="11"/>
+      <c r="ET31" s="11"/>
+      <c r="EU31" s="11"/>
+      <c r="EV31" s="11"/>
+      <c r="EW31" s="11"/>
+      <c r="EX31" s="11"/>
+      <c r="EY31" s="11"/>
+      <c r="EZ31" s="11"/>
+      <c r="FA31" s="11"/>
+      <c r="FB31" s="11"/>
+      <c r="FC31" s="11"/>
+      <c r="FD31" s="11"/>
+      <c r="FE31" s="11"/>
+      <c r="FF31" s="11"/>
+      <c r="FG31" s="11"/>
+      <c r="FH31" s="11"/>
+      <c r="FI31" s="11"/>
+      <c r="FJ31" s="11"/>
+      <c r="FK31" s="11"/>
+      <c r="FL31" s="11"/>
+      <c r="FM31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:169">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="42"/>
@@ -13206,7 +14506,7 @@
       </c>
       <c r="L32" s="40"/>
       <c r="M32" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>52</v>
       </c>
       <c r="O32" s="11"/>
@@ -13361,11 +14661,42 @@
       <c r="EE32" s="11"/>
       <c r="EF32" s="11"/>
       <c r="EG32" s="11"/>
-      <c r="EH32" t="s">
+      <c r="EH32" s="11"/>
+      <c r="EI32" s="11"/>
+      <c r="EJ32" s="11"/>
+      <c r="EK32" s="11"/>
+      <c r="EL32" s="11"/>
+      <c r="EM32" s="11"/>
+      <c r="EN32" s="11"/>
+      <c r="EO32" s="11"/>
+      <c r="EP32" s="11"/>
+      <c r="EQ32" s="11"/>
+      <c r="ER32" s="11"/>
+      <c r="ES32" s="11"/>
+      <c r="ET32" s="11"/>
+      <c r="EU32" s="11"/>
+      <c r="EV32" s="11"/>
+      <c r="EW32" s="11"/>
+      <c r="EX32" s="11"/>
+      <c r="EY32" s="11"/>
+      <c r="EZ32" s="11"/>
+      <c r="FA32" s="11"/>
+      <c r="FB32" s="11"/>
+      <c r="FC32" s="11"/>
+      <c r="FD32" s="11"/>
+      <c r="FE32" s="11"/>
+      <c r="FF32" s="11"/>
+      <c r="FG32" s="11"/>
+      <c r="FH32" s="11"/>
+      <c r="FI32" s="11"/>
+      <c r="FJ32" s="11"/>
+      <c r="FK32" s="11"/>
+      <c r="FL32" s="11"/>
+      <c r="FM32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:169">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="42"/>
@@ -13390,7 +14721,7 @@
       </c>
       <c r="L33" s="40"/>
       <c r="M33" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>3</v>
       </c>
       <c r="O33" s="11"/>
@@ -13518,11 +14849,42 @@
       <c r="EE33" s="11"/>
       <c r="EF33" s="11"/>
       <c r="EG33" s="11"/>
-      <c r="EH33" t="s">
+      <c r="EH33" s="11"/>
+      <c r="EI33" s="11"/>
+      <c r="EJ33" s="11"/>
+      <c r="EK33" s="11"/>
+      <c r="EL33" s="11"/>
+      <c r="EM33" s="11"/>
+      <c r="EN33" s="11"/>
+      <c r="EO33" s="11"/>
+      <c r="EP33" s="11"/>
+      <c r="EQ33" s="11"/>
+      <c r="ER33" s="11"/>
+      <c r="ES33" s="11"/>
+      <c r="ET33" s="11"/>
+      <c r="EU33" s="11"/>
+      <c r="EV33" s="11"/>
+      <c r="EW33" s="11"/>
+      <c r="EX33" s="11"/>
+      <c r="EY33" s="11"/>
+      <c r="EZ33" s="11"/>
+      <c r="FA33" s="11"/>
+      <c r="FB33" s="11"/>
+      <c r="FC33" s="11"/>
+      <c r="FD33" s="11"/>
+      <c r="FE33" s="11"/>
+      <c r="FF33" s="11"/>
+      <c r="FG33" s="11"/>
+      <c r="FH33" s="11"/>
+      <c r="FI33" s="11"/>
+      <c r="FJ33" s="11"/>
+      <c r="FK33" s="11"/>
+      <c r="FL33" s="11"/>
+      <c r="FM33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:169">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="42"/>
@@ -13547,7 +14909,7 @@
       </c>
       <c r="L34" s="40"/>
       <c r="M34" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>2</v>
       </c>
       <c r="O34" s="11"/>
@@ -13675,11 +15037,42 @@
       <c r="EE34" s="11"/>
       <c r="EF34" s="11"/>
       <c r="EG34" s="11"/>
-      <c r="EH34" t="s">
+      <c r="EH34" s="11"/>
+      <c r="EI34" s="11"/>
+      <c r="EJ34" s="11"/>
+      <c r="EK34" s="11"/>
+      <c r="EL34" s="11"/>
+      <c r="EM34" s="11"/>
+      <c r="EN34" s="11"/>
+      <c r="EO34" s="11"/>
+      <c r="EP34" s="11"/>
+      <c r="EQ34" s="11"/>
+      <c r="ER34" s="11"/>
+      <c r="ES34" s="11"/>
+      <c r="ET34" s="11"/>
+      <c r="EU34" s="11"/>
+      <c r="EV34" s="11"/>
+      <c r="EW34" s="11"/>
+      <c r="EX34" s="11"/>
+      <c r="EY34" s="11"/>
+      <c r="EZ34" s="11"/>
+      <c r="FA34" s="11"/>
+      <c r="FB34" s="11"/>
+      <c r="FC34" s="11"/>
+      <c r="FD34" s="11"/>
+      <c r="FE34" s="11"/>
+      <c r="FF34" s="11"/>
+      <c r="FG34" s="11"/>
+      <c r="FH34" s="11"/>
+      <c r="FI34" s="11"/>
+      <c r="FJ34" s="11"/>
+      <c r="FK34" s="11"/>
+      <c r="FL34" s="11"/>
+      <c r="FM34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:169">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="42"/>
@@ -13704,7 +15097,7 @@
       </c>
       <c r="L35" s="40"/>
       <c r="M35" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>3</v>
       </c>
       <c r="O35" s="11"/>
@@ -13832,11 +15225,42 @@
       <c r="EE35" s="11"/>
       <c r="EF35" s="11"/>
       <c r="EG35" s="11"/>
-      <c r="EH35" t="s">
+      <c r="EH35" s="11"/>
+      <c r="EI35" s="11"/>
+      <c r="EJ35" s="11"/>
+      <c r="EK35" s="11"/>
+      <c r="EL35" s="11"/>
+      <c r="EM35" s="11"/>
+      <c r="EN35" s="11"/>
+      <c r="EO35" s="11"/>
+      <c r="EP35" s="11"/>
+      <c r="EQ35" s="11"/>
+      <c r="ER35" s="11"/>
+      <c r="ES35" s="11"/>
+      <c r="ET35" s="11"/>
+      <c r="EU35" s="11"/>
+      <c r="EV35" s="11"/>
+      <c r="EW35" s="11"/>
+      <c r="EX35" s="11"/>
+      <c r="EY35" s="11"/>
+      <c r="EZ35" s="11"/>
+      <c r="FA35" s="11"/>
+      <c r="FB35" s="11"/>
+      <c r="FC35" s="11"/>
+      <c r="FD35" s="11"/>
+      <c r="FE35" s="11"/>
+      <c r="FF35" s="11"/>
+      <c r="FG35" s="11"/>
+      <c r="FH35" s="11"/>
+      <c r="FI35" s="11"/>
+      <c r="FJ35" s="11"/>
+      <c r="FK35" s="11"/>
+      <c r="FL35" s="11"/>
+      <c r="FM35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:169">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="42"/>
@@ -13861,7 +15285,7 @@
       </c>
       <c r="L36" s="40"/>
       <c r="M36" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>15</v>
       </c>
       <c r="O36" s="11"/>
@@ -13991,11 +15415,42 @@
       <c r="EE36" s="11"/>
       <c r="EF36" s="11"/>
       <c r="EG36" s="11"/>
-      <c r="EH36" t="s">
+      <c r="EH36" s="11"/>
+      <c r="EI36" s="11"/>
+      <c r="EJ36" s="11"/>
+      <c r="EK36" s="11"/>
+      <c r="EL36" s="11"/>
+      <c r="EM36" s="11"/>
+      <c r="EN36" s="11"/>
+      <c r="EO36" s="11"/>
+      <c r="EP36" s="11"/>
+      <c r="EQ36" s="11"/>
+      <c r="ER36" s="11"/>
+      <c r="ES36" s="11"/>
+      <c r="ET36" s="11"/>
+      <c r="EU36" s="11"/>
+      <c r="EV36" s="11"/>
+      <c r="EW36" s="11"/>
+      <c r="EX36" s="11"/>
+      <c r="EY36" s="11"/>
+      <c r="EZ36" s="11"/>
+      <c r="FA36" s="11"/>
+      <c r="FB36" s="11"/>
+      <c r="FC36" s="11"/>
+      <c r="FD36" s="11"/>
+      <c r="FE36" s="11"/>
+      <c r="FF36" s="11"/>
+      <c r="FG36" s="11"/>
+      <c r="FH36" s="11"/>
+      <c r="FI36" s="11"/>
+      <c r="FJ36" s="11"/>
+      <c r="FK36" s="11"/>
+      <c r="FL36" s="11"/>
+      <c r="FM36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:169">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="42"/>
@@ -14020,7 +15475,7 @@
       </c>
       <c r="L37" s="40"/>
       <c r="M37" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O37" s="11"/>
@@ -14146,11 +15601,42 @@
       <c r="EE37" s="11"/>
       <c r="EF37" s="11"/>
       <c r="EG37" s="11"/>
-      <c r="EH37" t="s">
+      <c r="EH37" s="11"/>
+      <c r="EI37" s="11"/>
+      <c r="EJ37" s="11"/>
+      <c r="EK37" s="11"/>
+      <c r="EL37" s="11"/>
+      <c r="EM37" s="11"/>
+      <c r="EN37" s="11"/>
+      <c r="EO37" s="11"/>
+      <c r="EP37" s="11"/>
+      <c r="EQ37" s="11"/>
+      <c r="ER37" s="11"/>
+      <c r="ES37" s="11"/>
+      <c r="ET37" s="11"/>
+      <c r="EU37" s="11"/>
+      <c r="EV37" s="11"/>
+      <c r="EW37" s="11"/>
+      <c r="EX37" s="11"/>
+      <c r="EY37" s="11"/>
+      <c r="EZ37" s="11"/>
+      <c r="FA37" s="11"/>
+      <c r="FB37" s="11"/>
+      <c r="FC37" s="11"/>
+      <c r="FD37" s="11"/>
+      <c r="FE37" s="11"/>
+      <c r="FF37" s="11"/>
+      <c r="FG37" s="11"/>
+      <c r="FH37" s="11"/>
+      <c r="FI37" s="11"/>
+      <c r="FJ37" s="11"/>
+      <c r="FK37" s="11"/>
+      <c r="FL37" s="11"/>
+      <c r="FM37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:169">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="42"/>
@@ -14175,7 +15661,7 @@
       </c>
       <c r="L38" s="40"/>
       <c r="M38" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>3.5</v>
       </c>
       <c r="O38" s="11"/>
@@ -14303,11 +15789,42 @@
       <c r="EE38" s="11"/>
       <c r="EF38" s="11"/>
       <c r="EG38" s="11"/>
-      <c r="EH38" t="s">
+      <c r="EH38" s="11"/>
+      <c r="EI38" s="11"/>
+      <c r="EJ38" s="11"/>
+      <c r="EK38" s="11"/>
+      <c r="EL38" s="11"/>
+      <c r="EM38" s="11"/>
+      <c r="EN38" s="11"/>
+      <c r="EO38" s="11"/>
+      <c r="EP38" s="11"/>
+      <c r="EQ38" s="11"/>
+      <c r="ER38" s="11"/>
+      <c r="ES38" s="11"/>
+      <c r="ET38" s="11"/>
+      <c r="EU38" s="11"/>
+      <c r="EV38" s="11"/>
+      <c r="EW38" s="11"/>
+      <c r="EX38" s="11"/>
+      <c r="EY38" s="11"/>
+      <c r="EZ38" s="11"/>
+      <c r="FA38" s="11"/>
+      <c r="FB38" s="11"/>
+      <c r="FC38" s="11"/>
+      <c r="FD38" s="11"/>
+      <c r="FE38" s="11"/>
+      <c r="FF38" s="11"/>
+      <c r="FG38" s="11"/>
+      <c r="FH38" s="11"/>
+      <c r="FI38" s="11"/>
+      <c r="FJ38" s="11"/>
+      <c r="FK38" s="11"/>
+      <c r="FL38" s="11"/>
+      <c r="FM38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:169">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="42"/>
@@ -14332,7 +15849,7 @@
       </c>
       <c r="L39" s="40"/>
       <c r="M39" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O39" s="11"/>
@@ -14458,11 +15975,42 @@
       <c r="EE39" s="11"/>
       <c r="EF39" s="11"/>
       <c r="EG39" s="11"/>
-      <c r="EH39" t="s">
+      <c r="EH39" s="11"/>
+      <c r="EI39" s="11"/>
+      <c r="EJ39" s="11"/>
+      <c r="EK39" s="11"/>
+      <c r="EL39" s="11"/>
+      <c r="EM39" s="11"/>
+      <c r="EN39" s="11"/>
+      <c r="EO39" s="11"/>
+      <c r="EP39" s="11"/>
+      <c r="EQ39" s="11"/>
+      <c r="ER39" s="11"/>
+      <c r="ES39" s="11"/>
+      <c r="ET39" s="11"/>
+      <c r="EU39" s="11"/>
+      <c r="EV39" s="11"/>
+      <c r="EW39" s="11"/>
+      <c r="EX39" s="11"/>
+      <c r="EY39" s="11"/>
+      <c r="EZ39" s="11"/>
+      <c r="FA39" s="11"/>
+      <c r="FB39" s="11"/>
+      <c r="FC39" s="11"/>
+      <c r="FD39" s="11"/>
+      <c r="FE39" s="11"/>
+      <c r="FF39" s="11"/>
+      <c r="FG39" s="11"/>
+      <c r="FH39" s="11"/>
+      <c r="FI39" s="11"/>
+      <c r="FJ39" s="11"/>
+      <c r="FK39" s="11"/>
+      <c r="FL39" s="11"/>
+      <c r="FM39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:169">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="42"/>
@@ -14475,7 +16023,7 @@
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
       <c r="M40" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O40" s="11"/>
@@ -14601,11 +16149,42 @@
       <c r="EE40" s="11"/>
       <c r="EF40" s="11"/>
       <c r="EG40" s="11"/>
-      <c r="EH40" t="s">
+      <c r="EH40" s="11"/>
+      <c r="EI40" s="11"/>
+      <c r="EJ40" s="11"/>
+      <c r="EK40" s="11"/>
+      <c r="EL40" s="11"/>
+      <c r="EM40" s="11"/>
+      <c r="EN40" s="11"/>
+      <c r="EO40" s="11"/>
+      <c r="EP40" s="11"/>
+      <c r="EQ40" s="11"/>
+      <c r="ER40" s="11"/>
+      <c r="ES40" s="11"/>
+      <c r="ET40" s="11"/>
+      <c r="EU40" s="11"/>
+      <c r="EV40" s="11"/>
+      <c r="EW40" s="11"/>
+      <c r="EX40" s="11"/>
+      <c r="EY40" s="11"/>
+      <c r="EZ40" s="11"/>
+      <c r="FA40" s="11"/>
+      <c r="FB40" s="11"/>
+      <c r="FC40" s="11"/>
+      <c r="FD40" s="11"/>
+      <c r="FE40" s="11"/>
+      <c r="FF40" s="11"/>
+      <c r="FG40" s="11"/>
+      <c r="FH40" s="11"/>
+      <c r="FI40" s="11"/>
+      <c r="FJ40" s="11"/>
+      <c r="FK40" s="11"/>
+      <c r="FL40" s="11"/>
+      <c r="FM40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:169">
       <c r="B41" s="30"/>
       <c r="C41" s="30">
         <v>3</v>
@@ -14632,7 +16211,7 @@
         <v>158</v>
       </c>
       <c r="M41" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O41" s="11"/>
@@ -14758,11 +16337,42 @@
       <c r="EE41" s="11"/>
       <c r="EF41" s="11"/>
       <c r="EG41" s="11"/>
-      <c r="EH41" t="s">
+      <c r="EH41" s="11"/>
+      <c r="EI41" s="11"/>
+      <c r="EJ41" s="11"/>
+      <c r="EK41" s="11"/>
+      <c r="EL41" s="11"/>
+      <c r="EM41" s="11"/>
+      <c r="EN41" s="11"/>
+      <c r="EO41" s="11"/>
+      <c r="EP41" s="11"/>
+      <c r="EQ41" s="11"/>
+      <c r="ER41" s="11"/>
+      <c r="ES41" s="11"/>
+      <c r="ET41" s="11"/>
+      <c r="EU41" s="11"/>
+      <c r="EV41" s="11"/>
+      <c r="EW41" s="11"/>
+      <c r="EX41" s="11"/>
+      <c r="EY41" s="11"/>
+      <c r="EZ41" s="11"/>
+      <c r="FA41" s="11"/>
+      <c r="FB41" s="11"/>
+      <c r="FC41" s="11"/>
+      <c r="FD41" s="11"/>
+      <c r="FE41" s="11"/>
+      <c r="FF41" s="11"/>
+      <c r="FG41" s="11"/>
+      <c r="FH41" s="11"/>
+      <c r="FI41" s="11"/>
+      <c r="FJ41" s="11"/>
+      <c r="FK41" s="11"/>
+      <c r="FL41" s="11"/>
+      <c r="FM41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:169">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="42"/>
@@ -14775,7 +16385,7 @@
       <c r="K42" s="40"/>
       <c r="L42" s="40"/>
       <c r="M42" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O42" s="11"/>
@@ -14901,11 +16511,42 @@
       <c r="EE42" s="11"/>
       <c r="EF42" s="11"/>
       <c r="EG42" s="11"/>
-      <c r="EH42" t="s">
+      <c r="EH42" s="11"/>
+      <c r="EI42" s="11"/>
+      <c r="EJ42" s="11"/>
+      <c r="EK42" s="11"/>
+      <c r="EL42" s="11"/>
+      <c r="EM42" s="11"/>
+      <c r="EN42" s="11"/>
+      <c r="EO42" s="11"/>
+      <c r="EP42" s="11"/>
+      <c r="EQ42" s="11"/>
+      <c r="ER42" s="11"/>
+      <c r="ES42" s="11"/>
+      <c r="ET42" s="11"/>
+      <c r="EU42" s="11"/>
+      <c r="EV42" s="11"/>
+      <c r="EW42" s="11"/>
+      <c r="EX42" s="11"/>
+      <c r="EY42" s="11"/>
+      <c r="EZ42" s="11"/>
+      <c r="FA42" s="11"/>
+      <c r="FB42" s="11"/>
+      <c r="FC42" s="11"/>
+      <c r="FD42" s="11"/>
+      <c r="FE42" s="11"/>
+      <c r="FF42" s="11"/>
+      <c r="FG42" s="11"/>
+      <c r="FH42" s="11"/>
+      <c r="FI42" s="11"/>
+      <c r="FJ42" s="11"/>
+      <c r="FK42" s="11"/>
+      <c r="FL42" s="11"/>
+      <c r="FM42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:169">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="42"/>
@@ -14928,7 +16569,7 @@
       <c r="K43" s="40"/>
       <c r="L43" s="40"/>
       <c r="M43" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O43" s="11"/>
@@ -15054,11 +16695,42 @@
       <c r="EE43" s="11"/>
       <c r="EF43" s="11"/>
       <c r="EG43" s="11"/>
-      <c r="EH43" t="s">
+      <c r="EH43" s="11"/>
+      <c r="EI43" s="11"/>
+      <c r="EJ43" s="11"/>
+      <c r="EK43" s="11"/>
+      <c r="EL43" s="11"/>
+      <c r="EM43" s="11"/>
+      <c r="EN43" s="11"/>
+      <c r="EO43" s="11"/>
+      <c r="EP43" s="11"/>
+      <c r="EQ43" s="11"/>
+      <c r="ER43" s="11"/>
+      <c r="ES43" s="11"/>
+      <c r="ET43" s="11"/>
+      <c r="EU43" s="11"/>
+      <c r="EV43" s="11"/>
+      <c r="EW43" s="11"/>
+      <c r="EX43" s="11"/>
+      <c r="EY43" s="11"/>
+      <c r="EZ43" s="11"/>
+      <c r="FA43" s="11"/>
+      <c r="FB43" s="11"/>
+      <c r="FC43" s="11"/>
+      <c r="FD43" s="11"/>
+      <c r="FE43" s="11"/>
+      <c r="FF43" s="11"/>
+      <c r="FG43" s="11"/>
+      <c r="FH43" s="11"/>
+      <c r="FI43" s="11"/>
+      <c r="FJ43" s="11"/>
+      <c r="FK43" s="11"/>
+      <c r="FL43" s="11"/>
+      <c r="FM43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:169">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="42"/>
@@ -15071,7 +16743,7 @@
       <c r="K44" s="40"/>
       <c r="L44" s="40"/>
       <c r="M44" s="48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O44" s="11"/>
@@ -15197,11 +16869,42 @@
       <c r="EE44" s="11"/>
       <c r="EF44" s="11"/>
       <c r="EG44" s="11"/>
-      <c r="EH44" t="s">
+      <c r="EH44" s="11"/>
+      <c r="EI44" s="11"/>
+      <c r="EJ44" s="11"/>
+      <c r="EK44" s="11"/>
+      <c r="EL44" s="11"/>
+      <c r="EM44" s="11"/>
+      <c r="EN44" s="11"/>
+      <c r="EO44" s="11"/>
+      <c r="EP44" s="11"/>
+      <c r="EQ44" s="11"/>
+      <c r="ER44" s="11"/>
+      <c r="ES44" s="11"/>
+      <c r="ET44" s="11"/>
+      <c r="EU44" s="11"/>
+      <c r="EV44" s="11"/>
+      <c r="EW44" s="11"/>
+      <c r="EX44" s="11"/>
+      <c r="EY44" s="11"/>
+      <c r="EZ44" s="11"/>
+      <c r="FA44" s="11"/>
+      <c r="FB44" s="11"/>
+      <c r="FC44" s="11"/>
+      <c r="FD44" s="11"/>
+      <c r="FE44" s="11"/>
+      <c r="FF44" s="11"/>
+      <c r="FG44" s="11"/>
+      <c r="FH44" s="11"/>
+      <c r="FI44" s="11"/>
+      <c r="FJ44" s="11"/>
+      <c r="FK44" s="11"/>
+      <c r="FL44" s="11"/>
+      <c r="FM44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:169">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="42"/>
@@ -15222,7 +16925,7 @@
       <c r="K45" s="52"/>
       <c r="L45" s="40"/>
       <c r="M45" s="48">
-        <f t="shared" ref="M45:M66" si="59">SUM(O45:EF45)</f>
+        <f t="shared" ref="M45:M66" si="91">SUM(O45:EF45)</f>
         <v>0</v>
       </c>
       <c r="O45" s="11"/>
@@ -15348,11 +17051,42 @@
       <c r="EE45" s="11"/>
       <c r="EF45" s="11"/>
       <c r="EG45" s="11"/>
-      <c r="EH45" t="s">
+      <c r="EH45" s="11"/>
+      <c r="EI45" s="11"/>
+      <c r="EJ45" s="11"/>
+      <c r="EK45" s="11"/>
+      <c r="EL45" s="11"/>
+      <c r="EM45" s="11"/>
+      <c r="EN45" s="11"/>
+      <c r="EO45" s="11"/>
+      <c r="EP45" s="11"/>
+      <c r="EQ45" s="11"/>
+      <c r="ER45" s="11"/>
+      <c r="ES45" s="11"/>
+      <c r="ET45" s="11"/>
+      <c r="EU45" s="11"/>
+      <c r="EV45" s="11"/>
+      <c r="EW45" s="11"/>
+      <c r="EX45" s="11"/>
+      <c r="EY45" s="11"/>
+      <c r="EZ45" s="11"/>
+      <c r="FA45" s="11"/>
+      <c r="FB45" s="11"/>
+      <c r="FC45" s="11"/>
+      <c r="FD45" s="11"/>
+      <c r="FE45" s="11"/>
+      <c r="FF45" s="11"/>
+      <c r="FG45" s="11"/>
+      <c r="FH45" s="11"/>
+      <c r="FI45" s="11"/>
+      <c r="FJ45" s="11"/>
+      <c r="FK45" s="11"/>
+      <c r="FL45" s="11"/>
+      <c r="FM45" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:169">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="42"/>
@@ -15369,7 +17103,7 @@
         <v>182</v>
       </c>
       <c r="M46" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>16.5</v>
       </c>
       <c r="O46" s="11"/>
@@ -15497,11 +17231,42 @@
       <c r="EE46" s="11"/>
       <c r="EF46" s="11"/>
       <c r="EG46" s="11"/>
-      <c r="EH46" t="s">
+      <c r="EH46" s="11"/>
+      <c r="EI46" s="11"/>
+      <c r="EJ46" s="11"/>
+      <c r="EK46" s="11"/>
+      <c r="EL46" s="11"/>
+      <c r="EM46" s="11"/>
+      <c r="EN46" s="11"/>
+      <c r="EO46" s="11"/>
+      <c r="EP46" s="11"/>
+      <c r="EQ46" s="11"/>
+      <c r="ER46" s="11"/>
+      <c r="ES46" s="11"/>
+      <c r="ET46" s="11"/>
+      <c r="EU46" s="11"/>
+      <c r="EV46" s="11"/>
+      <c r="EW46" s="11"/>
+      <c r="EX46" s="11"/>
+      <c r="EY46" s="11"/>
+      <c r="EZ46" s="11"/>
+      <c r="FA46" s="11"/>
+      <c r="FB46" s="11"/>
+      <c r="FC46" s="11"/>
+      <c r="FD46" s="11"/>
+      <c r="FE46" s="11"/>
+      <c r="FF46" s="11"/>
+      <c r="FG46" s="11"/>
+      <c r="FH46" s="11"/>
+      <c r="FI46" s="11"/>
+      <c r="FJ46" s="11"/>
+      <c r="FK46" s="11"/>
+      <c r="FL46" s="11"/>
+      <c r="FM46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:138" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:169" ht="48" customHeight="1">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="42"/>
@@ -15514,7 +17279,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O47" s="11"/>
@@ -15640,11 +17405,42 @@
       <c r="EE47" s="11"/>
       <c r="EF47" s="11"/>
       <c r="EG47" s="11"/>
-      <c r="EH47" t="s">
+      <c r="EH47" s="11"/>
+      <c r="EI47" s="11"/>
+      <c r="EJ47" s="11"/>
+      <c r="EK47" s="11"/>
+      <c r="EL47" s="11"/>
+      <c r="EM47" s="11"/>
+      <c r="EN47" s="11"/>
+      <c r="EO47" s="11"/>
+      <c r="EP47" s="11"/>
+      <c r="EQ47" s="11"/>
+      <c r="ER47" s="11"/>
+      <c r="ES47" s="11"/>
+      <c r="ET47" s="11"/>
+      <c r="EU47" s="11"/>
+      <c r="EV47" s="11"/>
+      <c r="EW47" s="11"/>
+      <c r="EX47" s="11"/>
+      <c r="EY47" s="11"/>
+      <c r="EZ47" s="11"/>
+      <c r="FA47" s="11"/>
+      <c r="FB47" s="11"/>
+      <c r="FC47" s="11"/>
+      <c r="FD47" s="11"/>
+      <c r="FE47" s="11"/>
+      <c r="FF47" s="11"/>
+      <c r="FG47" s="11"/>
+      <c r="FH47" s="11"/>
+      <c r="FI47" s="11"/>
+      <c r="FJ47" s="11"/>
+      <c r="FK47" s="11"/>
+      <c r="FL47" s="11"/>
+      <c r="FM47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:138" ht="39" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:169" ht="27">
       <c r="B48" s="30">
         <v>2</v>
       </c>
@@ -15675,7 +17471,7 @@
         <v>145</v>
       </c>
       <c r="M48" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>3.5</v>
       </c>
       <c r="O48" s="11"/>
@@ -15805,11 +17601,42 @@
       <c r="EE48" s="11"/>
       <c r="EF48" s="11"/>
       <c r="EG48" s="11"/>
-      <c r="EH48" t="s">
+      <c r="EH48" s="11"/>
+      <c r="EI48" s="11"/>
+      <c r="EJ48" s="11"/>
+      <c r="EK48" s="11"/>
+      <c r="EL48" s="11"/>
+      <c r="EM48" s="11"/>
+      <c r="EN48" s="11"/>
+      <c r="EO48" s="11"/>
+      <c r="EP48" s="11"/>
+      <c r="EQ48" s="11"/>
+      <c r="ER48" s="11"/>
+      <c r="ES48" s="11"/>
+      <c r="ET48" s="11"/>
+      <c r="EU48" s="11"/>
+      <c r="EV48" s="11"/>
+      <c r="EW48" s="11"/>
+      <c r="EX48" s="11"/>
+      <c r="EY48" s="11"/>
+      <c r="EZ48" s="11"/>
+      <c r="FA48" s="11"/>
+      <c r="FB48" s="11"/>
+      <c r="FC48" s="11"/>
+      <c r="FD48" s="11"/>
+      <c r="FE48" s="11"/>
+      <c r="FF48" s="11"/>
+      <c r="FG48" s="11"/>
+      <c r="FH48" s="11"/>
+      <c r="FI48" s="11"/>
+      <c r="FJ48" s="11"/>
+      <c r="FK48" s="11"/>
+      <c r="FL48" s="11"/>
+      <c r="FM48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:169">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="43"/>
@@ -15822,7 +17649,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O49" s="11"/>
@@ -15948,11 +17775,42 @@
       <c r="EE49" s="11"/>
       <c r="EF49" s="11"/>
       <c r="EG49" s="11"/>
-      <c r="EH49" t="s">
+      <c r="EH49" s="11"/>
+      <c r="EI49" s="11"/>
+      <c r="EJ49" s="11"/>
+      <c r="EK49" s="11"/>
+      <c r="EL49" s="11"/>
+      <c r="EM49" s="11"/>
+      <c r="EN49" s="11"/>
+      <c r="EO49" s="11"/>
+      <c r="EP49" s="11"/>
+      <c r="EQ49" s="11"/>
+      <c r="ER49" s="11"/>
+      <c r="ES49" s="11"/>
+      <c r="ET49" s="11"/>
+      <c r="EU49" s="11"/>
+      <c r="EV49" s="11"/>
+      <c r="EW49" s="11"/>
+      <c r="EX49" s="11"/>
+      <c r="EY49" s="11"/>
+      <c r="EZ49" s="11"/>
+      <c r="FA49" s="11"/>
+      <c r="FB49" s="11"/>
+      <c r="FC49" s="11"/>
+      <c r="FD49" s="11"/>
+      <c r="FE49" s="11"/>
+      <c r="FF49" s="11"/>
+      <c r="FG49" s="11"/>
+      <c r="FH49" s="11"/>
+      <c r="FI49" s="11"/>
+      <c r="FJ49" s="11"/>
+      <c r="FK49" s="11"/>
+      <c r="FL49" s="11"/>
+      <c r="FM49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:169">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="43"/>
@@ -15973,7 +17831,7 @@
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O50" s="11"/>
@@ -16099,11 +17957,42 @@
       <c r="EE50" s="11"/>
       <c r="EF50" s="11"/>
       <c r="EG50" s="11"/>
-      <c r="EH50" t="s">
+      <c r="EH50" s="11"/>
+      <c r="EI50" s="11"/>
+      <c r="EJ50" s="11"/>
+      <c r="EK50" s="11"/>
+      <c r="EL50" s="11"/>
+      <c r="EM50" s="11"/>
+      <c r="EN50" s="11"/>
+      <c r="EO50" s="11"/>
+      <c r="EP50" s="11"/>
+      <c r="EQ50" s="11"/>
+      <c r="ER50" s="11"/>
+      <c r="ES50" s="11"/>
+      <c r="ET50" s="11"/>
+      <c r="EU50" s="11"/>
+      <c r="EV50" s="11"/>
+      <c r="EW50" s="11"/>
+      <c r="EX50" s="11"/>
+      <c r="EY50" s="11"/>
+      <c r="EZ50" s="11"/>
+      <c r="FA50" s="11"/>
+      <c r="FB50" s="11"/>
+      <c r="FC50" s="11"/>
+      <c r="FD50" s="11"/>
+      <c r="FE50" s="11"/>
+      <c r="FF50" s="11"/>
+      <c r="FG50" s="11"/>
+      <c r="FH50" s="11"/>
+      <c r="FI50" s="11"/>
+      <c r="FJ50" s="11"/>
+      <c r="FK50" s="11"/>
+      <c r="FL50" s="11"/>
+      <c r="FM50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:169">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="43"/>
@@ -16116,7 +18005,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O51" s="11"/>
@@ -16242,11 +18131,42 @@
       <c r="EE51" s="11"/>
       <c r="EF51" s="11"/>
       <c r="EG51" s="11"/>
-      <c r="EH51" t="s">
+      <c r="EH51" s="11"/>
+      <c r="EI51" s="11"/>
+      <c r="EJ51" s="11"/>
+      <c r="EK51" s="11"/>
+      <c r="EL51" s="11"/>
+      <c r="EM51" s="11"/>
+      <c r="EN51" s="11"/>
+      <c r="EO51" s="11"/>
+      <c r="EP51" s="11"/>
+      <c r="EQ51" s="11"/>
+      <c r="ER51" s="11"/>
+      <c r="ES51" s="11"/>
+      <c r="ET51" s="11"/>
+      <c r="EU51" s="11"/>
+      <c r="EV51" s="11"/>
+      <c r="EW51" s="11"/>
+      <c r="EX51" s="11"/>
+      <c r="EY51" s="11"/>
+      <c r="EZ51" s="11"/>
+      <c r="FA51" s="11"/>
+      <c r="FB51" s="11"/>
+      <c r="FC51" s="11"/>
+      <c r="FD51" s="11"/>
+      <c r="FE51" s="11"/>
+      <c r="FF51" s="11"/>
+      <c r="FG51" s="11"/>
+      <c r="FH51" s="11"/>
+      <c r="FI51" s="11"/>
+      <c r="FJ51" s="11"/>
+      <c r="FK51" s="11"/>
+      <c r="FL51" s="11"/>
+      <c r="FM51" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:169">
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="43"/>
@@ -16269,7 +18189,7 @@
       </c>
       <c r="L52" s="40"/>
       <c r="M52" s="48">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>1.5</v>
       </c>
       <c r="O52" s="11"/>
@@ -16397,11 +18317,42 @@
       <c r="EE52" s="11"/>
       <c r="EF52" s="11"/>
       <c r="EG52" s="11"/>
-      <c r="EH52" t="s">
+      <c r="EH52" s="11"/>
+      <c r="EI52" s="11"/>
+      <c r="EJ52" s="11"/>
+      <c r="EK52" s="11"/>
+      <c r="EL52" s="11"/>
+      <c r="EM52" s="11"/>
+      <c r="EN52" s="11"/>
+      <c r="EO52" s="11"/>
+      <c r="EP52" s="11"/>
+      <c r="EQ52" s="11"/>
+      <c r="ER52" s="11"/>
+      <c r="ES52" s="11"/>
+      <c r="ET52" s="11"/>
+      <c r="EU52" s="11"/>
+      <c r="EV52" s="11"/>
+      <c r="EW52" s="11"/>
+      <c r="EX52" s="11"/>
+      <c r="EY52" s="11"/>
+      <c r="EZ52" s="11"/>
+      <c r="FA52" s="11"/>
+      <c r="FB52" s="11"/>
+      <c r="FC52" s="11"/>
+      <c r="FD52" s="11"/>
+      <c r="FE52" s="11"/>
+      <c r="FF52" s="11"/>
+      <c r="FG52" s="11"/>
+      <c r="FH52" s="11"/>
+      <c r="FI52" s="11"/>
+      <c r="FJ52" s="11"/>
+      <c r="FK52" s="11"/>
+      <c r="FL52" s="11"/>
+      <c r="FM52" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:169">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="43"/>
@@ -16414,7 +18365,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O53" s="11"/>
@@ -16540,11 +18491,42 @@
       <c r="EE53" s="11"/>
       <c r="EF53" s="11"/>
       <c r="EG53" s="11"/>
-      <c r="EH53" t="s">
+      <c r="EH53" s="11"/>
+      <c r="EI53" s="11"/>
+      <c r="EJ53" s="11"/>
+      <c r="EK53" s="11"/>
+      <c r="EL53" s="11"/>
+      <c r="EM53" s="11"/>
+      <c r="EN53" s="11"/>
+      <c r="EO53" s="11"/>
+      <c r="EP53" s="11"/>
+      <c r="EQ53" s="11"/>
+      <c r="ER53" s="11"/>
+      <c r="ES53" s="11"/>
+      <c r="ET53" s="11"/>
+      <c r="EU53" s="11"/>
+      <c r="EV53" s="11"/>
+      <c r="EW53" s="11"/>
+      <c r="EX53" s="11"/>
+      <c r="EY53" s="11"/>
+      <c r="EZ53" s="11"/>
+      <c r="FA53" s="11"/>
+      <c r="FB53" s="11"/>
+      <c r="FC53" s="11"/>
+      <c r="FD53" s="11"/>
+      <c r="FE53" s="11"/>
+      <c r="FF53" s="11"/>
+      <c r="FG53" s="11"/>
+      <c r="FH53" s="11"/>
+      <c r="FI53" s="11"/>
+      <c r="FJ53" s="11"/>
+      <c r="FK53" s="11"/>
+      <c r="FL53" s="11"/>
+      <c r="FM53" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:138" ht="39" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:169" ht="27">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="43"/>
@@ -16565,7 +18547,7 @@
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O54" s="11"/>
@@ -16691,11 +18673,42 @@
       <c r="EE54" s="11"/>
       <c r="EF54" s="11"/>
       <c r="EG54" s="11"/>
-      <c r="EH54" t="s">
+      <c r="EH54" s="11"/>
+      <c r="EI54" s="11"/>
+      <c r="EJ54" s="11"/>
+      <c r="EK54" s="11"/>
+      <c r="EL54" s="11"/>
+      <c r="EM54" s="11"/>
+      <c r="EN54" s="11"/>
+      <c r="EO54" s="11"/>
+      <c r="EP54" s="11"/>
+      <c r="EQ54" s="11"/>
+      <c r="ER54" s="11"/>
+      <c r="ES54" s="11"/>
+      <c r="ET54" s="11"/>
+      <c r="EU54" s="11"/>
+      <c r="EV54" s="11"/>
+      <c r="EW54" s="11"/>
+      <c r="EX54" s="11"/>
+      <c r="EY54" s="11"/>
+      <c r="EZ54" s="11"/>
+      <c r="FA54" s="11"/>
+      <c r="FB54" s="11"/>
+      <c r="FC54" s="11"/>
+      <c r="FD54" s="11"/>
+      <c r="FE54" s="11"/>
+      <c r="FF54" s="11"/>
+      <c r="FG54" s="11"/>
+      <c r="FH54" s="11"/>
+      <c r="FI54" s="11"/>
+      <c r="FJ54" s="11"/>
+      <c r="FK54" s="11"/>
+      <c r="FL54" s="11"/>
+      <c r="FM54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:169">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="43"/>
@@ -16708,7 +18721,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O55" s="11"/>
@@ -16834,11 +18847,42 @@
       <c r="EE55" s="11"/>
       <c r="EF55" s="11"/>
       <c r="EG55" s="11"/>
-      <c r="EH55" t="s">
+      <c r="EH55" s="11"/>
+      <c r="EI55" s="11"/>
+      <c r="EJ55" s="11"/>
+      <c r="EK55" s="11"/>
+      <c r="EL55" s="11"/>
+      <c r="EM55" s="11"/>
+      <c r="EN55" s="11"/>
+      <c r="EO55" s="11"/>
+      <c r="EP55" s="11"/>
+      <c r="EQ55" s="11"/>
+      <c r="ER55" s="11"/>
+      <c r="ES55" s="11"/>
+      <c r="ET55" s="11"/>
+      <c r="EU55" s="11"/>
+      <c r="EV55" s="11"/>
+      <c r="EW55" s="11"/>
+      <c r="EX55" s="11"/>
+      <c r="EY55" s="11"/>
+      <c r="EZ55" s="11"/>
+      <c r="FA55" s="11"/>
+      <c r="FB55" s="11"/>
+      <c r="FC55" s="11"/>
+      <c r="FD55" s="11"/>
+      <c r="FE55" s="11"/>
+      <c r="FF55" s="11"/>
+      <c r="FG55" s="11"/>
+      <c r="FH55" s="11"/>
+      <c r="FI55" s="11"/>
+      <c r="FJ55" s="11"/>
+      <c r="FK55" s="11"/>
+      <c r="FL55" s="11"/>
+      <c r="FM55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:138" ht="26" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:169" ht="27">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="43"/>
@@ -16863,7 +18907,7 @@
         <v>144</v>
       </c>
       <c r="M56" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>3</v>
       </c>
       <c r="O56" s="11"/>
@@ -16995,11 +19039,42 @@
       <c r="EE56" s="11"/>
       <c r="EF56" s="11"/>
       <c r="EG56" s="11"/>
-      <c r="EH56" t="s">
+      <c r="EH56" s="11"/>
+      <c r="EI56" s="11"/>
+      <c r="EJ56" s="11"/>
+      <c r="EK56" s="11"/>
+      <c r="EL56" s="11"/>
+      <c r="EM56" s="11"/>
+      <c r="EN56" s="11"/>
+      <c r="EO56" s="11"/>
+      <c r="EP56" s="11"/>
+      <c r="EQ56" s="11"/>
+      <c r="ER56" s="11"/>
+      <c r="ES56" s="11"/>
+      <c r="ET56" s="11"/>
+      <c r="EU56" s="11"/>
+      <c r="EV56" s="11"/>
+      <c r="EW56" s="11"/>
+      <c r="EX56" s="11"/>
+      <c r="EY56" s="11"/>
+      <c r="EZ56" s="11"/>
+      <c r="FA56" s="11"/>
+      <c r="FB56" s="11"/>
+      <c r="FC56" s="11"/>
+      <c r="FD56" s="11"/>
+      <c r="FE56" s="11"/>
+      <c r="FF56" s="11"/>
+      <c r="FG56" s="11"/>
+      <c r="FH56" s="11"/>
+      <c r="FI56" s="11"/>
+      <c r="FJ56" s="11"/>
+      <c r="FK56" s="11"/>
+      <c r="FL56" s="11"/>
+      <c r="FM56" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:169">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
@@ -17012,7 +19087,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O57" s="11"/>
@@ -17138,11 +19213,42 @@
       <c r="EE57" s="11"/>
       <c r="EF57" s="11"/>
       <c r="EG57" s="11"/>
-      <c r="EH57" t="s">
+      <c r="EH57" s="11"/>
+      <c r="EI57" s="11"/>
+      <c r="EJ57" s="11"/>
+      <c r="EK57" s="11"/>
+      <c r="EL57" s="11"/>
+      <c r="EM57" s="11"/>
+      <c r="EN57" s="11"/>
+      <c r="EO57" s="11"/>
+      <c r="EP57" s="11"/>
+      <c r="EQ57" s="11"/>
+      <c r="ER57" s="11"/>
+      <c r="ES57" s="11"/>
+      <c r="ET57" s="11"/>
+      <c r="EU57" s="11"/>
+      <c r="EV57" s="11"/>
+      <c r="EW57" s="11"/>
+      <c r="EX57" s="11"/>
+      <c r="EY57" s="11"/>
+      <c r="EZ57" s="11"/>
+      <c r="FA57" s="11"/>
+      <c r="FB57" s="11"/>
+      <c r="FC57" s="11"/>
+      <c r="FD57" s="11"/>
+      <c r="FE57" s="11"/>
+      <c r="FF57" s="11"/>
+      <c r="FG57" s="11"/>
+      <c r="FH57" s="11"/>
+      <c r="FI57" s="11"/>
+      <c r="FJ57" s="11"/>
+      <c r="FK57" s="11"/>
+      <c r="FL57" s="11"/>
+      <c r="FM57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:169">
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="43"/>
@@ -17161,7 +19267,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O58" s="11"/>
@@ -17287,11 +19393,42 @@
       <c r="EE58" s="11"/>
       <c r="EF58" s="11"/>
       <c r="EG58" s="11"/>
-      <c r="EH58" t="s">
+      <c r="EH58" s="11"/>
+      <c r="EI58" s="11"/>
+      <c r="EJ58" s="11"/>
+      <c r="EK58" s="11"/>
+      <c r="EL58" s="11"/>
+      <c r="EM58" s="11"/>
+      <c r="EN58" s="11"/>
+      <c r="EO58" s="11"/>
+      <c r="EP58" s="11"/>
+      <c r="EQ58" s="11"/>
+      <c r="ER58" s="11"/>
+      <c r="ES58" s="11"/>
+      <c r="ET58" s="11"/>
+      <c r="EU58" s="11"/>
+      <c r="EV58" s="11"/>
+      <c r="EW58" s="11"/>
+      <c r="EX58" s="11"/>
+      <c r="EY58" s="11"/>
+      <c r="EZ58" s="11"/>
+      <c r="FA58" s="11"/>
+      <c r="FB58" s="11"/>
+      <c r="FC58" s="11"/>
+      <c r="FD58" s="11"/>
+      <c r="FE58" s="11"/>
+      <c r="FF58" s="11"/>
+      <c r="FG58" s="11"/>
+      <c r="FH58" s="11"/>
+      <c r="FI58" s="11"/>
+      <c r="FJ58" s="11"/>
+      <c r="FK58" s="11"/>
+      <c r="FL58" s="11"/>
+      <c r="FM58" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:169">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="43"/>
@@ -17304,7 +19441,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O59" s="11"/>
@@ -17430,11 +19567,42 @@
       <c r="EE59" s="11"/>
       <c r="EF59" s="11"/>
       <c r="EG59" s="11"/>
-      <c r="EH59" t="s">
+      <c r="EH59" s="11"/>
+      <c r="EI59" s="11"/>
+      <c r="EJ59" s="11"/>
+      <c r="EK59" s="11"/>
+      <c r="EL59" s="11"/>
+      <c r="EM59" s="11"/>
+      <c r="EN59" s="11"/>
+      <c r="EO59" s="11"/>
+      <c r="EP59" s="11"/>
+      <c r="EQ59" s="11"/>
+      <c r="ER59" s="11"/>
+      <c r="ES59" s="11"/>
+      <c r="ET59" s="11"/>
+      <c r="EU59" s="11"/>
+      <c r="EV59" s="11"/>
+      <c r="EW59" s="11"/>
+      <c r="EX59" s="11"/>
+      <c r="EY59" s="11"/>
+      <c r="EZ59" s="11"/>
+      <c r="FA59" s="11"/>
+      <c r="FB59" s="11"/>
+      <c r="FC59" s="11"/>
+      <c r="FD59" s="11"/>
+      <c r="FE59" s="11"/>
+      <c r="FF59" s="11"/>
+      <c r="FG59" s="11"/>
+      <c r="FH59" s="11"/>
+      <c r="FI59" s="11"/>
+      <c r="FJ59" s="11"/>
+      <c r="FK59" s="11"/>
+      <c r="FL59" s="11"/>
+      <c r="FM59" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:169">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="4"/>
@@ -17447,7 +19615,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O60" s="11"/>
@@ -17573,11 +19741,42 @@
       <c r="EE60" s="11"/>
       <c r="EF60" s="11"/>
       <c r="EG60" s="11"/>
-      <c r="EH60" t="s">
+      <c r="EH60" s="11"/>
+      <c r="EI60" s="11"/>
+      <c r="EJ60" s="11"/>
+      <c r="EK60" s="11"/>
+      <c r="EL60" s="11"/>
+      <c r="EM60" s="11"/>
+      <c r="EN60" s="11"/>
+      <c r="EO60" s="11"/>
+      <c r="EP60" s="11"/>
+      <c r="EQ60" s="11"/>
+      <c r="ER60" s="11"/>
+      <c r="ES60" s="11"/>
+      <c r="ET60" s="11"/>
+      <c r="EU60" s="11"/>
+      <c r="EV60" s="11"/>
+      <c r="EW60" s="11"/>
+      <c r="EX60" s="11"/>
+      <c r="EY60" s="11"/>
+      <c r="EZ60" s="11"/>
+      <c r="FA60" s="11"/>
+      <c r="FB60" s="11"/>
+      <c r="FC60" s="11"/>
+      <c r="FD60" s="11"/>
+      <c r="FE60" s="11"/>
+      <c r="FF60" s="11"/>
+      <c r="FG60" s="11"/>
+      <c r="FH60" s="11"/>
+      <c r="FI60" s="11"/>
+      <c r="FJ60" s="11"/>
+      <c r="FK60" s="11"/>
+      <c r="FL60" s="11"/>
+      <c r="FM60" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:169">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="4"/>
@@ -17590,7 +19789,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O61" s="11"/>
@@ -17716,11 +19915,42 @@
       <c r="EE61" s="11"/>
       <c r="EF61" s="11"/>
       <c r="EG61" s="11"/>
-      <c r="EH61" t="s">
+      <c r="EH61" s="11"/>
+      <c r="EI61" s="11"/>
+      <c r="EJ61" s="11"/>
+      <c r="EK61" s="11"/>
+      <c r="EL61" s="11"/>
+      <c r="EM61" s="11"/>
+      <c r="EN61" s="11"/>
+      <c r="EO61" s="11"/>
+      <c r="EP61" s="11"/>
+      <c r="EQ61" s="11"/>
+      <c r="ER61" s="11"/>
+      <c r="ES61" s="11"/>
+      <c r="ET61" s="11"/>
+      <c r="EU61" s="11"/>
+      <c r="EV61" s="11"/>
+      <c r="EW61" s="11"/>
+      <c r="EX61" s="11"/>
+      <c r="EY61" s="11"/>
+      <c r="EZ61" s="11"/>
+      <c r="FA61" s="11"/>
+      <c r="FB61" s="11"/>
+      <c r="FC61" s="11"/>
+      <c r="FD61" s="11"/>
+      <c r="FE61" s="11"/>
+      <c r="FF61" s="11"/>
+      <c r="FG61" s="11"/>
+      <c r="FH61" s="11"/>
+      <c r="FI61" s="11"/>
+      <c r="FJ61" s="11"/>
+      <c r="FK61" s="11"/>
+      <c r="FL61" s="11"/>
+      <c r="FM61" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:169">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="4"/>
@@ -17733,7 +19963,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O62" s="11"/>
@@ -17859,11 +20089,42 @@
       <c r="EE62" s="11"/>
       <c r="EF62" s="11"/>
       <c r="EG62" s="11"/>
-      <c r="EH62" t="s">
+      <c r="EH62" s="11"/>
+      <c r="EI62" s="11"/>
+      <c r="EJ62" s="11"/>
+      <c r="EK62" s="11"/>
+      <c r="EL62" s="11"/>
+      <c r="EM62" s="11"/>
+      <c r="EN62" s="11"/>
+      <c r="EO62" s="11"/>
+      <c r="EP62" s="11"/>
+      <c r="EQ62" s="11"/>
+      <c r="ER62" s="11"/>
+      <c r="ES62" s="11"/>
+      <c r="ET62" s="11"/>
+      <c r="EU62" s="11"/>
+      <c r="EV62" s="11"/>
+      <c r="EW62" s="11"/>
+      <c r="EX62" s="11"/>
+      <c r="EY62" s="11"/>
+      <c r="EZ62" s="11"/>
+      <c r="FA62" s="11"/>
+      <c r="FB62" s="11"/>
+      <c r="FC62" s="11"/>
+      <c r="FD62" s="11"/>
+      <c r="FE62" s="11"/>
+      <c r="FF62" s="11"/>
+      <c r="FG62" s="11"/>
+      <c r="FH62" s="11"/>
+      <c r="FI62" s="11"/>
+      <c r="FJ62" s="11"/>
+      <c r="FK62" s="11"/>
+      <c r="FL62" s="11"/>
+      <c r="FM62" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:169">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="4"/>
@@ -17876,7 +20137,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O63" s="11"/>
@@ -18002,11 +20263,42 @@
       <c r="EE63" s="11"/>
       <c r="EF63" s="11"/>
       <c r="EG63" s="11"/>
-      <c r="EH63" t="s">
+      <c r="EH63" s="11"/>
+      <c r="EI63" s="11"/>
+      <c r="EJ63" s="11"/>
+      <c r="EK63" s="11"/>
+      <c r="EL63" s="11"/>
+      <c r="EM63" s="11"/>
+      <c r="EN63" s="11"/>
+      <c r="EO63" s="11"/>
+      <c r="EP63" s="11"/>
+      <c r="EQ63" s="11"/>
+      <c r="ER63" s="11"/>
+      <c r="ES63" s="11"/>
+      <c r="ET63" s="11"/>
+      <c r="EU63" s="11"/>
+      <c r="EV63" s="11"/>
+      <c r="EW63" s="11"/>
+      <c r="EX63" s="11"/>
+      <c r="EY63" s="11"/>
+      <c r="EZ63" s="11"/>
+      <c r="FA63" s="11"/>
+      <c r="FB63" s="11"/>
+      <c r="FC63" s="11"/>
+      <c r="FD63" s="11"/>
+      <c r="FE63" s="11"/>
+      <c r="FF63" s="11"/>
+      <c r="FG63" s="11"/>
+      <c r="FH63" s="11"/>
+      <c r="FI63" s="11"/>
+      <c r="FJ63" s="11"/>
+      <c r="FK63" s="11"/>
+      <c r="FL63" s="11"/>
+      <c r="FM63" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:169">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="4"/>
@@ -18019,7 +20311,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O64" s="11"/>
@@ -18145,11 +20437,42 @@
       <c r="EE64" s="11"/>
       <c r="EF64" s="11"/>
       <c r="EG64" s="11"/>
-      <c r="EH64" t="s">
+      <c r="EH64" s="11"/>
+      <c r="EI64" s="11"/>
+      <c r="EJ64" s="11"/>
+      <c r="EK64" s="11"/>
+      <c r="EL64" s="11"/>
+      <c r="EM64" s="11"/>
+      <c r="EN64" s="11"/>
+      <c r="EO64" s="11"/>
+      <c r="EP64" s="11"/>
+      <c r="EQ64" s="11"/>
+      <c r="ER64" s="11"/>
+      <c r="ES64" s="11"/>
+      <c r="ET64" s="11"/>
+      <c r="EU64" s="11"/>
+      <c r="EV64" s="11"/>
+      <c r="EW64" s="11"/>
+      <c r="EX64" s="11"/>
+      <c r="EY64" s="11"/>
+      <c r="EZ64" s="11"/>
+      <c r="FA64" s="11"/>
+      <c r="FB64" s="11"/>
+      <c r="FC64" s="11"/>
+      <c r="FD64" s="11"/>
+      <c r="FE64" s="11"/>
+      <c r="FF64" s="11"/>
+      <c r="FG64" s="11"/>
+      <c r="FH64" s="11"/>
+      <c r="FI64" s="11"/>
+      <c r="FJ64" s="11"/>
+      <c r="FK64" s="11"/>
+      <c r="FL64" s="11"/>
+      <c r="FM64" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:169">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
       <c r="D65" s="5"/>
@@ -18162,7 +20485,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="49">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O65" s="12"/>
@@ -18288,542 +20611,697 @@
       <c r="EE65" s="12"/>
       <c r="EF65" s="12"/>
       <c r="EG65" s="12"/>
-      <c r="EH65" t="s">
+      <c r="EH65" s="12"/>
+      <c r="EI65" s="12"/>
+      <c r="EJ65" s="12"/>
+      <c r="EK65" s="12"/>
+      <c r="EL65" s="12"/>
+      <c r="EM65" s="12"/>
+      <c r="EN65" s="12"/>
+      <c r="EO65" s="12"/>
+      <c r="EP65" s="12"/>
+      <c r="EQ65" s="12"/>
+      <c r="ER65" s="12"/>
+      <c r="ES65" s="12"/>
+      <c r="ET65" s="12"/>
+      <c r="EU65" s="12"/>
+      <c r="EV65" s="12"/>
+      <c r="EW65" s="12"/>
+      <c r="EX65" s="12"/>
+      <c r="EY65" s="12"/>
+      <c r="EZ65" s="12"/>
+      <c r="FA65" s="12"/>
+      <c r="FB65" s="12"/>
+      <c r="FC65" s="12"/>
+      <c r="FD65" s="12"/>
+      <c r="FE65" s="12"/>
+      <c r="FF65" s="12"/>
+      <c r="FG65" s="12"/>
+      <c r="FH65" s="12"/>
+      <c r="FI65" s="12"/>
+      <c r="FJ65" s="12"/>
+      <c r="FK65" s="12"/>
+      <c r="FL65" s="12"/>
+      <c r="FM65" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:169">
       <c r="M66" s="45">
-        <f t="shared" si="59"/>
+        <f t="shared" si="91"/>
         <v>193.5</v>
       </c>
       <c r="O66" s="14">
-        <f t="shared" ref="O66:AT66" si="60">SUM(O13:O65)</f>
+        <f t="shared" ref="O66:AT66" si="92">SUM(O13:O65)</f>
         <v>0</v>
       </c>
       <c r="P66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Q66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="R66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="S66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="T66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="U66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="V66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="W66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="X66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Y66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Z66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AA66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AB66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AC66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AD66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AE66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AF66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AG66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AH66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AI66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AJ66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AK66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AL66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AM66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AN66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>16.5</v>
       </c>
       <c r="AO66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>1.5</v>
       </c>
       <c r="AP66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AQ66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>1.5</v>
       </c>
       <c r="AR66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AS66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>1</v>
       </c>
       <c r="AT66" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AU66" s="14">
-        <f t="shared" ref="AU66:BZ66" si="61">SUM(AU13:AU65)</f>
+        <f t="shared" ref="AU66:BZ66" si="93">SUM(AU13:AU65)</f>
         <v>0</v>
       </c>
       <c r="AV66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AW66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AX66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="AY66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>2</v>
       </c>
       <c r="AZ66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>13</v>
       </c>
       <c r="BA66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>3.5</v>
       </c>
       <c r="BB66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BC66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BD66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BE66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BF66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>10.5</v>
       </c>
       <c r="BG66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>6</v>
       </c>
       <c r="BH66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>7</v>
       </c>
       <c r="BI66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0.5</v>
       </c>
       <c r="BJ66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="BK66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BL66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BM66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>6</v>
       </c>
       <c r="BN66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BO66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BP66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>2</v>
       </c>
       <c r="BQ66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="BR66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="BS66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="BT66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BU66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>2</v>
       </c>
       <c r="BV66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>12</v>
       </c>
       <c r="BW66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BX66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BY66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>1.5</v>
       </c>
       <c r="BZ66" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="CA66" s="14">
-        <f t="shared" ref="CA66:DC66" si="62">SUM(CA13:CA65)</f>
+        <f t="shared" ref="CA66:DC66" si="94">SUM(CA13:CA65)</f>
         <v>8.5</v>
       </c>
       <c r="CB66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CC66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0.5</v>
       </c>
       <c r="CD66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CE66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CF66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CG66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CH66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CI66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CJ66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CK66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CL66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CM66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>2</v>
       </c>
       <c r="CN66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>2.5</v>
       </c>
       <c r="CO66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>8</v>
       </c>
       <c r="CP66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>7</v>
       </c>
       <c r="CQ66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CR66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CS66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CT66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CU66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CV66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>3.5</v>
       </c>
       <c r="CW66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CX66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="CY66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>1.5</v>
       </c>
       <c r="CZ66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
       <c r="DA66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>1.5</v>
       </c>
       <c r="DB66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>6</v>
       </c>
       <c r="DC66" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>3</v>
       </c>
       <c r="DD66" s="14">
-        <f t="shared" ref="DD66:DF66" si="63">SUM(DD13:DD65)</f>
+        <f t="shared" ref="DD66:DF66" si="95">SUM(DD13:DD65)</f>
         <v>7.5</v>
       </c>
       <c r="DE66" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="DF66" s="14">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="DG66" s="14">
-        <f t="shared" ref="DG66:EB66" si="64">SUM(DG13:DG65)</f>
+        <f t="shared" ref="DG66:EB66" si="96">SUM(DG13:DG65)</f>
         <v>0</v>
       </c>
       <c r="DH66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="DI66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="DJ66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="DK66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="DL66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>1.5</v>
       </c>
       <c r="DM66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>8</v>
       </c>
       <c r="DN66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="DO66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="DP66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>2</v>
       </c>
       <c r="DQ66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>5.5</v>
       </c>
       <c r="DR66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="DS66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="DT66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="DU66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="DV66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="DW66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="DX66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>5.5</v>
       </c>
       <c r="DY66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>1.5</v>
       </c>
       <c r="DZ66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>7.5</v>
       </c>
       <c r="EA66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="EB66" s="14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="EC66" s="14">
-        <f t="shared" ref="EC66:EF66" si="65">SUM(EC13:EC65)</f>
+        <f t="shared" ref="EC66:EF66" si="97">SUM(EC13:EC65)</f>
         <v>0</v>
       </c>
       <c r="ED66" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
       <c r="EE66" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>10</v>
       </c>
       <c r="EF66" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>4</v>
       </c>
       <c r="EG66" s="14">
-        <f t="shared" ref="EG66" si="66">SUM(EG13:EG65)</f>
+        <f t="shared" ref="EG66:FI66" si="98">SUM(EG13:EG65)</f>
+        <v>2</v>
+      </c>
+      <c r="EH66" s="14">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="EH66" t="s">
+      <c r="EI66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="EJ66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="EK66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="EL66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="EM66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="EN66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="EO66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="EP66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="EQ66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="ER66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="ES66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="ET66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="EU66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="EV66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="EW66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="EX66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="EY66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="EZ66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="FA66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="FB66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="FC66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="FD66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="FE66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="FF66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="FG66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="FH66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="FI66" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="FJ66" s="14">
+        <f t="shared" ref="FJ66:FL66" si="99">SUM(FJ13:FJ65)</f>
+        <v>0</v>
+      </c>
+      <c r="FK66" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="FL66" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="FM66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:169">
       <c r="O67" s="8">
         <v>6</v>
       </c>
-      <c r="EH67" t="s">
+      <c r="FM67" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:169">
       <c r="E68" s="15"/>
       <c r="I68" s="8">
         <v>1.5</v>
       </c>
-      <c r="EH68" t="s">
+      <c r="FM68" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:169">
       <c r="I69" s="8">
         <v>1</v>
       </c>
-      <c r="EH69" t="s">
+      <c r="FM69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:169">
       <c r="I70" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:169">
       <c r="O73" s="8">
         <v>6</v>
       </c>
@@ -18834,7 +21312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:138" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:169">
       <c r="O74" s="8">
         <v>10</v>
       </c>
@@ -18845,7 +21323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="15:137" x14ac:dyDescent="0.2">
+    <row r="81" spans="15:168">
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
@@ -18969,8 +21447,39 @@
       <c r="EE81"/>
       <c r="EF81"/>
       <c r="EG81"/>
-    </row>
-    <row r="84" spans="15:137" x14ac:dyDescent="0.2">
+      <c r="EH81"/>
+      <c r="EI81"/>
+      <c r="EJ81"/>
+      <c r="EK81"/>
+      <c r="EL81"/>
+      <c r="EM81"/>
+      <c r="EN81"/>
+      <c r="EO81"/>
+      <c r="EP81"/>
+      <c r="EQ81"/>
+      <c r="ER81"/>
+      <c r="ES81"/>
+      <c r="ET81"/>
+      <c r="EU81"/>
+      <c r="EV81"/>
+      <c r="EW81"/>
+      <c r="EX81"/>
+      <c r="EY81"/>
+      <c r="EZ81"/>
+      <c r="FA81"/>
+      <c r="FB81"/>
+      <c r="FC81"/>
+      <c r="FD81"/>
+      <c r="FE81"/>
+      <c r="FF81"/>
+      <c r="FG81"/>
+      <c r="FH81"/>
+      <c r="FI81"/>
+      <c r="FJ81"/>
+      <c r="FK81"/>
+      <c r="FL81"/>
+    </row>
+    <row r="84" spans="15:168">
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
@@ -19094,8 +21603,39 @@
       <c r="EE84"/>
       <c r="EF84"/>
       <c r="EG84"/>
-    </row>
-    <row r="85" spans="15:137" x14ac:dyDescent="0.2">
+      <c r="EH84"/>
+      <c r="EI84"/>
+      <c r="EJ84"/>
+      <c r="EK84"/>
+      <c r="EL84"/>
+      <c r="EM84"/>
+      <c r="EN84"/>
+      <c r="EO84"/>
+      <c r="EP84"/>
+      <c r="EQ84"/>
+      <c r="ER84"/>
+      <c r="ES84"/>
+      <c r="ET84"/>
+      <c r="EU84"/>
+      <c r="EV84"/>
+      <c r="EW84"/>
+      <c r="EX84"/>
+      <c r="EY84"/>
+      <c r="EZ84"/>
+      <c r="FA84"/>
+      <c r="FB84"/>
+      <c r="FC84"/>
+      <c r="FD84"/>
+      <c r="FE84"/>
+      <c r="FF84"/>
+      <c r="FG84"/>
+      <c r="FH84"/>
+      <c r="FI84"/>
+      <c r="FJ84"/>
+      <c r="FK84"/>
+      <c r="FL84"/>
+    </row>
+    <row r="85" spans="15:168">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -19219,8 +21759,39 @@
       <c r="EE85"/>
       <c r="EF85"/>
       <c r="EG85"/>
-    </row>
-    <row r="86" spans="15:137" x14ac:dyDescent="0.2">
+      <c r="EH85"/>
+      <c r="EI85"/>
+      <c r="EJ85"/>
+      <c r="EK85"/>
+      <c r="EL85"/>
+      <c r="EM85"/>
+      <c r="EN85"/>
+      <c r="EO85"/>
+      <c r="EP85"/>
+      <c r="EQ85"/>
+      <c r="ER85"/>
+      <c r="ES85"/>
+      <c r="ET85"/>
+      <c r="EU85"/>
+      <c r="EV85"/>
+      <c r="EW85"/>
+      <c r="EX85"/>
+      <c r="EY85"/>
+      <c r="EZ85"/>
+      <c r="FA85"/>
+      <c r="FB85"/>
+      <c r="FC85"/>
+      <c r="FD85"/>
+      <c r="FE85"/>
+      <c r="FF85"/>
+      <c r="FG85"/>
+      <c r="FH85"/>
+      <c r="FI85"/>
+      <c r="FJ85"/>
+      <c r="FK85"/>
+      <c r="FL85"/>
+    </row>
+    <row r="86" spans="15:168">
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
@@ -19344,8 +21915,39 @@
       <c r="EE86"/>
       <c r="EF86"/>
       <c r="EG86"/>
-    </row>
-    <row r="87" spans="15:137" x14ac:dyDescent="0.2">
+      <c r="EH86"/>
+      <c r="EI86"/>
+      <c r="EJ86"/>
+      <c r="EK86"/>
+      <c r="EL86"/>
+      <c r="EM86"/>
+      <c r="EN86"/>
+      <c r="EO86"/>
+      <c r="EP86"/>
+      <c r="EQ86"/>
+      <c r="ER86"/>
+      <c r="ES86"/>
+      <c r="ET86"/>
+      <c r="EU86"/>
+      <c r="EV86"/>
+      <c r="EW86"/>
+      <c r="EX86"/>
+      <c r="EY86"/>
+      <c r="EZ86"/>
+      <c r="FA86"/>
+      <c r="FB86"/>
+      <c r="FC86"/>
+      <c r="FD86"/>
+      <c r="FE86"/>
+      <c r="FF86"/>
+      <c r="FG86"/>
+      <c r="FH86"/>
+      <c r="FI86"/>
+      <c r="FJ86"/>
+      <c r="FK86"/>
+      <c r="FL86"/>
+    </row>
+    <row r="87" spans="15:168">
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
@@ -19469,8 +22071,39 @@
       <c r="EE87"/>
       <c r="EF87"/>
       <c r="EG87"/>
-    </row>
-    <row r="88" spans="15:137" x14ac:dyDescent="0.2">
+      <c r="EH87"/>
+      <c r="EI87"/>
+      <c r="EJ87"/>
+      <c r="EK87"/>
+      <c r="EL87"/>
+      <c r="EM87"/>
+      <c r="EN87"/>
+      <c r="EO87"/>
+      <c r="EP87"/>
+      <c r="EQ87"/>
+      <c r="ER87"/>
+      <c r="ES87"/>
+      <c r="ET87"/>
+      <c r="EU87"/>
+      <c r="EV87"/>
+      <c r="EW87"/>
+      <c r="EX87"/>
+      <c r="EY87"/>
+      <c r="EZ87"/>
+      <c r="FA87"/>
+      <c r="FB87"/>
+      <c r="FC87"/>
+      <c r="FD87"/>
+      <c r="FE87"/>
+      <c r="FF87"/>
+      <c r="FG87"/>
+      <c r="FH87"/>
+      <c r="FI87"/>
+      <c r="FJ87"/>
+      <c r="FK87"/>
+      <c r="FL87"/>
+    </row>
+    <row r="88" spans="15:168">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -19594,8 +22227,39 @@
       <c r="EE88"/>
       <c r="EF88"/>
       <c r="EG88"/>
-    </row>
-    <row r="89" spans="15:137" x14ac:dyDescent="0.2">
+      <c r="EH88"/>
+      <c r="EI88"/>
+      <c r="EJ88"/>
+      <c r="EK88"/>
+      <c r="EL88"/>
+      <c r="EM88"/>
+      <c r="EN88"/>
+      <c r="EO88"/>
+      <c r="EP88"/>
+      <c r="EQ88"/>
+      <c r="ER88"/>
+      <c r="ES88"/>
+      <c r="ET88"/>
+      <c r="EU88"/>
+      <c r="EV88"/>
+      <c r="EW88"/>
+      <c r="EX88"/>
+      <c r="EY88"/>
+      <c r="EZ88"/>
+      <c r="FA88"/>
+      <c r="FB88"/>
+      <c r="FC88"/>
+      <c r="FD88"/>
+      <c r="FE88"/>
+      <c r="FF88"/>
+      <c r="FG88"/>
+      <c r="FH88"/>
+      <c r="FI88"/>
+      <c r="FJ88"/>
+      <c r="FK88"/>
+      <c r="FL88"/>
+    </row>
+    <row r="89" spans="15:168">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -19719,8 +22383,39 @@
       <c r="EE89"/>
       <c r="EF89"/>
       <c r="EG89"/>
-    </row>
-    <row r="90" spans="15:137" x14ac:dyDescent="0.2">
+      <c r="EH89"/>
+      <c r="EI89"/>
+      <c r="EJ89"/>
+      <c r="EK89"/>
+      <c r="EL89"/>
+      <c r="EM89"/>
+      <c r="EN89"/>
+      <c r="EO89"/>
+      <c r="EP89"/>
+      <c r="EQ89"/>
+      <c r="ER89"/>
+      <c r="ES89"/>
+      <c r="ET89"/>
+      <c r="EU89"/>
+      <c r="EV89"/>
+      <c r="EW89"/>
+      <c r="EX89"/>
+      <c r="EY89"/>
+      <c r="EZ89"/>
+      <c r="FA89"/>
+      <c r="FB89"/>
+      <c r="FC89"/>
+      <c r="FD89"/>
+      <c r="FE89"/>
+      <c r="FF89"/>
+      <c r="FG89"/>
+      <c r="FH89"/>
+      <c r="FI89"/>
+      <c r="FJ89"/>
+      <c r="FK89"/>
+      <c r="FL89"/>
+    </row>
+    <row r="90" spans="15:168">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -19844,8 +22539,39 @@
       <c r="EE90"/>
       <c r="EF90"/>
       <c r="EG90"/>
-    </row>
-    <row r="91" spans="15:137" x14ac:dyDescent="0.2">
+      <c r="EH90"/>
+      <c r="EI90"/>
+      <c r="EJ90"/>
+      <c r="EK90"/>
+      <c r="EL90"/>
+      <c r="EM90"/>
+      <c r="EN90"/>
+      <c r="EO90"/>
+      <c r="EP90"/>
+      <c r="EQ90"/>
+      <c r="ER90"/>
+      <c r="ES90"/>
+      <c r="ET90"/>
+      <c r="EU90"/>
+      <c r="EV90"/>
+      <c r="EW90"/>
+      <c r="EX90"/>
+      <c r="EY90"/>
+      <c r="EZ90"/>
+      <c r="FA90"/>
+      <c r="FB90"/>
+      <c r="FC90"/>
+      <c r="FD90"/>
+      <c r="FE90"/>
+      <c r="FF90"/>
+      <c r="FG90"/>
+      <c r="FH90"/>
+      <c r="FI90"/>
+      <c r="FJ90"/>
+      <c r="FK90"/>
+      <c r="FL90"/>
+    </row>
+    <row r="91" spans="15:168">
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -19969,8 +22695,39 @@
       <c r="EE91"/>
       <c r="EF91"/>
       <c r="EG91"/>
-    </row>
-    <row r="93" spans="15:137" x14ac:dyDescent="0.2">
+      <c r="EH91"/>
+      <c r="EI91"/>
+      <c r="EJ91"/>
+      <c r="EK91"/>
+      <c r="EL91"/>
+      <c r="EM91"/>
+      <c r="EN91"/>
+      <c r="EO91"/>
+      <c r="EP91"/>
+      <c r="EQ91"/>
+      <c r="ER91"/>
+      <c r="ES91"/>
+      <c r="ET91"/>
+      <c r="EU91"/>
+      <c r="EV91"/>
+      <c r="EW91"/>
+      <c r="EX91"/>
+      <c r="EY91"/>
+      <c r="EZ91"/>
+      <c r="FA91"/>
+      <c r="FB91"/>
+      <c r="FC91"/>
+      <c r="FD91"/>
+      <c r="FE91"/>
+      <c r="FF91"/>
+      <c r="FG91"/>
+      <c r="FH91"/>
+      <c r="FI91"/>
+      <c r="FJ91"/>
+      <c r="FK91"/>
+      <c r="FL91"/>
+    </row>
+    <row r="93" spans="15:168">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -20094,8 +22851,39 @@
       <c r="EE93"/>
       <c r="EF93"/>
       <c r="EG93"/>
-    </row>
-    <row r="94" spans="15:137" x14ac:dyDescent="0.2">
+      <c r="EH93"/>
+      <c r="EI93"/>
+      <c r="EJ93"/>
+      <c r="EK93"/>
+      <c r="EL93"/>
+      <c r="EM93"/>
+      <c r="EN93"/>
+      <c r="EO93"/>
+      <c r="EP93"/>
+      <c r="EQ93"/>
+      <c r="ER93"/>
+      <c r="ES93"/>
+      <c r="ET93"/>
+      <c r="EU93"/>
+      <c r="EV93"/>
+      <c r="EW93"/>
+      <c r="EX93"/>
+      <c r="EY93"/>
+      <c r="EZ93"/>
+      <c r="FA93"/>
+      <c r="FB93"/>
+      <c r="FC93"/>
+      <c r="FD93"/>
+      <c r="FE93"/>
+      <c r="FF93"/>
+      <c r="FG93"/>
+      <c r="FH93"/>
+      <c r="FI93"/>
+      <c r="FJ93"/>
+      <c r="FK93"/>
+      <c r="FL93"/>
+    </row>
+    <row r="94" spans="15:168">
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
@@ -20219,9 +23007,40 @@
       <c r="EE94"/>
       <c r="EF94"/>
       <c r="EG94"/>
+      <c r="EH94"/>
+      <c r="EI94"/>
+      <c r="EJ94"/>
+      <c r="EK94"/>
+      <c r="EL94"/>
+      <c r="EM94"/>
+      <c r="EN94"/>
+      <c r="EO94"/>
+      <c r="EP94"/>
+      <c r="EQ94"/>
+      <c r="ER94"/>
+      <c r="ES94"/>
+      <c r="ET94"/>
+      <c r="EU94"/>
+      <c r="EV94"/>
+      <c r="EW94"/>
+      <c r="EX94"/>
+      <c r="EY94"/>
+      <c r="EZ94"/>
+      <c r="FA94"/>
+      <c r="FB94"/>
+      <c r="FC94"/>
+      <c r="FD94"/>
+      <c r="FE94"/>
+      <c r="FF94"/>
+      <c r="FG94"/>
+      <c r="FH94"/>
+      <c r="FI94"/>
+      <c r="FJ94"/>
+      <c r="FK94"/>
+      <c r="FL94"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:EK14" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="B12:FP14">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -20229,487 +23048,519 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="O64:BN65 O11:BF12 O47:DC49 O26:DC27 O13:DC19 O41:DC44 O21:DC22 EC11:EF65">
-    <cfRule type="expression" dxfId="173" priority="206">
+    <cfRule type="expression" dxfId="185" priority="214">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="207">
+    <cfRule type="expression" dxfId="184" priority="215">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="208">
+    <cfRule type="expression" dxfId="183" priority="216">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:BF11 EC11:EF11">
-    <cfRule type="expression" dxfId="170" priority="205">
+    <cfRule type="expression" dxfId="182" priority="213">
       <formula>O$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:BN63">
-    <cfRule type="expression" dxfId="169" priority="202">
+    <cfRule type="expression" dxfId="181" priority="210">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="203">
+    <cfRule type="expression" dxfId="180" priority="211">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="204">
+    <cfRule type="expression" dxfId="179" priority="212">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO64:DC65">
-    <cfRule type="expression" dxfId="166" priority="199">
+    <cfRule type="expression" dxfId="178" priority="207">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="200">
+    <cfRule type="expression" dxfId="177" priority="208">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="201">
+    <cfRule type="expression" dxfId="176" priority="209">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO50:DC63">
-    <cfRule type="expression" dxfId="163" priority="195">
+    <cfRule type="expression" dxfId="175" priority="203">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="196">
+    <cfRule type="expression" dxfId="174" priority="204">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="197">
+    <cfRule type="expression" dxfId="173" priority="205">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DB12">
-    <cfRule type="expression" dxfId="160" priority="192">
+    <cfRule type="expression" dxfId="172" priority="200">
       <formula>BG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="193">
+    <cfRule type="expression" dxfId="171" priority="201">
       <formula>BG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="194">
+    <cfRule type="expression" dxfId="170" priority="202">
       <formula>BG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DB11">
-    <cfRule type="expression" dxfId="157" priority="191">
+    <cfRule type="expression" dxfId="169" priority="199">
       <formula>BG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45:DC45">
-    <cfRule type="expression" dxfId="156" priority="187">
+    <cfRule type="expression" dxfId="168" priority="195">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="188">
+    <cfRule type="expression" dxfId="167" priority="196">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="189">
+    <cfRule type="expression" dxfId="166" priority="197">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O46:AM46 AP46:DC46">
-    <cfRule type="expression" dxfId="153" priority="180">
+    <cfRule type="expression" dxfId="165" priority="188">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="181">
+    <cfRule type="expression" dxfId="164" priority="189">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="182">
+    <cfRule type="expression" dxfId="163" priority="190">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:DC25">
-    <cfRule type="expression" dxfId="150" priority="169">
+    <cfRule type="expression" dxfId="162" priority="177">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="170">
+    <cfRule type="expression" dxfId="161" priority="178">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="171">
+    <cfRule type="expression" dxfId="160" priority="179">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40:DC40">
-    <cfRule type="expression" dxfId="147" priority="165">
+    <cfRule type="expression" dxfId="159" priority="173">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="166">
+    <cfRule type="expression" dxfId="158" priority="174">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="167">
+    <cfRule type="expression" dxfId="157" priority="175">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:DC38">
-    <cfRule type="expression" dxfId="144" priority="161">
+    <cfRule type="expression" dxfId="156" priority="169">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="162">
+    <cfRule type="expression" dxfId="155" priority="170">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="163">
+    <cfRule type="expression" dxfId="154" priority="171">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO46">
-    <cfRule type="expression" dxfId="141" priority="148">
+    <cfRule type="expression" dxfId="153" priority="156">
       <formula>AO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="149">
+    <cfRule type="expression" dxfId="152" priority="157">
       <formula>AO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="150">
+    <cfRule type="expression" dxfId="151" priority="158">
       <formula>AO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:DC23">
-    <cfRule type="expression" dxfId="138" priority="145">
+    <cfRule type="expression" dxfId="150" priority="153">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="146">
+    <cfRule type="expression" dxfId="149" priority="154">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="147">
+    <cfRule type="expression" dxfId="148" priority="155">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN46">
-    <cfRule type="expression" dxfId="135" priority="141">
+    <cfRule type="expression" dxfId="147" priority="149">
       <formula>AN$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="142">
+    <cfRule type="expression" dxfId="146" priority="150">
       <formula>AN$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="143">
+    <cfRule type="expression" dxfId="145" priority="151">
       <formula>AN$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:DC20">
-    <cfRule type="expression" dxfId="132" priority="138">
+    <cfRule type="expression" dxfId="144" priority="146">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="139">
+    <cfRule type="expression" dxfId="143" priority="147">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="140">
+    <cfRule type="expression" dxfId="142" priority="148">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:DC24">
-    <cfRule type="expression" dxfId="129" priority="134">
+    <cfRule type="expression" dxfId="141" priority="142">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="135">
+    <cfRule type="expression" dxfId="140" priority="143">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="136">
+    <cfRule type="expression" dxfId="139" priority="144">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39:DC39">
-    <cfRule type="expression" dxfId="126" priority="129">
+    <cfRule type="expression" dxfId="138" priority="137">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="130">
+    <cfRule type="expression" dxfId="137" priority="138">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="131">
+    <cfRule type="expression" dxfId="136" priority="139">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:M65">
-    <cfRule type="expression" dxfId="123" priority="120">
+    <cfRule type="expression" dxfId="135" priority="128">
       <formula>$J13="対応中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="190">
+    <cfRule type="expression" dxfId="134" priority="198">
       <formula>$J13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD64:DF65 DD21:DF22 DD41:DF44 DD13:DF19 DD26:DF27 DD47:DF49">
-    <cfRule type="expression" dxfId="121" priority="117">
+    <cfRule type="expression" dxfId="133" priority="125">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="118">
+    <cfRule type="expression" dxfId="132" priority="126">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="119">
+    <cfRule type="expression" dxfId="131" priority="127">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD50:DF63">
-    <cfRule type="expression" dxfId="118" priority="114">
+    <cfRule type="expression" dxfId="130" priority="122">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="115">
+    <cfRule type="expression" dxfId="129" priority="123">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="116">
+    <cfRule type="expression" dxfId="128" priority="124">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD45:DF45">
-    <cfRule type="expression" dxfId="115" priority="107">
+    <cfRule type="expression" dxfId="127" priority="115">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="108">
+    <cfRule type="expression" dxfId="126" priority="116">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="109">
+    <cfRule type="expression" dxfId="125" priority="117">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD46:DF46">
-    <cfRule type="expression" dxfId="112" priority="104">
+    <cfRule type="expression" dxfId="124" priority="112">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="105">
+    <cfRule type="expression" dxfId="123" priority="113">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="106">
+    <cfRule type="expression" dxfId="122" priority="114">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD25:DF25">
-    <cfRule type="expression" dxfId="109" priority="101">
+    <cfRule type="expression" dxfId="121" priority="109">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="102">
+    <cfRule type="expression" dxfId="120" priority="110">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="103">
+    <cfRule type="expression" dxfId="119" priority="111">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD40:DF40">
-    <cfRule type="expression" dxfId="106" priority="98">
+    <cfRule type="expression" dxfId="118" priority="106">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="99">
+    <cfRule type="expression" dxfId="117" priority="107">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="100">
+    <cfRule type="expression" dxfId="116" priority="108">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD28:DF38">
-    <cfRule type="expression" dxfId="103" priority="95">
+    <cfRule type="expression" dxfId="115" priority="103">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="96">
+    <cfRule type="expression" dxfId="114" priority="104">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="97">
+    <cfRule type="expression" dxfId="113" priority="105">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD23:DF23">
-    <cfRule type="expression" dxfId="100" priority="92">
+    <cfRule type="expression" dxfId="112" priority="100">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="93">
+    <cfRule type="expression" dxfId="111" priority="101">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="94">
+    <cfRule type="expression" dxfId="110" priority="102">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD20:DF20">
-    <cfRule type="expression" dxfId="97" priority="89">
+    <cfRule type="expression" dxfId="109" priority="97">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="90">
+    <cfRule type="expression" dxfId="108" priority="98">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="91">
+    <cfRule type="expression" dxfId="107" priority="99">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD24:DF24">
-    <cfRule type="expression" dxfId="94" priority="86">
+    <cfRule type="expression" dxfId="106" priority="94">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="87">
+    <cfRule type="expression" dxfId="105" priority="95">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="88">
+    <cfRule type="expression" dxfId="104" priority="96">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD39:DF39">
-    <cfRule type="expression" dxfId="91" priority="83">
+    <cfRule type="expression" dxfId="103" priority="91">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="84">
+    <cfRule type="expression" dxfId="102" priority="92">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="85">
+    <cfRule type="expression" dxfId="101" priority="93">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC11:DF12">
-    <cfRule type="expression" dxfId="88" priority="80">
+    <cfRule type="expression" dxfId="100" priority="88">
       <formula>DC$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="81">
+    <cfRule type="expression" dxfId="99" priority="89">
       <formula>DC$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="82">
+    <cfRule type="expression" dxfId="98" priority="90">
       <formula>DC$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC11:DF11">
-    <cfRule type="expression" dxfId="85" priority="79">
+    <cfRule type="expression" dxfId="97" priority="87">
       <formula>DC$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG64:EB65 DG21:EB22 DG41:EB44 DG13:EB19 DG26:EB27 DG47:EB49">
-    <cfRule type="expression" dxfId="84" priority="76">
+    <cfRule type="expression" dxfId="96" priority="84">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="77">
+    <cfRule type="expression" dxfId="95" priority="85">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="78">
+    <cfRule type="expression" dxfId="94" priority="86">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG50:EB63">
-    <cfRule type="expression" dxfId="81" priority="73">
+    <cfRule type="expression" dxfId="93" priority="81">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="74">
+    <cfRule type="expression" dxfId="92" priority="82">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="75">
+    <cfRule type="expression" dxfId="91" priority="83">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG45:EB45">
-    <cfRule type="expression" dxfId="78" priority="70">
+    <cfRule type="expression" dxfId="90" priority="78">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="71">
+    <cfRule type="expression" dxfId="89" priority="79">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="72">
+    <cfRule type="expression" dxfId="88" priority="80">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG46:EB46">
-    <cfRule type="expression" dxfId="75" priority="67">
+    <cfRule type="expression" dxfId="87" priority="75">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="68">
+    <cfRule type="expression" dxfId="86" priority="76">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="69">
+    <cfRule type="expression" dxfId="85" priority="77">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG25:EB25">
-    <cfRule type="expression" dxfId="72" priority="64">
+    <cfRule type="expression" dxfId="84" priority="72">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="65">
+    <cfRule type="expression" dxfId="83" priority="73">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="66">
+    <cfRule type="expression" dxfId="82" priority="74">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG40:EB40">
-    <cfRule type="expression" dxfId="69" priority="61">
+    <cfRule type="expression" dxfId="81" priority="69">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="62">
+    <cfRule type="expression" dxfId="80" priority="70">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="63">
+    <cfRule type="expression" dxfId="79" priority="71">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG28:EB38">
-    <cfRule type="expression" dxfId="66" priority="58">
+    <cfRule type="expression" dxfId="78" priority="66">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="59">
+    <cfRule type="expression" dxfId="77" priority="67">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="60">
+    <cfRule type="expression" dxfId="76" priority="68">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG23:EB23">
-    <cfRule type="expression" dxfId="63" priority="55">
+    <cfRule type="expression" dxfId="75" priority="63">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="56">
+    <cfRule type="expression" dxfId="74" priority="64">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="57">
+    <cfRule type="expression" dxfId="73" priority="65">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG20:EB20">
-    <cfRule type="expression" dxfId="60" priority="52">
+    <cfRule type="expression" dxfId="72" priority="60">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="53">
+    <cfRule type="expression" dxfId="71" priority="61">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="54">
+    <cfRule type="expression" dxfId="70" priority="62">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG24:EB24">
-    <cfRule type="expression" dxfId="57" priority="49">
+    <cfRule type="expression" dxfId="69" priority="57">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="50">
+    <cfRule type="expression" dxfId="68" priority="58">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="51">
+    <cfRule type="expression" dxfId="67" priority="59">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG39:EB39">
-    <cfRule type="expression" dxfId="54" priority="46">
+    <cfRule type="expression" dxfId="66" priority="54">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="47">
+    <cfRule type="expression" dxfId="65" priority="55">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="48">
+    <cfRule type="expression" dxfId="64" priority="56">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG11:EB12">
-    <cfRule type="expression" dxfId="51" priority="43">
+    <cfRule type="expression" dxfId="63" priority="51">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="44">
+    <cfRule type="expression" dxfId="62" priority="52">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="45">
+    <cfRule type="expression" dxfId="61" priority="53">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG11:EB11">
-    <cfRule type="expression" dxfId="48" priority="42">
+    <cfRule type="expression" dxfId="60" priority="50">
       <formula>DG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG11:EG65">
-    <cfRule type="expression" dxfId="47" priority="2">
+    <cfRule type="expression" dxfId="59" priority="10">
       <formula>EG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="3">
+    <cfRule type="expression" dxfId="58" priority="11">
       <formula>EG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="57" priority="12">
       <formula>EG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG11">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="56" priority="9">
       <formula>EG$11=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EH11:FI65">
+    <cfRule type="expression" dxfId="55" priority="6">
+      <formula>EH$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="7">
+      <formula>EH$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="8">
+      <formula>EH$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EH11:FI11">
+    <cfRule type="expression" dxfId="52" priority="5">
+      <formula>EH$11=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FJ11:FL65">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>FJ$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>FJ$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>FJ$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FJ11:FL11">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>FJ$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20718,7 +23569,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -20731,7 +23582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M56"/>
   <sheetViews>
@@ -20743,24 +23594,24 @@
       <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" customWidth="1"/>
-    <col min="3" max="3" width="44.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.6328125" customWidth="1"/>
-    <col min="12" max="12" width="62.08984375" customWidth="1"/>
-    <col min="13" max="13" width="61.7265625" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.625" customWidth="1"/>
+    <col min="12" max="12" width="62.125" customWidth="1"/>
+    <col min="13" max="13" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
@@ -20768,21 +23619,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13">
       <c r="C4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>1</v>
       </c>
@@ -20831,7 +23682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1">
       <c r="B7" s="59" t="s">
         <v>199</v>
       </c>
@@ -20869,7 +23720,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" hidden="1">
       <c r="B8" s="63">
         <v>1</v>
       </c>
@@ -20901,7 +23752,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1">
       <c r="B9" s="63">
         <v>2</v>
       </c>
@@ -20933,7 +23784,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" hidden="1">
       <c r="B10" s="63">
         <v>3</v>
       </c>
@@ -20965,7 +23816,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" hidden="1">
       <c r="B11" s="63">
         <v>4</v>
       </c>
@@ -20997,7 +23848,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" ht="27" hidden="1">
       <c r="B12" s="63">
         <v>5</v>
       </c>
@@ -21033,7 +23884,7 @@
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" ht="156" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="148.5" hidden="1">
       <c r="B13" s="63">
         <v>6</v>
       </c>
@@ -21069,7 +23920,7 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="94.5" hidden="1">
       <c r="B14" s="63">
         <v>7</v>
       </c>
@@ -21103,7 +23954,7 @@
       </c>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="108" hidden="1">
       <c r="B15" s="63">
         <v>8</v>
       </c>
@@ -21139,7 +23990,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" hidden="1">
       <c r="B16" s="63">
         <v>9</v>
       </c>
@@ -21171,7 +24022,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" hidden="1">
       <c r="B17" s="63">
         <v>10</v>
       </c>
@@ -21203,7 +24054,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" hidden="1">
       <c r="B18" s="63">
         <v>11</v>
       </c>
@@ -21239,7 +24090,7 @@
       </c>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" ht="91" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" ht="94.5">
       <c r="B19" s="63">
         <v>12</v>
       </c>
@@ -21273,7 +24124,7 @@
       </c>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" ht="67.5" hidden="1">
       <c r="B20" s="63">
         <v>13</v>
       </c>
@@ -21311,7 +24162,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="130" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" ht="135" hidden="1">
       <c r="B21" s="63">
         <v>14</v>
       </c>
@@ -21345,7 +24196,7 @@
       </c>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" ht="78" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="81" hidden="1">
       <c r="B22" s="63">
         <v>15</v>
       </c>
@@ -21381,7 +24232,7 @@
       </c>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1">
       <c r="B23" s="63">
         <v>16</v>
       </c>
@@ -21415,7 +24266,7 @@
       </c>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1">
       <c r="B24" s="63">
         <v>17</v>
       </c>
@@ -21451,7 +24302,7 @@
       </c>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1">
       <c r="B25" s="63">
         <v>18</v>
       </c>
@@ -21487,7 +24338,7 @@
       </c>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" ht="104" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" ht="108" hidden="1">
       <c r="B26" s="63">
         <v>19</v>
       </c>
@@ -21519,7 +24370,7 @@
       <c r="L26" s="75"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" ht="65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" ht="67.5" hidden="1">
       <c r="B27" s="63">
         <v>20</v>
       </c>
@@ -21555,7 +24406,7 @@
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" ht="247" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" ht="256.5" hidden="1">
       <c r="B28" s="63">
         <v>21</v>
       </c>
@@ -21585,7 +24436,7 @@
       <c r="L28" s="75"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" ht="67.5">
       <c r="B29" s="63">
         <v>22</v>
       </c>
@@ -21619,7 +24470,7 @@
       </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B30" s="63">
         <v>23</v>
       </c>
@@ -21655,7 +24506,7 @@
       </c>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B31" s="63">
         <v>24</v>
       </c>
@@ -21689,7 +24540,7 @@
       </c>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B32" s="63">
         <v>25</v>
       </c>
@@ -21723,7 +24574,7 @@
       </c>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" ht="26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" hidden="1">
       <c r="B33" s="63">
         <v>26</v>
       </c>
@@ -21755,7 +24606,7 @@
       <c r="L33" s="75"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" ht="121.5" customHeight="1">
       <c r="B34" s="63"/>
       <c r="C34" s="21"/>
       <c r="D34" s="76"/>
@@ -21769,7 +24620,7 @@
       <c r="L34" s="75"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1">
       <c r="B35" s="63"/>
       <c r="C35" s="21"/>
       <c r="D35" s="76"/>
@@ -21783,7 +24634,7 @@
       <c r="L35" s="75"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1">
       <c r="B36" s="63"/>
       <c r="C36" s="21"/>
       <c r="D36" s="76"/>
@@ -21797,7 +24648,7 @@
       <c r="L36" s="75"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" ht="121.5" customHeight="1">
       <c r="B37" s="63"/>
       <c r="C37" s="21"/>
       <c r="D37" s="76"/>
@@ -21811,7 +24662,7 @@
       <c r="L37" s="75"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13">
       <c r="B38" s="63"/>
       <c r="C38" s="21"/>
       <c r="D38" s="18"/>
@@ -21825,17 +24676,17 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13">
       <c r="C44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13">
       <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13">
       <c r="C46" t="s">
         <v>264</v>
       </c>
@@ -21843,7 +24694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13">
       <c r="C47" t="s">
         <v>265</v>
       </c>
@@ -21851,7 +24702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13">
       <c r="C48" t="s">
         <v>264</v>
       </c>
@@ -21859,7 +24710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4">
       <c r="C49" t="s">
         <v>266</v>
       </c>
@@ -21867,7 +24718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -21876,10 +24727,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:4">
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:4">
       <c r="C52" t="s">
         <v>267</v>
       </c>
@@ -21887,10 +24738,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:4">
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:4">
       <c r="C54" t="s">
         <v>268</v>
       </c>
@@ -21899,7 +24750,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4">
       <c r="C55" t="s">
         <v>269</v>
       </c>
@@ -21908,11 +24759,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:4">
       <c r="D56" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:M33" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="B7:M33">
     <filterColumn colId="4">
       <filters>
         <filter val="対応中"/>
@@ -21927,222 +24778,222 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B38:C38 B8:C28 E29:F30 E8:F27 E38:G38 E28 J8:M30 H8:I28 J38:M38">
-    <cfRule type="expression" dxfId="43" priority="49">
+    <cfRule type="expression" dxfId="51" priority="49">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G28">
-    <cfRule type="expression" dxfId="42" priority="48">
+    <cfRule type="expression" dxfId="50" priority="48">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="49" priority="47">
       <formula>$F38="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="40" priority="46">
+    <cfRule type="expression" dxfId="48" priority="46">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="39" priority="45">
+    <cfRule type="expression" dxfId="47" priority="45">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="46" priority="38">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="37" priority="44">
+    <cfRule type="expression" dxfId="45" priority="44">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="36" priority="42">
+    <cfRule type="expression" dxfId="44" priority="42">
       <formula>$F28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="35" priority="41">
+    <cfRule type="expression" dxfId="43" priority="41">
       <formula>$F38="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="34" priority="40">
+    <cfRule type="expression" dxfId="42" priority="40">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="41" priority="39">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="32" priority="37">
+    <cfRule type="expression" dxfId="40" priority="37">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="31" priority="36">
+    <cfRule type="expression" dxfId="39" priority="36">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="38" priority="35">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D30 D38">
-    <cfRule type="expression" dxfId="29" priority="34">
+    <cfRule type="expression" dxfId="37" priority="34">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31 J31:M31">
-    <cfRule type="expression" dxfId="28" priority="33">
+    <cfRule type="expression" dxfId="36" priority="33">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="35" priority="32">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="26" priority="31">
+    <cfRule type="expression" dxfId="34" priority="31">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B37">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="33" priority="26">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="32" priority="29">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="23" priority="28">
+    <cfRule type="expression" dxfId="31" priority="28">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:F37 J34:M37 L33:M33">
-    <cfRule type="expression" dxfId="22" priority="27">
+    <cfRule type="expression" dxfId="30" priority="27">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G37">
-    <cfRule type="expression" dxfId="21" priority="25">
+    <cfRule type="expression" dxfId="29" priority="25">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:H37">
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:I37">
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="27" priority="23">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C37">
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D37">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:F32 J32:K32 M32">
-    <cfRule type="expression" dxfId="15" priority="19">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="21" priority="17">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:F33 J33:K33">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="17" priority="12">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22151,13 +25002,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>E8:E38 G38:H38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>WBS_value!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -22170,54 +25021,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -22228,22 +25079,22 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -22254,7 +25105,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>289</v>
       </c>
@@ -22262,7 +25113,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
         <v>290</v>
       </c>
@@ -22270,17 +25121,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="F19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="F20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="B22" t="s">
         <v>291</v>
       </c>
@@ -22288,7 +25139,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="B23" t="s">
         <v>289</v>
       </c>
@@ -22299,7 +25150,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="B24" t="s">
         <v>290</v>
       </c>
@@ -22310,7 +25161,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="B25" t="s">
         <v>292</v>
       </c>
@@ -22318,7 +25169,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>289</v>
       </c>
@@ -22326,7 +25177,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>290</v>
       </c>
@@ -22334,127 +25185,127 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="1" customFormat="1">
       <c r="A29" s="80">
         <v>43331</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="B30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="B31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="B32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2">
       <c r="B55" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
         <v>326</v>
       </c>
@@ -22466,206 +25317,206 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>363</v>
       </c>
@@ -22677,12 +25528,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22690,44 +25541,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -22740,46 +25591,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" s="54" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" s="54" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" s="55"/>
     </row>
   </sheetData>
@@ -22789,22 +25640,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
-    <col min="2" max="2" width="45.453125" customWidth="1"/>
-    <col min="3" max="3" width="52.36328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="77.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="52.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="77.25" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="51.453125" customWidth="1"/>
+    <col min="6" max="6" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="D1" t="s">
         <v>31</v>
       </c>
@@ -22812,62 +25663,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="D16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
@@ -22875,7 +25726,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -22889,7 +25740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="165" customHeight="1">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -22907,7 +25758,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="40.5" customHeight="1">
       <c r="B20" s="18" t="s">
         <v>53</v>
       </c>
@@ -22922,7 +25773,7 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
@@ -22934,7 +25785,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
@@ -22946,7 +25797,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="B23" s="18" t="s">
         <v>59</v>
       </c>
@@ -22960,7 +25811,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="52" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="54">
       <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
@@ -22975,7 +25826,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="B25" s="18" t="s">
         <v>65</v>
       </c>
@@ -22987,7 +25838,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="40.5">
       <c r="B26" s="18" t="s">
         <v>68</v>
       </c>
@@ -23002,7 +25853,7 @@
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
@@ -23014,7 +25865,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="B28" s="18" t="s">
         <v>71</v>
       </c>
@@ -23023,7 +25874,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="B29" s="21" t="s">
         <v>73</v>
       </c>
@@ -23035,7 +25886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
@@ -23050,7 +25901,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="B31" s="21" t="s">
         <v>76</v>
       </c>
@@ -23062,21 +25913,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -23084,7 +25935,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="16" customFormat="1">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
@@ -23092,7 +25943,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" s="16" customFormat="1">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -23100,7 +25951,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="16" customFormat="1">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -23108,7 +25959,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="16" customFormat="1">
       <c r="A40" s="6"/>
       <c r="B40"/>
     </row>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -5209,66 +5209,11 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="190">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="182">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5574,9 +5519,33 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6536,37 +6505,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -6608,7 +6546,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6687,7 +6625,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7669,7 +7607,7 @@
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="EH31" sqref="EH31"/>
+      <selection pane="bottomRight" activeCell="EH33" sqref="EH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14446,7 +14384,9 @@
       <c r="EG31" s="11">
         <v>2</v>
       </c>
-      <c r="EH31" s="11"/>
+      <c r="EH31" s="11">
+        <v>0.5</v>
+      </c>
       <c r="EI31" s="11"/>
       <c r="EJ31" s="11"/>
       <c r="EK31" s="11"/>
@@ -21145,7 +21085,7 @@
       </c>
       <c r="EH66" s="14">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EI66" s="14">
         <f t="shared" si="98"/>
@@ -23048,518 +22988,518 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="O64:BN65 O11:BF12 O47:DC49 O26:DC27 O13:DC19 O41:DC44 O21:DC22 EC11:EF65">
-    <cfRule type="expression" dxfId="185" priority="214">
+    <cfRule type="expression" dxfId="181" priority="214">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="215">
+    <cfRule type="expression" dxfId="180" priority="215">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="216">
+    <cfRule type="expression" dxfId="179" priority="216">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:BF11 EC11:EF11">
-    <cfRule type="expression" dxfId="182" priority="213">
+    <cfRule type="expression" dxfId="178" priority="213">
       <formula>O$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:BN63">
-    <cfRule type="expression" dxfId="181" priority="210">
+    <cfRule type="expression" dxfId="177" priority="210">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="211">
+    <cfRule type="expression" dxfId="176" priority="211">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="212">
+    <cfRule type="expression" dxfId="175" priority="212">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO64:DC65">
-    <cfRule type="expression" dxfId="178" priority="207">
+    <cfRule type="expression" dxfId="174" priority="207">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="208">
+    <cfRule type="expression" dxfId="173" priority="208">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="209">
+    <cfRule type="expression" dxfId="172" priority="209">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO50:DC63">
-    <cfRule type="expression" dxfId="175" priority="203">
+    <cfRule type="expression" dxfId="171" priority="203">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="204">
+    <cfRule type="expression" dxfId="170" priority="204">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="205">
+    <cfRule type="expression" dxfId="169" priority="205">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DB12">
-    <cfRule type="expression" dxfId="172" priority="200">
+    <cfRule type="expression" dxfId="168" priority="200">
       <formula>BG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="201">
+    <cfRule type="expression" dxfId="167" priority="201">
       <formula>BG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="202">
+    <cfRule type="expression" dxfId="166" priority="202">
       <formula>BG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DB11">
-    <cfRule type="expression" dxfId="169" priority="199">
+    <cfRule type="expression" dxfId="165" priority="199">
       <formula>BG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45:DC45">
-    <cfRule type="expression" dxfId="168" priority="195">
+    <cfRule type="expression" dxfId="164" priority="195">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="196">
+    <cfRule type="expression" dxfId="163" priority="196">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="197">
+    <cfRule type="expression" dxfId="162" priority="197">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O46:AM46 AP46:DC46">
-    <cfRule type="expression" dxfId="165" priority="188">
+    <cfRule type="expression" dxfId="161" priority="188">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="189">
+    <cfRule type="expression" dxfId="160" priority="189">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="190">
+    <cfRule type="expression" dxfId="159" priority="190">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:DC25">
-    <cfRule type="expression" dxfId="162" priority="177">
+    <cfRule type="expression" dxfId="158" priority="177">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="178">
+    <cfRule type="expression" dxfId="157" priority="178">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="179">
+    <cfRule type="expression" dxfId="156" priority="179">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40:DC40">
-    <cfRule type="expression" dxfId="159" priority="173">
+    <cfRule type="expression" dxfId="155" priority="173">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="174">
+    <cfRule type="expression" dxfId="154" priority="174">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="175">
+    <cfRule type="expression" dxfId="153" priority="175">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:DC38">
-    <cfRule type="expression" dxfId="156" priority="169">
+    <cfRule type="expression" dxfId="152" priority="169">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="170">
+    <cfRule type="expression" dxfId="151" priority="170">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="171">
+    <cfRule type="expression" dxfId="150" priority="171">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO46">
-    <cfRule type="expression" dxfId="153" priority="156">
+    <cfRule type="expression" dxfId="149" priority="156">
       <formula>AO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="157">
+    <cfRule type="expression" dxfId="148" priority="157">
       <formula>AO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="158">
+    <cfRule type="expression" dxfId="147" priority="158">
       <formula>AO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:DC23">
-    <cfRule type="expression" dxfId="150" priority="153">
+    <cfRule type="expression" dxfId="146" priority="153">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="154">
+    <cfRule type="expression" dxfId="145" priority="154">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="155">
+    <cfRule type="expression" dxfId="144" priority="155">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN46">
-    <cfRule type="expression" dxfId="147" priority="149">
+    <cfRule type="expression" dxfId="143" priority="149">
       <formula>AN$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="150">
+    <cfRule type="expression" dxfId="142" priority="150">
       <formula>AN$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="151">
+    <cfRule type="expression" dxfId="141" priority="151">
       <formula>AN$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:DC20">
-    <cfRule type="expression" dxfId="144" priority="146">
+    <cfRule type="expression" dxfId="140" priority="146">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="147">
+    <cfRule type="expression" dxfId="139" priority="147">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="148">
+    <cfRule type="expression" dxfId="138" priority="148">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:DC24">
-    <cfRule type="expression" dxfId="141" priority="142">
+    <cfRule type="expression" dxfId="137" priority="142">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="143">
+    <cfRule type="expression" dxfId="136" priority="143">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="144">
+    <cfRule type="expression" dxfId="135" priority="144">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39:DC39">
-    <cfRule type="expression" dxfId="138" priority="137">
+    <cfRule type="expression" dxfId="134" priority="137">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="138">
+    <cfRule type="expression" dxfId="133" priority="138">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="139">
+    <cfRule type="expression" dxfId="132" priority="139">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:M65">
-    <cfRule type="expression" dxfId="135" priority="128">
+    <cfRule type="expression" dxfId="131" priority="128">
       <formula>$J13="対応中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="198">
+    <cfRule type="expression" dxfId="130" priority="198">
       <formula>$J13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD64:DF65 DD21:DF22 DD41:DF44 DD13:DF19 DD26:DF27 DD47:DF49">
-    <cfRule type="expression" dxfId="133" priority="125">
+    <cfRule type="expression" dxfId="129" priority="125">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="126">
+    <cfRule type="expression" dxfId="128" priority="126">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="127">
+    <cfRule type="expression" dxfId="127" priority="127">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD50:DF63">
-    <cfRule type="expression" dxfId="130" priority="122">
+    <cfRule type="expression" dxfId="126" priority="122">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="123">
+    <cfRule type="expression" dxfId="125" priority="123">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="124">
+    <cfRule type="expression" dxfId="124" priority="124">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD45:DF45">
-    <cfRule type="expression" dxfId="127" priority="115">
+    <cfRule type="expression" dxfId="123" priority="115">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="116">
+    <cfRule type="expression" dxfId="122" priority="116">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="117">
+    <cfRule type="expression" dxfId="121" priority="117">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD46:DF46">
-    <cfRule type="expression" dxfId="124" priority="112">
+    <cfRule type="expression" dxfId="120" priority="112">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="113">
+    <cfRule type="expression" dxfId="119" priority="113">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="114">
+    <cfRule type="expression" dxfId="118" priority="114">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD25:DF25">
-    <cfRule type="expression" dxfId="121" priority="109">
+    <cfRule type="expression" dxfId="117" priority="109">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="110">
+    <cfRule type="expression" dxfId="116" priority="110">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="111">
+    <cfRule type="expression" dxfId="115" priority="111">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD40:DF40">
-    <cfRule type="expression" dxfId="118" priority="106">
+    <cfRule type="expression" dxfId="114" priority="106">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="107">
+    <cfRule type="expression" dxfId="113" priority="107">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="108">
+    <cfRule type="expression" dxfId="112" priority="108">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD28:DF38">
-    <cfRule type="expression" dxfId="115" priority="103">
+    <cfRule type="expression" dxfId="111" priority="103">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="104">
+    <cfRule type="expression" dxfId="110" priority="104">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="105">
+    <cfRule type="expression" dxfId="109" priority="105">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD23:DF23">
-    <cfRule type="expression" dxfId="112" priority="100">
+    <cfRule type="expression" dxfId="108" priority="100">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="101">
+    <cfRule type="expression" dxfId="107" priority="101">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="102">
+    <cfRule type="expression" dxfId="106" priority="102">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD20:DF20">
-    <cfRule type="expression" dxfId="109" priority="97">
+    <cfRule type="expression" dxfId="105" priority="97">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="98">
+    <cfRule type="expression" dxfId="104" priority="98">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="99">
+    <cfRule type="expression" dxfId="103" priority="99">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD24:DF24">
-    <cfRule type="expression" dxfId="106" priority="94">
+    <cfRule type="expression" dxfId="102" priority="94">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="95">
+    <cfRule type="expression" dxfId="101" priority="95">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="96">
+    <cfRule type="expression" dxfId="100" priority="96">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD39:DF39">
-    <cfRule type="expression" dxfId="103" priority="91">
+    <cfRule type="expression" dxfId="99" priority="91">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="92">
+    <cfRule type="expression" dxfId="98" priority="92">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="93">
+    <cfRule type="expression" dxfId="97" priority="93">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC11:DF12">
-    <cfRule type="expression" dxfId="100" priority="88">
+    <cfRule type="expression" dxfId="96" priority="88">
       <formula>DC$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="89">
+    <cfRule type="expression" dxfId="95" priority="89">
       <formula>DC$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="90">
+    <cfRule type="expression" dxfId="94" priority="90">
       <formula>DC$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC11:DF11">
-    <cfRule type="expression" dxfId="97" priority="87">
+    <cfRule type="expression" dxfId="93" priority="87">
       <formula>DC$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG64:EB65 DG21:EB22 DG41:EB44 DG13:EB19 DG26:EB27 DG47:EB49">
-    <cfRule type="expression" dxfId="96" priority="84">
+    <cfRule type="expression" dxfId="92" priority="84">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="85">
+    <cfRule type="expression" dxfId="91" priority="85">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="86">
+    <cfRule type="expression" dxfId="90" priority="86">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG50:EB63">
-    <cfRule type="expression" dxfId="93" priority="81">
+    <cfRule type="expression" dxfId="89" priority="81">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="82">
+    <cfRule type="expression" dxfId="88" priority="82">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="83">
+    <cfRule type="expression" dxfId="87" priority="83">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG45:EB45">
-    <cfRule type="expression" dxfId="90" priority="78">
+    <cfRule type="expression" dxfId="86" priority="78">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="79">
+    <cfRule type="expression" dxfId="85" priority="79">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="80">
+    <cfRule type="expression" dxfId="84" priority="80">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG46:EB46">
-    <cfRule type="expression" dxfId="87" priority="75">
+    <cfRule type="expression" dxfId="83" priority="75">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="76">
+    <cfRule type="expression" dxfId="82" priority="76">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="77">
+    <cfRule type="expression" dxfId="81" priority="77">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG25:EB25">
-    <cfRule type="expression" dxfId="84" priority="72">
+    <cfRule type="expression" dxfId="80" priority="72">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="73">
+    <cfRule type="expression" dxfId="79" priority="73">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="74">
+    <cfRule type="expression" dxfId="78" priority="74">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG40:EB40">
-    <cfRule type="expression" dxfId="81" priority="69">
+    <cfRule type="expression" dxfId="77" priority="69">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="70">
+    <cfRule type="expression" dxfId="76" priority="70">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="71">
+    <cfRule type="expression" dxfId="75" priority="71">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG28:EB38">
-    <cfRule type="expression" dxfId="78" priority="66">
+    <cfRule type="expression" dxfId="74" priority="66">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="67">
+    <cfRule type="expression" dxfId="73" priority="67">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="68">
+    <cfRule type="expression" dxfId="72" priority="68">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG23:EB23">
-    <cfRule type="expression" dxfId="75" priority="63">
+    <cfRule type="expression" dxfId="71" priority="63">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="64">
+    <cfRule type="expression" dxfId="70" priority="64">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="65">
+    <cfRule type="expression" dxfId="69" priority="65">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG20:EB20">
-    <cfRule type="expression" dxfId="72" priority="60">
+    <cfRule type="expression" dxfId="68" priority="60">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="61">
+    <cfRule type="expression" dxfId="67" priority="61">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="62">
+    <cfRule type="expression" dxfId="66" priority="62">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG24:EB24">
-    <cfRule type="expression" dxfId="69" priority="57">
+    <cfRule type="expression" dxfId="65" priority="57">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="58">
+    <cfRule type="expression" dxfId="64" priority="58">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="59">
+    <cfRule type="expression" dxfId="63" priority="59">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG39:EB39">
-    <cfRule type="expression" dxfId="66" priority="54">
+    <cfRule type="expression" dxfId="62" priority="54">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="55">
+    <cfRule type="expression" dxfId="61" priority="55">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="56">
+    <cfRule type="expression" dxfId="60" priority="56">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG11:EB12">
-    <cfRule type="expression" dxfId="63" priority="51">
+    <cfRule type="expression" dxfId="59" priority="51">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="52">
+    <cfRule type="expression" dxfId="58" priority="52">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="53">
+    <cfRule type="expression" dxfId="57" priority="53">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG11:EB11">
-    <cfRule type="expression" dxfId="60" priority="50">
+    <cfRule type="expression" dxfId="56" priority="50">
       <formula>DG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG11:EG65">
-    <cfRule type="expression" dxfId="59" priority="10">
+    <cfRule type="expression" dxfId="55" priority="10">
       <formula>EG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="11">
+    <cfRule type="expression" dxfId="54" priority="11">
       <formula>EG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="12">
+    <cfRule type="expression" dxfId="53" priority="12">
       <formula>EG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG11">
-    <cfRule type="expression" dxfId="56" priority="9">
+    <cfRule type="expression" dxfId="52" priority="9">
       <formula>EG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EH11:FI65">
-    <cfRule type="expression" dxfId="55" priority="6">
+    <cfRule type="expression" dxfId="51" priority="6">
       <formula>EH$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="7">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>EH$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="8">
+    <cfRule type="expression" dxfId="49" priority="8">
       <formula>EH$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EH11:FI11">
-    <cfRule type="expression" dxfId="52" priority="5">
+    <cfRule type="expression" dxfId="48" priority="5">
       <formula>EH$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ11:FL65">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="47" priority="2">
       <formula>FJ$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="46" priority="3">
       <formula>FJ$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="45" priority="4">
       <formula>FJ$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ11:FL11">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>FJ$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24778,222 +24718,222 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B38:C38 B8:C28 E29:F30 E8:F27 E38:G38 E28 J8:M30 H8:I28 J38:M38">
-    <cfRule type="expression" dxfId="51" priority="49">
+    <cfRule type="expression" dxfId="43" priority="49">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G28">
-    <cfRule type="expression" dxfId="50" priority="48">
+    <cfRule type="expression" dxfId="42" priority="48">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="49" priority="47">
+    <cfRule type="expression" dxfId="41" priority="47">
       <formula>$F38="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="48" priority="46">
+    <cfRule type="expression" dxfId="40" priority="46">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="47" priority="45">
+    <cfRule type="expression" dxfId="39" priority="45">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="46" priority="38">
+    <cfRule type="expression" dxfId="38" priority="38">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="45" priority="44">
+    <cfRule type="expression" dxfId="37" priority="44">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="44" priority="42">
+    <cfRule type="expression" dxfId="36" priority="42">
       <formula>$F28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="43" priority="41">
+    <cfRule type="expression" dxfId="35" priority="41">
       <formula>$F38="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="42" priority="40">
+    <cfRule type="expression" dxfId="34" priority="40">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="41" priority="39">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="40" priority="37">
+    <cfRule type="expression" dxfId="32" priority="37">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="39" priority="36">
+    <cfRule type="expression" dxfId="31" priority="36">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="38" priority="35">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D30 D38">
-    <cfRule type="expression" dxfId="37" priority="34">
+    <cfRule type="expression" dxfId="29" priority="34">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31 J31:M31">
-    <cfRule type="expression" dxfId="36" priority="33">
+    <cfRule type="expression" dxfId="28" priority="33">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="35" priority="32">
+    <cfRule type="expression" dxfId="27" priority="32">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="34" priority="31">
+    <cfRule type="expression" dxfId="26" priority="31">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B37">
-    <cfRule type="expression" dxfId="33" priority="26">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="32" priority="29">
+    <cfRule type="expression" dxfId="24" priority="29">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="31" priority="28">
+    <cfRule type="expression" dxfId="23" priority="28">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:F37 J34:M37 L33:M33">
-    <cfRule type="expression" dxfId="30" priority="27">
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G37">
-    <cfRule type="expression" dxfId="29" priority="25">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:H37">
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:I37">
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C37">
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D37">
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:F32 J32:K32 M32">
-    <cfRule type="expression" dxfId="23" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="21" priority="17">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="20" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="19" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:F33 J33:K33">
-    <cfRule type="expression" dxfId="17" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -5209,7 +5209,21 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="182">
+  <dxfs count="184">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6546,7 +6560,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6625,7 +6639,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7603,11 +7617,11 @@
   <dimension ref="B1:FM94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="EF13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="8" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="EH33" sqref="EH33"/>
+      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14209,7 +14223,7 @@
       </c>
       <c r="J31" s="79" t="str">
         <f>VLOOKUP($G31,課題整理_0609!$B$8:$M$38,5,FALSE)</f>
-        <v>対応中</v>
+        <v>完了</v>
       </c>
       <c r="K31" s="52" t="s">
         <v>160</v>
@@ -15594,7 +15608,7 @@
       </c>
       <c r="J38" s="79" t="str">
         <f>VLOOKUP($G38,課題整理_0609!$B$8:$M$38,5,FALSE)</f>
-        <v>対応中</v>
+        <v>完了</v>
       </c>
       <c r="K38" s="52" t="s">
         <v>160</v>
@@ -22988,518 +23002,518 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="O64:BN65 O11:BF12 O47:DC49 O26:DC27 O13:DC19 O41:DC44 O21:DC22 EC11:EF65">
-    <cfRule type="expression" dxfId="181" priority="214">
+    <cfRule type="expression" dxfId="183" priority="214">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="215">
+    <cfRule type="expression" dxfId="182" priority="215">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="216">
+    <cfRule type="expression" dxfId="181" priority="216">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:BF11 EC11:EF11">
-    <cfRule type="expression" dxfId="178" priority="213">
+    <cfRule type="expression" dxfId="180" priority="213">
       <formula>O$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:BN63">
-    <cfRule type="expression" dxfId="177" priority="210">
+    <cfRule type="expression" dxfId="179" priority="210">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="211">
+    <cfRule type="expression" dxfId="178" priority="211">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="212">
+    <cfRule type="expression" dxfId="177" priority="212">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO64:DC65">
-    <cfRule type="expression" dxfId="174" priority="207">
+    <cfRule type="expression" dxfId="176" priority="207">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="208">
+    <cfRule type="expression" dxfId="175" priority="208">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="209">
+    <cfRule type="expression" dxfId="174" priority="209">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO50:DC63">
-    <cfRule type="expression" dxfId="171" priority="203">
+    <cfRule type="expression" dxfId="173" priority="203">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="204">
+    <cfRule type="expression" dxfId="172" priority="204">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="205">
+    <cfRule type="expression" dxfId="171" priority="205">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DB12">
-    <cfRule type="expression" dxfId="168" priority="200">
+    <cfRule type="expression" dxfId="170" priority="200">
       <formula>BG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="201">
+    <cfRule type="expression" dxfId="169" priority="201">
       <formula>BG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="202">
+    <cfRule type="expression" dxfId="168" priority="202">
       <formula>BG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DB11">
-    <cfRule type="expression" dxfId="165" priority="199">
+    <cfRule type="expression" dxfId="167" priority="199">
       <formula>BG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45:DC45">
-    <cfRule type="expression" dxfId="164" priority="195">
+    <cfRule type="expression" dxfId="166" priority="195">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="196">
+    <cfRule type="expression" dxfId="165" priority="196">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="197">
+    <cfRule type="expression" dxfId="164" priority="197">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O46:AM46 AP46:DC46">
-    <cfRule type="expression" dxfId="161" priority="188">
+    <cfRule type="expression" dxfId="163" priority="188">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="189">
+    <cfRule type="expression" dxfId="162" priority="189">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="190">
+    <cfRule type="expression" dxfId="161" priority="190">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:DC25">
-    <cfRule type="expression" dxfId="158" priority="177">
+    <cfRule type="expression" dxfId="160" priority="177">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="178">
+    <cfRule type="expression" dxfId="159" priority="178">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="179">
+    <cfRule type="expression" dxfId="158" priority="179">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40:DC40">
-    <cfRule type="expression" dxfId="155" priority="173">
+    <cfRule type="expression" dxfId="157" priority="173">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="174">
+    <cfRule type="expression" dxfId="156" priority="174">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="175">
+    <cfRule type="expression" dxfId="155" priority="175">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:DC38">
-    <cfRule type="expression" dxfId="152" priority="169">
+    <cfRule type="expression" dxfId="154" priority="169">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="170">
+    <cfRule type="expression" dxfId="153" priority="170">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="171">
+    <cfRule type="expression" dxfId="152" priority="171">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO46">
-    <cfRule type="expression" dxfId="149" priority="156">
+    <cfRule type="expression" dxfId="151" priority="156">
       <formula>AO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="157">
+    <cfRule type="expression" dxfId="150" priority="157">
       <formula>AO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="158">
+    <cfRule type="expression" dxfId="149" priority="158">
       <formula>AO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:DC23">
-    <cfRule type="expression" dxfId="146" priority="153">
+    <cfRule type="expression" dxfId="148" priority="153">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="154">
+    <cfRule type="expression" dxfId="147" priority="154">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="155">
+    <cfRule type="expression" dxfId="146" priority="155">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN46">
-    <cfRule type="expression" dxfId="143" priority="149">
+    <cfRule type="expression" dxfId="145" priority="149">
       <formula>AN$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="150">
+    <cfRule type="expression" dxfId="144" priority="150">
       <formula>AN$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="151">
+    <cfRule type="expression" dxfId="143" priority="151">
       <formula>AN$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:DC20">
-    <cfRule type="expression" dxfId="140" priority="146">
+    <cfRule type="expression" dxfId="142" priority="146">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="147">
+    <cfRule type="expression" dxfId="141" priority="147">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="148">
+    <cfRule type="expression" dxfId="140" priority="148">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:DC24">
-    <cfRule type="expression" dxfId="137" priority="142">
+    <cfRule type="expression" dxfId="139" priority="142">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="143">
+    <cfRule type="expression" dxfId="138" priority="143">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="144">
+    <cfRule type="expression" dxfId="137" priority="144">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39:DC39">
-    <cfRule type="expression" dxfId="134" priority="137">
+    <cfRule type="expression" dxfId="136" priority="137">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="138">
+    <cfRule type="expression" dxfId="135" priority="138">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="139">
+    <cfRule type="expression" dxfId="134" priority="139">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:M65">
-    <cfRule type="expression" dxfId="131" priority="128">
+    <cfRule type="expression" dxfId="133" priority="128">
       <formula>$J13="対応中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="198">
+    <cfRule type="expression" dxfId="132" priority="198">
       <formula>$J13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD64:DF65 DD21:DF22 DD41:DF44 DD13:DF19 DD26:DF27 DD47:DF49">
-    <cfRule type="expression" dxfId="129" priority="125">
+    <cfRule type="expression" dxfId="131" priority="125">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="126">
+    <cfRule type="expression" dxfId="130" priority="126">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="127">
+    <cfRule type="expression" dxfId="129" priority="127">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD50:DF63">
-    <cfRule type="expression" dxfId="126" priority="122">
+    <cfRule type="expression" dxfId="128" priority="122">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="123">
+    <cfRule type="expression" dxfId="127" priority="123">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="124">
+    <cfRule type="expression" dxfId="126" priority="124">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD45:DF45">
-    <cfRule type="expression" dxfId="123" priority="115">
+    <cfRule type="expression" dxfId="125" priority="115">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="116">
+    <cfRule type="expression" dxfId="124" priority="116">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="117">
+    <cfRule type="expression" dxfId="123" priority="117">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD46:DF46">
-    <cfRule type="expression" dxfId="120" priority="112">
+    <cfRule type="expression" dxfId="122" priority="112">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="113">
+    <cfRule type="expression" dxfId="121" priority="113">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="114">
+    <cfRule type="expression" dxfId="120" priority="114">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD25:DF25">
-    <cfRule type="expression" dxfId="117" priority="109">
+    <cfRule type="expression" dxfId="119" priority="109">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="110">
+    <cfRule type="expression" dxfId="118" priority="110">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="111">
+    <cfRule type="expression" dxfId="117" priority="111">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD40:DF40">
-    <cfRule type="expression" dxfId="114" priority="106">
+    <cfRule type="expression" dxfId="116" priority="106">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="107">
+    <cfRule type="expression" dxfId="115" priority="107">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="108">
+    <cfRule type="expression" dxfId="114" priority="108">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD28:DF38">
-    <cfRule type="expression" dxfId="111" priority="103">
+    <cfRule type="expression" dxfId="113" priority="103">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="104">
+    <cfRule type="expression" dxfId="112" priority="104">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="105">
+    <cfRule type="expression" dxfId="111" priority="105">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD23:DF23">
-    <cfRule type="expression" dxfId="108" priority="100">
+    <cfRule type="expression" dxfId="110" priority="100">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="101">
+    <cfRule type="expression" dxfId="109" priority="101">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="102">
+    <cfRule type="expression" dxfId="108" priority="102">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD20:DF20">
-    <cfRule type="expression" dxfId="105" priority="97">
+    <cfRule type="expression" dxfId="107" priority="97">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="98">
+    <cfRule type="expression" dxfId="106" priority="98">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="99">
+    <cfRule type="expression" dxfId="105" priority="99">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD24:DF24">
-    <cfRule type="expression" dxfId="102" priority="94">
+    <cfRule type="expression" dxfId="104" priority="94">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="95">
+    <cfRule type="expression" dxfId="103" priority="95">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="96">
+    <cfRule type="expression" dxfId="102" priority="96">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD39:DF39">
-    <cfRule type="expression" dxfId="99" priority="91">
+    <cfRule type="expression" dxfId="101" priority="91">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="92">
+    <cfRule type="expression" dxfId="100" priority="92">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="93">
+    <cfRule type="expression" dxfId="99" priority="93">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC11:DF12">
-    <cfRule type="expression" dxfId="96" priority="88">
+    <cfRule type="expression" dxfId="98" priority="88">
       <formula>DC$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="89">
+    <cfRule type="expression" dxfId="97" priority="89">
       <formula>DC$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="90">
+    <cfRule type="expression" dxfId="96" priority="90">
       <formula>DC$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC11:DF11">
-    <cfRule type="expression" dxfId="93" priority="87">
+    <cfRule type="expression" dxfId="95" priority="87">
       <formula>DC$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG64:EB65 DG21:EB22 DG41:EB44 DG13:EB19 DG26:EB27 DG47:EB49">
-    <cfRule type="expression" dxfId="92" priority="84">
+    <cfRule type="expression" dxfId="94" priority="84">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="85">
+    <cfRule type="expression" dxfId="93" priority="85">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="86">
+    <cfRule type="expression" dxfId="92" priority="86">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG50:EB63">
-    <cfRule type="expression" dxfId="89" priority="81">
+    <cfRule type="expression" dxfId="91" priority="81">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="82">
+    <cfRule type="expression" dxfId="90" priority="82">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="83">
+    <cfRule type="expression" dxfId="89" priority="83">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG45:EB45">
-    <cfRule type="expression" dxfId="86" priority="78">
+    <cfRule type="expression" dxfId="88" priority="78">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="79">
+    <cfRule type="expression" dxfId="87" priority="79">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="80">
+    <cfRule type="expression" dxfId="86" priority="80">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG46:EB46">
-    <cfRule type="expression" dxfId="83" priority="75">
+    <cfRule type="expression" dxfId="85" priority="75">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="76">
+    <cfRule type="expression" dxfId="84" priority="76">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="77">
+    <cfRule type="expression" dxfId="83" priority="77">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG25:EB25">
-    <cfRule type="expression" dxfId="80" priority="72">
+    <cfRule type="expression" dxfId="82" priority="72">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="73">
+    <cfRule type="expression" dxfId="81" priority="73">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="74">
+    <cfRule type="expression" dxfId="80" priority="74">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG40:EB40">
-    <cfRule type="expression" dxfId="77" priority="69">
+    <cfRule type="expression" dxfId="79" priority="69">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="70">
+    <cfRule type="expression" dxfId="78" priority="70">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="71">
+    <cfRule type="expression" dxfId="77" priority="71">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG28:EB38">
-    <cfRule type="expression" dxfId="74" priority="66">
+    <cfRule type="expression" dxfId="76" priority="66">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="67">
+    <cfRule type="expression" dxfId="75" priority="67">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="68">
+    <cfRule type="expression" dxfId="74" priority="68">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG23:EB23">
-    <cfRule type="expression" dxfId="71" priority="63">
+    <cfRule type="expression" dxfId="73" priority="63">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="64">
+    <cfRule type="expression" dxfId="72" priority="64">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="65">
+    <cfRule type="expression" dxfId="71" priority="65">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG20:EB20">
-    <cfRule type="expression" dxfId="68" priority="60">
+    <cfRule type="expression" dxfId="70" priority="60">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="61">
+    <cfRule type="expression" dxfId="69" priority="61">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="62">
+    <cfRule type="expression" dxfId="68" priority="62">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG24:EB24">
-    <cfRule type="expression" dxfId="65" priority="57">
+    <cfRule type="expression" dxfId="67" priority="57">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="58">
+    <cfRule type="expression" dxfId="66" priority="58">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="59">
+    <cfRule type="expression" dxfId="65" priority="59">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG39:EB39">
-    <cfRule type="expression" dxfId="62" priority="54">
+    <cfRule type="expression" dxfId="64" priority="54">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="55">
+    <cfRule type="expression" dxfId="63" priority="55">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="56">
+    <cfRule type="expression" dxfId="62" priority="56">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG11:EB12">
-    <cfRule type="expression" dxfId="59" priority="51">
+    <cfRule type="expression" dxfId="61" priority="51">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="52">
+    <cfRule type="expression" dxfId="60" priority="52">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="53">
+    <cfRule type="expression" dxfId="59" priority="53">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG11:EB11">
-    <cfRule type="expression" dxfId="56" priority="50">
+    <cfRule type="expression" dxfId="58" priority="50">
       <formula>DG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG11:EG65">
-    <cfRule type="expression" dxfId="55" priority="10">
+    <cfRule type="expression" dxfId="57" priority="10">
       <formula>EG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="11">
+    <cfRule type="expression" dxfId="56" priority="11">
       <formula>EG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="12">
+    <cfRule type="expression" dxfId="55" priority="12">
       <formula>EG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG11">
-    <cfRule type="expression" dxfId="52" priority="9">
+    <cfRule type="expression" dxfId="54" priority="9">
       <formula>EG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EH11:FI65">
-    <cfRule type="expression" dxfId="51" priority="6">
+    <cfRule type="expression" dxfId="53" priority="6">
       <formula>EH$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="7">
+    <cfRule type="expression" dxfId="52" priority="7">
       <formula>EH$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="8">
+    <cfRule type="expression" dxfId="51" priority="8">
       <formula>EH$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EH11:FI11">
-    <cfRule type="expression" dxfId="48" priority="5">
+    <cfRule type="expression" dxfId="50" priority="5">
       <formula>EH$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ11:FL65">
-    <cfRule type="expression" dxfId="47" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>FJ$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="3">
+    <cfRule type="expression" dxfId="48" priority="3">
       <formula>FJ$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>FJ$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ11:FL11">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="46" priority="1">
       <formula>FJ$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23526,12 +23540,12 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="K19" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D37" sqref="D37"/>
       <selection pane="topRight" activeCell="D37" sqref="D37"/>
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
-      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24044,9 +24058,11 @@
         <v>230</v>
       </c>
       <c r="F19" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="G19" s="63"/>
+        <v>190</v>
+      </c>
+      <c r="G19" s="65">
+        <v>43375</v>
+      </c>
       <c r="H19" s="63" t="s">
         <v>366</v>
       </c>
@@ -24390,9 +24406,11 @@
         <v>230</v>
       </c>
       <c r="F29" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" s="63"/>
+        <v>190</v>
+      </c>
+      <c r="G29" s="65">
+        <v>43375</v>
+      </c>
       <c r="H29" s="63" t="s">
         <v>366</v>
       </c>
@@ -24718,222 +24736,222 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B38:C38 B8:C28 E29:F30 E8:F27 E38:G38 E28 J8:M30 H8:I28 J38:M38">
-    <cfRule type="expression" dxfId="43" priority="49">
+    <cfRule type="expression" dxfId="45" priority="49">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G28">
-    <cfRule type="expression" dxfId="42" priority="48">
+    <cfRule type="expression" dxfId="44" priority="48">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="43" priority="47">
       <formula>$F38="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="40" priority="46">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="39" priority="45">
+    <cfRule type="expression" dxfId="41" priority="45">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="40" priority="38">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="37" priority="44">
+    <cfRule type="expression" dxfId="39" priority="44">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="36" priority="42">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>$F28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="35" priority="41">
+    <cfRule type="expression" dxfId="37" priority="41">
       <formula>$F38="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="34" priority="40">
+    <cfRule type="expression" dxfId="36" priority="40">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="35" priority="39">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="32" priority="37">
+    <cfRule type="expression" dxfId="34" priority="37">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="31" priority="36">
+    <cfRule type="expression" dxfId="33" priority="36">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="32" priority="35">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D30 D38">
-    <cfRule type="expression" dxfId="29" priority="34">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31 J31:M31">
-    <cfRule type="expression" dxfId="28" priority="33">
+    <cfRule type="expression" dxfId="30" priority="33">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="29" priority="32">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="26" priority="31">
+    <cfRule type="expression" dxfId="28" priority="31">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B37">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="27" priority="26">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="26" priority="29">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="23" priority="28">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:F37 J34:M37 L33:M33">
-    <cfRule type="expression" dxfId="22" priority="27">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G37">
-    <cfRule type="expression" dxfId="21" priority="25">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:H37">
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:I37">
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C37">
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D37">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:F32 J32:K32 M32">
-    <cfRule type="expression" dxfId="15" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:F33 J33:K33">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -5209,21 +5209,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="184">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="182">
     <dxf>
       <fill>
         <patternFill>
@@ -6560,7 +6546,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6639,7 +6625,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7616,12 +7602,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:FM94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="BE13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="BO29" sqref="BO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23002,518 +22988,518 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="O64:BN65 O11:BF12 O47:DC49 O26:DC27 O13:DC19 O41:DC44 O21:DC22 EC11:EF65">
-    <cfRule type="expression" dxfId="183" priority="214">
+    <cfRule type="expression" dxfId="181" priority="214">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="215">
+    <cfRule type="expression" dxfId="180" priority="215">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="216">
+    <cfRule type="expression" dxfId="179" priority="216">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:BF11 EC11:EF11">
-    <cfRule type="expression" dxfId="180" priority="213">
+    <cfRule type="expression" dxfId="178" priority="213">
       <formula>O$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:BN63">
-    <cfRule type="expression" dxfId="179" priority="210">
+    <cfRule type="expression" dxfId="177" priority="210">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="211">
+    <cfRule type="expression" dxfId="176" priority="211">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="212">
+    <cfRule type="expression" dxfId="175" priority="212">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO64:DC65">
-    <cfRule type="expression" dxfId="176" priority="207">
+    <cfRule type="expression" dxfId="174" priority="207">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="208">
+    <cfRule type="expression" dxfId="173" priority="208">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="209">
+    <cfRule type="expression" dxfId="172" priority="209">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO50:DC63">
-    <cfRule type="expression" dxfId="173" priority="203">
+    <cfRule type="expression" dxfId="171" priority="203">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="204">
+    <cfRule type="expression" dxfId="170" priority="204">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="205">
+    <cfRule type="expression" dxfId="169" priority="205">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DB12">
-    <cfRule type="expression" dxfId="170" priority="200">
+    <cfRule type="expression" dxfId="168" priority="200">
       <formula>BG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="201">
+    <cfRule type="expression" dxfId="167" priority="201">
       <formula>BG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="202">
+    <cfRule type="expression" dxfId="166" priority="202">
       <formula>BG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DB11">
-    <cfRule type="expression" dxfId="167" priority="199">
+    <cfRule type="expression" dxfId="165" priority="199">
       <formula>BG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45:DC45">
-    <cfRule type="expression" dxfId="166" priority="195">
+    <cfRule type="expression" dxfId="164" priority="195">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="196">
+    <cfRule type="expression" dxfId="163" priority="196">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="197">
+    <cfRule type="expression" dxfId="162" priority="197">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O46:AM46 AP46:DC46">
-    <cfRule type="expression" dxfId="163" priority="188">
+    <cfRule type="expression" dxfId="161" priority="188">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="189">
+    <cfRule type="expression" dxfId="160" priority="189">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="190">
+    <cfRule type="expression" dxfId="159" priority="190">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:DC25">
-    <cfRule type="expression" dxfId="160" priority="177">
+    <cfRule type="expression" dxfId="158" priority="177">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="178">
+    <cfRule type="expression" dxfId="157" priority="178">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="179">
+    <cfRule type="expression" dxfId="156" priority="179">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40:DC40">
-    <cfRule type="expression" dxfId="157" priority="173">
+    <cfRule type="expression" dxfId="155" priority="173">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="174">
+    <cfRule type="expression" dxfId="154" priority="174">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="175">
+    <cfRule type="expression" dxfId="153" priority="175">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:DC38">
-    <cfRule type="expression" dxfId="154" priority="169">
+    <cfRule type="expression" dxfId="152" priority="169">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="170">
+    <cfRule type="expression" dxfId="151" priority="170">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="171">
+    <cfRule type="expression" dxfId="150" priority="171">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO46">
-    <cfRule type="expression" dxfId="151" priority="156">
+    <cfRule type="expression" dxfId="149" priority="156">
       <formula>AO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="157">
+    <cfRule type="expression" dxfId="148" priority="157">
       <formula>AO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="158">
+    <cfRule type="expression" dxfId="147" priority="158">
       <formula>AO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:DC23">
-    <cfRule type="expression" dxfId="148" priority="153">
+    <cfRule type="expression" dxfId="146" priority="153">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="154">
+    <cfRule type="expression" dxfId="145" priority="154">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="155">
+    <cfRule type="expression" dxfId="144" priority="155">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN46">
-    <cfRule type="expression" dxfId="145" priority="149">
+    <cfRule type="expression" dxfId="143" priority="149">
       <formula>AN$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="150">
+    <cfRule type="expression" dxfId="142" priority="150">
       <formula>AN$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="151">
+    <cfRule type="expression" dxfId="141" priority="151">
       <formula>AN$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:DC20">
-    <cfRule type="expression" dxfId="142" priority="146">
+    <cfRule type="expression" dxfId="140" priority="146">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="147">
+    <cfRule type="expression" dxfId="139" priority="147">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="148">
+    <cfRule type="expression" dxfId="138" priority="148">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:DC24">
-    <cfRule type="expression" dxfId="139" priority="142">
+    <cfRule type="expression" dxfId="137" priority="142">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="143">
+    <cfRule type="expression" dxfId="136" priority="143">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="144">
+    <cfRule type="expression" dxfId="135" priority="144">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39:DC39">
-    <cfRule type="expression" dxfId="136" priority="137">
+    <cfRule type="expression" dxfId="134" priority="137">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="138">
+    <cfRule type="expression" dxfId="133" priority="138">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="139">
+    <cfRule type="expression" dxfId="132" priority="139">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:M65">
-    <cfRule type="expression" dxfId="133" priority="128">
+    <cfRule type="expression" dxfId="131" priority="128">
       <formula>$J13="対応中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="198">
+    <cfRule type="expression" dxfId="130" priority="198">
       <formula>$J13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD64:DF65 DD21:DF22 DD41:DF44 DD13:DF19 DD26:DF27 DD47:DF49">
-    <cfRule type="expression" dxfId="131" priority="125">
+    <cfRule type="expression" dxfId="129" priority="125">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="126">
+    <cfRule type="expression" dxfId="128" priority="126">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="127">
+    <cfRule type="expression" dxfId="127" priority="127">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD50:DF63">
-    <cfRule type="expression" dxfId="128" priority="122">
+    <cfRule type="expression" dxfId="126" priority="122">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="123">
+    <cfRule type="expression" dxfId="125" priority="123">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="124">
+    <cfRule type="expression" dxfId="124" priority="124">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD45:DF45">
-    <cfRule type="expression" dxfId="125" priority="115">
+    <cfRule type="expression" dxfId="123" priority="115">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="116">
+    <cfRule type="expression" dxfId="122" priority="116">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="117">
+    <cfRule type="expression" dxfId="121" priority="117">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD46:DF46">
-    <cfRule type="expression" dxfId="122" priority="112">
+    <cfRule type="expression" dxfId="120" priority="112">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="113">
+    <cfRule type="expression" dxfId="119" priority="113">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="114">
+    <cfRule type="expression" dxfId="118" priority="114">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD25:DF25">
-    <cfRule type="expression" dxfId="119" priority="109">
+    <cfRule type="expression" dxfId="117" priority="109">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="110">
+    <cfRule type="expression" dxfId="116" priority="110">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="111">
+    <cfRule type="expression" dxfId="115" priority="111">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD40:DF40">
-    <cfRule type="expression" dxfId="116" priority="106">
+    <cfRule type="expression" dxfId="114" priority="106">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="107">
+    <cfRule type="expression" dxfId="113" priority="107">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="108">
+    <cfRule type="expression" dxfId="112" priority="108">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD28:DF38">
-    <cfRule type="expression" dxfId="113" priority="103">
+    <cfRule type="expression" dxfId="111" priority="103">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="104">
+    <cfRule type="expression" dxfId="110" priority="104">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="105">
+    <cfRule type="expression" dxfId="109" priority="105">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD23:DF23">
-    <cfRule type="expression" dxfId="110" priority="100">
+    <cfRule type="expression" dxfId="108" priority="100">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="101">
+    <cfRule type="expression" dxfId="107" priority="101">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="102">
+    <cfRule type="expression" dxfId="106" priority="102">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD20:DF20">
-    <cfRule type="expression" dxfId="107" priority="97">
+    <cfRule type="expression" dxfId="105" priority="97">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="98">
+    <cfRule type="expression" dxfId="104" priority="98">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="99">
+    <cfRule type="expression" dxfId="103" priority="99">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD24:DF24">
-    <cfRule type="expression" dxfId="104" priority="94">
+    <cfRule type="expression" dxfId="102" priority="94">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="95">
+    <cfRule type="expression" dxfId="101" priority="95">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="96">
+    <cfRule type="expression" dxfId="100" priority="96">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD39:DF39">
-    <cfRule type="expression" dxfId="101" priority="91">
+    <cfRule type="expression" dxfId="99" priority="91">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="92">
+    <cfRule type="expression" dxfId="98" priority="92">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="93">
+    <cfRule type="expression" dxfId="97" priority="93">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC11:DF12">
-    <cfRule type="expression" dxfId="98" priority="88">
+    <cfRule type="expression" dxfId="96" priority="88">
       <formula>DC$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="89">
+    <cfRule type="expression" dxfId="95" priority="89">
       <formula>DC$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="90">
+    <cfRule type="expression" dxfId="94" priority="90">
       <formula>DC$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC11:DF11">
-    <cfRule type="expression" dxfId="95" priority="87">
+    <cfRule type="expression" dxfId="93" priority="87">
       <formula>DC$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG64:EB65 DG21:EB22 DG41:EB44 DG13:EB19 DG26:EB27 DG47:EB49">
-    <cfRule type="expression" dxfId="94" priority="84">
+    <cfRule type="expression" dxfId="92" priority="84">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="85">
+    <cfRule type="expression" dxfId="91" priority="85">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="86">
+    <cfRule type="expression" dxfId="90" priority="86">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG50:EB63">
-    <cfRule type="expression" dxfId="91" priority="81">
+    <cfRule type="expression" dxfId="89" priority="81">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="82">
+    <cfRule type="expression" dxfId="88" priority="82">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="83">
+    <cfRule type="expression" dxfId="87" priority="83">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG45:EB45">
-    <cfRule type="expression" dxfId="88" priority="78">
+    <cfRule type="expression" dxfId="86" priority="78">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="79">
+    <cfRule type="expression" dxfId="85" priority="79">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="80">
+    <cfRule type="expression" dxfId="84" priority="80">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG46:EB46">
-    <cfRule type="expression" dxfId="85" priority="75">
+    <cfRule type="expression" dxfId="83" priority="75">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="76">
+    <cfRule type="expression" dxfId="82" priority="76">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="77">
+    <cfRule type="expression" dxfId="81" priority="77">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG25:EB25">
-    <cfRule type="expression" dxfId="82" priority="72">
+    <cfRule type="expression" dxfId="80" priority="72">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="73">
+    <cfRule type="expression" dxfId="79" priority="73">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="74">
+    <cfRule type="expression" dxfId="78" priority="74">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG40:EB40">
-    <cfRule type="expression" dxfId="79" priority="69">
+    <cfRule type="expression" dxfId="77" priority="69">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="70">
+    <cfRule type="expression" dxfId="76" priority="70">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="71">
+    <cfRule type="expression" dxfId="75" priority="71">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG28:EB38">
-    <cfRule type="expression" dxfId="76" priority="66">
+    <cfRule type="expression" dxfId="74" priority="66">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="67">
+    <cfRule type="expression" dxfId="73" priority="67">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="68">
+    <cfRule type="expression" dxfId="72" priority="68">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG23:EB23">
-    <cfRule type="expression" dxfId="73" priority="63">
+    <cfRule type="expression" dxfId="71" priority="63">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="64">
+    <cfRule type="expression" dxfId="70" priority="64">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="65">
+    <cfRule type="expression" dxfId="69" priority="65">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG20:EB20">
-    <cfRule type="expression" dxfId="70" priority="60">
+    <cfRule type="expression" dxfId="68" priority="60">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="61">
+    <cfRule type="expression" dxfId="67" priority="61">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="62">
+    <cfRule type="expression" dxfId="66" priority="62">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG24:EB24">
-    <cfRule type="expression" dxfId="67" priority="57">
+    <cfRule type="expression" dxfId="65" priority="57">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="58">
+    <cfRule type="expression" dxfId="64" priority="58">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="59">
+    <cfRule type="expression" dxfId="63" priority="59">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG39:EB39">
-    <cfRule type="expression" dxfId="64" priority="54">
+    <cfRule type="expression" dxfId="62" priority="54">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="55">
+    <cfRule type="expression" dxfId="61" priority="55">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="56">
+    <cfRule type="expression" dxfId="60" priority="56">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG11:EB12">
-    <cfRule type="expression" dxfId="61" priority="51">
+    <cfRule type="expression" dxfId="59" priority="51">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="52">
+    <cfRule type="expression" dxfId="58" priority="52">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="53">
+    <cfRule type="expression" dxfId="57" priority="53">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG11:EB11">
-    <cfRule type="expression" dxfId="58" priority="50">
+    <cfRule type="expression" dxfId="56" priority="50">
       <formula>DG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG11:EG65">
-    <cfRule type="expression" dxfId="57" priority="10">
+    <cfRule type="expression" dxfId="55" priority="10">
       <formula>EG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="11">
+    <cfRule type="expression" dxfId="54" priority="11">
       <formula>EG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="12">
+    <cfRule type="expression" dxfId="53" priority="12">
       <formula>EG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG11">
-    <cfRule type="expression" dxfId="54" priority="9">
+    <cfRule type="expression" dxfId="52" priority="9">
       <formula>EG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EH11:FI65">
-    <cfRule type="expression" dxfId="53" priority="6">
+    <cfRule type="expression" dxfId="51" priority="6">
       <formula>EH$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="7">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>EH$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="8">
+    <cfRule type="expression" dxfId="49" priority="8">
       <formula>EH$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EH11:FI11">
-    <cfRule type="expression" dxfId="50" priority="5">
+    <cfRule type="expression" dxfId="48" priority="5">
       <formula>EH$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ11:FL65">
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="47" priority="2">
       <formula>FJ$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="3">
+    <cfRule type="expression" dxfId="46" priority="3">
       <formula>FJ$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="4">
+    <cfRule type="expression" dxfId="45" priority="4">
       <formula>FJ$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ11:FL11">
-    <cfRule type="expression" dxfId="46" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>FJ$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23540,12 +23526,12 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D37" sqref="D37"/>
       <selection pane="topRight" activeCell="D37" sqref="D37"/>
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23706,7 +23692,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1">
+    <row r="9" spans="2:13" ht="69" customHeight="1">
       <c r="B9" s="63">
         <v>2</v>
       </c>
@@ -23874,7 +23860,7 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" ht="94.5" hidden="1">
+    <row r="14" spans="2:13" ht="94.5">
       <c r="B14" s="63">
         <v>7</v>
       </c>
@@ -24044,7 +24030,7 @@
       </c>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5">
+    <row r="19" spans="2:13" ht="94.5" hidden="1">
       <c r="B19" s="63">
         <v>12</v>
       </c>
@@ -24392,7 +24378,7 @@
       <c r="L28" s="75"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" ht="67.5">
+    <row r="29" spans="2:13" ht="67.5" hidden="1">
       <c r="B29" s="63">
         <v>22</v>
       </c>
@@ -24498,7 +24484,7 @@
       </c>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="32" spans="2:13" ht="121.5" customHeight="1">
       <c r="B32" s="63">
         <v>25</v>
       </c>
@@ -24532,7 +24518,7 @@
       </c>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" hidden="1">
+    <row r="33" spans="2:13">
       <c r="B33" s="63">
         <v>26</v>
       </c>
@@ -24722,236 +24708,238 @@
     </row>
   </sheetData>
   <autoFilter ref="B7:M33">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="B"/>
+        <filter val="C"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4">
       <filters>
         <filter val="対応中"/>
+        <filter val="保留"/>
         <filter val="未着手"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="～9月2週目"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B38:C38 B8:C28 E29:F30 E8:F27 E38:G38 E28 J8:M30 H8:I28 J38:M38">
-    <cfRule type="expression" dxfId="45" priority="49">
+    <cfRule type="expression" dxfId="43" priority="49">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G28">
-    <cfRule type="expression" dxfId="44" priority="48">
+    <cfRule type="expression" dxfId="42" priority="48">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="43" priority="47">
+    <cfRule type="expression" dxfId="41" priority="47">
       <formula>$F38="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="40" priority="46">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="41" priority="45">
+    <cfRule type="expression" dxfId="39" priority="45">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="40" priority="38">
+    <cfRule type="expression" dxfId="38" priority="38">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="39" priority="44">
+    <cfRule type="expression" dxfId="37" priority="44">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="38" priority="42">
+    <cfRule type="expression" dxfId="36" priority="42">
       <formula>$F28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="37" priority="41">
+    <cfRule type="expression" dxfId="35" priority="41">
       <formula>$F38="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="36" priority="40">
+    <cfRule type="expression" dxfId="34" priority="40">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="35" priority="39">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="34" priority="37">
+    <cfRule type="expression" dxfId="32" priority="37">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="33" priority="36">
+    <cfRule type="expression" dxfId="31" priority="36">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="32" priority="35">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D30 D38">
-    <cfRule type="expression" dxfId="31" priority="34">
+    <cfRule type="expression" dxfId="29" priority="34">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31 J31:M31">
-    <cfRule type="expression" dxfId="30" priority="33">
+    <cfRule type="expression" dxfId="28" priority="33">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="29" priority="32">
+    <cfRule type="expression" dxfId="27" priority="32">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="28" priority="31">
+    <cfRule type="expression" dxfId="26" priority="31">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B37">
-    <cfRule type="expression" dxfId="27" priority="26">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="26" priority="29">
+    <cfRule type="expression" dxfId="24" priority="29">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="25" priority="28">
+    <cfRule type="expression" dxfId="23" priority="28">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:F37 J34:M37 L33:M33">
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G37">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:H37">
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:I37">
-    <cfRule type="expression" dxfId="21" priority="23">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C37">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D37">
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:F32 J32:K32 M32">
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:F33 J33:K33">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/99.work/TODOList_課題・気になる.xlsx
+++ b/99.work/TODOList_課題・気になる.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11354355-6866-4135-9D93-D4A418DE87C6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18080" windowHeight="8180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memo" sheetId="17" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$B$12:$FP$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題整理_0609!$B$7:$M$33</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="382">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -4066,25 +4067,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0818　多少開発しづらいが、機能はあるので優先度下げる（A⇒C</t>
-    <rPh sb="5" eb="7">
-      <t>タショウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ユウセンド</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>対象外</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
@@ -4591,41 +4573,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0819
-tileを利用する。共通のJSPを用意し、画面毎にタイトル、表示内容などをtiles.xmlで設定して切り替える</t>
-    <rPh sb="10" eb="12">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>工数(H)</t>
     <rPh sb="0" eb="2">
       <t>コウスウ</t>
@@ -4676,11 +4623,217 @@
     <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1006　リリース後対応とする</t>
+    <rPh sb="9" eb="10">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0819
+tileを利用する。共通のJSPを用意し、画面毎にタイトル、表示内容などをtiles.xmlで設定して切り替える
+1006　現時点ですでに実装済みのためクローズ</t>
+    <rPh sb="10" eb="12">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>ゲンジテン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1006 改めて画面を開発する際に、同じ事象が発生したら対応する</t>
+    <rPh sb="5" eb="6">
+      <t>アラタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0818　多少開発しづらいが、機能はあるので優先度下げる（A⇒C
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1006 改めて画面を開発する際に、対応する</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>タショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リリース後対応</t>
+    <rPh sb="4" eb="7">
+      <t>ゴタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計書のリリース後対応について</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">１００６　外部設計書を確認してリリース後対応を以下に紫いろで記載中
+WFS_設計.xlsx
+</t>
+    <rPh sb="5" eb="7">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ムラサキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今後の作業を整理した</t>
+    <rPh sb="0" eb="2">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
@@ -4689,7 +4842,7 @@
     <numFmt numFmtId="180" formatCode="m"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5209,7 +5362,168 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="182">
+  <dxfs count="205">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6532,13 +6846,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>728382</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6546,7 +6860,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6625,7 +6939,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF375417-2A73-49A5-BD3B-056D100FFF29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6740,7 +7054,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6782,7 +7096,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6815,9 +7129,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6850,6 +7181,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7025,22 +7373,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="28" t="s">
         <v>124</v>
       </c>
@@ -7048,13 +7394,13 @@
         <v>30</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="18">
         <v>3</v>
       </c>
@@ -7069,7 +7415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="18">
         <v>4</v>
       </c>
@@ -7084,7 +7430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="18">
         <v>5</v>
       </c>
@@ -7099,16 +7445,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="18">
         <v>6</v>
       </c>
       <c r="C6" s="57">
-        <f>SUM(WBS!O66:AS66)</f>
+        <f>SUM(WBS!O70:AS70)</f>
         <v>20.5</v>
       </c>
       <c r="D6" s="57">
-        <f>SUMIF(WBS!$O$10:$EG$10,memo!$B6,WBS!$O$66:$EG$66)</f>
+        <f>SUMIF(WBS!$O$10:$EG$10,memo!$B6,WBS!$O$70:$EG$70)</f>
         <v>19.5</v>
       </c>
       <c r="E6" s="57">
@@ -7116,16 +7462,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="18">
         <v>7</v>
       </c>
       <c r="C7" s="57">
-        <f>SUM(WBS!AS66:BW66)</f>
+        <f>SUM(WBS!AS70:BW70)</f>
         <v>70.5</v>
       </c>
       <c r="D7" s="57">
-        <f>SUMIF(WBS!$O$10:$EG$10,memo!$B7,WBS!$O$66:$EG$66)</f>
+        <f>SUMIF(WBS!$O$10:$EG$10,memo!$B7,WBS!$O$70:$EG$70)</f>
         <v>70.5</v>
       </c>
       <c r="E7" s="57">
@@ -7133,16 +7479,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="18">
         <v>8</v>
       </c>
       <c r="C8" s="57">
-        <f>SUM(WBS!BX66:EF66)</f>
+        <f>SUM(WBS!BX70:EF70)</f>
         <v>103.5</v>
       </c>
       <c r="D8" s="57">
-        <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$66:$EG$66)</f>
+        <f>SUMIF(WBS!$O$10:$EG$10,memo!$B8,WBS!$O$70:$EG$70)</f>
         <v>43.5</v>
       </c>
       <c r="E8" s="57">
@@ -7150,16 +7496,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="18">
         <v>9</v>
       </c>
       <c r="C9" s="57">
-        <f>SUM(WBS!BX67:EF67)</f>
+        <f>SUM(WBS!BX71:EF71)</f>
         <v>0</v>
       </c>
       <c r="D9" s="57">
-        <f>SUMIF(WBS!$O$10:$EG$10,memo!$B9,WBS!$O$66:$EG$66)</f>
+        <f>SUMIF(WBS!$O$10:$EG$10,memo!$B9,WBS!$O$70:$EG$70)</f>
         <v>60</v>
       </c>
       <c r="E9" s="57">
@@ -7167,7 +7513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="81" t="s">
         <v>125</v>
       </c>
@@ -7191,17 +7537,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" s="3" customFormat="1">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -7209,7 +7555,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -7217,7 +7563,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>106</v>
       </c>
@@ -7225,7 +7571,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -7236,7 +7582,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I7" s="27" t="s">
         <v>120</v>
       </c>
@@ -7244,68 +7590,68 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1">
+    <row r="16" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:16" s="26" customFormat="1">
+    <row r="17" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C17" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="26" customFormat="1">
+    <row r="18" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="26" customFormat="1">
+    <row r="19" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="26" customFormat="1"/>
-    <row r="22" spans="2:16" s="24" customFormat="1">
+    <row r="20" spans="2:16" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>91</v>
       </c>
@@ -7313,27 +7659,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>96</v>
       </c>
@@ -7341,37 +7687,37 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>103</v>
       </c>
@@ -7382,7 +7728,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7390,21 +7736,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7418,7 +7764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7429,7 +7775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7440,7 +7786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7448,7 +7794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7462,7 +7808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7470,7 +7816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7506,7 +7852,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7517,62 +7863,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -7583,7 +7929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7599,37 +7945,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:FM94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:FM98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="8" topLeftCell="BE13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="14" ySplit="8" topLeftCell="EE13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="O5" sqref="O5"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BO29" sqref="BO29"/>
+      <selection pane="bottomRight" activeCell="EL42" sqref="EL42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="3" width="2.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="2" max="3" width="2.36328125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="8" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.125" customWidth="1"/>
+    <col min="12" max="12" width="32.08984375" customWidth="1"/>
     <col min="13" max="13" width="10" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="168" width="7.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.90625" customWidth="1"/>
+    <col min="15" max="168" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="3.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:169" s="39" customFormat="1">
+    <row r="1" spans="2:169" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="H1" s="8"/>
@@ -7794,7 +8140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:169" s="39" customFormat="1">
+    <row r="2" spans="2:169" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
@@ -7961,7 +8307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:169" s="39" customFormat="1">
+    <row r="3" spans="2:169" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
@@ -8129,7 +8475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:169" s="39" customFormat="1">
+    <row r="4" spans="2:169" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
@@ -8297,7 +8643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:169" s="39" customFormat="1">
+    <row r="5" spans="2:169" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
       <c r="H5" s="8"/>
@@ -8462,7 +8808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:169" s="39" customFormat="1">
+    <row r="6" spans="2:169" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>149</v>
       </c>
@@ -8629,13 +8975,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:169" s="39" customFormat="1">
+    <row r="7" spans="2:169" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="38"/>
       <c r="D7" s="38" t="s">
         <v>159</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="38"/>
@@ -8801,7 +9147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:169" s="39" customFormat="1">
+    <row r="8" spans="2:169" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="H8" s="8"/>
@@ -8966,7 +9312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:169">
+    <row r="9" spans="2:169" x14ac:dyDescent="0.2">
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -9125,7 +9471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:169">
+    <row r="10" spans="2:169" x14ac:dyDescent="0.2">
       <c r="L10" s="7"/>
       <c r="O10" s="29">
         <v>43252</v>
@@ -9593,7 +9939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:169">
+    <row r="11" spans="2:169" x14ac:dyDescent="0.2">
       <c r="O11" s="9">
         <f>O10</f>
         <v>43252</v>
@@ -10214,7 +10560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:169" ht="28.5" customHeight="1">
+    <row r="12" spans="2:169" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="82" t="s">
         <v>0</v>
       </c>
@@ -10863,7 +11209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:169">
+    <row r="13" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B13" s="30">
         <v>1</v>
       </c>
@@ -10894,7 +11240,7 @@
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="48">
-        <f t="shared" ref="M13:M44" si="90">SUM(O13:EF13)</f>
+        <f t="shared" ref="M13:M48" si="90">SUM(O13:EF13)</f>
         <v>0</v>
       </c>
       <c r="O13" s="11"/>
@@ -11055,7 +11401,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:169">
+    <row r="14" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="42" t="s">
@@ -11241,7 +11587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:169">
+    <row r="15" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="42"/>
@@ -11417,7 +11763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:169">
+    <row r="16" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="42"/>
@@ -11591,7 +11937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:169">
+    <row r="17" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="42"/>
@@ -11779,7 +12125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:169">
+    <row r="18" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="42"/>
@@ -11965,7 +12311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:169">
+    <row r="19" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="42"/>
@@ -12151,7 +12497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:169">
+    <row r="20" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="42"/>
@@ -12343,7 +12689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:169">
+    <row r="21" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="42"/>
@@ -12529,7 +12875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:169">
+    <row r="22" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="42"/>
@@ -12717,7 +13063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:169">
+    <row r="23" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="42"/>
@@ -12903,7 +13249,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:169">
+    <row r="24" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="42"/>
@@ -13089,7 +13435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:169">
+    <row r="25" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="42"/>
@@ -13263,7 +13609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:169">
+    <row r="26" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="42"/>
@@ -13437,7 +13783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:169">
+    <row r="27" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B27" s="30"/>
       <c r="C27" s="30">
         <v>2</v>
@@ -13623,7 +13969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:169">
+    <row r="28" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="42"/>
@@ -13643,7 +13989,7 @@
       </c>
       <c r="J28" s="79" t="str">
         <f>VLOOKUP($G28,課題整理_0609!$B$8:$M$38,5,FALSE)</f>
-        <v>未着手</v>
+        <v>リリース後対応</v>
       </c>
       <c r="K28" s="52" t="s">
         <v>160</v>
@@ -13811,7 +14157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:169">
+    <row r="29" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="42"/>
@@ -13829,7 +14175,7 @@
       </c>
       <c r="J29" s="79" t="str">
         <f>VLOOKUP($G29,課題整理_0609!$B$8:$M$38,5,FALSE)</f>
-        <v>対応中</v>
+        <v>完了</v>
       </c>
       <c r="K29" s="52" t="s">
         <v>160</v>
@@ -13999,7 +14345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:169">
+    <row r="30" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="42"/>
@@ -14191,7 +14537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:169">
+    <row r="31" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="42"/>
@@ -14421,7 +14767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:169">
+    <row r="32" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="42"/>
@@ -14636,7 +14982,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:169">
+    <row r="33" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="42"/>
@@ -14824,7 +15170,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:169">
+    <row r="34" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="42"/>
@@ -15012,7 +15358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:169">
+    <row r="35" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="42"/>
@@ -15200,7 +15546,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:169">
+    <row r="36" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="42"/>
@@ -15390,7 +15736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:169">
+    <row r="37" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="42"/>
@@ -15408,7 +15754,7 @@
       </c>
       <c r="J37" s="79" t="str">
         <f>VLOOKUP($G37,課題整理_0609!$B$8:$M$38,5,FALSE)</f>
-        <v>保留</v>
+        <v>リリース後対応</v>
       </c>
       <c r="K37" s="52" t="s">
         <v>160</v>
@@ -15576,7 +15922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:169">
+    <row r="38" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="42"/>
@@ -15764,7 +16110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:169">
+    <row r="39" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="42"/>
@@ -15950,7 +16296,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:169">
+    <row r="40" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="42"/>
@@ -15963,7 +16309,7 @@
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
       <c r="M40" s="48">
-        <f t="shared" si="90"/>
+        <f t="shared" ref="M40:M43" si="91">SUM(O40:EF40)</f>
         <v>0</v>
       </c>
       <c r="O40" s="11"/>
@@ -16124,34 +16470,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:169">
+    <row r="41" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B41" s="30"/>
-      <c r="C41" s="30">
-        <v>3</v>
-      </c>
+      <c r="C41" s="30"/>
       <c r="D41" s="42"/>
       <c r="E41" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>157</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="F41" s="40"/>
       <c r="G41" s="40"/>
-      <c r="H41" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="I41" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="J41" s="41" t="s">
-        <v>156</v>
-      </c>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
       <c r="K41" s="40"/>
-      <c r="L41" s="40" t="s">
-        <v>158</v>
-      </c>
+      <c r="L41" s="40"/>
       <c r="M41" s="48">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O41" s="11"/>
@@ -16281,7 +16615,9 @@
       <c r="EI41" s="11"/>
       <c r="EJ41" s="11"/>
       <c r="EK41" s="11"/>
-      <c r="EL41" s="11"/>
+      <c r="EL41" s="11">
+        <v>3</v>
+      </c>
       <c r="EM41" s="11"/>
       <c r="EN41" s="11"/>
       <c r="EO41" s="11"/>
@@ -16312,7 +16648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:169">
+    <row r="42" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="42"/>
@@ -16325,7 +16661,7 @@
       <c r="K42" s="40"/>
       <c r="L42" s="40"/>
       <c r="M42" s="48">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O42" s="11"/>
@@ -16486,30 +16822,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:169">
+    <row r="43" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="42"/>
-      <c r="E43" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>152</v>
-      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
       <c r="G43" s="40"/>
-      <c r="H43" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="I43" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="J43" s="41" t="s">
-        <v>156</v>
-      </c>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
       <c r="K43" s="40"/>
       <c r="L43" s="40"/>
       <c r="M43" s="48">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O43" s="11"/>
@@ -16670,7 +16996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:169">
+    <row r="44" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="42"/>
@@ -16844,28 +17170,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:169">
+    <row r="45" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
+      <c r="C45" s="30">
+        <v>3</v>
+      </c>
       <c r="D45" s="42"/>
       <c r="E45" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45" s="40"/>
+        <v>130</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>157</v>
+      </c>
       <c r="G45" s="40"/>
       <c r="H45" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="I45" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="J45" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="K45" s="52"/>
-      <c r="L45" s="40"/>
+        <v>177</v>
+      </c>
+      <c r="I45" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="J45" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40" t="s">
+        <v>158</v>
+      </c>
       <c r="M45" s="48">
-        <f t="shared" ref="M45:M66" si="91">SUM(O45:EF45)</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O45" s="11"/>
@@ -17026,25 +17358,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:169">
+    <row r="46" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="42"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="M46" s="47">
-        <f t="shared" si="91"/>
-        <v>16.5</v>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="48">
+        <f t="shared" si="90"/>
+        <v>0</v>
       </c>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
@@ -17071,9 +17399,7 @@
       <c r="AK46" s="11"/>
       <c r="AL46" s="11"/>
       <c r="AM46" s="11"/>
-      <c r="AN46" s="11">
-        <v>16.5</v>
-      </c>
+      <c r="AN46" s="11"/>
       <c r="AO46" s="11"/>
       <c r="AP46" s="11"/>
       <c r="AQ46" s="11"/>
@@ -17206,20 +17532,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:169" ht="48" customHeight="1">
+    <row r="47" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="42"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="47">
-        <f t="shared" si="91"/>
+      <c r="E47" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="G47" s="40"/>
+      <c r="H47" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="I47" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="J47" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="48">
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O47" s="11"/>
@@ -17380,39 +17716,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:169" ht="27">
-      <c r="B48" s="30">
-        <v>2</v>
-      </c>
-      <c r="C48" s="30">
-        <v>1</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="I48" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="J48" s="30"/>
-      <c r="K48" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="M48" s="47">
-        <f t="shared" si="91"/>
-        <v>3.5</v>
+    <row r="48" spans="2:169" x14ac:dyDescent="0.2">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="48">
+        <f t="shared" si="90"/>
+        <v>0</v>
       </c>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
@@ -17449,9 +17767,7 @@
       <c r="AU48" s="11"/>
       <c r="AV48" s="11"/>
       <c r="AW48" s="11"/>
-      <c r="AX48" s="11">
-        <v>1</v>
-      </c>
+      <c r="AX48" s="11"/>
       <c r="AY48" s="11"/>
       <c r="AZ48" s="11"/>
       <c r="BA48" s="11"/>
@@ -17460,9 +17776,7 @@
       <c r="BD48" s="11"/>
       <c r="BE48" s="11"/>
       <c r="BF48" s="11"/>
-      <c r="BG48" s="11">
-        <v>2.5</v>
-      </c>
+      <c r="BG48" s="11"/>
       <c r="BH48" s="11"/>
       <c r="BI48" s="11"/>
       <c r="BJ48" s="11"/>
@@ -17576,20 +17890,28 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:169">
+    <row r="49" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="47">
-        <f t="shared" si="91"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="I49" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="J49" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="52"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="48">
+        <f t="shared" ref="M49:M70" si="92">SUM(O49:EF49)</f>
         <v>0</v>
       </c>
       <c r="O49" s="11"/>
@@ -17750,29 +18072,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:169">
+    <row r="50" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F50" s="4"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="G50" s="4"/>
-      <c r="H50" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="I50" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="L50" s="4"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="M50" s="47">
-        <f t="shared" si="91"/>
-        <v>0</v>
+        <f t="shared" si="92"/>
+        <v>16.5</v>
       </c>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
@@ -17799,7 +18117,9 @@
       <c r="AK50" s="11"/>
       <c r="AL50" s="11"/>
       <c r="AM50" s="11"/>
-      <c r="AN50" s="11"/>
+      <c r="AN50" s="11">
+        <v>16.5</v>
+      </c>
       <c r="AO50" s="11"/>
       <c r="AP50" s="11"/>
       <c r="AQ50" s="11"/>
@@ -17932,10 +18252,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:169">
+    <row r="51" spans="2:169" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
-      <c r="D51" s="43"/>
+      <c r="D51" s="42"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -17945,7 +18265,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="47">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="O51" s="11"/>
@@ -18106,31 +18426,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:169">
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="41" t="s">
-        <v>177</v>
+    <row r="52" spans="2:169" ht="39" x14ac:dyDescent="0.2">
+      <c r="B52" s="30">
+        <v>2</v>
+      </c>
+      <c r="C52" s="30">
+        <v>1</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="30" t="s">
+        <v>175</v>
       </c>
       <c r="I52" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="J52" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="K52" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="L52" s="40"/>
-      <c r="M52" s="48">
-        <f t="shared" si="91"/>
-        <v>1.5</v>
+        <v>178</v>
+      </c>
+      <c r="J52" s="30"/>
+      <c r="K52" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M52" s="47">
+        <f t="shared" si="92"/>
+        <v>3.5</v>
       </c>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
@@ -18167,18 +18495,20 @@
       <c r="AU52" s="11"/>
       <c r="AV52" s="11"/>
       <c r="AW52" s="11"/>
-      <c r="AX52" s="11"/>
+      <c r="AX52" s="11">
+        <v>1</v>
+      </c>
       <c r="AY52" s="11"/>
       <c r="AZ52" s="11"/>
-      <c r="BA52" s="11">
-        <v>1.5</v>
-      </c>
+      <c r="BA52" s="11"/>
       <c r="BB52" s="11"/>
       <c r="BC52" s="11"/>
       <c r="BD52" s="11"/>
       <c r="BE52" s="11"/>
       <c r="BF52" s="11"/>
-      <c r="BG52" s="11"/>
+      <c r="BG52" s="11">
+        <v>2.5</v>
+      </c>
       <c r="BH52" s="11"/>
       <c r="BI52" s="11"/>
       <c r="BJ52" s="11"/>
@@ -18292,7 +18622,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:169">
+    <row r="53" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="43"/>
@@ -18305,7 +18635,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="47">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="O53" s="11"/>
@@ -18466,28 +18796,28 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:169" ht="27">
+    <row r="54" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="43"/>
       <c r="E54" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I54" s="30" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J54" s="30"/>
-      <c r="K54" s="37" t="s">
-        <v>186</v>
+      <c r="K54" s="30" t="s">
+        <v>173</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="47">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="O54" s="11"/>
@@ -18648,7 +18978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:169">
+    <row r="55" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="43"/>
@@ -18661,7 +18991,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="47">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="O55" s="11"/>
@@ -18822,33 +19152,31 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:169" ht="27">
+    <row r="56" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="43"/>
-      <c r="E56" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="30" t="s">
-        <v>175</v>
+      <c r="E56" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="I56" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="J56" s="30"/>
-      <c r="K56" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="M56" s="47">
-        <f t="shared" si="91"/>
-        <v>3</v>
+        <v>192</v>
+      </c>
+      <c r="J56" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="K56" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="L56" s="40"/>
+      <c r="M56" s="48">
+        <f t="shared" si="92"/>
+        <v>1.5</v>
       </c>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
@@ -18888,22 +19216,18 @@
       <c r="AX56" s="11"/>
       <c r="AY56" s="11"/>
       <c r="AZ56" s="11"/>
-      <c r="BA56" s="11"/>
+      <c r="BA56" s="11">
+        <v>1.5</v>
+      </c>
       <c r="BB56" s="11"/>
       <c r="BC56" s="11"/>
       <c r="BD56" s="11"/>
       <c r="BE56" s="11"/>
       <c r="BF56" s="11"/>
-      <c r="BG56" s="11">
-        <v>1.5</v>
-      </c>
+      <c r="BG56" s="11"/>
       <c r="BH56" s="11"/>
-      <c r="BI56" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="BJ56" s="11">
-        <v>1</v>
-      </c>
+      <c r="BI56" s="11"/>
+      <c r="BJ56" s="11"/>
       <c r="BK56" s="11"/>
       <c r="BL56" s="11"/>
       <c r="BM56" s="11"/>
@@ -19014,7 +19338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:169">
+    <row r="57" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="43"/>
@@ -19027,7 +19351,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="47">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="O57" s="11"/>
@@ -19188,26 +19512,28 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="2:169">
+    <row r="58" spans="2:169" ht="39" x14ac:dyDescent="0.2">
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="43"/>
       <c r="E58" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="I58" s="30"/>
+        <v>175</v>
+      </c>
+      <c r="I58" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="J58" s="30"/>
-      <c r="K58" s="4"/>
+      <c r="K58" s="37" t="s">
+        <v>186</v>
+      </c>
       <c r="L58" s="4"/>
       <c r="M58" s="47">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="O58" s="11"/>
@@ -19368,7 +19694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:169">
+    <row r="59" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="43"/>
@@ -19381,7 +19707,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="47">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="O59" s="11"/>
@@ -19542,21 +19868,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:169">
+    <row r="60" spans="2:169" ht="26" x14ac:dyDescent="0.2">
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="G60" s="4"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
+      <c r="H60" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I60" s="30" t="s">
+        <v>180</v>
+      </c>
       <c r="J60" s="30"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
+      <c r="K60" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="M60" s="47">
-        <f t="shared" si="91"/>
-        <v>0</v>
+        <f t="shared" si="92"/>
+        <v>3</v>
       </c>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
@@ -19602,10 +19940,16 @@
       <c r="BD60" s="11"/>
       <c r="BE60" s="11"/>
       <c r="BF60" s="11"/>
-      <c r="BG60" s="11"/>
+      <c r="BG60" s="11">
+        <v>1.5</v>
+      </c>
       <c r="BH60" s="11"/>
-      <c r="BI60" s="11"/>
-      <c r="BJ60" s="11"/>
+      <c r="BI60" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="BJ60" s="11">
+        <v>1</v>
+      </c>
       <c r="BK60" s="11"/>
       <c r="BL60" s="11"/>
       <c r="BM60" s="11"/>
@@ -19716,10 +20060,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="2:169">
+    <row r="61" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
-      <c r="D61" s="4"/>
+      <c r="D61" s="43"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -19729,7 +20073,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="47">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="O61" s="11"/>
@@ -19890,20 +20234,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:169">
+    <row r="62" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="G62" s="4"/>
-      <c r="H62" s="30"/>
+      <c r="H62" s="30" t="s">
+        <v>176</v>
+      </c>
       <c r="I62" s="30"/>
       <c r="J62" s="30"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="47">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="O62" s="11"/>
@@ -20064,10 +20414,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="2:169">
+    <row r="63" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
-      <c r="D63" s="4"/>
+      <c r="D63" s="43"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -20077,7 +20427,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="47">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="O63" s="11"/>
@@ -20238,7 +20588,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:169">
+    <row r="64" spans="2:169" x14ac:dyDescent="0.2">
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="4"/>
@@ -20251,7 +20601,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="47">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="O64" s="11"/>
@@ -20412,1170 +20762,1554 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:169">
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="49">
-        <f t="shared" si="91"/>
+    <row r="65" spans="2:169" x14ac:dyDescent="0.2">
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="47">
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
-      <c r="U65" s="12"/>
-      <c r="V65" s="12"/>
-      <c r="W65" s="12"/>
-      <c r="X65" s="12"/>
-      <c r="Y65" s="12"/>
-      <c r="Z65" s="12"/>
-      <c r="AA65" s="12"/>
-      <c r="AB65" s="12"/>
-      <c r="AC65" s="12"/>
-      <c r="AD65" s="12"/>
-      <c r="AE65" s="12"/>
-      <c r="AF65" s="12"/>
-      <c r="AG65" s="12"/>
-      <c r="AH65" s="12"/>
-      <c r="AI65" s="12"/>
-      <c r="AJ65" s="12"/>
-      <c r="AK65" s="12"/>
-      <c r="AL65" s="12"/>
-      <c r="AM65" s="12"/>
-      <c r="AN65" s="12"/>
-      <c r="AO65" s="12"/>
-      <c r="AP65" s="12"/>
-      <c r="AQ65" s="12"/>
-      <c r="AR65" s="12"/>
-      <c r="AS65" s="12"/>
-      <c r="AT65" s="12"/>
-      <c r="AU65" s="12"/>
-      <c r="AV65" s="12"/>
-      <c r="AW65" s="12"/>
-      <c r="AX65" s="12"/>
-      <c r="AY65" s="12"/>
-      <c r="AZ65" s="12"/>
-      <c r="BA65" s="12"/>
-      <c r="BB65" s="12"/>
-      <c r="BC65" s="12"/>
-      <c r="BD65" s="12"/>
-      <c r="BE65" s="12"/>
-      <c r="BF65" s="12"/>
-      <c r="BG65" s="12"/>
-      <c r="BH65" s="12"/>
-      <c r="BI65" s="12"/>
-      <c r="BJ65" s="12"/>
-      <c r="BK65" s="12"/>
-      <c r="BL65" s="12"/>
-      <c r="BM65" s="12"/>
-      <c r="BN65" s="12"/>
-      <c r="BO65" s="12"/>
-      <c r="BP65" s="12"/>
-      <c r="BQ65" s="12"/>
-      <c r="BR65" s="12"/>
-      <c r="BS65" s="12"/>
-      <c r="BT65" s="12"/>
-      <c r="BU65" s="12"/>
-      <c r="BV65" s="12"/>
-      <c r="BW65" s="12"/>
-      <c r="BX65" s="12"/>
-      <c r="BY65" s="12"/>
-      <c r="BZ65" s="12"/>
-      <c r="CA65" s="12"/>
-      <c r="CB65" s="12"/>
-      <c r="CC65" s="12"/>
-      <c r="CD65" s="12"/>
-      <c r="CE65" s="12"/>
-      <c r="CF65" s="12"/>
-      <c r="CG65" s="12"/>
-      <c r="CH65" s="12"/>
-      <c r="CI65" s="12"/>
-      <c r="CJ65" s="12"/>
-      <c r="CK65" s="12"/>
-      <c r="CL65" s="12"/>
-      <c r="CM65" s="12"/>
-      <c r="CN65" s="12"/>
-      <c r="CO65" s="12"/>
-      <c r="CP65" s="12"/>
-      <c r="CQ65" s="12"/>
-      <c r="CR65" s="12"/>
-      <c r="CS65" s="12"/>
-      <c r="CT65" s="12"/>
-      <c r="CU65" s="12"/>
-      <c r="CV65" s="12"/>
-      <c r="CW65" s="12"/>
-      <c r="CX65" s="12"/>
-      <c r="CY65" s="12"/>
-      <c r="CZ65" s="12"/>
-      <c r="DA65" s="12"/>
-      <c r="DB65" s="12"/>
-      <c r="DC65" s="12"/>
-      <c r="DD65" s="12"/>
-      <c r="DE65" s="12"/>
-      <c r="DF65" s="12"/>
-      <c r="DG65" s="12"/>
-      <c r="DH65" s="12"/>
-      <c r="DI65" s="12"/>
-      <c r="DJ65" s="12"/>
-      <c r="DK65" s="12"/>
-      <c r="DL65" s="12"/>
-      <c r="DM65" s="12"/>
-      <c r="DN65" s="12"/>
-      <c r="DO65" s="12"/>
-      <c r="DP65" s="12"/>
-      <c r="DQ65" s="12"/>
-      <c r="DR65" s="12"/>
-      <c r="DS65" s="12"/>
-      <c r="DT65" s="12"/>
-      <c r="DU65" s="12"/>
-      <c r="DV65" s="12"/>
-      <c r="DW65" s="12"/>
-      <c r="DX65" s="12"/>
-      <c r="DY65" s="12"/>
-      <c r="DZ65" s="12"/>
-      <c r="EA65" s="12"/>
-      <c r="EB65" s="12"/>
-      <c r="EC65" s="12"/>
-      <c r="ED65" s="12"/>
-      <c r="EE65" s="12"/>
-      <c r="EF65" s="12"/>
-      <c r="EG65" s="12"/>
-      <c r="EH65" s="12"/>
-      <c r="EI65" s="12"/>
-      <c r="EJ65" s="12"/>
-      <c r="EK65" s="12"/>
-      <c r="EL65" s="12"/>
-      <c r="EM65" s="12"/>
-      <c r="EN65" s="12"/>
-      <c r="EO65" s="12"/>
-      <c r="EP65" s="12"/>
-      <c r="EQ65" s="12"/>
-      <c r="ER65" s="12"/>
-      <c r="ES65" s="12"/>
-      <c r="ET65" s="12"/>
-      <c r="EU65" s="12"/>
-      <c r="EV65" s="12"/>
-      <c r="EW65" s="12"/>
-      <c r="EX65" s="12"/>
-      <c r="EY65" s="12"/>
-      <c r="EZ65" s="12"/>
-      <c r="FA65" s="12"/>
-      <c r="FB65" s="12"/>
-      <c r="FC65" s="12"/>
-      <c r="FD65" s="12"/>
-      <c r="FE65" s="12"/>
-      <c r="FF65" s="12"/>
-      <c r="FG65" s="12"/>
-      <c r="FH65" s="12"/>
-      <c r="FI65" s="12"/>
-      <c r="FJ65" s="12"/>
-      <c r="FK65" s="12"/>
-      <c r="FL65" s="12"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="11"/>
+      <c r="AB65" s="11"/>
+      <c r="AC65" s="11"/>
+      <c r="AD65" s="11"/>
+      <c r="AE65" s="11"/>
+      <c r="AF65" s="11"/>
+      <c r="AG65" s="11"/>
+      <c r="AH65" s="11"/>
+      <c r="AI65" s="11"/>
+      <c r="AJ65" s="11"/>
+      <c r="AK65" s="11"/>
+      <c r="AL65" s="11"/>
+      <c r="AM65" s="11"/>
+      <c r="AN65" s="11"/>
+      <c r="AO65" s="11"/>
+      <c r="AP65" s="11"/>
+      <c r="AQ65" s="11"/>
+      <c r="AR65" s="11"/>
+      <c r="AS65" s="11"/>
+      <c r="AT65" s="11"/>
+      <c r="AU65" s="11"/>
+      <c r="AV65" s="11"/>
+      <c r="AW65" s="11"/>
+      <c r="AX65" s="11"/>
+      <c r="AY65" s="11"/>
+      <c r="AZ65" s="11"/>
+      <c r="BA65" s="11"/>
+      <c r="BB65" s="11"/>
+      <c r="BC65" s="11"/>
+      <c r="BD65" s="11"/>
+      <c r="BE65" s="11"/>
+      <c r="BF65" s="11"/>
+      <c r="BG65" s="11"/>
+      <c r="BH65" s="11"/>
+      <c r="BI65" s="11"/>
+      <c r="BJ65" s="11"/>
+      <c r="BK65" s="11"/>
+      <c r="BL65" s="11"/>
+      <c r="BM65" s="11"/>
+      <c r="BN65" s="11"/>
+      <c r="BO65" s="11"/>
+      <c r="BP65" s="11"/>
+      <c r="BQ65" s="11"/>
+      <c r="BR65" s="11"/>
+      <c r="BS65" s="11"/>
+      <c r="BT65" s="11"/>
+      <c r="BU65" s="11"/>
+      <c r="BV65" s="11"/>
+      <c r="BW65" s="11"/>
+      <c r="BX65" s="11"/>
+      <c r="BY65" s="11"/>
+      <c r="BZ65" s="11"/>
+      <c r="CA65" s="11"/>
+      <c r="CB65" s="11"/>
+      <c r="CC65" s="11"/>
+      <c r="CD65" s="11"/>
+      <c r="CE65" s="11"/>
+      <c r="CF65" s="11"/>
+      <c r="CG65" s="11"/>
+      <c r="CH65" s="11"/>
+      <c r="CI65" s="11"/>
+      <c r="CJ65" s="11"/>
+      <c r="CK65" s="11"/>
+      <c r="CL65" s="11"/>
+      <c r="CM65" s="11"/>
+      <c r="CN65" s="11"/>
+      <c r="CO65" s="11"/>
+      <c r="CP65" s="11"/>
+      <c r="CQ65" s="11"/>
+      <c r="CR65" s="11"/>
+      <c r="CS65" s="11"/>
+      <c r="CT65" s="11"/>
+      <c r="CU65" s="11"/>
+      <c r="CV65" s="11"/>
+      <c r="CW65" s="11"/>
+      <c r="CX65" s="11"/>
+      <c r="CY65" s="11"/>
+      <c r="CZ65" s="11"/>
+      <c r="DA65" s="11"/>
+      <c r="DB65" s="11"/>
+      <c r="DC65" s="11"/>
+      <c r="DD65" s="11"/>
+      <c r="DE65" s="11"/>
+      <c r="DF65" s="11"/>
+      <c r="DG65" s="11"/>
+      <c r="DH65" s="11"/>
+      <c r="DI65" s="11"/>
+      <c r="DJ65" s="11"/>
+      <c r="DK65" s="11"/>
+      <c r="DL65" s="11"/>
+      <c r="DM65" s="11"/>
+      <c r="DN65" s="11"/>
+      <c r="DO65" s="11"/>
+      <c r="DP65" s="11"/>
+      <c r="DQ65" s="11"/>
+      <c r="DR65" s="11"/>
+      <c r="DS65" s="11"/>
+      <c r="DT65" s="11"/>
+      <c r="DU65" s="11"/>
+      <c r="DV65" s="11"/>
+      <c r="DW65" s="11"/>
+      <c r="DX65" s="11"/>
+      <c r="DY65" s="11"/>
+      <c r="DZ65" s="11"/>
+      <c r="EA65" s="11"/>
+      <c r="EB65" s="11"/>
+      <c r="EC65" s="11"/>
+      <c r="ED65" s="11"/>
+      <c r="EE65" s="11"/>
+      <c r="EF65" s="11"/>
+      <c r="EG65" s="11"/>
+      <c r="EH65" s="11"/>
+      <c r="EI65" s="11"/>
+      <c r="EJ65" s="11"/>
+      <c r="EK65" s="11"/>
+      <c r="EL65" s="11"/>
+      <c r="EM65" s="11"/>
+      <c r="EN65" s="11"/>
+      <c r="EO65" s="11"/>
+      <c r="EP65" s="11"/>
+      <c r="EQ65" s="11"/>
+      <c r="ER65" s="11"/>
+      <c r="ES65" s="11"/>
+      <c r="ET65" s="11"/>
+      <c r="EU65" s="11"/>
+      <c r="EV65" s="11"/>
+      <c r="EW65" s="11"/>
+      <c r="EX65" s="11"/>
+      <c r="EY65" s="11"/>
+      <c r="EZ65" s="11"/>
+      <c r="FA65" s="11"/>
+      <c r="FB65" s="11"/>
+      <c r="FC65" s="11"/>
+      <c r="FD65" s="11"/>
+      <c r="FE65" s="11"/>
+      <c r="FF65" s="11"/>
+      <c r="FG65" s="11"/>
+      <c r="FH65" s="11"/>
+      <c r="FI65" s="11"/>
+      <c r="FJ65" s="11"/>
+      <c r="FK65" s="11"/>
+      <c r="FL65" s="11"/>
       <c r="FM65" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:169">
-      <c r="M66" s="45">
-        <f t="shared" si="91"/>
-        <v>193.5</v>
-      </c>
-      <c r="O66" s="14">
-        <f t="shared" ref="O66:AT66" si="92">SUM(O13:O65)</f>
-        <v>0</v>
-      </c>
-      <c r="P66" s="14">
+    <row r="66" spans="2:169" x14ac:dyDescent="0.2">
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="47">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="Q66" s="14">
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="11"/>
+      <c r="AA66" s="11"/>
+      <c r="AB66" s="11"/>
+      <c r="AC66" s="11"/>
+      <c r="AD66" s="11"/>
+      <c r="AE66" s="11"/>
+      <c r="AF66" s="11"/>
+      <c r="AG66" s="11"/>
+      <c r="AH66" s="11"/>
+      <c r="AI66" s="11"/>
+      <c r="AJ66" s="11"/>
+      <c r="AK66" s="11"/>
+      <c r="AL66" s="11"/>
+      <c r="AM66" s="11"/>
+      <c r="AN66" s="11"/>
+      <c r="AO66" s="11"/>
+      <c r="AP66" s="11"/>
+      <c r="AQ66" s="11"/>
+      <c r="AR66" s="11"/>
+      <c r="AS66" s="11"/>
+      <c r="AT66" s="11"/>
+      <c r="AU66" s="11"/>
+      <c r="AV66" s="11"/>
+      <c r="AW66" s="11"/>
+      <c r="AX66" s="11"/>
+      <c r="AY66" s="11"/>
+      <c r="AZ66" s="11"/>
+      <c r="BA66" s="11"/>
+      <c r="BB66" s="11"/>
+      <c r="BC66" s="11"/>
+      <c r="BD66" s="11"/>
+      <c r="BE66" s="11"/>
+      <c r="BF66" s="11"/>
+      <c r="BG66" s="11"/>
+      <c r="BH66" s="11"/>
+      <c r="BI66" s="11"/>
+      <c r="BJ66" s="11"/>
+      <c r="BK66" s="11"/>
+      <c r="BL66" s="11"/>
+      <c r="BM66" s="11"/>
+      <c r="BN66" s="11"/>
+      <c r="BO66" s="11"/>
+      <c r="BP66" s="11"/>
+      <c r="BQ66" s="11"/>
+      <c r="BR66" s="11"/>
+      <c r="BS66" s="11"/>
+      <c r="BT66" s="11"/>
+      <c r="BU66" s="11"/>
+      <c r="BV66" s="11"/>
+      <c r="BW66" s="11"/>
+      <c r="BX66" s="11"/>
+      <c r="BY66" s="11"/>
+      <c r="BZ66" s="11"/>
+      <c r="CA66" s="11"/>
+      <c r="CB66" s="11"/>
+      <c r="CC66" s="11"/>
+      <c r="CD66" s="11"/>
+      <c r="CE66" s="11"/>
+      <c r="CF66" s="11"/>
+      <c r="CG66" s="11"/>
+      <c r="CH66" s="11"/>
+      <c r="CI66" s="11"/>
+      <c r="CJ66" s="11"/>
+      <c r="CK66" s="11"/>
+      <c r="CL66" s="11"/>
+      <c r="CM66" s="11"/>
+      <c r="CN66" s="11"/>
+      <c r="CO66" s="11"/>
+      <c r="CP66" s="11"/>
+      <c r="CQ66" s="11"/>
+      <c r="CR66" s="11"/>
+      <c r="CS66" s="11"/>
+      <c r="CT66" s="11"/>
+      <c r="CU66" s="11"/>
+      <c r="CV66" s="11"/>
+      <c r="CW66" s="11"/>
+      <c r="CX66" s="11"/>
+      <c r="CY66" s="11"/>
+      <c r="CZ66" s="11"/>
+      <c r="DA66" s="11"/>
+      <c r="DB66" s="11"/>
+      <c r="DC66" s="11"/>
+      <c r="DD66" s="11"/>
+      <c r="DE66" s="11"/>
+      <c r="DF66" s="11"/>
+      <c r="DG66" s="11"/>
+      <c r="DH66" s="11"/>
+      <c r="DI66" s="11"/>
+      <c r="DJ66" s="11"/>
+      <c r="DK66" s="11"/>
+      <c r="DL66" s="11"/>
+      <c r="DM66" s="11"/>
+      <c r="DN66" s="11"/>
+      <c r="DO66" s="11"/>
+      <c r="DP66" s="11"/>
+      <c r="DQ66" s="11"/>
+      <c r="DR66" s="11"/>
+      <c r="DS66" s="11"/>
+      <c r="DT66" s="11"/>
+      <c r="DU66" s="11"/>
+      <c r="DV66" s="11"/>
+      <c r="DW66" s="11"/>
+      <c r="DX66" s="11"/>
+      <c r="DY66" s="11"/>
+      <c r="DZ66" s="11"/>
+      <c r="EA66" s="11"/>
+      <c r="EB66" s="11"/>
+      <c r="EC66" s="11"/>
+      <c r="ED66" s="11"/>
+      <c r="EE66" s="11"/>
+      <c r="EF66" s="11"/>
+      <c r="EG66" s="11"/>
+      <c r="EH66" s="11"/>
+      <c r="EI66" s="11"/>
+      <c r="EJ66" s="11"/>
+      <c r="EK66" s="11"/>
+      <c r="EL66" s="11"/>
+      <c r="EM66" s="11"/>
+      <c r="EN66" s="11"/>
+      <c r="EO66" s="11"/>
+      <c r="EP66" s="11"/>
+      <c r="EQ66" s="11"/>
+      <c r="ER66" s="11"/>
+      <c r="ES66" s="11"/>
+      <c r="ET66" s="11"/>
+      <c r="EU66" s="11"/>
+      <c r="EV66" s="11"/>
+      <c r="EW66" s="11"/>
+      <c r="EX66" s="11"/>
+      <c r="EY66" s="11"/>
+      <c r="EZ66" s="11"/>
+      <c r="FA66" s="11"/>
+      <c r="FB66" s="11"/>
+      <c r="FC66" s="11"/>
+      <c r="FD66" s="11"/>
+      <c r="FE66" s="11"/>
+      <c r="FF66" s="11"/>
+      <c r="FG66" s="11"/>
+      <c r="FH66" s="11"/>
+      <c r="FI66" s="11"/>
+      <c r="FJ66" s="11"/>
+      <c r="FK66" s="11"/>
+      <c r="FL66" s="11"/>
+      <c r="FM66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="2:169" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="47">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="R66" s="14">
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="11"/>
+      <c r="X67" s="11"/>
+      <c r="Y67" s="11"/>
+      <c r="Z67" s="11"/>
+      <c r="AA67" s="11"/>
+      <c r="AB67" s="11"/>
+      <c r="AC67" s="11"/>
+      <c r="AD67" s="11"/>
+      <c r="AE67" s="11"/>
+      <c r="AF67" s="11"/>
+      <c r="AG67" s="11"/>
+      <c r="AH67" s="11"/>
+      <c r="AI67" s="11"/>
+      <c r="AJ67" s="11"/>
+      <c r="AK67" s="11"/>
+      <c r="AL67" s="11"/>
+      <c r="AM67" s="11"/>
+      <c r="AN67" s="11"/>
+      <c r="AO67" s="11"/>
+      <c r="AP67" s="11"/>
+      <c r="AQ67" s="11"/>
+      <c r="AR67" s="11"/>
+      <c r="AS67" s="11"/>
+      <c r="AT67" s="11"/>
+      <c r="AU67" s="11"/>
+      <c r="AV67" s="11"/>
+      <c r="AW67" s="11"/>
+      <c r="AX67" s="11"/>
+      <c r="AY67" s="11"/>
+      <c r="AZ67" s="11"/>
+      <c r="BA67" s="11"/>
+      <c r="BB67" s="11"/>
+      <c r="BC67" s="11"/>
+      <c r="BD67" s="11"/>
+      <c r="BE67" s="11"/>
+      <c r="BF67" s="11"/>
+      <c r="BG67" s="11"/>
+      <c r="BH67" s="11"/>
+      <c r="BI67" s="11"/>
+      <c r="BJ67" s="11"/>
+      <c r="BK67" s="11"/>
+      <c r="BL67" s="11"/>
+      <c r="BM67" s="11"/>
+      <c r="BN67" s="11"/>
+      <c r="BO67" s="11"/>
+      <c r="BP67" s="11"/>
+      <c r="BQ67" s="11"/>
+      <c r="BR67" s="11"/>
+      <c r="BS67" s="11"/>
+      <c r="BT67" s="11"/>
+      <c r="BU67" s="11"/>
+      <c r="BV67" s="11"/>
+      <c r="BW67" s="11"/>
+      <c r="BX67" s="11"/>
+      <c r="BY67" s="11"/>
+      <c r="BZ67" s="11"/>
+      <c r="CA67" s="11"/>
+      <c r="CB67" s="11"/>
+      <c r="CC67" s="11"/>
+      <c r="CD67" s="11"/>
+      <c r="CE67" s="11"/>
+      <c r="CF67" s="11"/>
+      <c r="CG67" s="11"/>
+      <c r="CH67" s="11"/>
+      <c r="CI67" s="11"/>
+      <c r="CJ67" s="11"/>
+      <c r="CK67" s="11"/>
+      <c r="CL67" s="11"/>
+      <c r="CM67" s="11"/>
+      <c r="CN67" s="11"/>
+      <c r="CO67" s="11"/>
+      <c r="CP67" s="11"/>
+      <c r="CQ67" s="11"/>
+      <c r="CR67" s="11"/>
+      <c r="CS67" s="11"/>
+      <c r="CT67" s="11"/>
+      <c r="CU67" s="11"/>
+      <c r="CV67" s="11"/>
+      <c r="CW67" s="11"/>
+      <c r="CX67" s="11"/>
+      <c r="CY67" s="11"/>
+      <c r="CZ67" s="11"/>
+      <c r="DA67" s="11"/>
+      <c r="DB67" s="11"/>
+      <c r="DC67" s="11"/>
+      <c r="DD67" s="11"/>
+      <c r="DE67" s="11"/>
+      <c r="DF67" s="11"/>
+      <c r="DG67" s="11"/>
+      <c r="DH67" s="11"/>
+      <c r="DI67" s="11"/>
+      <c r="DJ67" s="11"/>
+      <c r="DK67" s="11"/>
+      <c r="DL67" s="11"/>
+      <c r="DM67" s="11"/>
+      <c r="DN67" s="11"/>
+      <c r="DO67" s="11"/>
+      <c r="DP67" s="11"/>
+      <c r="DQ67" s="11"/>
+      <c r="DR67" s="11"/>
+      <c r="DS67" s="11"/>
+      <c r="DT67" s="11"/>
+      <c r="DU67" s="11"/>
+      <c r="DV67" s="11"/>
+      <c r="DW67" s="11"/>
+      <c r="DX67" s="11"/>
+      <c r="DY67" s="11"/>
+      <c r="DZ67" s="11"/>
+      <c r="EA67" s="11"/>
+      <c r="EB67" s="11"/>
+      <c r="EC67" s="11"/>
+      <c r="ED67" s="11"/>
+      <c r="EE67" s="11"/>
+      <c r="EF67" s="11"/>
+      <c r="EG67" s="11"/>
+      <c r="EH67" s="11"/>
+      <c r="EI67" s="11"/>
+      <c r="EJ67" s="11"/>
+      <c r="EK67" s="11"/>
+      <c r="EL67" s="11"/>
+      <c r="EM67" s="11"/>
+      <c r="EN67" s="11"/>
+      <c r="EO67" s="11"/>
+      <c r="EP67" s="11"/>
+      <c r="EQ67" s="11"/>
+      <c r="ER67" s="11"/>
+      <c r="ES67" s="11"/>
+      <c r="ET67" s="11"/>
+      <c r="EU67" s="11"/>
+      <c r="EV67" s="11"/>
+      <c r="EW67" s="11"/>
+      <c r="EX67" s="11"/>
+      <c r="EY67" s="11"/>
+      <c r="EZ67" s="11"/>
+      <c r="FA67" s="11"/>
+      <c r="FB67" s="11"/>
+      <c r="FC67" s="11"/>
+      <c r="FD67" s="11"/>
+      <c r="FE67" s="11"/>
+      <c r="FF67" s="11"/>
+      <c r="FG67" s="11"/>
+      <c r="FH67" s="11"/>
+      <c r="FI67" s="11"/>
+      <c r="FJ67" s="11"/>
+      <c r="FK67" s="11"/>
+      <c r="FL67" s="11"/>
+      <c r="FM67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="2:169" x14ac:dyDescent="0.2">
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="47">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="S66" s="14">
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="11"/>
+      <c r="AA68" s="11"/>
+      <c r="AB68" s="11"/>
+      <c r="AC68" s="11"/>
+      <c r="AD68" s="11"/>
+      <c r="AE68" s="11"/>
+      <c r="AF68" s="11"/>
+      <c r="AG68" s="11"/>
+      <c r="AH68" s="11"/>
+      <c r="AI68" s="11"/>
+      <c r="AJ68" s="11"/>
+      <c r="AK68" s="11"/>
+      <c r="AL68" s="11"/>
+      <c r="AM68" s="11"/>
+      <c r="AN68" s="11"/>
+      <c r="AO68" s="11"/>
+      <c r="AP68" s="11"/>
+      <c r="AQ68" s="11"/>
+      <c r="AR68" s="11"/>
+      <c r="AS68" s="11"/>
+      <c r="AT68" s="11"/>
+      <c r="AU68" s="11"/>
+      <c r="AV68" s="11"/>
+      <c r="AW68" s="11"/>
+      <c r="AX68" s="11"/>
+      <c r="AY68" s="11"/>
+      <c r="AZ68" s="11"/>
+      <c r="BA68" s="11"/>
+      <c r="BB68" s="11"/>
+      <c r="BC68" s="11"/>
+      <c r="BD68" s="11"/>
+      <c r="BE68" s="11"/>
+      <c r="BF68" s="11"/>
+      <c r="BG68" s="11"/>
+      <c r="BH68" s="11"/>
+      <c r="BI68" s="11"/>
+      <c r="BJ68" s="11"/>
+      <c r="BK68" s="11"/>
+      <c r="BL68" s="11"/>
+      <c r="BM68" s="11"/>
+      <c r="BN68" s="11"/>
+      <c r="BO68" s="11"/>
+      <c r="BP68" s="11"/>
+      <c r="BQ68" s="11"/>
+      <c r="BR68" s="11"/>
+      <c r="BS68" s="11"/>
+      <c r="BT68" s="11"/>
+      <c r="BU68" s="11"/>
+      <c r="BV68" s="11"/>
+      <c r="BW68" s="11"/>
+      <c r="BX68" s="11"/>
+      <c r="BY68" s="11"/>
+      <c r="BZ68" s="11"/>
+      <c r="CA68" s="11"/>
+      <c r="CB68" s="11"/>
+      <c r="CC68" s="11"/>
+      <c r="CD68" s="11"/>
+      <c r="CE68" s="11"/>
+      <c r="CF68" s="11"/>
+      <c r="CG68" s="11"/>
+      <c r="CH68" s="11"/>
+      <c r="CI68" s="11"/>
+      <c r="CJ68" s="11"/>
+      <c r="CK68" s="11"/>
+      <c r="CL68" s="11"/>
+      <c r="CM68" s="11"/>
+      <c r="CN68" s="11"/>
+      <c r="CO68" s="11"/>
+      <c r="CP68" s="11"/>
+      <c r="CQ68" s="11"/>
+      <c r="CR68" s="11"/>
+      <c r="CS68" s="11"/>
+      <c r="CT68" s="11"/>
+      <c r="CU68" s="11"/>
+      <c r="CV68" s="11"/>
+      <c r="CW68" s="11"/>
+      <c r="CX68" s="11"/>
+      <c r="CY68" s="11"/>
+      <c r="CZ68" s="11"/>
+      <c r="DA68" s="11"/>
+      <c r="DB68" s="11"/>
+      <c r="DC68" s="11"/>
+      <c r="DD68" s="11"/>
+      <c r="DE68" s="11"/>
+      <c r="DF68" s="11"/>
+      <c r="DG68" s="11"/>
+      <c r="DH68" s="11"/>
+      <c r="DI68" s="11"/>
+      <c r="DJ68" s="11"/>
+      <c r="DK68" s="11"/>
+      <c r="DL68" s="11"/>
+      <c r="DM68" s="11"/>
+      <c r="DN68" s="11"/>
+      <c r="DO68" s="11"/>
+      <c r="DP68" s="11"/>
+      <c r="DQ68" s="11"/>
+      <c r="DR68" s="11"/>
+      <c r="DS68" s="11"/>
+      <c r="DT68" s="11"/>
+      <c r="DU68" s="11"/>
+      <c r="DV68" s="11"/>
+      <c r="DW68" s="11"/>
+      <c r="DX68" s="11"/>
+      <c r="DY68" s="11"/>
+      <c r="DZ68" s="11"/>
+      <c r="EA68" s="11"/>
+      <c r="EB68" s="11"/>
+      <c r="EC68" s="11"/>
+      <c r="ED68" s="11"/>
+      <c r="EE68" s="11"/>
+      <c r="EF68" s="11"/>
+      <c r="EG68" s="11"/>
+      <c r="EH68" s="11"/>
+      <c r="EI68" s="11"/>
+      <c r="EJ68" s="11"/>
+      <c r="EK68" s="11"/>
+      <c r="EL68" s="11"/>
+      <c r="EM68" s="11"/>
+      <c r="EN68" s="11"/>
+      <c r="EO68" s="11"/>
+      <c r="EP68" s="11"/>
+      <c r="EQ68" s="11"/>
+      <c r="ER68" s="11"/>
+      <c r="ES68" s="11"/>
+      <c r="ET68" s="11"/>
+      <c r="EU68" s="11"/>
+      <c r="EV68" s="11"/>
+      <c r="EW68" s="11"/>
+      <c r="EX68" s="11"/>
+      <c r="EY68" s="11"/>
+      <c r="EZ68" s="11"/>
+      <c r="FA68" s="11"/>
+      <c r="FB68" s="11"/>
+      <c r="FC68" s="11"/>
+      <c r="FD68" s="11"/>
+      <c r="FE68" s="11"/>
+      <c r="FF68" s="11"/>
+      <c r="FG68" s="11"/>
+      <c r="FH68" s="11"/>
+      <c r="FI68" s="11"/>
+      <c r="FJ68" s="11"/>
+      <c r="FK68" s="11"/>
+      <c r="FL68" s="11"/>
+      <c r="FM68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="2:169" x14ac:dyDescent="0.2">
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="49">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="T66" s="14">
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="12"/>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="12"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="12"/>
+      <c r="AN69" s="12"/>
+      <c r="AO69" s="12"/>
+      <c r="AP69" s="12"/>
+      <c r="AQ69" s="12"/>
+      <c r="AR69" s="12"/>
+      <c r="AS69" s="12"/>
+      <c r="AT69" s="12"/>
+      <c r="AU69" s="12"/>
+      <c r="AV69" s="12"/>
+      <c r="AW69" s="12"/>
+      <c r="AX69" s="12"/>
+      <c r="AY69" s="12"/>
+      <c r="AZ69" s="12"/>
+      <c r="BA69" s="12"/>
+      <c r="BB69" s="12"/>
+      <c r="BC69" s="12"/>
+      <c r="BD69" s="12"/>
+      <c r="BE69" s="12"/>
+      <c r="BF69" s="12"/>
+      <c r="BG69" s="12"/>
+      <c r="BH69" s="12"/>
+      <c r="BI69" s="12"/>
+      <c r="BJ69" s="12"/>
+      <c r="BK69" s="12"/>
+      <c r="BL69" s="12"/>
+      <c r="BM69" s="12"/>
+      <c r="BN69" s="12"/>
+      <c r="BO69" s="12"/>
+      <c r="BP69" s="12"/>
+      <c r="BQ69" s="12"/>
+      <c r="BR69" s="12"/>
+      <c r="BS69" s="12"/>
+      <c r="BT69" s="12"/>
+      <c r="BU69" s="12"/>
+      <c r="BV69" s="12"/>
+      <c r="BW69" s="12"/>
+      <c r="BX69" s="12"/>
+      <c r="BY69" s="12"/>
+      <c r="BZ69" s="12"/>
+      <c r="CA69" s="12"/>
+      <c r="CB69" s="12"/>
+      <c r="CC69" s="12"/>
+      <c r="CD69" s="12"/>
+      <c r="CE69" s="12"/>
+      <c r="CF69" s="12"/>
+      <c r="CG69" s="12"/>
+      <c r="CH69" s="12"/>
+      <c r="CI69" s="12"/>
+      <c r="CJ69" s="12"/>
+      <c r="CK69" s="12"/>
+      <c r="CL69" s="12"/>
+      <c r="CM69" s="12"/>
+      <c r="CN69" s="12"/>
+      <c r="CO69" s="12"/>
+      <c r="CP69" s="12"/>
+      <c r="CQ69" s="12"/>
+      <c r="CR69" s="12"/>
+      <c r="CS69" s="12"/>
+      <c r="CT69" s="12"/>
+      <c r="CU69" s="12"/>
+      <c r="CV69" s="12"/>
+      <c r="CW69" s="12"/>
+      <c r="CX69" s="12"/>
+      <c r="CY69" s="12"/>
+      <c r="CZ69" s="12"/>
+      <c r="DA69" s="12"/>
+      <c r="DB69" s="12"/>
+      <c r="DC69" s="12"/>
+      <c r="DD69" s="12"/>
+      <c r="DE69" s="12"/>
+      <c r="DF69" s="12"/>
+      <c r="DG69" s="12"/>
+      <c r="DH69" s="12"/>
+      <c r="DI69" s="12"/>
+      <c r="DJ69" s="12"/>
+      <c r="DK69" s="12"/>
+      <c r="DL69" s="12"/>
+      <c r="DM69" s="12"/>
+      <c r="DN69" s="12"/>
+      <c r="DO69" s="12"/>
+      <c r="DP69" s="12"/>
+      <c r="DQ69" s="12"/>
+      <c r="DR69" s="12"/>
+      <c r="DS69" s="12"/>
+      <c r="DT69" s="12"/>
+      <c r="DU69" s="12"/>
+      <c r="DV69" s="12"/>
+      <c r="DW69" s="12"/>
+      <c r="DX69" s="12"/>
+      <c r="DY69" s="12"/>
+      <c r="DZ69" s="12"/>
+      <c r="EA69" s="12"/>
+      <c r="EB69" s="12"/>
+      <c r="EC69" s="12"/>
+      <c r="ED69" s="12"/>
+      <c r="EE69" s="12"/>
+      <c r="EF69" s="12"/>
+      <c r="EG69" s="12"/>
+      <c r="EH69" s="12"/>
+      <c r="EI69" s="12"/>
+      <c r="EJ69" s="12"/>
+      <c r="EK69" s="12"/>
+      <c r="EL69" s="12"/>
+      <c r="EM69" s="12"/>
+      <c r="EN69" s="12"/>
+      <c r="EO69" s="12"/>
+      <c r="EP69" s="12"/>
+      <c r="EQ69" s="12"/>
+      <c r="ER69" s="12"/>
+      <c r="ES69" s="12"/>
+      <c r="ET69" s="12"/>
+      <c r="EU69" s="12"/>
+      <c r="EV69" s="12"/>
+      <c r="EW69" s="12"/>
+      <c r="EX69" s="12"/>
+      <c r="EY69" s="12"/>
+      <c r="EZ69" s="12"/>
+      <c r="FA69" s="12"/>
+      <c r="FB69" s="12"/>
+      <c r="FC69" s="12"/>
+      <c r="FD69" s="12"/>
+      <c r="FE69" s="12"/>
+      <c r="FF69" s="12"/>
+      <c r="FG69" s="12"/>
+      <c r="FH69" s="12"/>
+      <c r="FI69" s="12"/>
+      <c r="FJ69" s="12"/>
+      <c r="FK69" s="12"/>
+      <c r="FL69" s="12"/>
+      <c r="FM69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="2:169" x14ac:dyDescent="0.2">
+      <c r="M70" s="45">
         <f t="shared" si="92"/>
+        <v>193.5</v>
+      </c>
+      <c r="O70" s="14">
+        <f t="shared" ref="O70:AT70" si="93">SUM(O13:O69)</f>
         <v>0</v>
       </c>
-      <c r="U66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="V66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="W66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="X66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="Y66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="Z66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AA66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AB66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AC66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AD66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AE66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AF66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AG66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AH66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AI66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AJ66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AK66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AL66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AM66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AN66" s="14">
-        <f t="shared" si="92"/>
-        <v>16.5</v>
-      </c>
-      <c r="AO66" s="14">
-        <f t="shared" si="92"/>
-        <v>1.5</v>
-      </c>
-      <c r="AP66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AQ66" s="14">
-        <f t="shared" si="92"/>
-        <v>1.5</v>
-      </c>
-      <c r="AR66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AS66" s="14">
-        <f t="shared" si="92"/>
-        <v>1</v>
-      </c>
-      <c r="AT66" s="14">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AU66" s="14">
-        <f t="shared" ref="AU66:BZ66" si="93">SUM(AU13:AU65)</f>
-        <v>0</v>
-      </c>
-      <c r="AV66" s="14">
+      <c r="P70" s="14">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="AW66" s="14">
+      <c r="Q70" s="14">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="AX66" s="14">
+      <c r="R70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="W70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AA70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AC70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AD70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AH70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AI70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AK70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AL70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AM70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AN70" s="14">
+        <f t="shared" si="93"/>
+        <v>16.5</v>
+      </c>
+      <c r="AO70" s="14">
+        <f t="shared" si="93"/>
+        <v>1.5</v>
+      </c>
+      <c r="AP70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="14">
+        <f t="shared" si="93"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR70" s="14">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AS70" s="14">
         <f t="shared" si="93"/>
         <v>1</v>
       </c>
-      <c r="AY66" s="14">
-        <f t="shared" si="93"/>
-        <v>2</v>
-      </c>
-      <c r="AZ66" s="14">
-        <f t="shared" si="93"/>
-        <v>13</v>
-      </c>
-      <c r="BA66" s="14">
-        <f t="shared" si="93"/>
-        <v>3.5</v>
-      </c>
-      <c r="BB66" s="14">
+      <c r="AT70" s="14">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="BC66" s="14">
-        <f t="shared" si="93"/>
+      <c r="AU70" s="14">
+        <f t="shared" ref="AU70:BZ70" si="94">SUM(AU13:AU69)</f>
         <v>0</v>
       </c>
-      <c r="BD66" s="14">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="BE66" s="14">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="BF66" s="14">
-        <f t="shared" si="93"/>
-        <v>10.5</v>
-      </c>
-      <c r="BG66" s="14">
-        <f t="shared" si="93"/>
-        <v>6</v>
-      </c>
-      <c r="BH66" s="14">
-        <f t="shared" si="93"/>
-        <v>7</v>
-      </c>
-      <c r="BI66" s="14">
-        <f t="shared" si="93"/>
-        <v>0.5</v>
-      </c>
-      <c r="BJ66" s="14">
-        <f t="shared" si="93"/>
-        <v>1</v>
-      </c>
-      <c r="BK66" s="14">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="BL66" s="14">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="BM66" s="14">
-        <f t="shared" si="93"/>
-        <v>6</v>
-      </c>
-      <c r="BN66" s="14">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="BO66" s="14">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="BP66" s="14">
-        <f t="shared" si="93"/>
-        <v>2</v>
-      </c>
-      <c r="BQ66" s="14">
-        <f t="shared" si="93"/>
-        <v>1</v>
-      </c>
-      <c r="BR66" s="14">
-        <f t="shared" si="93"/>
-        <v>1</v>
-      </c>
-      <c r="BS66" s="14">
-        <f t="shared" si="93"/>
-        <v>1</v>
-      </c>
-      <c r="BT66" s="14">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="BU66" s="14">
-        <f t="shared" si="93"/>
-        <v>2</v>
-      </c>
-      <c r="BV66" s="14">
-        <f t="shared" si="93"/>
-        <v>12</v>
-      </c>
-      <c r="BW66" s="14">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="BX66" s="14">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="BY66" s="14">
-        <f t="shared" si="93"/>
-        <v>1.5</v>
-      </c>
-      <c r="BZ66" s="14">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="CA66" s="14">
-        <f t="shared" ref="CA66:DC66" si="94">SUM(CA13:CA65)</f>
-        <v>8.5</v>
-      </c>
-      <c r="CB66" s="14">
+      <c r="AV70" s="14">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="CC66" s="14">
+      <c r="AW70" s="14">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AX70" s="14">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="AY70" s="14">
+        <f t="shared" si="94"/>
+        <v>2</v>
+      </c>
+      <c r="AZ70" s="14">
+        <f t="shared" si="94"/>
+        <v>13</v>
+      </c>
+      <c r="BA70" s="14">
+        <f t="shared" si="94"/>
+        <v>3.5</v>
+      </c>
+      <c r="BB70" s="14">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="BC70" s="14">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="BD70" s="14">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="BE70" s="14">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="BF70" s="14">
+        <f t="shared" si="94"/>
+        <v>10.5</v>
+      </c>
+      <c r="BG70" s="14">
+        <f t="shared" si="94"/>
+        <v>6</v>
+      </c>
+      <c r="BH70" s="14">
+        <f t="shared" si="94"/>
+        <v>7</v>
+      </c>
+      <c r="BI70" s="14">
         <f t="shared" si="94"/>
         <v>0.5</v>
       </c>
-      <c r="CD66" s="14">
+      <c r="BJ70" s="14">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="BK70" s="14">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="CE66" s="14">
+      <c r="BL70" s="14">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="CF66" s="14">
+      <c r="BM70" s="14">
+        <f t="shared" si="94"/>
+        <v>6</v>
+      </c>
+      <c r="BN70" s="14">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="CG66" s="14">
+      <c r="BO70" s="14">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="CH66" s="14">
+      <c r="BP70" s="14">
+        <f t="shared" si="94"/>
+        <v>2</v>
+      </c>
+      <c r="BQ70" s="14">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="BR70" s="14">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="BS70" s="14">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="BT70" s="14">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="CI66" s="14">
+      <c r="BU70" s="14">
+        <f t="shared" si="94"/>
+        <v>2</v>
+      </c>
+      <c r="BV70" s="14">
+        <f t="shared" si="94"/>
+        <v>12</v>
+      </c>
+      <c r="BW70" s="14">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="CJ66" s="14">
+      <c r="BX70" s="14">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="CK66" s="14">
+      <c r="BY70" s="14">
+        <f t="shared" si="94"/>
+        <v>1.5</v>
+      </c>
+      <c r="BZ70" s="14">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="CL66" s="14">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="CM66" s="14">
-        <f t="shared" si="94"/>
-        <v>2</v>
-      </c>
-      <c r="CN66" s="14">
-        <f t="shared" si="94"/>
-        <v>2.5</v>
-      </c>
-      <c r="CO66" s="14">
-        <f t="shared" si="94"/>
-        <v>8</v>
-      </c>
-      <c r="CP66" s="14">
-        <f t="shared" si="94"/>
-        <v>7</v>
-      </c>
-      <c r="CQ66" s="14">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="CR66" s="14">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="CS66" s="14">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="CT66" s="14">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="CU66" s="14">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="CV66" s="14">
-        <f t="shared" si="94"/>
-        <v>3.5</v>
-      </c>
-      <c r="CW66" s="14">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="CX66" s="14">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="CY66" s="14">
-        <f t="shared" si="94"/>
-        <v>1.5</v>
-      </c>
-      <c r="CZ66" s="14">
-        <f t="shared" si="94"/>
-        <v>1</v>
-      </c>
-      <c r="DA66" s="14">
-        <f t="shared" si="94"/>
-        <v>1.5</v>
-      </c>
-      <c r="DB66" s="14">
-        <f t="shared" si="94"/>
-        <v>6</v>
-      </c>
-      <c r="DC66" s="14">
-        <f t="shared" si="94"/>
-        <v>3</v>
-      </c>
-      <c r="DD66" s="14">
-        <f t="shared" ref="DD66:DF66" si="95">SUM(DD13:DD65)</f>
-        <v>7.5</v>
-      </c>
-      <c r="DE66" s="14">
+      <c r="CA70" s="14">
+        <f t="shared" ref="CA70:DC70" si="95">SUM(CA13:CA69)</f>
+        <v>8.5</v>
+      </c>
+      <c r="CB70" s="14">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="DF66" s="14">
+      <c r="CC70" s="14">
+        <f t="shared" si="95"/>
+        <v>0.5</v>
+      </c>
+      <c r="CD70" s="14">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="DG66" s="14">
-        <f t="shared" ref="DG66:EB66" si="96">SUM(DG13:DG65)</f>
+      <c r="CE70" s="14">
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="DH66" s="14">
+      <c r="CF70" s="14">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CG70" s="14">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CH70" s="14">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CI70" s="14">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CJ70" s="14">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CK70" s="14">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CL70" s="14">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CM70" s="14">
+        <f t="shared" si="95"/>
+        <v>2</v>
+      </c>
+      <c r="CN70" s="14">
+        <f t="shared" si="95"/>
+        <v>2.5</v>
+      </c>
+      <c r="CO70" s="14">
+        <f t="shared" si="95"/>
+        <v>8</v>
+      </c>
+      <c r="CP70" s="14">
+        <f t="shared" si="95"/>
+        <v>7</v>
+      </c>
+      <c r="CQ70" s="14">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CR70" s="14">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CS70" s="14">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CT70" s="14">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CU70" s="14">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CV70" s="14">
+        <f t="shared" si="95"/>
+        <v>3.5</v>
+      </c>
+      <c r="CW70" s="14">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CX70" s="14">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CY70" s="14">
+        <f t="shared" si="95"/>
+        <v>1.5</v>
+      </c>
+      <c r="CZ70" s="14">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="DA70" s="14">
+        <f t="shared" si="95"/>
+        <v>1.5</v>
+      </c>
+      <c r="DB70" s="14">
+        <f t="shared" si="95"/>
+        <v>6</v>
+      </c>
+      <c r="DC70" s="14">
+        <f t="shared" si="95"/>
+        <v>3</v>
+      </c>
+      <c r="DD70" s="14">
+        <f t="shared" ref="DD70:DF70" si="96">SUM(DD13:DD69)</f>
+        <v>7.5</v>
+      </c>
+      <c r="DE70" s="14">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="DI66" s="14">
+      <c r="DF70" s="14">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="DJ66" s="14">
-        <f t="shared" si="96"/>
-        <v>1</v>
-      </c>
-      <c r="DK66" s="14">
-        <f t="shared" si="96"/>
-        <v>1</v>
-      </c>
-      <c r="DL66" s="14">
-        <f t="shared" si="96"/>
-        <v>1.5</v>
-      </c>
-      <c r="DM66" s="14">
-        <f t="shared" si="96"/>
-        <v>8</v>
-      </c>
-      <c r="DN66" s="14">
-        <f t="shared" si="96"/>
+      <c r="DG70" s="14">
+        <f t="shared" ref="DG70:EB70" si="97">SUM(DG13:DG69)</f>
         <v>0</v>
       </c>
-      <c r="DO66" s="14">
-        <f t="shared" si="96"/>
+      <c r="DH70" s="14">
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="DP66" s="14">
-        <f t="shared" si="96"/>
-        <v>2</v>
-      </c>
-      <c r="DQ66" s="14">
-        <f t="shared" si="96"/>
-        <v>5.5</v>
-      </c>
-      <c r="DR66" s="14">
-        <f t="shared" si="96"/>
+      <c r="DI70" s="14">
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="DS66" s="14">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="DT66" s="14">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="DU66" s="14">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="DV66" s="14">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="DW66" s="14">
-        <f t="shared" si="96"/>
-        <v>1</v>
-      </c>
-      <c r="DX66" s="14">
-        <f t="shared" si="96"/>
-        <v>5.5</v>
-      </c>
-      <c r="DY66" s="14">
-        <f t="shared" si="96"/>
-        <v>1.5</v>
-      </c>
-      <c r="DZ66" s="14">
-        <f t="shared" si="96"/>
-        <v>7.5</v>
-      </c>
-      <c r="EA66" s="14">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="EB66" s="14">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="EC66" s="14">
-        <f t="shared" ref="EC66:EF66" si="97">SUM(EC13:EC65)</f>
-        <v>0</v>
-      </c>
-      <c r="ED66" s="14">
+      <c r="DJ70" s="14">
         <f t="shared" si="97"/>
         <v>1</v>
       </c>
-      <c r="EE66" s="14">
+      <c r="DK70" s="14">
         <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="DL70" s="14">
+        <f t="shared" si="97"/>
+        <v>1.5</v>
+      </c>
+      <c r="DM70" s="14">
+        <f t="shared" si="97"/>
+        <v>8</v>
+      </c>
+      <c r="DN70" s="14">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="DO70" s="14">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="DP70" s="14">
+        <f t="shared" si="97"/>
+        <v>2</v>
+      </c>
+      <c r="DQ70" s="14">
+        <f t="shared" si="97"/>
+        <v>5.5</v>
+      </c>
+      <c r="DR70" s="14">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="DS70" s="14">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="DT70" s="14">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="DU70" s="14">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="DV70" s="14">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="DW70" s="14">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="DX70" s="14">
+        <f t="shared" si="97"/>
+        <v>5.5</v>
+      </c>
+      <c r="DY70" s="14">
+        <f t="shared" si="97"/>
+        <v>1.5</v>
+      </c>
+      <c r="DZ70" s="14">
+        <f t="shared" si="97"/>
+        <v>7.5</v>
+      </c>
+      <c r="EA70" s="14">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="EB70" s="14">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="EC70" s="14">
+        <f t="shared" ref="EC70:EF70" si="98">SUM(EC13:EC69)</f>
+        <v>0</v>
+      </c>
+      <c r="ED70" s="14">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+      <c r="EE70" s="14">
+        <f t="shared" si="98"/>
         <v>10</v>
       </c>
-      <c r="EF66" s="14">
-        <f t="shared" si="97"/>
+      <c r="EF70" s="14">
+        <f t="shared" si="98"/>
         <v>4</v>
       </c>
-      <c r="EG66" s="14">
-        <f t="shared" ref="EG66:FI66" si="98">SUM(EG13:EG65)</f>
+      <c r="EG70" s="14">
+        <f t="shared" ref="EG70:FI70" si="99">SUM(EG13:EG69)</f>
         <v>2</v>
       </c>
-      <c r="EH66" s="14">
-        <f t="shared" si="98"/>
+      <c r="EH70" s="14">
+        <f t="shared" si="99"/>
         <v>0.5</v>
       </c>
-      <c r="EI66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="EJ66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="EK66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="EL66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="EM66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="EN66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="EO66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="EP66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="EQ66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="ER66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="ES66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="ET66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="EU66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="EV66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="EW66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="EX66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="EY66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="EZ66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="FA66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="FB66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="FC66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="FD66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="FE66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="FF66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="FG66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="FH66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="FI66" s="14">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="FJ66" s="14">
-        <f t="shared" ref="FJ66:FL66" si="99">SUM(FJ13:FJ65)</f>
-        <v>0</v>
-      </c>
-      <c r="FK66" s="14">
+      <c r="EI70" s="14">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="FL66" s="14">
+      <c r="EJ70" s="14">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="FM66" t="s">
+      <c r="EK70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="EL70" s="14">
+        <f t="shared" si="99"/>
+        <v>3</v>
+      </c>
+      <c r="EM70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="EN70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="EO70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="EP70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="EQ70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="ER70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="ES70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="ET70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="EU70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="EV70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="EW70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="EX70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="EY70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="EZ70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="FA70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="FB70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="FC70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="FD70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="FE70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="FF70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="FG70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="FH70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="FI70" s="14">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="FJ70" s="14">
+        <f t="shared" ref="FJ70:FL70" si="100">SUM(FJ13:FJ69)</f>
+        <v>0</v>
+      </c>
+      <c r="FK70" s="14">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="FL70" s="14">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="FM70" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:169">
-      <c r="O67" s="8">
+    <row r="71" spans="2:169" x14ac:dyDescent="0.2">
+      <c r="O71" s="8">
         <v>6</v>
       </c>
-      <c r="FM67" t="s">
+      <c r="FM71" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:169">
-      <c r="E68" s="15"/>
-      <c r="I68" s="8">
+    <row r="72" spans="2:169" x14ac:dyDescent="0.2">
+      <c r="E72" s="15"/>
+      <c r="I72" s="8">
         <v>1.5</v>
       </c>
-      <c r="FM68" t="s">
+      <c r="FM72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:169">
-      <c r="I69" s="8">
+    <row r="73" spans="2:169" x14ac:dyDescent="0.2">
+      <c r="I73" s="8">
         <v>1</v>
       </c>
-      <c r="FM69" t="s">
+      <c r="FM73" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:169">
-      <c r="I70" s="8">
+    <row r="74" spans="2:169" x14ac:dyDescent="0.2">
+      <c r="I74" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:169">
-      <c r="O73" s="8">
+    <row r="77" spans="2:169" x14ac:dyDescent="0.2">
+      <c r="O77" s="8">
         <v>6</v>
       </c>
-      <c r="P73" s="8">
+      <c r="P77" s="8">
         <v>6</v>
       </c>
-      <c r="Q73" s="8">
+      <c r="Q77" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:169">
-      <c r="O74" s="8">
+    <row r="78" spans="2:169" x14ac:dyDescent="0.2">
+      <c r="O78" s="8">
         <v>10</v>
       </c>
-      <c r="P74" s="8">
+      <c r="P78" s="8">
         <v>12</v>
       </c>
-      <c r="Q74" s="8">
+      <c r="Q78" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="15:168">
-      <c r="O81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81"/>
-      <c r="T81"/>
-      <c r="U81"/>
-      <c r="V81"/>
-      <c r="W81"/>
-      <c r="X81"/>
-      <c r="Y81"/>
-      <c r="Z81"/>
-      <c r="AA81"/>
-      <c r="AB81"/>
-      <c r="AC81"/>
-      <c r="AD81"/>
-      <c r="AE81"/>
-      <c r="AF81"/>
-      <c r="AG81"/>
-      <c r="AH81"/>
-      <c r="AI81"/>
-      <c r="AJ81"/>
-      <c r="AK81"/>
-      <c r="AL81"/>
-      <c r="AM81"/>
-      <c r="AN81"/>
-      <c r="AO81"/>
-      <c r="AP81"/>
-      <c r="AQ81"/>
-      <c r="AR81"/>
-      <c r="AS81"/>
-      <c r="AT81"/>
-      <c r="AU81"/>
-      <c r="AV81"/>
-      <c r="AW81"/>
-      <c r="AX81"/>
-      <c r="AY81"/>
-      <c r="AZ81"/>
-      <c r="BA81"/>
-      <c r="BB81"/>
-      <c r="BC81"/>
-      <c r="BD81"/>
-      <c r="BE81"/>
-      <c r="BF81"/>
-      <c r="BG81"/>
-      <c r="BH81"/>
-      <c r="BI81"/>
-      <c r="BJ81"/>
-      <c r="BK81"/>
-      <c r="BL81"/>
-      <c r="BM81"/>
-      <c r="BN81"/>
-      <c r="BO81"/>
-      <c r="BP81"/>
-      <c r="BQ81"/>
-      <c r="BR81"/>
-      <c r="BS81"/>
-      <c r="BT81"/>
-      <c r="BU81"/>
-      <c r="BV81"/>
-      <c r="BW81"/>
-      <c r="BX81"/>
-      <c r="BY81"/>
-      <c r="BZ81"/>
-      <c r="CA81"/>
-      <c r="CB81"/>
-      <c r="CC81"/>
-      <c r="CD81"/>
-      <c r="CE81"/>
-      <c r="CF81"/>
-      <c r="CG81"/>
-      <c r="CH81"/>
-      <c r="CI81"/>
-      <c r="CJ81"/>
-      <c r="CK81"/>
-      <c r="CL81"/>
-      <c r="CM81"/>
-      <c r="CN81"/>
-      <c r="CO81"/>
-      <c r="CP81"/>
-      <c r="CQ81"/>
-      <c r="CR81"/>
-      <c r="CS81"/>
-      <c r="CT81"/>
-      <c r="CU81"/>
-      <c r="CV81"/>
-      <c r="CW81"/>
-      <c r="CX81"/>
-      <c r="CY81"/>
-      <c r="CZ81"/>
-      <c r="DA81"/>
-      <c r="DB81"/>
-      <c r="DC81"/>
-      <c r="DD81"/>
-      <c r="DE81"/>
-      <c r="DF81"/>
-      <c r="DG81"/>
-      <c r="DH81"/>
-      <c r="DI81"/>
-      <c r="DJ81"/>
-      <c r="DK81"/>
-      <c r="DL81"/>
-      <c r="DM81"/>
-      <c r="DN81"/>
-      <c r="DO81"/>
-      <c r="DP81"/>
-      <c r="DQ81"/>
-      <c r="DR81"/>
-      <c r="DS81"/>
-      <c r="DT81"/>
-      <c r="DU81"/>
-      <c r="DV81"/>
-      <c r="DW81"/>
-      <c r="DX81"/>
-      <c r="DY81"/>
-      <c r="DZ81"/>
-      <c r="EA81"/>
-      <c r="EB81"/>
-      <c r="EC81"/>
-      <c r="ED81"/>
-      <c r="EE81"/>
-      <c r="EF81"/>
-      <c r="EG81"/>
-      <c r="EH81"/>
-      <c r="EI81"/>
-      <c r="EJ81"/>
-      <c r="EK81"/>
-      <c r="EL81"/>
-      <c r="EM81"/>
-      <c r="EN81"/>
-      <c r="EO81"/>
-      <c r="EP81"/>
-      <c r="EQ81"/>
-      <c r="ER81"/>
-      <c r="ES81"/>
-      <c r="ET81"/>
-      <c r="EU81"/>
-      <c r="EV81"/>
-      <c r="EW81"/>
-      <c r="EX81"/>
-      <c r="EY81"/>
-      <c r="EZ81"/>
-      <c r="FA81"/>
-      <c r="FB81"/>
-      <c r="FC81"/>
-      <c r="FD81"/>
-      <c r="FE81"/>
-      <c r="FF81"/>
-      <c r="FG81"/>
-      <c r="FH81"/>
-      <c r="FI81"/>
-      <c r="FJ81"/>
-      <c r="FK81"/>
-      <c r="FL81"/>
-    </row>
-    <row r="84" spans="15:168">
-      <c r="O84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
-      <c r="R84"/>
-      <c r="S84"/>
-      <c r="T84"/>
-      <c r="U84"/>
-      <c r="V84"/>
-      <c r="W84"/>
-      <c r="X84"/>
-      <c r="Y84"/>
-      <c r="Z84"/>
-      <c r="AA84"/>
-      <c r="AB84"/>
-      <c r="AC84"/>
-      <c r="AD84"/>
-      <c r="AE84"/>
-      <c r="AF84"/>
-      <c r="AG84"/>
-      <c r="AH84"/>
-      <c r="AI84"/>
-      <c r="AJ84"/>
-      <c r="AK84"/>
-      <c r="AL84"/>
-      <c r="AM84"/>
-      <c r="AN84"/>
-      <c r="AO84"/>
-      <c r="AP84"/>
-      <c r="AQ84"/>
-      <c r="AR84"/>
-      <c r="AS84"/>
-      <c r="AT84"/>
-      <c r="AU84"/>
-      <c r="AV84"/>
-      <c r="AW84"/>
-      <c r="AX84"/>
-      <c r="AY84"/>
-      <c r="AZ84"/>
-      <c r="BA84"/>
-      <c r="BB84"/>
-      <c r="BC84"/>
-      <c r="BD84"/>
-      <c r="BE84"/>
-      <c r="BF84"/>
-      <c r="BG84"/>
-      <c r="BH84"/>
-      <c r="BI84"/>
-      <c r="BJ84"/>
-      <c r="BK84"/>
-      <c r="BL84"/>
-      <c r="BM84"/>
-      <c r="BN84"/>
-      <c r="BO84"/>
-      <c r="BP84"/>
-      <c r="BQ84"/>
-      <c r="BR84"/>
-      <c r="BS84"/>
-      <c r="BT84"/>
-      <c r="BU84"/>
-      <c r="BV84"/>
-      <c r="BW84"/>
-      <c r="BX84"/>
-      <c r="BY84"/>
-      <c r="BZ84"/>
-      <c r="CA84"/>
-      <c r="CB84"/>
-      <c r="CC84"/>
-      <c r="CD84"/>
-      <c r="CE84"/>
-      <c r="CF84"/>
-      <c r="CG84"/>
-      <c r="CH84"/>
-      <c r="CI84"/>
-      <c r="CJ84"/>
-      <c r="CK84"/>
-      <c r="CL84"/>
-      <c r="CM84"/>
-      <c r="CN84"/>
-      <c r="CO84"/>
-      <c r="CP84"/>
-      <c r="CQ84"/>
-      <c r="CR84"/>
-      <c r="CS84"/>
-      <c r="CT84"/>
-      <c r="CU84"/>
-      <c r="CV84"/>
-      <c r="CW84"/>
-      <c r="CX84"/>
-      <c r="CY84"/>
-      <c r="CZ84"/>
-      <c r="DA84"/>
-      <c r="DB84"/>
-      <c r="DC84"/>
-      <c r="DD84"/>
-      <c r="DE84"/>
-      <c r="DF84"/>
-      <c r="DG84"/>
-      <c r="DH84"/>
-      <c r="DI84"/>
-      <c r="DJ84"/>
-      <c r="DK84"/>
-      <c r="DL84"/>
-      <c r="DM84"/>
-      <c r="DN84"/>
-      <c r="DO84"/>
-      <c r="DP84"/>
-      <c r="DQ84"/>
-      <c r="DR84"/>
-      <c r="DS84"/>
-      <c r="DT84"/>
-      <c r="DU84"/>
-      <c r="DV84"/>
-      <c r="DW84"/>
-      <c r="DX84"/>
-      <c r="DY84"/>
-      <c r="DZ84"/>
-      <c r="EA84"/>
-      <c r="EB84"/>
-      <c r="EC84"/>
-      <c r="ED84"/>
-      <c r="EE84"/>
-      <c r="EF84"/>
-      <c r="EG84"/>
-      <c r="EH84"/>
-      <c r="EI84"/>
-      <c r="EJ84"/>
-      <c r="EK84"/>
-      <c r="EL84"/>
-      <c r="EM84"/>
-      <c r="EN84"/>
-      <c r="EO84"/>
-      <c r="EP84"/>
-      <c r="EQ84"/>
-      <c r="ER84"/>
-      <c r="ES84"/>
-      <c r="ET84"/>
-      <c r="EU84"/>
-      <c r="EV84"/>
-      <c r="EW84"/>
-      <c r="EX84"/>
-      <c r="EY84"/>
-      <c r="EZ84"/>
-      <c r="FA84"/>
-      <c r="FB84"/>
-      <c r="FC84"/>
-      <c r="FD84"/>
-      <c r="FE84"/>
-      <c r="FF84"/>
-      <c r="FG84"/>
-      <c r="FH84"/>
-      <c r="FI84"/>
-      <c r="FJ84"/>
-      <c r="FK84"/>
-      <c r="FL84"/>
-    </row>
-    <row r="85" spans="15:168">
+    <row r="85" spans="15:168" x14ac:dyDescent="0.2">
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
@@ -21731,319 +22465,7 @@
       <c r="FK85"/>
       <c r="FL85"/>
     </row>
-    <row r="86" spans="15:168">
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
-      <c r="R86"/>
-      <c r="S86"/>
-      <c r="T86"/>
-      <c r="U86"/>
-      <c r="V86"/>
-      <c r="W86"/>
-      <c r="X86"/>
-      <c r="Y86"/>
-      <c r="Z86"/>
-      <c r="AA86"/>
-      <c r="AB86"/>
-      <c r="AC86"/>
-      <c r="AD86"/>
-      <c r="AE86"/>
-      <c r="AF86"/>
-      <c r="AG86"/>
-      <c r="AH86"/>
-      <c r="AI86"/>
-      <c r="AJ86"/>
-      <c r="AK86"/>
-      <c r="AL86"/>
-      <c r="AM86"/>
-      <c r="AN86"/>
-      <c r="AO86"/>
-      <c r="AP86"/>
-      <c r="AQ86"/>
-      <c r="AR86"/>
-      <c r="AS86"/>
-      <c r="AT86"/>
-      <c r="AU86"/>
-      <c r="AV86"/>
-      <c r="AW86"/>
-      <c r="AX86"/>
-      <c r="AY86"/>
-      <c r="AZ86"/>
-      <c r="BA86"/>
-      <c r="BB86"/>
-      <c r="BC86"/>
-      <c r="BD86"/>
-      <c r="BE86"/>
-      <c r="BF86"/>
-      <c r="BG86"/>
-      <c r="BH86"/>
-      <c r="BI86"/>
-      <c r="BJ86"/>
-      <c r="BK86"/>
-      <c r="BL86"/>
-      <c r="BM86"/>
-      <c r="BN86"/>
-      <c r="BO86"/>
-      <c r="BP86"/>
-      <c r="BQ86"/>
-      <c r="BR86"/>
-      <c r="BS86"/>
-      <c r="BT86"/>
-      <c r="BU86"/>
-      <c r="BV86"/>
-      <c r="BW86"/>
-      <c r="BX86"/>
-      <c r="BY86"/>
-      <c r="BZ86"/>
-      <c r="CA86"/>
-      <c r="CB86"/>
-      <c r="CC86"/>
-      <c r="CD86"/>
-      <c r="CE86"/>
-      <c r="CF86"/>
-      <c r="CG86"/>
-      <c r="CH86"/>
-      <c r="CI86"/>
-      <c r="CJ86"/>
-      <c r="CK86"/>
-      <c r="CL86"/>
-      <c r="CM86"/>
-      <c r="CN86"/>
-      <c r="CO86"/>
-      <c r="CP86"/>
-      <c r="CQ86"/>
-      <c r="CR86"/>
-      <c r="CS86"/>
-      <c r="CT86"/>
-      <c r="CU86"/>
-      <c r="CV86"/>
-      <c r="CW86"/>
-      <c r="CX86"/>
-      <c r="CY86"/>
-      <c r="CZ86"/>
-      <c r="DA86"/>
-      <c r="DB86"/>
-      <c r="DC86"/>
-      <c r="DD86"/>
-      <c r="DE86"/>
-      <c r="DF86"/>
-      <c r="DG86"/>
-      <c r="DH86"/>
-      <c r="DI86"/>
-      <c r="DJ86"/>
-      <c r="DK86"/>
-      <c r="DL86"/>
-      <c r="DM86"/>
-      <c r="DN86"/>
-      <c r="DO86"/>
-      <c r="DP86"/>
-      <c r="DQ86"/>
-      <c r="DR86"/>
-      <c r="DS86"/>
-      <c r="DT86"/>
-      <c r="DU86"/>
-      <c r="DV86"/>
-      <c r="DW86"/>
-      <c r="DX86"/>
-      <c r="DY86"/>
-      <c r="DZ86"/>
-      <c r="EA86"/>
-      <c r="EB86"/>
-      <c r="EC86"/>
-      <c r="ED86"/>
-      <c r="EE86"/>
-      <c r="EF86"/>
-      <c r="EG86"/>
-      <c r="EH86"/>
-      <c r="EI86"/>
-      <c r="EJ86"/>
-      <c r="EK86"/>
-      <c r="EL86"/>
-      <c r="EM86"/>
-      <c r="EN86"/>
-      <c r="EO86"/>
-      <c r="EP86"/>
-      <c r="EQ86"/>
-      <c r="ER86"/>
-      <c r="ES86"/>
-      <c r="ET86"/>
-      <c r="EU86"/>
-      <c r="EV86"/>
-      <c r="EW86"/>
-      <c r="EX86"/>
-      <c r="EY86"/>
-      <c r="EZ86"/>
-      <c r="FA86"/>
-      <c r="FB86"/>
-      <c r="FC86"/>
-      <c r="FD86"/>
-      <c r="FE86"/>
-      <c r="FF86"/>
-      <c r="FG86"/>
-      <c r="FH86"/>
-      <c r="FI86"/>
-      <c r="FJ86"/>
-      <c r="FK86"/>
-      <c r="FL86"/>
-    </row>
-    <row r="87" spans="15:168">
-      <c r="O87"/>
-      <c r="P87"/>
-      <c r="Q87"/>
-      <c r="R87"/>
-      <c r="S87"/>
-      <c r="T87"/>
-      <c r="U87"/>
-      <c r="V87"/>
-      <c r="W87"/>
-      <c r="X87"/>
-      <c r="Y87"/>
-      <c r="Z87"/>
-      <c r="AA87"/>
-      <c r="AB87"/>
-      <c r="AC87"/>
-      <c r="AD87"/>
-      <c r="AE87"/>
-      <c r="AF87"/>
-      <c r="AG87"/>
-      <c r="AH87"/>
-      <c r="AI87"/>
-      <c r="AJ87"/>
-      <c r="AK87"/>
-      <c r="AL87"/>
-      <c r="AM87"/>
-      <c r="AN87"/>
-      <c r="AO87"/>
-      <c r="AP87"/>
-      <c r="AQ87"/>
-      <c r="AR87"/>
-      <c r="AS87"/>
-      <c r="AT87"/>
-      <c r="AU87"/>
-      <c r="AV87"/>
-      <c r="AW87"/>
-      <c r="AX87"/>
-      <c r="AY87"/>
-      <c r="AZ87"/>
-      <c r="BA87"/>
-      <c r="BB87"/>
-      <c r="BC87"/>
-      <c r="BD87"/>
-      <c r="BE87"/>
-      <c r="BF87"/>
-      <c r="BG87"/>
-      <c r="BH87"/>
-      <c r="BI87"/>
-      <c r="BJ87"/>
-      <c r="BK87"/>
-      <c r="BL87"/>
-      <c r="BM87"/>
-      <c r="BN87"/>
-      <c r="BO87"/>
-      <c r="BP87"/>
-      <c r="BQ87"/>
-      <c r="BR87"/>
-      <c r="BS87"/>
-      <c r="BT87"/>
-      <c r="BU87"/>
-      <c r="BV87"/>
-      <c r="BW87"/>
-      <c r="BX87"/>
-      <c r="BY87"/>
-      <c r="BZ87"/>
-      <c r="CA87"/>
-      <c r="CB87"/>
-      <c r="CC87"/>
-      <c r="CD87"/>
-      <c r="CE87"/>
-      <c r="CF87"/>
-      <c r="CG87"/>
-      <c r="CH87"/>
-      <c r="CI87"/>
-      <c r="CJ87"/>
-      <c r="CK87"/>
-      <c r="CL87"/>
-      <c r="CM87"/>
-      <c r="CN87"/>
-      <c r="CO87"/>
-      <c r="CP87"/>
-      <c r="CQ87"/>
-      <c r="CR87"/>
-      <c r="CS87"/>
-      <c r="CT87"/>
-      <c r="CU87"/>
-      <c r="CV87"/>
-      <c r="CW87"/>
-      <c r="CX87"/>
-      <c r="CY87"/>
-      <c r="CZ87"/>
-      <c r="DA87"/>
-      <c r="DB87"/>
-      <c r="DC87"/>
-      <c r="DD87"/>
-      <c r="DE87"/>
-      <c r="DF87"/>
-      <c r="DG87"/>
-      <c r="DH87"/>
-      <c r="DI87"/>
-      <c r="DJ87"/>
-      <c r="DK87"/>
-      <c r="DL87"/>
-      <c r="DM87"/>
-      <c r="DN87"/>
-      <c r="DO87"/>
-      <c r="DP87"/>
-      <c r="DQ87"/>
-      <c r="DR87"/>
-      <c r="DS87"/>
-      <c r="DT87"/>
-      <c r="DU87"/>
-      <c r="DV87"/>
-      <c r="DW87"/>
-      <c r="DX87"/>
-      <c r="DY87"/>
-      <c r="DZ87"/>
-      <c r="EA87"/>
-      <c r="EB87"/>
-      <c r="EC87"/>
-      <c r="ED87"/>
-      <c r="EE87"/>
-      <c r="EF87"/>
-      <c r="EG87"/>
-      <c r="EH87"/>
-      <c r="EI87"/>
-      <c r="EJ87"/>
-      <c r="EK87"/>
-      <c r="EL87"/>
-      <c r="EM87"/>
-      <c r="EN87"/>
-      <c r="EO87"/>
-      <c r="EP87"/>
-      <c r="EQ87"/>
-      <c r="ER87"/>
-      <c r="ES87"/>
-      <c r="ET87"/>
-      <c r="EU87"/>
-      <c r="EV87"/>
-      <c r="EW87"/>
-      <c r="EX87"/>
-      <c r="EY87"/>
-      <c r="EZ87"/>
-      <c r="FA87"/>
-      <c r="FB87"/>
-      <c r="FC87"/>
-      <c r="FD87"/>
-      <c r="FE87"/>
-      <c r="FF87"/>
-      <c r="FG87"/>
-      <c r="FH87"/>
-      <c r="FI87"/>
-      <c r="FJ87"/>
-      <c r="FK87"/>
-      <c r="FL87"/>
-    </row>
-    <row r="88" spans="15:168">
+    <row r="88" spans="15:168" x14ac:dyDescent="0.2">
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
@@ -22199,7 +22621,7 @@
       <c r="FK88"/>
       <c r="FL88"/>
     </row>
-    <row r="89" spans="15:168">
+    <row r="89" spans="15:168" x14ac:dyDescent="0.2">
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
@@ -22355,7 +22777,7 @@
       <c r="FK89"/>
       <c r="FL89"/>
     </row>
-    <row r="90" spans="15:168">
+    <row r="90" spans="15:168" x14ac:dyDescent="0.2">
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -22511,7 +22933,7 @@
       <c r="FK90"/>
       <c r="FL90"/>
     </row>
-    <row r="91" spans="15:168">
+    <row r="91" spans="15:168" x14ac:dyDescent="0.2">
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -22667,7 +23089,163 @@
       <c r="FK91"/>
       <c r="FL91"/>
     </row>
-    <row r="93" spans="15:168">
+    <row r="92" spans="15:168" x14ac:dyDescent="0.2">
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+      <c r="AC92"/>
+      <c r="AD92"/>
+      <c r="AE92"/>
+      <c r="AF92"/>
+      <c r="AG92"/>
+      <c r="AH92"/>
+      <c r="AI92"/>
+      <c r="AJ92"/>
+      <c r="AK92"/>
+      <c r="AL92"/>
+      <c r="AM92"/>
+      <c r="AN92"/>
+      <c r="AO92"/>
+      <c r="AP92"/>
+      <c r="AQ92"/>
+      <c r="AR92"/>
+      <c r="AS92"/>
+      <c r="AT92"/>
+      <c r="AU92"/>
+      <c r="AV92"/>
+      <c r="AW92"/>
+      <c r="AX92"/>
+      <c r="AY92"/>
+      <c r="AZ92"/>
+      <c r="BA92"/>
+      <c r="BB92"/>
+      <c r="BC92"/>
+      <c r="BD92"/>
+      <c r="BE92"/>
+      <c r="BF92"/>
+      <c r="BG92"/>
+      <c r="BH92"/>
+      <c r="BI92"/>
+      <c r="BJ92"/>
+      <c r="BK92"/>
+      <c r="BL92"/>
+      <c r="BM92"/>
+      <c r="BN92"/>
+      <c r="BO92"/>
+      <c r="BP92"/>
+      <c r="BQ92"/>
+      <c r="BR92"/>
+      <c r="BS92"/>
+      <c r="BT92"/>
+      <c r="BU92"/>
+      <c r="BV92"/>
+      <c r="BW92"/>
+      <c r="BX92"/>
+      <c r="BY92"/>
+      <c r="BZ92"/>
+      <c r="CA92"/>
+      <c r="CB92"/>
+      <c r="CC92"/>
+      <c r="CD92"/>
+      <c r="CE92"/>
+      <c r="CF92"/>
+      <c r="CG92"/>
+      <c r="CH92"/>
+      <c r="CI92"/>
+      <c r="CJ92"/>
+      <c r="CK92"/>
+      <c r="CL92"/>
+      <c r="CM92"/>
+      <c r="CN92"/>
+      <c r="CO92"/>
+      <c r="CP92"/>
+      <c r="CQ92"/>
+      <c r="CR92"/>
+      <c r="CS92"/>
+      <c r="CT92"/>
+      <c r="CU92"/>
+      <c r="CV92"/>
+      <c r="CW92"/>
+      <c r="CX92"/>
+      <c r="CY92"/>
+      <c r="CZ92"/>
+      <c r="DA92"/>
+      <c r="DB92"/>
+      <c r="DC92"/>
+      <c r="DD92"/>
+      <c r="DE92"/>
+      <c r="DF92"/>
+      <c r="DG92"/>
+      <c r="DH92"/>
+      <c r="DI92"/>
+      <c r="DJ92"/>
+      <c r="DK92"/>
+      <c r="DL92"/>
+      <c r="DM92"/>
+      <c r="DN92"/>
+      <c r="DO92"/>
+      <c r="DP92"/>
+      <c r="DQ92"/>
+      <c r="DR92"/>
+      <c r="DS92"/>
+      <c r="DT92"/>
+      <c r="DU92"/>
+      <c r="DV92"/>
+      <c r="DW92"/>
+      <c r="DX92"/>
+      <c r="DY92"/>
+      <c r="DZ92"/>
+      <c r="EA92"/>
+      <c r="EB92"/>
+      <c r="EC92"/>
+      <c r="ED92"/>
+      <c r="EE92"/>
+      <c r="EF92"/>
+      <c r="EG92"/>
+      <c r="EH92"/>
+      <c r="EI92"/>
+      <c r="EJ92"/>
+      <c r="EK92"/>
+      <c r="EL92"/>
+      <c r="EM92"/>
+      <c r="EN92"/>
+      <c r="EO92"/>
+      <c r="EP92"/>
+      <c r="EQ92"/>
+      <c r="ER92"/>
+      <c r="ES92"/>
+      <c r="ET92"/>
+      <c r="EU92"/>
+      <c r="EV92"/>
+      <c r="EW92"/>
+      <c r="EX92"/>
+      <c r="EY92"/>
+      <c r="EZ92"/>
+      <c r="FA92"/>
+      <c r="FB92"/>
+      <c r="FC92"/>
+      <c r="FD92"/>
+      <c r="FE92"/>
+      <c r="FF92"/>
+      <c r="FG92"/>
+      <c r="FH92"/>
+      <c r="FI92"/>
+      <c r="FJ92"/>
+      <c r="FK92"/>
+      <c r="FL92"/>
+    </row>
+    <row r="93" spans="15:168" x14ac:dyDescent="0.2">
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
@@ -22823,7 +23401,7 @@
       <c r="FK93"/>
       <c r="FL93"/>
     </row>
-    <row r="94" spans="15:168">
+    <row r="94" spans="15:168" x14ac:dyDescent="0.2">
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
@@ -22979,541 +23557,1099 @@
       <c r="FK94"/>
       <c r="FL94"/>
     </row>
+    <row r="95" spans="15:168" x14ac:dyDescent="0.2">
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+      <c r="AB95"/>
+      <c r="AC95"/>
+      <c r="AD95"/>
+      <c r="AE95"/>
+      <c r="AF95"/>
+      <c r="AG95"/>
+      <c r="AH95"/>
+      <c r="AI95"/>
+      <c r="AJ95"/>
+      <c r="AK95"/>
+      <c r="AL95"/>
+      <c r="AM95"/>
+      <c r="AN95"/>
+      <c r="AO95"/>
+      <c r="AP95"/>
+      <c r="AQ95"/>
+      <c r="AR95"/>
+      <c r="AS95"/>
+      <c r="AT95"/>
+      <c r="AU95"/>
+      <c r="AV95"/>
+      <c r="AW95"/>
+      <c r="AX95"/>
+      <c r="AY95"/>
+      <c r="AZ95"/>
+      <c r="BA95"/>
+      <c r="BB95"/>
+      <c r="BC95"/>
+      <c r="BD95"/>
+      <c r="BE95"/>
+      <c r="BF95"/>
+      <c r="BG95"/>
+      <c r="BH95"/>
+      <c r="BI95"/>
+      <c r="BJ95"/>
+      <c r="BK95"/>
+      <c r="BL95"/>
+      <c r="BM95"/>
+      <c r="BN95"/>
+      <c r="BO95"/>
+      <c r="BP95"/>
+      <c r="BQ95"/>
+      <c r="BR95"/>
+      <c r="BS95"/>
+      <c r="BT95"/>
+      <c r="BU95"/>
+      <c r="BV95"/>
+      <c r="BW95"/>
+      <c r="BX95"/>
+      <c r="BY95"/>
+      <c r="BZ95"/>
+      <c r="CA95"/>
+      <c r="CB95"/>
+      <c r="CC95"/>
+      <c r="CD95"/>
+      <c r="CE95"/>
+      <c r="CF95"/>
+      <c r="CG95"/>
+      <c r="CH95"/>
+      <c r="CI95"/>
+      <c r="CJ95"/>
+      <c r="CK95"/>
+      <c r="CL95"/>
+      <c r="CM95"/>
+      <c r="CN95"/>
+      <c r="CO95"/>
+      <c r="CP95"/>
+      <c r="CQ95"/>
+      <c r="CR95"/>
+      <c r="CS95"/>
+      <c r="CT95"/>
+      <c r="CU95"/>
+      <c r="CV95"/>
+      <c r="CW95"/>
+      <c r="CX95"/>
+      <c r="CY95"/>
+      <c r="CZ95"/>
+      <c r="DA95"/>
+      <c r="DB95"/>
+      <c r="DC95"/>
+      <c r="DD95"/>
+      <c r="DE95"/>
+      <c r="DF95"/>
+      <c r="DG95"/>
+      <c r="DH95"/>
+      <c r="DI95"/>
+      <c r="DJ95"/>
+      <c r="DK95"/>
+      <c r="DL95"/>
+      <c r="DM95"/>
+      <c r="DN95"/>
+      <c r="DO95"/>
+      <c r="DP95"/>
+      <c r="DQ95"/>
+      <c r="DR95"/>
+      <c r="DS95"/>
+      <c r="DT95"/>
+      <c r="DU95"/>
+      <c r="DV95"/>
+      <c r="DW95"/>
+      <c r="DX95"/>
+      <c r="DY95"/>
+      <c r="DZ95"/>
+      <c r="EA95"/>
+      <c r="EB95"/>
+      <c r="EC95"/>
+      <c r="ED95"/>
+      <c r="EE95"/>
+      <c r="EF95"/>
+      <c r="EG95"/>
+      <c r="EH95"/>
+      <c r="EI95"/>
+      <c r="EJ95"/>
+      <c r="EK95"/>
+      <c r="EL95"/>
+      <c r="EM95"/>
+      <c r="EN95"/>
+      <c r="EO95"/>
+      <c r="EP95"/>
+      <c r="EQ95"/>
+      <c r="ER95"/>
+      <c r="ES95"/>
+      <c r="ET95"/>
+      <c r="EU95"/>
+      <c r="EV95"/>
+      <c r="EW95"/>
+      <c r="EX95"/>
+      <c r="EY95"/>
+      <c r="EZ95"/>
+      <c r="FA95"/>
+      <c r="FB95"/>
+      <c r="FC95"/>
+      <c r="FD95"/>
+      <c r="FE95"/>
+      <c r="FF95"/>
+      <c r="FG95"/>
+      <c r="FH95"/>
+      <c r="FI95"/>
+      <c r="FJ95"/>
+      <c r="FK95"/>
+      <c r="FL95"/>
+    </row>
+    <row r="97" spans="15:168" x14ac:dyDescent="0.2">
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+      <c r="AA97"/>
+      <c r="AB97"/>
+      <c r="AC97"/>
+      <c r="AD97"/>
+      <c r="AE97"/>
+      <c r="AF97"/>
+      <c r="AG97"/>
+      <c r="AH97"/>
+      <c r="AI97"/>
+      <c r="AJ97"/>
+      <c r="AK97"/>
+      <c r="AL97"/>
+      <c r="AM97"/>
+      <c r="AN97"/>
+      <c r="AO97"/>
+      <c r="AP97"/>
+      <c r="AQ97"/>
+      <c r="AR97"/>
+      <c r="AS97"/>
+      <c r="AT97"/>
+      <c r="AU97"/>
+      <c r="AV97"/>
+      <c r="AW97"/>
+      <c r="AX97"/>
+      <c r="AY97"/>
+      <c r="AZ97"/>
+      <c r="BA97"/>
+      <c r="BB97"/>
+      <c r="BC97"/>
+      <c r="BD97"/>
+      <c r="BE97"/>
+      <c r="BF97"/>
+      <c r="BG97"/>
+      <c r="BH97"/>
+      <c r="BI97"/>
+      <c r="BJ97"/>
+      <c r="BK97"/>
+      <c r="BL97"/>
+      <c r="BM97"/>
+      <c r="BN97"/>
+      <c r="BO97"/>
+      <c r="BP97"/>
+      <c r="BQ97"/>
+      <c r="BR97"/>
+      <c r="BS97"/>
+      <c r="BT97"/>
+      <c r="BU97"/>
+      <c r="BV97"/>
+      <c r="BW97"/>
+      <c r="BX97"/>
+      <c r="BY97"/>
+      <c r="BZ97"/>
+      <c r="CA97"/>
+      <c r="CB97"/>
+      <c r="CC97"/>
+      <c r="CD97"/>
+      <c r="CE97"/>
+      <c r="CF97"/>
+      <c r="CG97"/>
+      <c r="CH97"/>
+      <c r="CI97"/>
+      <c r="CJ97"/>
+      <c r="CK97"/>
+      <c r="CL97"/>
+      <c r="CM97"/>
+      <c r="CN97"/>
+      <c r="CO97"/>
+      <c r="CP97"/>
+      <c r="CQ97"/>
+      <c r="CR97"/>
+      <c r="CS97"/>
+      <c r="CT97"/>
+      <c r="CU97"/>
+      <c r="CV97"/>
+      <c r="CW97"/>
+      <c r="CX97"/>
+      <c r="CY97"/>
+      <c r="CZ97"/>
+      <c r="DA97"/>
+      <c r="DB97"/>
+      <c r="DC97"/>
+      <c r="DD97"/>
+      <c r="DE97"/>
+      <c r="DF97"/>
+      <c r="DG97"/>
+      <c r="DH97"/>
+      <c r="DI97"/>
+      <c r="DJ97"/>
+      <c r="DK97"/>
+      <c r="DL97"/>
+      <c r="DM97"/>
+      <c r="DN97"/>
+      <c r="DO97"/>
+      <c r="DP97"/>
+      <c r="DQ97"/>
+      <c r="DR97"/>
+      <c r="DS97"/>
+      <c r="DT97"/>
+      <c r="DU97"/>
+      <c r="DV97"/>
+      <c r="DW97"/>
+      <c r="DX97"/>
+      <c r="DY97"/>
+      <c r="DZ97"/>
+      <c r="EA97"/>
+      <c r="EB97"/>
+      <c r="EC97"/>
+      <c r="ED97"/>
+      <c r="EE97"/>
+      <c r="EF97"/>
+      <c r="EG97"/>
+      <c r="EH97"/>
+      <c r="EI97"/>
+      <c r="EJ97"/>
+      <c r="EK97"/>
+      <c r="EL97"/>
+      <c r="EM97"/>
+      <c r="EN97"/>
+      <c r="EO97"/>
+      <c r="EP97"/>
+      <c r="EQ97"/>
+      <c r="ER97"/>
+      <c r="ES97"/>
+      <c r="ET97"/>
+      <c r="EU97"/>
+      <c r="EV97"/>
+      <c r="EW97"/>
+      <c r="EX97"/>
+      <c r="EY97"/>
+      <c r="EZ97"/>
+      <c r="FA97"/>
+      <c r="FB97"/>
+      <c r="FC97"/>
+      <c r="FD97"/>
+      <c r="FE97"/>
+      <c r="FF97"/>
+      <c r="FG97"/>
+      <c r="FH97"/>
+      <c r="FI97"/>
+      <c r="FJ97"/>
+      <c r="FK97"/>
+      <c r="FL97"/>
+    </row>
+    <row r="98" spans="15:168" x14ac:dyDescent="0.2">
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98"/>
+      <c r="Y98"/>
+      <c r="Z98"/>
+      <c r="AA98"/>
+      <c r="AB98"/>
+      <c r="AC98"/>
+      <c r="AD98"/>
+      <c r="AE98"/>
+      <c r="AF98"/>
+      <c r="AG98"/>
+      <c r="AH98"/>
+      <c r="AI98"/>
+      <c r="AJ98"/>
+      <c r="AK98"/>
+      <c r="AL98"/>
+      <c r="AM98"/>
+      <c r="AN98"/>
+      <c r="AO98"/>
+      <c r="AP98"/>
+      <c r="AQ98"/>
+      <c r="AR98"/>
+      <c r="AS98"/>
+      <c r="AT98"/>
+      <c r="AU98"/>
+      <c r="AV98"/>
+      <c r="AW98"/>
+      <c r="AX98"/>
+      <c r="AY98"/>
+      <c r="AZ98"/>
+      <c r="BA98"/>
+      <c r="BB98"/>
+      <c r="BC98"/>
+      <c r="BD98"/>
+      <c r="BE98"/>
+      <c r="BF98"/>
+      <c r="BG98"/>
+      <c r="BH98"/>
+      <c r="BI98"/>
+      <c r="BJ98"/>
+      <c r="BK98"/>
+      <c r="BL98"/>
+      <c r="BM98"/>
+      <c r="BN98"/>
+      <c r="BO98"/>
+      <c r="BP98"/>
+      <c r="BQ98"/>
+      <c r="BR98"/>
+      <c r="BS98"/>
+      <c r="BT98"/>
+      <c r="BU98"/>
+      <c r="BV98"/>
+      <c r="BW98"/>
+      <c r="BX98"/>
+      <c r="BY98"/>
+      <c r="BZ98"/>
+      <c r="CA98"/>
+      <c r="CB98"/>
+      <c r="CC98"/>
+      <c r="CD98"/>
+      <c r="CE98"/>
+      <c r="CF98"/>
+      <c r="CG98"/>
+      <c r="CH98"/>
+      <c r="CI98"/>
+      <c r="CJ98"/>
+      <c r="CK98"/>
+      <c r="CL98"/>
+      <c r="CM98"/>
+      <c r="CN98"/>
+      <c r="CO98"/>
+      <c r="CP98"/>
+      <c r="CQ98"/>
+      <c r="CR98"/>
+      <c r="CS98"/>
+      <c r="CT98"/>
+      <c r="CU98"/>
+      <c r="CV98"/>
+      <c r="CW98"/>
+      <c r="CX98"/>
+      <c r="CY98"/>
+      <c r="CZ98"/>
+      <c r="DA98"/>
+      <c r="DB98"/>
+      <c r="DC98"/>
+      <c r="DD98"/>
+      <c r="DE98"/>
+      <c r="DF98"/>
+      <c r="DG98"/>
+      <c r="DH98"/>
+      <c r="DI98"/>
+      <c r="DJ98"/>
+      <c r="DK98"/>
+      <c r="DL98"/>
+      <c r="DM98"/>
+      <c r="DN98"/>
+      <c r="DO98"/>
+      <c r="DP98"/>
+      <c r="DQ98"/>
+      <c r="DR98"/>
+      <c r="DS98"/>
+      <c r="DT98"/>
+      <c r="DU98"/>
+      <c r="DV98"/>
+      <c r="DW98"/>
+      <c r="DX98"/>
+      <c r="DY98"/>
+      <c r="DZ98"/>
+      <c r="EA98"/>
+      <c r="EB98"/>
+      <c r="EC98"/>
+      <c r="ED98"/>
+      <c r="EE98"/>
+      <c r="EF98"/>
+      <c r="EG98"/>
+      <c r="EH98"/>
+      <c r="EI98"/>
+      <c r="EJ98"/>
+      <c r="EK98"/>
+      <c r="EL98"/>
+      <c r="EM98"/>
+      <c r="EN98"/>
+      <c r="EO98"/>
+      <c r="EP98"/>
+      <c r="EQ98"/>
+      <c r="ER98"/>
+      <c r="ES98"/>
+      <c r="ET98"/>
+      <c r="EU98"/>
+      <c r="EV98"/>
+      <c r="EW98"/>
+      <c r="EX98"/>
+      <c r="EY98"/>
+      <c r="EZ98"/>
+      <c r="FA98"/>
+      <c r="FB98"/>
+      <c r="FC98"/>
+      <c r="FD98"/>
+      <c r="FE98"/>
+      <c r="FF98"/>
+      <c r="FG98"/>
+      <c r="FH98"/>
+      <c r="FI98"/>
+      <c r="FJ98"/>
+      <c r="FK98"/>
+      <c r="FL98"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B12:FP14">
+  <autoFilter ref="B12:FP14" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="O64:BN65 O11:BF12 O47:DC49 O26:DC27 O13:DC19 O41:DC44 O21:DC22 EC11:EF65">
-    <cfRule type="expression" dxfId="181" priority="214">
+  <conditionalFormatting sqref="O68:BN69 O11:BF12 O51:DC53 O26:DC27 O13:DC19 O45:DC48 O21:DC22 EC11:EF39 EC44:EF69">
+    <cfRule type="expression" dxfId="204" priority="237">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="215">
+    <cfRule type="expression" dxfId="203" priority="238">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="216">
+    <cfRule type="expression" dxfId="202" priority="239">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:BF11 EC11:EF11">
-    <cfRule type="expression" dxfId="178" priority="213">
+    <cfRule type="expression" dxfId="201" priority="236">
       <formula>O$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O50:BN63">
-    <cfRule type="expression" dxfId="177" priority="210">
+  <conditionalFormatting sqref="O54:BN67">
+    <cfRule type="expression" dxfId="200" priority="233">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="211">
+    <cfRule type="expression" dxfId="199" priority="234">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="212">
+    <cfRule type="expression" dxfId="198" priority="235">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO64:DC65">
-    <cfRule type="expression" dxfId="174" priority="207">
+  <conditionalFormatting sqref="BO68:DC69">
+    <cfRule type="expression" dxfId="197" priority="230">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="208">
+    <cfRule type="expression" dxfId="196" priority="231">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="209">
+    <cfRule type="expression" dxfId="195" priority="232">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO50:DC63">
-    <cfRule type="expression" dxfId="171" priority="203">
+  <conditionalFormatting sqref="BO54:DC67">
+    <cfRule type="expression" dxfId="194" priority="226">
       <formula>BO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="204">
+    <cfRule type="expression" dxfId="193" priority="227">
       <formula>BO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="205">
+    <cfRule type="expression" dxfId="192" priority="228">
       <formula>BO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DB12">
-    <cfRule type="expression" dxfId="168" priority="200">
+    <cfRule type="expression" dxfId="191" priority="223">
       <formula>BG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="201">
+    <cfRule type="expression" dxfId="190" priority="224">
       <formula>BG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="202">
+    <cfRule type="expression" dxfId="189" priority="225">
       <formula>BG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:DB11">
-    <cfRule type="expression" dxfId="165" priority="199">
+    <cfRule type="expression" dxfId="188" priority="222">
       <formula>BG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O45:DC45">
-    <cfRule type="expression" dxfId="164" priority="195">
+  <conditionalFormatting sqref="O49:DC49">
+    <cfRule type="expression" dxfId="187" priority="218">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="196">
+    <cfRule type="expression" dxfId="186" priority="219">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="197">
+    <cfRule type="expression" dxfId="185" priority="220">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O46:AM46 AP46:DC46">
-    <cfRule type="expression" dxfId="161" priority="188">
+  <conditionalFormatting sqref="O50:AM50 AP50:DC50">
+    <cfRule type="expression" dxfId="184" priority="211">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="189">
+    <cfRule type="expression" dxfId="183" priority="212">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="190">
+    <cfRule type="expression" dxfId="182" priority="213">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:DC25">
-    <cfRule type="expression" dxfId="158" priority="177">
+    <cfRule type="expression" dxfId="181" priority="200">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="178">
+    <cfRule type="expression" dxfId="180" priority="201">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="179">
+    <cfRule type="expression" dxfId="179" priority="202">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O40:DC40">
-    <cfRule type="expression" dxfId="155" priority="173">
+  <conditionalFormatting sqref="O44:DC44">
+    <cfRule type="expression" dxfId="178" priority="196">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="174">
+    <cfRule type="expression" dxfId="177" priority="197">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="175">
+    <cfRule type="expression" dxfId="176" priority="198">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:DC38">
-    <cfRule type="expression" dxfId="152" priority="169">
+    <cfRule type="expression" dxfId="175" priority="192">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="170">
+    <cfRule type="expression" dxfId="174" priority="193">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="171">
+    <cfRule type="expression" dxfId="173" priority="194">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO46">
-    <cfRule type="expression" dxfId="149" priority="156">
+  <conditionalFormatting sqref="AO50">
+    <cfRule type="expression" dxfId="172" priority="179">
       <formula>AO$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="157">
+    <cfRule type="expression" dxfId="171" priority="180">
       <formula>AO$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="158">
+    <cfRule type="expression" dxfId="170" priority="181">
       <formula>AO$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:DC23">
-    <cfRule type="expression" dxfId="146" priority="153">
+    <cfRule type="expression" dxfId="169" priority="176">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="154">
+    <cfRule type="expression" dxfId="168" priority="177">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="155">
+    <cfRule type="expression" dxfId="167" priority="178">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN46">
-    <cfRule type="expression" dxfId="143" priority="149">
+  <conditionalFormatting sqref="AN50">
+    <cfRule type="expression" dxfId="166" priority="172">
       <formula>AN$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="150">
+    <cfRule type="expression" dxfId="165" priority="173">
       <formula>AN$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="151">
+    <cfRule type="expression" dxfId="164" priority="174">
       <formula>AN$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:DC20">
-    <cfRule type="expression" dxfId="140" priority="146">
+    <cfRule type="expression" dxfId="163" priority="169">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="147">
+    <cfRule type="expression" dxfId="162" priority="170">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="148">
+    <cfRule type="expression" dxfId="161" priority="171">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:DC24">
-    <cfRule type="expression" dxfId="137" priority="142">
+    <cfRule type="expression" dxfId="160" priority="165">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="143">
+    <cfRule type="expression" dxfId="159" priority="166">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="144">
+    <cfRule type="expression" dxfId="158" priority="167">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39:DC39">
-    <cfRule type="expression" dxfId="134" priority="137">
+    <cfRule type="expression" dxfId="157" priority="160">
       <formula>O$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="138">
+    <cfRule type="expression" dxfId="156" priority="161">
       <formula>O$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="139">
+    <cfRule type="expression" dxfId="155" priority="162">
       <formula>O$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:M65">
-    <cfRule type="expression" dxfId="131" priority="128">
+  <conditionalFormatting sqref="I13:M39 I44:M69">
+    <cfRule type="expression" dxfId="154" priority="151">
       <formula>$J13="対応中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="198">
+    <cfRule type="expression" dxfId="153" priority="221">
       <formula>$J13="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DD64:DF65 DD21:DF22 DD41:DF44 DD13:DF19 DD26:DF27 DD47:DF49">
-    <cfRule type="expression" dxfId="129" priority="125">
+  <conditionalFormatting sqref="DD68:DF69 DD21:DF22 DD45:DF48 DD13:DF19 DD26:DF27 DD51:DF53">
+    <cfRule type="expression" dxfId="152" priority="148">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="126">
+    <cfRule type="expression" dxfId="151" priority="149">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="127">
+    <cfRule type="expression" dxfId="150" priority="150">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DD50:DF63">
-    <cfRule type="expression" dxfId="126" priority="122">
+  <conditionalFormatting sqref="DD54:DF67">
+    <cfRule type="expression" dxfId="149" priority="145">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="123">
+    <cfRule type="expression" dxfId="148" priority="146">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="124">
+    <cfRule type="expression" dxfId="147" priority="147">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DD45:DF45">
-    <cfRule type="expression" dxfId="123" priority="115">
+  <conditionalFormatting sqref="DD49:DF49">
+    <cfRule type="expression" dxfId="146" priority="138">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="116">
+    <cfRule type="expression" dxfId="145" priority="139">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="117">
+    <cfRule type="expression" dxfId="144" priority="140">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DD46:DF46">
-    <cfRule type="expression" dxfId="120" priority="112">
+  <conditionalFormatting sqref="DD50:DF50">
+    <cfRule type="expression" dxfId="143" priority="135">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="113">
+    <cfRule type="expression" dxfId="142" priority="136">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="114">
+    <cfRule type="expression" dxfId="141" priority="137">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD25:DF25">
-    <cfRule type="expression" dxfId="117" priority="109">
+    <cfRule type="expression" dxfId="140" priority="132">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="110">
+    <cfRule type="expression" dxfId="139" priority="133">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="111">
+    <cfRule type="expression" dxfId="138" priority="134">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DD40:DF40">
-    <cfRule type="expression" dxfId="114" priority="106">
+  <conditionalFormatting sqref="DD44:DF44">
+    <cfRule type="expression" dxfId="137" priority="129">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="107">
+    <cfRule type="expression" dxfId="136" priority="130">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="108">
+    <cfRule type="expression" dxfId="135" priority="131">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD28:DF38">
-    <cfRule type="expression" dxfId="111" priority="103">
+    <cfRule type="expression" dxfId="134" priority="126">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="104">
+    <cfRule type="expression" dxfId="133" priority="127">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="105">
+    <cfRule type="expression" dxfId="132" priority="128">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD23:DF23">
-    <cfRule type="expression" dxfId="108" priority="100">
+    <cfRule type="expression" dxfId="131" priority="123">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="101">
+    <cfRule type="expression" dxfId="130" priority="124">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="102">
+    <cfRule type="expression" dxfId="129" priority="125">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD20:DF20">
-    <cfRule type="expression" dxfId="105" priority="97">
+    <cfRule type="expression" dxfId="128" priority="120">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="98">
+    <cfRule type="expression" dxfId="127" priority="121">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="99">
+    <cfRule type="expression" dxfId="126" priority="122">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD24:DF24">
-    <cfRule type="expression" dxfId="102" priority="94">
+    <cfRule type="expression" dxfId="125" priority="117">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="95">
+    <cfRule type="expression" dxfId="124" priority="118">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="96">
+    <cfRule type="expression" dxfId="123" priority="119">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD39:DF39">
-    <cfRule type="expression" dxfId="99" priority="91">
+    <cfRule type="expression" dxfId="122" priority="114">
       <formula>DD$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="92">
+    <cfRule type="expression" dxfId="121" priority="115">
       <formula>DD$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="93">
+    <cfRule type="expression" dxfId="120" priority="116">
       <formula>DD$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC11:DF12">
-    <cfRule type="expression" dxfId="96" priority="88">
+    <cfRule type="expression" dxfId="119" priority="111">
       <formula>DC$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="89">
+    <cfRule type="expression" dxfId="118" priority="112">
       <formula>DC$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="90">
+    <cfRule type="expression" dxfId="117" priority="113">
       <formula>DC$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC11:DF11">
-    <cfRule type="expression" dxfId="93" priority="87">
+    <cfRule type="expression" dxfId="116" priority="110">
       <formula>DC$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DG64:EB65 DG21:EB22 DG41:EB44 DG13:EB19 DG26:EB27 DG47:EB49">
-    <cfRule type="expression" dxfId="92" priority="84">
+  <conditionalFormatting sqref="DG68:EB69 DG21:EB22 DG45:EB48 DG13:EB19 DG26:EB27 DG51:EB53">
+    <cfRule type="expression" dxfId="115" priority="107">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="85">
+    <cfRule type="expression" dxfId="114" priority="108">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="86">
+    <cfRule type="expression" dxfId="113" priority="109">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DG50:EB63">
-    <cfRule type="expression" dxfId="89" priority="81">
+  <conditionalFormatting sqref="DG54:EB67">
+    <cfRule type="expression" dxfId="112" priority="104">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="82">
+    <cfRule type="expression" dxfId="111" priority="105">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="83">
+    <cfRule type="expression" dxfId="110" priority="106">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DG45:EB45">
-    <cfRule type="expression" dxfId="86" priority="78">
+  <conditionalFormatting sqref="DG49:EB49">
+    <cfRule type="expression" dxfId="109" priority="101">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="79">
+    <cfRule type="expression" dxfId="108" priority="102">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="80">
+    <cfRule type="expression" dxfId="107" priority="103">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DG46:EB46">
-    <cfRule type="expression" dxfId="83" priority="75">
+  <conditionalFormatting sqref="DG50:EB50">
+    <cfRule type="expression" dxfId="106" priority="98">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="76">
+    <cfRule type="expression" dxfId="105" priority="99">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="77">
+    <cfRule type="expression" dxfId="104" priority="100">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG25:EB25">
-    <cfRule type="expression" dxfId="80" priority="72">
+    <cfRule type="expression" dxfId="103" priority="95">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="73">
+    <cfRule type="expression" dxfId="102" priority="96">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="74">
+    <cfRule type="expression" dxfId="101" priority="97">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DG40:EB40">
-    <cfRule type="expression" dxfId="77" priority="69">
+  <conditionalFormatting sqref="DG44:EB44">
+    <cfRule type="expression" dxfId="100" priority="92">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="70">
+    <cfRule type="expression" dxfId="99" priority="93">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="71">
+    <cfRule type="expression" dxfId="98" priority="94">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG28:EB38">
-    <cfRule type="expression" dxfId="74" priority="66">
+    <cfRule type="expression" dxfId="97" priority="89">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="67">
+    <cfRule type="expression" dxfId="96" priority="90">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="68">
+    <cfRule type="expression" dxfId="95" priority="91">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG23:EB23">
-    <cfRule type="expression" dxfId="71" priority="63">
+    <cfRule type="expression" dxfId="94" priority="86">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="64">
+    <cfRule type="expression" dxfId="93" priority="87">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="65">
+    <cfRule type="expression" dxfId="92" priority="88">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG20:EB20">
-    <cfRule type="expression" dxfId="68" priority="60">
+    <cfRule type="expression" dxfId="91" priority="83">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="61">
+    <cfRule type="expression" dxfId="90" priority="84">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="62">
+    <cfRule type="expression" dxfId="89" priority="85">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG24:EB24">
-    <cfRule type="expression" dxfId="65" priority="57">
+    <cfRule type="expression" dxfId="88" priority="80">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="58">
+    <cfRule type="expression" dxfId="87" priority="81">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="59">
+    <cfRule type="expression" dxfId="86" priority="82">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG39:EB39">
-    <cfRule type="expression" dxfId="62" priority="54">
+    <cfRule type="expression" dxfId="85" priority="77">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="55">
+    <cfRule type="expression" dxfId="84" priority="78">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="56">
+    <cfRule type="expression" dxfId="83" priority="79">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG11:EB12">
-    <cfRule type="expression" dxfId="59" priority="51">
+    <cfRule type="expression" dxfId="82" priority="74">
       <formula>DG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="52">
+    <cfRule type="expression" dxfId="81" priority="75">
       <formula>DG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="53">
+    <cfRule type="expression" dxfId="80" priority="76">
       <formula>DG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG11:EB11">
-    <cfRule type="expression" dxfId="56" priority="50">
+    <cfRule type="expression" dxfId="79" priority="73">
       <formula>DG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EG11:EG65">
-    <cfRule type="expression" dxfId="55" priority="10">
+  <conditionalFormatting sqref="EG11:EG39 EG44:EG69">
+    <cfRule type="expression" dxfId="78" priority="33">
       <formula>EG$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="11">
+    <cfRule type="expression" dxfId="77" priority="34">
       <formula>EG$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="12">
+    <cfRule type="expression" dxfId="76" priority="35">
       <formula>EG$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG11">
-    <cfRule type="expression" dxfId="52" priority="9">
+    <cfRule type="expression" dxfId="75" priority="32">
       <formula>EG$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EH11:FI65">
-    <cfRule type="expression" dxfId="51" priority="6">
+  <conditionalFormatting sqref="EH11:FI39 EH44:FI69">
+    <cfRule type="expression" dxfId="74" priority="29">
       <formula>EH$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="7">
+    <cfRule type="expression" dxfId="73" priority="30">
       <formula>EH$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="8">
+    <cfRule type="expression" dxfId="72" priority="31">
       <formula>EH$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EH11:FI11">
-    <cfRule type="expression" dxfId="48" priority="5">
+    <cfRule type="expression" dxfId="71" priority="28">
       <formula>EH$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FJ11:FL65">
-    <cfRule type="expression" dxfId="47" priority="2">
+  <conditionalFormatting sqref="FJ11:FL39 FJ44:FL69">
+    <cfRule type="expression" dxfId="70" priority="25">
       <formula>FJ$9="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="3">
+    <cfRule type="expression" dxfId="69" priority="26">
       <formula>FJ$12="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="68" priority="27">
       <formula>FJ$12="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FJ11:FL11">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="67" priority="24">
       <formula>FJ$11=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="EC40:EF43">
+    <cfRule type="expression" dxfId="22" priority="21">
+      <formula>EC$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>EC$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="23">
+      <formula>EC$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O40:DC43">
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>O$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>O$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>O$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:M43">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$J40="対応中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>$J40="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD40:DF43">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>DD$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>DD$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>DD$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DG40:EB43">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>DG$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>DG$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>DG$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EG40:EG43">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>EG$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>EG$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>EG$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EH40:FI43">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>EH$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>EH$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>EH$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FJ40:FL43">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>FJ$9="祝"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>FJ$12="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>FJ$12="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J25:J27 J40:J69" xr:uid="{5BE0CA80-0082-4833-823D-800A089395D6}">
+      <formula1>$B$4:$B$11</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6B77D43A-0E13-4D1A-8FDF-E19AC83656C2}">
           <x14:formula1>
-            <xm:f>WBS_value!$B$4:$B$10</xm:f>
+            <xm:f>WBS_value!$B$4:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>J13:J16 J25:J27 J40:J65</xm:sqref>
+          <xm:sqref>J13:J16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -23522,36 +24658,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D37" sqref="D37"/>
       <selection pane="topRight" activeCell="D37" sqref="D37"/>
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.625" customWidth="1"/>
-    <col min="12" max="12" width="62.125" customWidth="1"/>
-    <col min="13" max="13" width="61.75" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.6328125" customWidth="1"/>
+    <col min="12" max="12" width="62.08984375" customWidth="1"/>
+    <col min="13" max="13" width="61.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
@@ -23559,21 +24694,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -23622,7 +24757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1">
+    <row r="7" spans="2:13" s="62" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>199</v>
       </c>
@@ -23660,7 +24795,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="63">
         <v>1</v>
       </c>
@@ -23692,7 +24827,7 @@
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="2:13" ht="69" customHeight="1">
+    <row r="9" spans="2:13" ht="99.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="63">
         <v>2</v>
       </c>
@@ -23703,14 +24838,14 @@
         <v>43276</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>156</v>
+        <v>377</v>
       </c>
       <c r="G9" s="63"/>
       <c r="H9" s="63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>129</v>
@@ -23721,10 +24856,12 @@
       <c r="K9" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="L9" s="18"/>
+      <c r="L9" s="75" t="s">
+        <v>373</v>
+      </c>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" hidden="1">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="63">
         <v>3</v>
       </c>
@@ -23756,7 +24893,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" hidden="1">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="63">
         <v>4</v>
       </c>
@@ -23788,7 +24925,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" ht="27" hidden="1">
+    <row r="12" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="63">
         <v>5</v>
       </c>
@@ -23824,7 +24961,7 @@
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" ht="148.5" hidden="1">
+    <row r="13" spans="2:13" ht="156" x14ac:dyDescent="0.2">
       <c r="B13" s="63">
         <v>6</v>
       </c>
@@ -23860,7 +24997,7 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" ht="94.5">
+    <row r="14" spans="2:13" ht="99.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="63">
         <v>7</v>
       </c>
@@ -23874,11 +25011,13 @@
         <v>222</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="63"/>
+        <v>190</v>
+      </c>
+      <c r="G14" s="65">
+        <v>43379</v>
+      </c>
       <c r="H14" s="63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>129</v>
@@ -23890,11 +25029,11 @@
         <v>223</v>
       </c>
       <c r="L14" s="63" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" ht="108" hidden="1">
+    <row r="15" spans="2:13" ht="104" x14ac:dyDescent="0.2">
       <c r="B15" s="63">
         <v>8</v>
       </c>
@@ -23930,7 +25069,7 @@
       </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" hidden="1">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="63">
         <v>9</v>
       </c>
@@ -23962,7 +25101,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" hidden="1">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="63">
         <v>10</v>
       </c>
@@ -23994,7 +25133,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" hidden="1">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="63">
         <v>11</v>
       </c>
@@ -24030,7 +25169,7 @@
       </c>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5" hidden="1">
+    <row r="19" spans="2:13" ht="91" x14ac:dyDescent="0.2">
       <c r="B19" s="63">
         <v>12</v>
       </c>
@@ -24050,7 +25189,7 @@
         <v>43375</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>129</v>
@@ -24062,11 +25201,11 @@
         <v>231</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="67.5" hidden="1">
+    <row r="20" spans="2:13" ht="65" x14ac:dyDescent="0.2">
       <c r="B20" s="63">
         <v>13</v>
       </c>
@@ -24104,7 +25243,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="135" hidden="1">
+    <row r="21" spans="2:13" ht="130" x14ac:dyDescent="0.2">
       <c r="B21" s="63">
         <v>14</v>
       </c>
@@ -24134,11 +25273,11 @@
         <v>236</v>
       </c>
       <c r="L21" s="63" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" ht="81" hidden="1">
+    <row r="22" spans="2:13" ht="78" x14ac:dyDescent="0.2">
       <c r="B22" s="63">
         <v>15</v>
       </c>
@@ -24174,7 +25313,7 @@
       </c>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" ht="165" hidden="1" customHeight="1">
+    <row r="23" spans="2:13" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="63">
         <v>16</v>
       </c>
@@ -24204,11 +25343,11 @@
         <v>240</v>
       </c>
       <c r="L23" s="63" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" hidden="1" customHeight="1">
+    <row r="24" spans="2:13" ht="240.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="63">
         <v>17</v>
       </c>
@@ -24244,7 +25383,7 @@
       </c>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1">
+    <row r="25" spans="2:13" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="63">
         <v>18</v>
       </c>
@@ -24280,7 +25419,7 @@
       </c>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" ht="108" hidden="1">
+    <row r="26" spans="2:13" ht="104" x14ac:dyDescent="0.2">
       <c r="B26" s="63">
         <v>19</v>
       </c>
@@ -24294,7 +25433,7 @@
         <v>246</v>
       </c>
       <c r="F26" s="63" t="s">
-        <v>169</v>
+        <v>377</v>
       </c>
       <c r="G26" s="63"/>
       <c r="H26" s="63" t="s">
@@ -24309,10 +25448,12 @@
       <c r="K26" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="L26" s="75"/>
+      <c r="L26" s="75" t="s">
+        <v>373</v>
+      </c>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" ht="67.5" hidden="1">
+    <row r="27" spans="2:13" ht="65" x14ac:dyDescent="0.2">
       <c r="B27" s="63">
         <v>20</v>
       </c>
@@ -24348,7 +25489,7 @@
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" ht="256.5" hidden="1">
+    <row r="28" spans="2:13" ht="247" x14ac:dyDescent="0.2">
       <c r="B28" s="63">
         <v>21</v>
       </c>
@@ -24375,10 +25516,12 @@
       <c r="K28" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="L28" s="75"/>
+      <c r="L28" s="75" t="s">
+        <v>373</v>
+      </c>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" ht="67.5" hidden="1">
+    <row r="29" spans="2:13" ht="65" x14ac:dyDescent="0.2">
       <c r="B29" s="63">
         <v>22</v>
       </c>
@@ -24398,7 +25541,7 @@
         <v>43375</v>
       </c>
       <c r="H29" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>129</v>
@@ -24410,11 +25553,11 @@
         <v>252</v>
       </c>
       <c r="L29" s="63" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="30" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="63">
         <v>23</v>
       </c>
@@ -24450,7 +25593,7 @@
       </c>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="31" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="63">
         <v>24</v>
       </c>
@@ -24468,7 +25611,7 @@
       </c>
       <c r="G31" s="65"/>
       <c r="H31" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>128</v>
@@ -24484,7 +25627,7 @@
       </c>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" customHeight="1">
+    <row r="32" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="63">
         <v>25</v>
       </c>
@@ -24502,7 +25645,7 @@
       </c>
       <c r="G32" s="65"/>
       <c r="H32" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>128</v>
@@ -24514,11 +25657,11 @@
         <v>259</v>
       </c>
       <c r="L32" s="75" t="s">
-        <v>279</v>
+        <v>376</v>
       </c>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" ht="26" x14ac:dyDescent="0.2">
       <c r="B33" s="63">
         <v>26</v>
       </c>
@@ -24536,7 +25679,7 @@
       </c>
       <c r="G33" s="65"/>
       <c r="H33" s="63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>129</v>
@@ -24547,24 +25690,42 @@
       <c r="K33" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="L33" s="75"/>
+      <c r="L33" s="75" t="s">
+        <v>375</v>
+      </c>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1">
-      <c r="B34" s="63"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="63"/>
+    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="63">
+        <v>27</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="76">
+        <v>43379</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>377</v>
+      </c>
       <c r="G34" s="65"/>
       <c r="H34" s="63"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="77"/>
+      <c r="I34" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="J34" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="K34" s="77" t="s">
+        <v>380</v>
+      </c>
       <c r="L34" s="75"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="63"/>
       <c r="C35" s="21"/>
       <c r="D35" s="76"/>
@@ -24578,7 +25739,7 @@
       <c r="L35" s="75"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="63"/>
       <c r="C36" s="21"/>
       <c r="D36" s="76"/>
@@ -24592,7 +25753,7 @@
       <c r="L36" s="75"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" ht="121.5" customHeight="1">
+    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="63"/>
       <c r="C37" s="21"/>
       <c r="D37" s="76"/>
@@ -24606,7 +25767,7 @@
       <c r="L37" s="75"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="63"/>
       <c r="C38" s="21"/>
       <c r="D38" s="18"/>
@@ -24620,17 +25781,17 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>264</v>
       </c>
@@ -24638,7 +25799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>265</v>
       </c>
@@ -24646,7 +25807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>264</v>
       </c>
@@ -24654,7 +25815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>266</v>
       </c>
@@ -24662,7 +25823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:4">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>125</v>
       </c>
@@ -24671,10 +25832,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:4">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="3:4">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>267</v>
       </c>
@@ -24682,10 +25843,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="3:4">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="3:4">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>268</v>
       </c>
@@ -24694,7 +25855,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:4">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>269</v>
       </c>
@@ -24703,243 +25864,228 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:4">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D56" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:M33">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="B"/>
-        <filter val="C"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="対応中"/>
-        <filter val="保留"/>
-        <filter val="未着手"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B38:C38 B8:C28 E29:F30 E8:F27 E38:G38 E28 J8:M30 H8:I28 J38:M38">
-    <cfRule type="expression" dxfId="43" priority="49">
+  <conditionalFormatting sqref="B38:C38 B8:C28 E29:F30 E38:G38 E28 H8:I28 J38:M38 J8:M30 E8:F27">
+    <cfRule type="expression" dxfId="66" priority="49">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G28">
-    <cfRule type="expression" dxfId="42" priority="48">
+    <cfRule type="expression" dxfId="65" priority="48">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="64" priority="47">
       <formula>$F38="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="40" priority="46">
+    <cfRule type="expression" dxfId="63" priority="46">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="39" priority="45">
+    <cfRule type="expression" dxfId="62" priority="45">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="61" priority="38">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="37" priority="44">
+    <cfRule type="expression" dxfId="60" priority="44">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="36" priority="42">
+    <cfRule type="expression" dxfId="59" priority="42">
       <formula>$F28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="35" priority="41">
+    <cfRule type="expression" dxfId="58" priority="41">
       <formula>$F38="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="34" priority="40">
+    <cfRule type="expression" dxfId="57" priority="40">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="56" priority="39">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="32" priority="37">
+    <cfRule type="expression" dxfId="55" priority="37">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="31" priority="36">
+    <cfRule type="expression" dxfId="54" priority="36">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="53" priority="35">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D30 D38">
-    <cfRule type="expression" dxfId="29" priority="34">
+    <cfRule type="expression" dxfId="52" priority="34">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31 J31:M31">
-    <cfRule type="expression" dxfId="28" priority="33">
+    <cfRule type="expression" dxfId="51" priority="33">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="50" priority="32">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="26" priority="31">
+    <cfRule type="expression" dxfId="49" priority="31">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B37">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="48" priority="26">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="47" priority="29">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="23" priority="28">
+    <cfRule type="expression" dxfId="46" priority="28">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:F37 J34:M37 L33:M33">
-    <cfRule type="expression" dxfId="22" priority="27">
+    <cfRule type="expression" dxfId="45" priority="27">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G37">
-    <cfRule type="expression" dxfId="21" priority="25">
+    <cfRule type="expression" dxfId="44" priority="25">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:H37">
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="43" priority="24">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:I37">
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="42" priority="23">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C37">
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="41" priority="22">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D37">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="40" priority="21">
       <formula>$F34="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="39" priority="20">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:F32 J32:K32 M32">
-    <cfRule type="expression" dxfId="15" priority="19">
+    <cfRule type="expression" dxfId="38" priority="19">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="37" priority="18">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="36" priority="17">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="35" priority="13">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="34" priority="15">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="33" priority="14">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:F33 J33:K33">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="31" priority="11">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="30" priority="8">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>$F33="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24948,15 +26094,15 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>E8:E38 G38:H38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
-            <xm:f>WBS_value!$B$4:$B$10</xm:f>
+            <xm:f>WBS_value!$B$4:$B$11</xm:f>
           </x14:formula1>
           <xm:sqref>F8:F38</xm:sqref>
         </x14:dataValidation>
@@ -24967,293 +26113,293 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="B2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="B3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="B7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="B8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="B9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" t="s">
         <v>281</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>282</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="B12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="B13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="B14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>287</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>288</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>290</v>
+      </c>
+      <c r="E22" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="B17" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>289</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E24" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="B18" t="s">
-        <v>290</v>
-      </c>
-      <c r="F18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="F19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="F20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>291</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E25" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="B23" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>289</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E27" t="s">
         <v>289</v>
       </c>
-      <c r="F23" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" t="s">
-        <v>290</v>
-      </c>
-      <c r="E24" t="s">
-        <v>290</v>
-      </c>
-      <c r="F24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" t="s">
-        <v>292</v>
-      </c>
-      <c r="E25" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" t="s">
-        <v>289</v>
-      </c>
-      <c r="E26" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" t="s">
-        <v>290</v>
-      </c>
-      <c r="E27" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1">
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="80">
         <v>43331</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="B31" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="B32" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>316</v>
+      </c>
+ 